--- a/DSCQS/DSCQS実験結果.xlsx
+++ b/DSCQS/DSCQS実験結果.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\ドキュメント\Labo\LocalRipository\DSCQS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitRipository\DSCQS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D991DDE6-54C6-46C9-AE90-31D1A7069A60}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10665" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10665" windowHeight="11295"/>
   </bookViews>
   <sheets>
     <sheet name="Q1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -164,10 +163,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0.000_ "/>
     <numFmt numFmtId="177" formatCode="0.000000_ "/>
+    <numFmt numFmtId="178" formatCode="0.00000000000_ "/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -756,7 +756,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -976,6 +976,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -988,17 +1000,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1018,7 +1021,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
   <c:roundedCorners val="0"/>
@@ -1064,7 +1067,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-951B-43CE-A103-E5B402B4D559}"/>
               </c:ext>
@@ -1083,7 +1086,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000003-951B-43CE-A103-E5B402B4D559}"/>
               </c:ext>
@@ -1102,7 +1105,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000005-951B-43CE-A103-E5B402B4D559}"/>
               </c:ext>
@@ -1121,7 +1124,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000007-951B-43CE-A103-E5B402B4D559}"/>
               </c:ext>
@@ -1140,7 +1143,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000009-951B-43CE-A103-E5B402B4D559}"/>
               </c:ext>
@@ -1157,34 +1160,34 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="10"/>
                   <c:pt idx="0">
-                    <c:v>12.5</c:v>
+                    <c:v>11.180339887498949</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>12.5</c:v>
+                    <c:v>11.180339887498949</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0</c:v>
+                    <c:v>11.180339887498949</c:v>
                   </c:pt>
                   <c:pt idx="3">
                     <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>14.433756729740644</c:v>
+                    <c:v>20.91650066335189</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>23.935677693908453</c:v>
+                    <c:v>25</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>23.935677693908453</c:v>
+                    <c:v>28.504385627478449</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>31.457643480294792</c:v>
+                    <c:v>27.386127875258307</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>20.155644370746373</c:v>
+                    <c:v>22.064498753952194</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>19.297560294849017</c:v>
+                    <c:v>18.136906252750293</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1196,34 +1199,34 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="10"/>
                   <c:pt idx="0">
-                    <c:v>12.5</c:v>
+                    <c:v>11.180339887498949</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>12.5</c:v>
+                    <c:v>11.180339887498949</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0</c:v>
+                    <c:v>11.180339887498949</c:v>
                   </c:pt>
                   <c:pt idx="3">
                     <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>14.433756729740644</c:v>
+                    <c:v>20.91650066335189</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>23.935677693908453</c:v>
+                    <c:v>25</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>23.935677693908453</c:v>
+                    <c:v>28.504385627478449</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>31.457643480294792</c:v>
+                    <c:v>27.386127875258307</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>20.155644370746373</c:v>
+                    <c:v>22.064498753952194</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>19.297560294849017</c:v>
+                    <c:v>18.136906252750293</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1306,39 +1309,39 @@
                 <c:formatCode>0.000_ </c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>31.25</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>81.25</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>25</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>62.5</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>68.75</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43.75</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>68.75</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>40.625</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>73.4375</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000A-951B-43CE-A103-E5B402B4D559}"/>
             </c:ext>
@@ -1354,11 +1357,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="601011840"/>
-        <c:axId val="601012624"/>
+        <c:axId val="548564904"/>
+        <c:axId val="548563336"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="601011840"/>
+        <c:axId val="548564904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1401,7 +1404,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="601012624"/>
+        <c:crossAx val="548563336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1409,7 +1412,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="601012624"/>
+        <c:axId val="548563336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="110"/>
@@ -1461,7 +1464,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="601011840"/>
+        <c:crossAx val="548564904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10"/>
@@ -1512,7 +1515,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
   <c:roundedCorners val="0"/>
@@ -1558,7 +1561,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-ED1C-416F-9864-3E6D78318547}"/>
               </c:ext>
@@ -1577,7 +1580,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000003-ED1C-416F-9864-3E6D78318547}"/>
               </c:ext>
@@ -1596,7 +1599,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000005-ED1C-416F-9864-3E6D78318547}"/>
               </c:ext>
@@ -1615,7 +1618,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000007-ED1C-416F-9864-3E6D78318547}"/>
               </c:ext>
@@ -1634,7 +1637,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000009-ED1C-416F-9864-3E6D78318547}"/>
               </c:ext>
@@ -1651,34 +1654,34 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="10"/>
                   <c:pt idx="0">
+                    <c:v>27.386127875258307</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>20.91650066335189</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>20.91650066335189</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>11.180339887498949</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>22.360679774997898</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>20.91650066335189</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
                     <c:v>25</c:v>
                   </c:pt>
-                  <c:pt idx="1">
-                    <c:v>14.433756729740644</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>14.433756729740644</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>12.5</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>23.935677693908453</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>20.412414523193153</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>23.935677693908453</c:v>
-                  </c:pt>
                   <c:pt idx="7">
-                    <c:v>12.5</c:v>
+                    <c:v>13.693063937629153</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>22.12653007891959</c:v>
+                    <c:v>22.941573387056174</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>18.257418583505537</c:v>
+                    <c:v>17.954621161490195</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1690,34 +1693,34 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="10"/>
                   <c:pt idx="0">
+                    <c:v>27.386127875258307</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>20.91650066335189</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>20.91650066335189</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>11.180339887498949</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>22.360679774997898</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>20.91650066335189</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
                     <c:v>25</c:v>
                   </c:pt>
-                  <c:pt idx="1">
-                    <c:v>14.433756729740644</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>14.433756729740644</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>12.5</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>23.935677693908453</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>20.412414523193153</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>23.935677693908453</c:v>
-                  </c:pt>
                   <c:pt idx="7">
-                    <c:v>12.5</c:v>
+                    <c:v>13.693063937629153</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>22.12653007891959</c:v>
+                    <c:v>22.941573387056174</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>18.257418583505537</c:v>
+                    <c:v>17.954621161490195</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1800,39 +1803,39 @@
                 <c:formatCode>0.000_ </c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>37.5</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>87.5</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>37.5</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>81.25</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>56.25</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>75</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>56.25</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>56.25</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>46.875</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>75</c:v>
+                  <c:v>72.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000A-ED1C-416F-9864-3E6D78318547}"/>
             </c:ext>
@@ -1848,11 +1851,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="592969032"/>
-        <c:axId val="592964328"/>
+        <c:axId val="548565296"/>
+        <c:axId val="548564120"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="592969032"/>
+        <c:axId val="548565296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1895,7 +1898,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="592964328"/>
+        <c:crossAx val="548564120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1903,7 +1906,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="592964328"/>
+        <c:axId val="548564120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="110"/>
@@ -1955,7 +1958,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="592969032"/>
+        <c:crossAx val="548565296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10"/>
@@ -2006,7 +2009,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
   <c:roundedCorners val="0"/>
@@ -2054,7 +2057,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-5C83-4666-92F3-F2925D279CD1}"/>
               </c:ext>
@@ -2073,7 +2076,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000003-5C83-4666-92F3-F2925D279CD1}"/>
               </c:ext>
@@ -2092,7 +2095,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000005-5C83-4666-92F3-F2925D279CD1}"/>
               </c:ext>
@@ -2111,7 +2114,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000007-5C83-4666-92F3-F2925D279CD1}"/>
               </c:ext>
@@ -2130,7 +2133,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000009-5C83-4666-92F3-F2925D279CD1}"/>
               </c:ext>
@@ -2147,34 +2150,34 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="10"/>
                   <c:pt idx="0">
-                    <c:v>12.5</c:v>
+                    <c:v>17.677669529663689</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0</c:v>
+                    <c:v>11.180339887498949</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>12.5</c:v>
+                    <c:v>17.677669529663689</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>14.433756729740644</c:v>
+                    <c:v>13.693063937629153</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>12.5</c:v>
+                    <c:v>13.693063937629153</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>23.935677693908453</c:v>
+                    <c:v>22.360679774997898</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>12.5</c:v>
+                    <c:v>13.693063937629153</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>31.457643480294792</c:v>
+                    <c:v>30.618621784789728</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>15.811388300841896</c:v>
+                    <c:v>17.15831852883149</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>20.412414523193153</c:v>
+                    <c:v>20.639448687047413</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2186,34 +2189,34 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="10"/>
                   <c:pt idx="0">
-                    <c:v>12.5</c:v>
+                    <c:v>17.677669529663689</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0</c:v>
+                    <c:v>11.180339887498949</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>12.5</c:v>
+                    <c:v>17.677669529663689</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>14.433756729740644</c:v>
+                    <c:v>13.693063937629153</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>12.5</c:v>
+                    <c:v>13.693063937629153</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>23.935677693908453</c:v>
+                    <c:v>22.360679774997898</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>12.5</c:v>
+                    <c:v>13.693063937629153</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>31.457643480294792</c:v>
+                    <c:v>30.618621784789728</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>15.811388300841896</c:v>
+                    <c:v>17.15831852883149</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>20.412414523193153</c:v>
+                    <c:v>20.639448687047413</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2296,39 +2299,39 @@
                 <c:formatCode>0.000_ </c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>43.75</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>75</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>43.75</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>87.5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>68.75</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>68.75</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>43.75</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>68.75</c:v>
-                </c:pt>
                 <c:pt idx="8">
-                  <c:v>50</c:v>
+                  <c:v>51.25</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>75</c:v>
+                  <c:v>73.75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000A-5C83-4666-92F3-F2925D279CD1}"/>
             </c:ext>
@@ -2344,11 +2347,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="451009552"/>
-        <c:axId val="451010728"/>
+        <c:axId val="546637136"/>
+        <c:axId val="546636744"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="451009552"/>
+        <c:axId val="546637136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2391,7 +2394,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="451010728"/>
+        <c:crossAx val="546636744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2399,7 +2402,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="451010728"/>
+        <c:axId val="546636744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="110"/>
@@ -2451,7 +2454,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="451009552"/>
+        <c:crossAx val="546637136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10"/>
@@ -4150,7 +4153,7 @@
         <xdr:cNvPr id="8" name="グラフ 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4186,7 +4189,7 @@
         <xdr:cNvPr id="9" name="グラフ 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4222,7 +4225,7 @@
         <xdr:cNvPr id="10" name="グラフ 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4505,18 +4508,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AI61"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AI65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G49" sqref="G49"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="X32" sqref="X32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9.75" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="5" width="7.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="7.5" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.75" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7.75" bestFit="1" customWidth="1"/>
@@ -4537,16 +4540,16 @@
   <sheetData>
     <row r="1" spans="1:35" s="3" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="67"/>
-      <c r="B1" s="75" t="s">
+      <c r="B1" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
       <c r="J1" s="56"/>
       <c r="K1" s="57"/>
       <c r="M1" s="22"/>
@@ -4578,68 +4581,68 @@
     </row>
     <row r="2" spans="1:35" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="23"/>
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74" t="s">
+      <c r="C2" s="78"/>
+      <c r="D2" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74" t="s">
+      <c r="E2" s="78"/>
+      <c r="F2" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74" t="s">
+      <c r="G2" s="78"/>
+      <c r="H2" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="74"/>
-      <c r="J2" s="77" t="s">
+      <c r="I2" s="78"/>
+      <c r="J2" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="78"/>
+      <c r="K2" s="75"/>
       <c r="M2" s="23"/>
-      <c r="N2" s="79" t="s">
+      <c r="N2" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="O2" s="78"/>
-      <c r="P2" s="79" t="s">
+      <c r="O2" s="75"/>
+      <c r="P2" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="78"/>
-      <c r="R2" s="79" t="s">
+      <c r="Q2" s="75"/>
+      <c r="R2" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="S2" s="78"/>
-      <c r="T2" s="79" t="s">
+      <c r="S2" s="75"/>
+      <c r="T2" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="U2" s="78"/>
-      <c r="V2" s="79" t="s">
+      <c r="U2" s="75"/>
+      <c r="V2" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="W2" s="78"/>
+      <c r="W2" s="75"/>
       <c r="Y2" s="23"/>
-      <c r="Z2" s="79" t="s">
+      <c r="Z2" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="AA2" s="78"/>
-      <c r="AB2" s="79" t="s">
+      <c r="AA2" s="75"/>
+      <c r="AB2" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="AC2" s="78"/>
-      <c r="AD2" s="79" t="s">
+      <c r="AC2" s="75"/>
+      <c r="AD2" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="AE2" s="78"/>
-      <c r="AF2" s="79" t="s">
+      <c r="AE2" s="75"/>
+      <c r="AF2" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="AG2" s="78"/>
-      <c r="AH2" s="79" t="s">
+      <c r="AG2" s="75"/>
+      <c r="AH2" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="AI2" s="78"/>
+      <c r="AI2" s="75"/>
     </row>
     <row r="3" spans="1:35" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="35" t="s">
@@ -5102,40 +5105,88 @@
       <c r="A8" s="24">
         <v>5</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
+      <c r="B8" s="9">
+        <v>25</v>
+      </c>
+      <c r="C8" s="36">
+        <v>75</v>
+      </c>
+      <c r="D8" s="36">
+        <v>0</v>
+      </c>
+      <c r="E8" s="36">
+        <v>75</v>
+      </c>
+      <c r="F8" s="36">
+        <v>25</v>
+      </c>
+      <c r="G8" s="36">
+        <v>100</v>
+      </c>
+      <c r="H8" s="36">
+        <v>0</v>
+      </c>
+      <c r="I8" s="36">
+        <v>75</v>
+      </c>
       <c r="J8" s="39"/>
       <c r="K8" s="48"/>
       <c r="M8" s="24">
         <v>5</v>
       </c>
-      <c r="N8" s="9"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="5"/>
-      <c r="T8" s="9"/>
-      <c r="U8" s="5"/>
+      <c r="N8" s="9">
+        <v>75</v>
+      </c>
+      <c r="O8" s="11">
+        <v>50</v>
+      </c>
+      <c r="P8" s="4">
+        <v>75</v>
+      </c>
+      <c r="Q8" s="5">
+        <v>75</v>
+      </c>
+      <c r="R8" s="4">
+        <v>75</v>
+      </c>
+      <c r="S8" s="5">
+        <v>50</v>
+      </c>
+      <c r="T8" s="9">
+        <v>25</v>
+      </c>
+      <c r="U8" s="5">
+        <v>75</v>
+      </c>
       <c r="V8" s="39"/>
       <c r="W8" s="48"/>
       <c r="Y8" s="24">
         <v>5</v>
       </c>
-      <c r="Z8" s="9"/>
-      <c r="AA8" s="11"/>
-      <c r="AB8" s="4"/>
-      <c r="AC8" s="5"/>
-      <c r="AD8" s="4"/>
-      <c r="AE8" s="5"/>
-      <c r="AF8" s="9"/>
-      <c r="AG8" s="5"/>
+      <c r="Z8" s="9">
+        <v>75</v>
+      </c>
+      <c r="AA8" s="11">
+        <v>50</v>
+      </c>
+      <c r="AB8" s="4">
+        <v>75</v>
+      </c>
+      <c r="AC8" s="5">
+        <v>75</v>
+      </c>
+      <c r="AD8" s="4">
+        <v>50</v>
+      </c>
+      <c r="AE8" s="4">
+        <v>50</v>
+      </c>
+      <c r="AF8" s="9">
+        <v>25</v>
+      </c>
+      <c r="AG8" s="5">
+        <v>100</v>
+      </c>
       <c r="AH8" s="39"/>
       <c r="AI8" s="48"/>
     </row>
@@ -5590,15 +5641,15 @@
       </c>
       <c r="B20" s="21">
         <f>AVERAGE(B4:B18)</f>
-        <v>31.25</v>
+        <v>30</v>
       </c>
       <c r="C20" s="43">
         <f t="shared" ref="C20:I20" si="0">AVERAGE(C4:C18)</f>
-        <v>81.25</v>
+        <v>80</v>
       </c>
       <c r="D20" s="43">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E20" s="43">
         <f t="shared" si="0"/>
@@ -5606,113 +5657,113 @@
       </c>
       <c r="F20" s="43">
         <f t="shared" si="0"/>
-        <v>62.5</v>
+        <v>55</v>
       </c>
       <c r="G20" s="43">
         <f>AVERAGE(G4:G18)</f>
-        <v>68.75</v>
+        <v>75</v>
       </c>
       <c r="H20" s="43">
         <f t="shared" si="0"/>
-        <v>43.75</v>
+        <v>35</v>
       </c>
       <c r="I20" s="43">
         <f t="shared" si="0"/>
-        <v>68.75</v>
+        <v>70</v>
       </c>
       <c r="J20" s="43">
         <f>AVERAGE(B20,D20, F20, H20)</f>
-        <v>40.625</v>
+        <v>35</v>
       </c>
       <c r="K20" s="6">
         <f>AVERAGE(C20, E20, G20, I20)</f>
-        <v>73.4375</v>
+        <v>75</v>
       </c>
       <c r="M20" s="27" t="s">
         <v>10</v>
       </c>
       <c r="N20" s="29">
         <f t="shared" ref="N20:U20" si="1">AVERAGE(N4:N18)</f>
-        <v>37.5</v>
+        <v>45</v>
       </c>
       <c r="O20" s="6">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>80</v>
       </c>
       <c r="P20" s="29">
         <f t="shared" si="1"/>
-        <v>37.5</v>
+        <v>45</v>
       </c>
       <c r="Q20" s="6">
         <f t="shared" si="1"/>
-        <v>81.25</v>
+        <v>80</v>
       </c>
       <c r="R20" s="21">
         <f t="shared" si="1"/>
-        <v>56.25</v>
+        <v>60</v>
       </c>
       <c r="S20" s="28">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="T20" s="29">
         <f t="shared" si="1"/>
-        <v>56.25</v>
+        <v>50</v>
       </c>
       <c r="U20" s="6">
         <f t="shared" si="1"/>
-        <v>56.25</v>
+        <v>60</v>
       </c>
       <c r="V20" s="29">
         <f>AVERAGE(N20,P20, R20, T20)</f>
-        <v>46.875</v>
+        <v>50</v>
       </c>
       <c r="W20" s="6">
         <f>AVERAGE(O20, Q20, S20, U20)</f>
-        <v>75</v>
+        <v>72.5</v>
       </c>
       <c r="Y20" s="27" t="s">
         <v>10</v>
       </c>
       <c r="Z20" s="29">
         <f t="shared" ref="Z20:AG20" si="2">AVERAGE(Z4:Z18)</f>
-        <v>43.75</v>
+        <v>50</v>
       </c>
       <c r="AA20" s="6">
         <f t="shared" si="2"/>
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AB20" s="29">
         <f t="shared" si="2"/>
-        <v>43.75</v>
+        <v>50</v>
       </c>
       <c r="AC20" s="6">
         <f t="shared" si="2"/>
-        <v>87.5</v>
+        <v>85</v>
       </c>
       <c r="AD20" s="21">
         <f t="shared" si="2"/>
-        <v>68.75</v>
+        <v>65</v>
       </c>
       <c r="AE20" s="28">
         <f t="shared" si="2"/>
-        <v>68.75</v>
+        <v>65</v>
       </c>
       <c r="AF20" s="29">
         <f t="shared" si="2"/>
-        <v>43.75</v>
+        <v>40</v>
       </c>
       <c r="AG20" s="6">
         <f t="shared" si="2"/>
-        <v>68.75</v>
+        <v>75</v>
       </c>
       <c r="AH20" s="29">
         <f>AVERAGE(Z20,AB20, AD20, AF20)</f>
-        <v>50</v>
+        <v>51.25</v>
       </c>
       <c r="AI20" s="6">
         <f>AVERAGE(AA20, AC20, AE20, AG20)</f>
-        <v>75</v>
+        <v>73.75</v>
       </c>
     </row>
     <row r="21" spans="1:35" s="2" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -5721,15 +5772,15 @@
       </c>
       <c r="B21" s="53">
         <f>_xlfn.STDEV.S(B4:B18)</f>
-        <v>12.5</v>
+        <v>11.180339887498949</v>
       </c>
       <c r="C21" s="49">
         <f t="shared" ref="C21:I21" si="3">_xlfn.STDEV.S(C4:C18)</f>
-        <v>12.5</v>
+        <v>11.180339887498949</v>
       </c>
       <c r="D21" s="49">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>11.180339887498949</v>
       </c>
       <c r="E21" s="49">
         <f t="shared" si="3"/>
@@ -5737,113 +5788,113 @@
       </c>
       <c r="F21" s="49">
         <f t="shared" si="3"/>
-        <v>14.433756729740644</v>
+        <v>20.91650066335189</v>
       </c>
       <c r="G21" s="49">
         <f t="shared" si="3"/>
-        <v>23.935677693908453</v>
+        <v>25</v>
       </c>
       <c r="H21" s="49">
         <f t="shared" si="3"/>
-        <v>23.935677693908453</v>
+        <v>28.504385627478449</v>
       </c>
       <c r="I21" s="49">
         <f t="shared" si="3"/>
-        <v>31.457643480294792</v>
+        <v>27.386127875258307</v>
       </c>
       <c r="J21" s="49">
         <f>_xlfn.STDEV.S(B4:B18,D4:D18,F4:F18,H4:H18)</f>
-        <v>20.155644370746373</v>
+        <v>22.064498753952194</v>
       </c>
       <c r="K21" s="50">
         <f>_xlfn.STDEV.S(C4:C18,E4:E18,G4:G18,I4:I18)</f>
-        <v>19.297560294849017</v>
+        <v>18.136906252750293</v>
       </c>
       <c r="M21" s="55" t="s">
         <v>11</v>
       </c>
       <c r="N21" s="51">
         <f t="shared" ref="N21:U21" si="4">_xlfn.STDEV.S(N4:N18)</f>
-        <v>25</v>
+        <v>27.386127875258307</v>
       </c>
       <c r="O21" s="52">
         <f t="shared" si="4"/>
-        <v>14.433756729740644</v>
+        <v>20.91650066335189</v>
       </c>
       <c r="P21" s="51">
         <f t="shared" si="4"/>
-        <v>14.433756729740644</v>
+        <v>20.91650066335189</v>
       </c>
       <c r="Q21" s="52">
         <f t="shared" si="4"/>
-        <v>12.5</v>
+        <v>11.180339887498949</v>
       </c>
       <c r="R21" s="53">
         <f t="shared" si="4"/>
-        <v>23.935677693908453</v>
+        <v>22.360679774997898</v>
       </c>
       <c r="S21" s="54">
         <f t="shared" si="4"/>
-        <v>20.412414523193153</v>
+        <v>20.91650066335189</v>
       </c>
       <c r="T21" s="51">
         <f t="shared" si="4"/>
-        <v>23.935677693908453</v>
+        <v>25</v>
       </c>
       <c r="U21" s="52">
         <f t="shared" si="4"/>
-        <v>12.5</v>
+        <v>13.693063937629153</v>
       </c>
       <c r="V21" s="51">
         <f>_xlfn.STDEV.S(N4:N18,P4:P18,R4:R18,T4:T18)</f>
-        <v>22.12653007891959</v>
+        <v>22.941573387056174</v>
       </c>
       <c r="W21" s="50">
         <f>_xlfn.STDEV.S(O4:O18,Q4:Q18,S4:S18,U4:U18)</f>
-        <v>18.257418583505537</v>
+        <v>17.954621161490195</v>
       </c>
       <c r="Y21" s="55" t="s">
         <v>11</v>
       </c>
       <c r="Z21" s="51">
         <f t="shared" ref="Z21:AG21" si="5">_xlfn.STDEV.S(Z4:Z18)</f>
-        <v>12.5</v>
+        <v>17.677669529663689</v>
       </c>
       <c r="AA21" s="52">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>11.180339887498949</v>
       </c>
       <c r="AB21" s="51">
         <f t="shared" si="5"/>
-        <v>12.5</v>
+        <v>17.677669529663689</v>
       </c>
       <c r="AC21" s="52">
         <f t="shared" si="5"/>
-        <v>14.433756729740644</v>
+        <v>13.693063937629153</v>
       </c>
       <c r="AD21" s="53">
         <f t="shared" si="5"/>
-        <v>12.5</v>
+        <v>13.693063937629153</v>
       </c>
       <c r="AE21" s="54">
         <f t="shared" si="5"/>
-        <v>23.935677693908453</v>
+        <v>22.360679774997898</v>
       </c>
       <c r="AF21" s="51">
         <f t="shared" si="5"/>
-        <v>12.5</v>
+        <v>13.693063937629153</v>
       </c>
       <c r="AG21" s="52">
         <f t="shared" si="5"/>
-        <v>31.457643480294792</v>
+        <v>30.618621784789728</v>
       </c>
       <c r="AH21" s="51">
         <f>_xlfn.STDEV.S(Z4:Z18,AB4:AB18,AD4:AD18,AF4:AF18)</f>
-        <v>15.811388300841896</v>
+        <v>17.15831852883149</v>
       </c>
       <c r="AI21" s="50">
         <f>_xlfn.STDEV.S(AA4:AA18,AC4:AC18,AE4:AE18,AG4:AG18)</f>
-        <v>20.412414523193153</v>
+        <v>20.639448687047413</v>
       </c>
     </row>
     <row r="22" spans="1:35" x14ac:dyDescent="0.15">
@@ -5946,14 +5997,14 @@
       <c r="C48" s="36">
         <v>100</v>
       </c>
-      <c r="E48" s="72"/>
-      <c r="F48" s="72" t="s">
+      <c r="E48"/>
+      <c r="F48" t="s">
         <v>16</v>
       </c>
-      <c r="G48" s="72" t="s">
+      <c r="G48" t="s">
         <v>17</v>
       </c>
-      <c r="I48" s="80"/>
+      <c r="I48" s="73"/>
       <c r="N48" s="9">
         <v>25</v>
       </c>
@@ -5989,14 +6040,14 @@
       <c r="C49" s="36">
         <v>75</v>
       </c>
-      <c r="E49" s="70" t="s">
+      <c r="E49" t="s">
         <v>18</v>
       </c>
-      <c r="F49" s="70">
-        <v>40.625</v>
-      </c>
-      <c r="G49" s="70">
-        <v>73.4375</v>
+      <c r="F49">
+        <v>35</v>
+      </c>
+      <c r="G49">
+        <v>75</v>
       </c>
       <c r="N49" s="9">
         <v>75</v>
@@ -6008,10 +6059,10 @@
         <v>18</v>
       </c>
       <c r="R49" s="70">
-        <v>46.875</v>
+        <v>50</v>
       </c>
       <c r="S49" s="70">
-        <v>75</v>
+        <v>72.5</v>
       </c>
       <c r="Z49" s="9">
         <v>50</v>
@@ -6023,10 +6074,10 @@
         <v>18</v>
       </c>
       <c r="AD49" s="70">
-        <v>50</v>
+        <v>51.25</v>
       </c>
       <c r="AE49" s="70">
-        <v>75</v>
+        <v>73.75</v>
       </c>
     </row>
     <row r="50" spans="1:31" x14ac:dyDescent="0.15">
@@ -6037,14 +6088,14 @@
       <c r="C50" s="65">
         <v>75</v>
       </c>
-      <c r="E50" s="70" t="s">
+      <c r="E50" t="s">
         <v>19</v>
       </c>
-      <c r="F50" s="70">
-        <v>406.25</v>
-      </c>
-      <c r="G50" s="70">
-        <v>372.39583333333331</v>
+      <c r="F50">
+        <v>486.84210526315792</v>
+      </c>
+      <c r="G50">
+        <v>328.94736842105266</v>
       </c>
       <c r="N50" s="34">
         <v>50</v>
@@ -6056,10 +6107,10 @@
         <v>19</v>
       </c>
       <c r="R50" s="70">
-        <v>489.58333333333331</v>
+        <v>526.31578947368416</v>
       </c>
       <c r="S50" s="70">
-        <v>333.33333333333331</v>
+        <v>322.36842105263156</v>
       </c>
       <c r="Z50" s="34">
         <v>50</v>
@@ -6071,10 +6122,10 @@
         <v>19</v>
       </c>
       <c r="AD50" s="70">
-        <v>250</v>
+        <v>294.40789473684208</v>
       </c>
       <c r="AE50" s="70">
-        <v>416.66666666666669</v>
+        <v>425.98684210526318</v>
       </c>
     </row>
     <row r="51" spans="1:31" x14ac:dyDescent="0.15">
@@ -6085,14 +6136,14 @@
       <c r="C51" s="36">
         <v>75</v>
       </c>
-      <c r="E51" s="70" t="s">
+      <c r="E51" t="s">
         <v>20</v>
       </c>
-      <c r="F51" s="70">
-        <v>16</v>
-      </c>
-      <c r="G51" s="70">
-        <v>16</v>
+      <c r="F51">
+        <v>20</v>
+      </c>
+      <c r="G51">
+        <v>20</v>
       </c>
       <c r="N51" s="4">
         <v>25</v>
@@ -6104,10 +6155,10 @@
         <v>20</v>
       </c>
       <c r="R51" s="70">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="S51" s="70">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="Z51" s="4">
         <v>25</v>
@@ -6119,10 +6170,10 @@
         <v>20</v>
       </c>
       <c r="AD51" s="70">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AE51" s="70">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" spans="1:31" x14ac:dyDescent="0.15">
@@ -6133,13 +6184,13 @@
       <c r="C52" s="36">
         <v>75</v>
       </c>
-      <c r="E52" s="70" t="s">
+      <c r="E52" t="s">
         <v>21</v>
       </c>
-      <c r="F52" s="70">
+      <c r="F52">
         <v>0</v>
       </c>
-      <c r="G52" s="70"/>
+      <c r="G52"/>
       <c r="N52" s="4">
         <v>50</v>
       </c>
@@ -6175,13 +6226,13 @@
       <c r="C53" s="36">
         <v>75</v>
       </c>
-      <c r="E53" s="70" t="s">
+      <c r="E53" t="s">
         <v>22</v>
       </c>
-      <c r="F53" s="70">
-        <v>30</v>
-      </c>
-      <c r="G53" s="70"/>
+      <c r="F53">
+        <v>37</v>
+      </c>
+      <c r="G53"/>
       <c r="N53" s="4">
         <v>25</v>
       </c>
@@ -6192,7 +6243,7 @@
         <v>22</v>
       </c>
       <c r="R53" s="70">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="S53" s="70"/>
       <c r="Z53" s="4">
@@ -6205,7 +6256,7 @@
         <v>22</v>
       </c>
       <c r="AD53" s="70">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="AE53" s="70"/>
     </row>
@@ -6217,13 +6268,13 @@
       <c r="C54" s="65">
         <v>100</v>
       </c>
-      <c r="E54" s="70" t="s">
+      <c r="E54" t="s">
         <v>23</v>
       </c>
-      <c r="F54" s="70">
-        <v>-4.7035886107734797</v>
-      </c>
-      <c r="G54" s="70"/>
+      <c r="F54">
+        <v>-6.2630508900705006</v>
+      </c>
+      <c r="G54"/>
       <c r="N54" s="34">
         <v>75</v>
       </c>
@@ -6234,7 +6285,7 @@
         <v>23</v>
       </c>
       <c r="R54" s="70">
-        <v>-3.9217020329753556</v>
+        <v>-3.4540168728799712</v>
       </c>
       <c r="S54" s="70"/>
       <c r="Z54" s="34">
@@ -6247,7 +6298,7 @@
         <v>23</v>
       </c>
       <c r="AD54" s="70">
-        <v>-3.8729833462074166</v>
+        <v>-3.7489724619618037</v>
       </c>
       <c r="AE54" s="70"/>
     </row>
@@ -6259,13 +6310,13 @@
       <c r="C55" s="36">
         <v>50</v>
       </c>
-      <c r="E55" s="70" t="s">
+      <c r="E55" t="s">
         <v>24</v>
       </c>
-      <c r="F55" s="70">
-        <v>2.68685921463242E-5</v>
-      </c>
-      <c r="G55" s="70"/>
+      <c r="F55" s="81">
+        <v>1.38363870992863E-7</v>
+      </c>
+      <c r="G55"/>
       <c r="N55" s="4">
         <v>75</v>
       </c>
@@ -6276,7 +6327,7 @@
         <v>24</v>
       </c>
       <c r="R55" s="70">
-        <v>2.4731831453768594E-4</v>
+        <v>7.1546820233728736E-4</v>
       </c>
       <c r="S55" s="70"/>
       <c r="Z55" s="4">
@@ -6289,7 +6340,7 @@
         <v>24</v>
       </c>
       <c r="AD55" s="70">
-        <v>2.9504649178929893E-4</v>
+        <v>3.0295359655090412E-4</v>
       </c>
       <c r="AE55" s="70"/>
     </row>
@@ -6301,13 +6352,13 @@
       <c r="C56" s="36">
         <v>50</v>
       </c>
-      <c r="E56" s="70" t="s">
+      <c r="E56" t="s">
         <v>25</v>
       </c>
-      <c r="F56" s="70">
-        <v>1.6972608865939587</v>
-      </c>
-      <c r="G56" s="70"/>
+      <c r="F56">
+        <v>1.6870936195962629</v>
+      </c>
+      <c r="G56"/>
       <c r="N56" s="4">
         <v>25</v>
       </c>
@@ -6318,7 +6369,7 @@
         <v>25</v>
       </c>
       <c r="R56" s="70">
-        <v>1.6991270265334986</v>
+        <v>1.6882977141168172</v>
       </c>
       <c r="S56" s="70"/>
       <c r="Z56" s="4">
@@ -6331,7 +6382,7 @@
         <v>25</v>
       </c>
       <c r="AD56" s="70">
-        <v>1.7011309342659326</v>
+        <v>1.6870936195962629</v>
       </c>
       <c r="AE56" s="70"/>
     </row>
@@ -6343,13 +6394,13 @@
       <c r="C57" s="36">
         <v>75</v>
       </c>
-      <c r="E57" s="70" t="s">
+      <c r="E57" t="s">
         <v>26</v>
       </c>
-      <c r="F57" s="70">
-        <v>5.3737184292648488E-5</v>
-      </c>
-      <c r="G57" s="70"/>
+      <c r="F57">
+        <v>2.7672774198572679E-7</v>
+      </c>
+      <c r="G57"/>
       <c r="N57" s="4">
         <v>50</v>
       </c>
@@ -6360,7 +6411,7 @@
         <v>26</v>
       </c>
       <c r="R57" s="70">
-        <v>4.9463662907537188E-4</v>
+        <v>1.4309364046745747E-3</v>
       </c>
       <c r="S57" s="70"/>
       <c r="Z57" s="4">
@@ -6373,7 +6424,7 @@
         <v>26</v>
       </c>
       <c r="AD57" s="70">
-        <v>5.9009298357859787E-4</v>
+        <v>6.0590719310180824E-4</v>
       </c>
       <c r="AE57" s="70"/>
     </row>
@@ -6385,13 +6436,13 @@
       <c r="C58" s="65">
         <v>75</v>
       </c>
-      <c r="E58" s="71" t="s">
+      <c r="E58" t="s">
         <v>27</v>
       </c>
-      <c r="F58" s="71">
-        <v>2.0422724563012378</v>
-      </c>
-      <c r="G58" s="71"/>
+      <c r="F58">
+        <v>2.026192463029111</v>
+      </c>
+      <c r="G58"/>
       <c r="N58" s="32">
         <v>25</v>
       </c>
@@ -6402,7 +6453,7 @@
         <v>27</v>
       </c>
       <c r="R58" s="71">
-        <v>2.0452296421327048</v>
+        <v>2.028094000980452</v>
       </c>
       <c r="S58" s="71"/>
       <c r="Z58" s="32">
@@ -6415,7 +6466,7 @@
         <v>27</v>
       </c>
       <c r="AD58" s="71">
-        <v>2.0484071417952445</v>
+        <v>2.026192463029111</v>
       </c>
       <c r="AE58" s="71"/>
     </row>
@@ -6480,8 +6531,93 @@
         <v>25</v>
       </c>
     </row>
+    <row r="62" spans="1:31" x14ac:dyDescent="0.15">
+      <c r="B62" s="9">
+        <v>25</v>
+      </c>
+      <c r="C62" s="36">
+        <v>75</v>
+      </c>
+      <c r="N62" s="9">
+        <v>75</v>
+      </c>
+      <c r="O62" s="11">
+        <v>50</v>
+      </c>
+      <c r="Z62" s="9">
+        <v>75</v>
+      </c>
+      <c r="AA62" s="11">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="63" spans="1:31" x14ac:dyDescent="0.15">
+      <c r="B63" s="36">
+        <v>0</v>
+      </c>
+      <c r="C63" s="36">
+        <v>75</v>
+      </c>
+      <c r="N63" s="4">
+        <v>75</v>
+      </c>
+      <c r="O63" s="5">
+        <v>75</v>
+      </c>
+      <c r="Z63" s="4">
+        <v>75</v>
+      </c>
+      <c r="AA63" s="5">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="64" spans="1:31" x14ac:dyDescent="0.15">
+      <c r="B64" s="36">
+        <v>25</v>
+      </c>
+      <c r="C64" s="36">
+        <v>100</v>
+      </c>
+      <c r="N64" s="4">
+        <v>75</v>
+      </c>
+      <c r="O64" s="5">
+        <v>50</v>
+      </c>
+      <c r="Z64" s="4">
+        <v>50</v>
+      </c>
+      <c r="AA64" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.15">
+      <c r="B65" s="36">
+        <v>0</v>
+      </c>
+      <c r="C65" s="36">
+        <v>75</v>
+      </c>
+      <c r="N65" s="9">
+        <v>25</v>
+      </c>
+      <c r="O65" s="5">
+        <v>75</v>
+      </c>
+      <c r="Z65" s="9">
+        <v>25</v>
+      </c>
+      <c r="AA65" s="5">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="B1:I1"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="T2:U2"/>
     <mergeCell ref="AH2:AI2"/>
@@ -6493,11 +6629,6 @@
     <mergeCell ref="V2:W2"/>
     <mergeCell ref="Z2:AA2"/>
     <mergeCell ref="AB2:AC2"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="B1:I1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DSCQS/DSCQS実験結果.xlsx
+++ b/DSCQS/DSCQS実験結果.xlsx
@@ -12,7 +12,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="10665" windowHeight="11295"/>
   </bookViews>
   <sheets>
-    <sheet name="Q1" sheetId="1" r:id="rId1"/>
+    <sheet name="各質問に対する結果" sheetId="1" r:id="rId1"/>
+    <sheet name="全画像の結果" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="30">
   <si>
     <t>被験者</t>
     <rPh sb="0" eb="3">
@@ -159,15 +160,22 @@
   <si>
     <t>t 境界値 両側</t>
   </si>
+  <si>
+    <t>Q2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Q1</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.000_ "/>
     <numFmt numFmtId="177" formatCode="0.000000_ "/>
-    <numFmt numFmtId="178" formatCode="0.00000000000_ "/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -756,7 +764,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -976,18 +984,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1000,8 +996,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1155,78 +1166,78 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>'Q1'!$B$21:$K$21</c:f>
+                <c:f>各質問に対する結果!$B$21:$K$21</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="10"/>
                   <c:pt idx="0">
-                    <c:v>11.180339887498949</c:v>
+                    <c:v>15.075567228888183</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>11.180339887498949</c:v>
+                    <c:v>12.613124477737815</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>11.180339887498949</c:v>
+                    <c:v>11.677484162422843</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0</c:v>
+                    <c:v>7.5377836144440913</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>20.91650066335189</c:v>
+                    <c:v>23.596995186213476</c:v>
                   </c:pt>
                   <c:pt idx="5">
+                    <c:v>20.780235364840834</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
                     <c:v>25</c:v>
                   </c:pt>
-                  <c:pt idx="6">
-                    <c:v>28.504385627478449</c:v>
-                  </c:pt>
                   <c:pt idx="7">
-                    <c:v>27.386127875258307</c:v>
+                    <c:v>21.846572437632574</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>22.064498753952194</c:v>
+                    <c:v>22.371018608300755</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>18.136906252750293</c:v>
+                    <c:v>17.049858486761838</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>'Q1'!$B$21:$K$21</c:f>
+                <c:f>各質問に対する結果!$B$21:$K$21</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="10"/>
                   <c:pt idx="0">
-                    <c:v>11.180339887498949</c:v>
+                    <c:v>15.075567228888183</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>11.180339887498949</c:v>
+                    <c:v>12.613124477737815</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>11.180339887498949</c:v>
+                    <c:v>11.677484162422843</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0</c:v>
+                    <c:v>7.5377836144440913</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>20.91650066335189</c:v>
+                    <c:v>23.596995186213476</c:v>
                   </c:pt>
                   <c:pt idx="5">
+                    <c:v>20.780235364840834</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
                     <c:v>25</c:v>
                   </c:pt>
-                  <c:pt idx="6">
-                    <c:v>28.504385627478449</c:v>
-                  </c:pt>
                   <c:pt idx="7">
-                    <c:v>27.386127875258307</c:v>
+                    <c:v>21.846572437632574</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>22.064498753952194</c:v>
+                    <c:v>22.371018608300755</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>18.136906252750293</c:v>
+                    <c:v>17.049858486761838</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1247,7 +1258,7 @@
           </c:errBars>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>'Q1'!$B$2:$K$3</c:f>
+              <c:f>各質問に対する結果!$B$2:$K$3</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="10"/>
                 <c:lvl>
@@ -1304,36 +1315,36 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Q1'!$B$20:$K$20</c:f>
+              <c:f>各質問に対する結果!$B$20:$K$20</c:f>
               <c:numCache>
                 <c:formatCode>0.000_ </c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>30</c:v>
+                  <c:v>20.454545454545453</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>80</c:v>
+                  <c:v>84.090909090909093</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20</c:v>
+                  <c:v>18.181818181818183</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>75</c:v>
+                  <c:v>72.727272727272734</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>55</c:v>
+                  <c:v>47.727272727272727</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>75</c:v>
+                  <c:v>72.727272727272734</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>35</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>70</c:v>
+                  <c:v>70.454545454545453</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>35</c:v>
+                  <c:v>27.840909090909093</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>75</c:v>
@@ -1357,11 +1368,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="548564904"/>
-        <c:axId val="548563336"/>
+        <c:axId val="542301528"/>
+        <c:axId val="542301920"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="548564904"/>
+        <c:axId val="542301528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1404,7 +1415,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="548563336"/>
+        <c:crossAx val="542301920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1412,7 +1423,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="548563336"/>
+        <c:axId val="542301920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="110"/>
@@ -1464,7 +1475,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="548564904"/>
+        <c:crossAx val="542301528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10"/>
@@ -1649,78 +1660,78 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>'Q1'!$N$21:$W$21</c:f>
+                <c:f>各質問に対する結果!$N$21:$W$21</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="10"/>
                   <c:pt idx="0">
-                    <c:v>27.386127875258307</c:v>
+                    <c:v>24.541245430351069</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>20.91650066335189</c:v>
+                    <c:v>16.854996561581046</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>20.91650066335189</c:v>
+                    <c:v>22.61335084333227</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>11.180339887498949</c:v>
+                    <c:v>18.768929838238705</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>22.360679774997898</c:v>
+                    <c:v>20.780235364840841</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>20.91650066335189</c:v>
+                    <c:v>16.854996561581046</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>25</c:v>
+                    <c:v>26.967994498529684</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>13.693063937629153</c:v>
+                    <c:v>26.967994498529684</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>22.941573387056174</c:v>
+                    <c:v>24.894067320103471</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>17.954621161490195</c:v>
+                    <c:v>22.311875031961353</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>'Q1'!$N$21:$W$21</c:f>
+                <c:f>各質問に対する結果!$N$21:$W$21</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="10"/>
                   <c:pt idx="0">
-                    <c:v>27.386127875258307</c:v>
+                    <c:v>24.541245430351069</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>20.91650066335189</c:v>
+                    <c:v>16.854996561581046</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>20.91650066335189</c:v>
+                    <c:v>22.61335084333227</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>11.180339887498949</c:v>
+                    <c:v>18.768929838238705</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>22.360679774997898</c:v>
+                    <c:v>20.780235364840841</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>20.91650066335189</c:v>
+                    <c:v>16.854996561581046</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>25</c:v>
+                    <c:v>26.967994498529684</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>13.693063937629153</c:v>
+                    <c:v>26.967994498529684</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>22.941573387056174</c:v>
+                    <c:v>24.894067320103471</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>17.954621161490195</c:v>
+                    <c:v>22.311875031961353</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1741,7 +1752,7 @@
           </c:errBars>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>'Q1'!$N$2:$W$3</c:f>
+              <c:f>各質問に対する結果!$N$2:$W$3</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="10"/>
                 <c:lvl>
@@ -1798,39 +1809,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Q1'!$N$20:$W$20</c:f>
+              <c:f>各質問に対する結果!$N$20:$W$20</c:f>
               <c:numCache>
                 <c:formatCode>0.000_ </c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>45</c:v>
+                  <c:v>29.545454545454547</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>80</c:v>
+                  <c:v>84.090909090909093</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45</c:v>
+                  <c:v>31.818181818181817</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>80</c:v>
+                  <c:v>70.454545454545453</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>60</c:v>
+                  <c:v>52.272727272727273</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>70</c:v>
+                  <c:v>65.909090909090907</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>50</c:v>
+                  <c:v>45.454545454545453</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>60</c:v>
+                  <c:v>54.545454545454547</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>50</c:v>
+                  <c:v>39.772727272727266</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>72.5</c:v>
+                  <c:v>68.75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1851,11 +1862,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="548565296"/>
-        <c:axId val="548564120"/>
+        <c:axId val="542302704"/>
+        <c:axId val="542303488"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="548565296"/>
+        <c:axId val="542302704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1898,7 +1909,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="548564120"/>
+        <c:crossAx val="542303488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1906,7 +1917,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="548564120"/>
+        <c:axId val="542303488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="110"/>
@@ -1958,7 +1969,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="548565296"/>
+        <c:crossAx val="542302704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10"/>
@@ -2145,78 +2156,78 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>'Q1'!$Z$21:$AI$21</c:f>
+                <c:f>各質問に対する結果!$Z$21:$AI$21</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="10"/>
                   <c:pt idx="0">
-                    <c:v>17.677669529663689</c:v>
+                    <c:v>25.226248955475651</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>11.180339887498949</c:v>
+                    <c:v>15.075567228888204</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>17.677669529663689</c:v>
+                    <c:v>20.50498830661811</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>13.693063937629153</c:v>
+                    <c:v>15.811388300841896</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>13.693063937629153</c:v>
+                    <c:v>19.656134827672403</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>22.360679774997898</c:v>
+                    <c:v>17.188791273808221</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>13.693063937629153</c:v>
+                    <c:v>28.001623329566257</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>30.618621784789728</c:v>
+                    <c:v>30.338993810845896</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>17.15831852883149</c:v>
+                    <c:v>24.674144867596649</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>20.639448687047413</c:v>
+                    <c:v>21.281300787628815</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>'Q1'!$Z$21:$AI$21</c:f>
+                <c:f>各質問に対する結果!$Z$21:$AI$21</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="10"/>
                   <c:pt idx="0">
-                    <c:v>17.677669529663689</c:v>
+                    <c:v>25.226248955475651</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>11.180339887498949</c:v>
+                    <c:v>15.075567228888204</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>17.677669529663689</c:v>
+                    <c:v>20.50498830661811</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>13.693063937629153</c:v>
+                    <c:v>15.811388300841896</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>13.693063937629153</c:v>
+                    <c:v>19.656134827672403</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>22.360679774997898</c:v>
+                    <c:v>17.188791273808221</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>13.693063937629153</c:v>
+                    <c:v>28.001623329566257</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>30.618621784789728</c:v>
+                    <c:v>30.338993810845896</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>17.15831852883149</c:v>
+                    <c:v>24.674144867596649</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>20.639448687047413</c:v>
+                    <c:v>21.281300787628815</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2237,7 +2248,7 @@
           </c:errBars>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>'Q1'!$Z$2:$AI$3</c:f>
+              <c:f>各質問に対する結果!$Z$2:$AI$3</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="10"/>
                 <c:lvl>
@@ -2294,39 +2305,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Q1'!$Z$20:$AI$20</c:f>
+              <c:f>各質問に対する結果!$Z$20:$AI$20</c:f>
               <c:numCache>
                 <c:formatCode>0.000_ </c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>50</c:v>
+                  <c:v>31.818181818181817</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>70</c:v>
+                  <c:v>79.545454545454547</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50</c:v>
+                  <c:v>36.363636363636367</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>85</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>65</c:v>
+                  <c:v>56.81818181818182</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>65</c:v>
+                  <c:v>63.636363636363633</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>40</c:v>
+                  <c:v>40.909090909090907</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>75</c:v>
+                  <c:v>61.363636363636367</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>51.25</c:v>
+                  <c:v>41.477272727272727</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>73.75</c:v>
+                  <c:v>69.88636363636364</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2347,11 +2358,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="546637136"/>
-        <c:axId val="546636744"/>
+        <c:axId val="540660376"/>
+        <c:axId val="540661552"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="546637136"/>
+        <c:axId val="540660376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2394,7 +2405,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="546636744"/>
+        <c:crossAx val="540661552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2402,7 +2413,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="546636744"/>
+        <c:axId val="540661552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="110"/>
@@ -2454,7 +2465,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="546637136"/>
+        <c:crossAx val="540660376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10"/>
@@ -2482,6 +2493,381 @@
           <a:lumOff val="85000"/>
         </a:schemeClr>
       </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>全画像の結果!$A$5:$F$5</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="6"/>
+                  <c:pt idx="0">
+                    <c:v>22.371018608300755</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>17.049858486761838</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>24.894067320103471</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>22.311875031961353</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>24.674144867596649</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>21.281300787628815</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>全画像の結果!$A$5:$F$5</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="6"/>
+                  <c:pt idx="0">
+                    <c:v>22.371018608300755</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>17.049858486761838</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>24.894067320103471</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>22.311875031961353</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>24.674144867596649</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>21.281300787628815</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>全画像の結果!$A$2:$F$3</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="6"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>A</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>B</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>A</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>B</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>A</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>B</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Q1</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Q2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Q3</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>全画像の結果!$A$4:$F$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.000_ </c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>27.840909090909093</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>39.772727272727266</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>68.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41.477272727272727</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>69.88636363636364</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="540658808"/>
+        <c:axId val="540649792"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="540658808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="540649792"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="540649792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0_ " sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="540658808"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -2624,6 +3010,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -3631,6 +4057,509 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4153,7 +5082,7 @@
         <xdr:cNvPr id="8" name="グラフ 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000008000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4189,7 +5118,7 @@
         <xdr:cNvPr id="9" name="グラフ 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000009000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4225,7 +5154,7 @@
         <xdr:cNvPr id="10" name="グラフ 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4238,6 +5167,41 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>14653</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>29307</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>91584</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="グラフ 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4509,10 +5473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI65"/>
+  <dimension ref="A1:AI89"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="X32" sqref="X32"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="X26" sqref="X26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4540,16 +5504,16 @@
   <sheetData>
     <row r="1" spans="1:35" s="3" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="67"/>
-      <c r="B1" s="79" t="s">
+      <c r="B1" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
       <c r="J1" s="56"/>
       <c r="K1" s="57"/>
       <c r="M1" s="22"/>
@@ -4581,68 +5545,68 @@
     </row>
     <row r="2" spans="1:35" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="23"/>
-      <c r="B2" s="77" t="s">
+      <c r="B2" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78" t="s">
+      <c r="C2" s="74"/>
+      <c r="D2" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78" t="s">
+      <c r="E2" s="74"/>
+      <c r="F2" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="78"/>
-      <c r="H2" s="78" t="s">
+      <c r="G2" s="74"/>
+      <c r="H2" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="78"/>
-      <c r="J2" s="74" t="s">
+      <c r="I2" s="74"/>
+      <c r="J2" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="75"/>
+      <c r="K2" s="78"/>
       <c r="M2" s="23"/>
-      <c r="N2" s="76" t="s">
+      <c r="N2" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="O2" s="75"/>
-      <c r="P2" s="76" t="s">
+      <c r="O2" s="78"/>
+      <c r="P2" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="75"/>
-      <c r="R2" s="76" t="s">
+      <c r="Q2" s="78"/>
+      <c r="R2" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="S2" s="75"/>
-      <c r="T2" s="76" t="s">
+      <c r="S2" s="78"/>
+      <c r="T2" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="U2" s="75"/>
-      <c r="V2" s="76" t="s">
+      <c r="U2" s="78"/>
+      <c r="V2" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="W2" s="75"/>
+      <c r="W2" s="78"/>
       <c r="Y2" s="23"/>
-      <c r="Z2" s="76" t="s">
+      <c r="Z2" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="AA2" s="75"/>
-      <c r="AB2" s="76" t="s">
+      <c r="AA2" s="78"/>
+      <c r="AB2" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="AC2" s="75"/>
-      <c r="AD2" s="76" t="s">
+      <c r="AC2" s="78"/>
+      <c r="AD2" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="AE2" s="75"/>
-      <c r="AF2" s="76" t="s">
+      <c r="AE2" s="78"/>
+      <c r="AF2" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="AG2" s="75"/>
-      <c r="AH2" s="76" t="s">
+      <c r="AG2" s="78"/>
+      <c r="AH2" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="AI2" s="75"/>
+      <c r="AI2" s="78"/>
     </row>
     <row r="3" spans="1:35" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="35" t="s">
@@ -5194,40 +6158,88 @@
       <c r="A9" s="24">
         <v>6</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="36"/>
+      <c r="B9" s="9">
+        <v>0</v>
+      </c>
+      <c r="C9" s="36">
+        <v>100</v>
+      </c>
+      <c r="D9" s="36">
+        <v>25</v>
+      </c>
+      <c r="E9" s="36">
+        <v>75</v>
+      </c>
+      <c r="F9" s="36">
+        <v>25</v>
+      </c>
+      <c r="G9" s="36">
+        <v>75</v>
+      </c>
+      <c r="H9" s="36">
+        <v>50</v>
+      </c>
+      <c r="I9" s="36">
+        <v>50</v>
+      </c>
       <c r="J9" s="39"/>
       <c r="K9" s="48"/>
       <c r="M9" s="24">
         <v>6</v>
       </c>
-      <c r="N9" s="9"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="4"/>
-      <c r="S9" s="5"/>
-      <c r="T9" s="9"/>
-      <c r="U9" s="5"/>
+      <c r="N9" s="9">
+        <v>25</v>
+      </c>
+      <c r="O9" s="11">
+        <v>75</v>
+      </c>
+      <c r="P9" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="5">
+        <v>100</v>
+      </c>
+      <c r="R9" s="4">
+        <v>50</v>
+      </c>
+      <c r="S9" s="5">
+        <v>50</v>
+      </c>
+      <c r="T9" s="9">
+        <v>100</v>
+      </c>
+      <c r="U9" s="5">
+        <v>0</v>
+      </c>
       <c r="V9" s="39"/>
       <c r="W9" s="48"/>
       <c r="Y9" s="24">
         <v>6</v>
       </c>
-      <c r="Z9" s="9"/>
-      <c r="AA9" s="11"/>
-      <c r="AB9" s="4"/>
-      <c r="AC9" s="5"/>
-      <c r="AD9" s="4"/>
-      <c r="AE9" s="5"/>
-      <c r="AF9" s="9"/>
-      <c r="AG9" s="5"/>
+      <c r="Z9" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="11">
+        <v>100</v>
+      </c>
+      <c r="AB9" s="4">
+        <v>25</v>
+      </c>
+      <c r="AC9" s="5">
+        <v>75</v>
+      </c>
+      <c r="AD9" s="4">
+        <v>25</v>
+      </c>
+      <c r="AE9" s="5">
+        <v>75</v>
+      </c>
+      <c r="AF9" s="9">
+        <v>100</v>
+      </c>
+      <c r="AG9" s="5">
+        <v>0</v>
+      </c>
       <c r="AH9" s="39"/>
       <c r="AI9" s="48"/>
     </row>
@@ -5235,40 +6247,88 @@
       <c r="A10" s="24">
         <v>7</v>
       </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="36"/>
+      <c r="B10" s="9">
+        <v>25</v>
+      </c>
+      <c r="C10" s="36">
+        <v>100</v>
+      </c>
+      <c r="D10" s="36">
+        <v>0</v>
+      </c>
+      <c r="E10" s="36">
+        <v>75</v>
+      </c>
+      <c r="F10" s="36">
+        <v>75</v>
+      </c>
+      <c r="G10" s="36">
+        <v>100</v>
+      </c>
+      <c r="H10" s="36">
+        <v>0</v>
+      </c>
+      <c r="I10" s="36">
+        <v>100</v>
+      </c>
       <c r="J10" s="39"/>
       <c r="K10" s="48"/>
       <c r="M10" s="24">
         <v>7</v>
       </c>
-      <c r="N10" s="9"/>
-      <c r="O10" s="11"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="4"/>
-      <c r="S10" s="5"/>
-      <c r="T10" s="9"/>
-      <c r="U10" s="5"/>
+      <c r="N10" s="9">
+        <v>25</v>
+      </c>
+      <c r="O10" s="11">
+        <v>100</v>
+      </c>
+      <c r="P10" s="4">
+        <v>25</v>
+      </c>
+      <c r="Q10" s="5">
+        <v>75</v>
+      </c>
+      <c r="R10" s="4">
+        <v>75</v>
+      </c>
+      <c r="S10" s="5">
+        <v>50</v>
+      </c>
+      <c r="T10" s="9">
+        <v>25</v>
+      </c>
+      <c r="U10" s="5">
+        <v>100</v>
+      </c>
       <c r="V10" s="39"/>
       <c r="W10" s="48"/>
       <c r="Y10" s="24">
         <v>7</v>
       </c>
-      <c r="Z10" s="9"/>
-      <c r="AA10" s="11"/>
-      <c r="AB10" s="4"/>
-      <c r="AC10" s="5"/>
-      <c r="AD10" s="4"/>
-      <c r="AE10" s="5"/>
-      <c r="AF10" s="9"/>
-      <c r="AG10" s="5"/>
+      <c r="Z10" s="9">
+        <v>25</v>
+      </c>
+      <c r="AA10" s="11">
+        <v>100</v>
+      </c>
+      <c r="AB10" s="4">
+        <v>25</v>
+      </c>
+      <c r="AC10" s="5">
+        <v>75</v>
+      </c>
+      <c r="AD10" s="4">
+        <v>75</v>
+      </c>
+      <c r="AE10" s="5">
+        <v>50</v>
+      </c>
+      <c r="AF10" s="9">
+        <v>25</v>
+      </c>
+      <c r="AG10" s="5">
+        <v>75</v>
+      </c>
       <c r="AH10" s="39"/>
       <c r="AI10" s="48"/>
     </row>
@@ -5276,40 +6336,88 @@
       <c r="A11" s="24">
         <v>8</v>
       </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="36"/>
+      <c r="B11" s="9">
+        <v>0</v>
+      </c>
+      <c r="C11" s="36">
+        <v>75</v>
+      </c>
+      <c r="D11" s="36">
+        <v>25</v>
+      </c>
+      <c r="E11" s="36">
+        <v>75</v>
+      </c>
+      <c r="F11" s="36">
+        <v>25</v>
+      </c>
+      <c r="G11" s="36">
+        <v>75</v>
+      </c>
+      <c r="H11" s="36">
+        <v>25</v>
+      </c>
+      <c r="I11" s="36">
+        <v>75</v>
+      </c>
       <c r="J11" s="39"/>
       <c r="K11" s="48"/>
       <c r="M11" s="24">
         <v>8</v>
       </c>
-      <c r="N11" s="9"/>
-      <c r="O11" s="11"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="4"/>
-      <c r="S11" s="5"/>
-      <c r="T11" s="9"/>
-      <c r="U11" s="5"/>
+      <c r="N11" s="9">
+        <v>0</v>
+      </c>
+      <c r="O11" s="11">
+        <v>75</v>
+      </c>
+      <c r="P11" s="4">
+        <v>50</v>
+      </c>
+      <c r="Q11" s="5">
+        <v>50</v>
+      </c>
+      <c r="R11" s="4">
+        <v>50</v>
+      </c>
+      <c r="S11" s="5">
+        <v>75</v>
+      </c>
+      <c r="T11" s="9">
+        <v>50</v>
+      </c>
+      <c r="U11" s="5">
+        <v>50</v>
+      </c>
       <c r="V11" s="39"/>
       <c r="W11" s="48"/>
       <c r="Y11" s="24">
         <v>8</v>
       </c>
-      <c r="Z11" s="9"/>
-      <c r="AA11" s="11"/>
-      <c r="AB11" s="4"/>
-      <c r="AC11" s="5"/>
-      <c r="AD11" s="4"/>
-      <c r="AE11" s="5"/>
-      <c r="AF11" s="9"/>
-      <c r="AG11" s="5"/>
+      <c r="Z11" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="11">
+        <v>75</v>
+      </c>
+      <c r="AB11" s="4">
+        <v>50</v>
+      </c>
+      <c r="AC11" s="5">
+        <v>50</v>
+      </c>
+      <c r="AD11" s="4">
+        <v>50</v>
+      </c>
+      <c r="AE11" s="5">
+        <v>50</v>
+      </c>
+      <c r="AF11" s="9">
+        <v>75</v>
+      </c>
+      <c r="AG11" s="5">
+        <v>50</v>
+      </c>
       <c r="AH11" s="39"/>
       <c r="AI11" s="48"/>
     </row>
@@ -5317,40 +6425,88 @@
       <c r="A12" s="24">
         <v>9</v>
       </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="36"/>
+      <c r="B12" s="9">
+        <v>25</v>
+      </c>
+      <c r="C12" s="36">
+        <v>75</v>
+      </c>
+      <c r="D12" s="36">
+        <v>25</v>
+      </c>
+      <c r="E12" s="36">
+        <v>75</v>
+      </c>
+      <c r="F12" s="36">
+        <v>25</v>
+      </c>
+      <c r="G12" s="36">
+        <v>50</v>
+      </c>
+      <c r="H12" s="36">
+        <v>0</v>
+      </c>
+      <c r="I12" s="36">
+        <v>75</v>
+      </c>
       <c r="J12" s="39"/>
       <c r="K12" s="48"/>
       <c r="M12" s="24">
         <v>9</v>
       </c>
-      <c r="N12" s="9"/>
-      <c r="O12" s="11"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="4"/>
-      <c r="S12" s="5"/>
-      <c r="T12" s="9"/>
-      <c r="U12" s="5"/>
+      <c r="N12" s="9">
+        <v>25</v>
+      </c>
+      <c r="O12" s="11">
+        <v>100</v>
+      </c>
+      <c r="P12" s="4">
+        <v>25</v>
+      </c>
+      <c r="Q12" s="5">
+        <v>50</v>
+      </c>
+      <c r="R12" s="4">
+        <v>25</v>
+      </c>
+      <c r="S12" s="5">
+        <v>75</v>
+      </c>
+      <c r="T12" s="9">
+        <v>25</v>
+      </c>
+      <c r="U12" s="5">
+        <v>75</v>
+      </c>
       <c r="V12" s="39"/>
       <c r="W12" s="48"/>
       <c r="Y12" s="24">
         <v>9</v>
       </c>
-      <c r="Z12" s="9"/>
-      <c r="AA12" s="11"/>
-      <c r="AB12" s="4"/>
-      <c r="AC12" s="5"/>
-      <c r="AD12" s="4"/>
-      <c r="AE12" s="5"/>
-      <c r="AF12" s="9"/>
-      <c r="AG12" s="5"/>
+      <c r="Z12" s="9">
+        <v>25</v>
+      </c>
+      <c r="AA12" s="11">
+        <v>100</v>
+      </c>
+      <c r="AB12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="5">
+        <v>75</v>
+      </c>
+      <c r="AD12" s="4">
+        <v>25</v>
+      </c>
+      <c r="AE12" s="5">
+        <v>50</v>
+      </c>
+      <c r="AF12" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="5">
+        <v>50</v>
+      </c>
       <c r="AH12" s="39"/>
       <c r="AI12" s="48"/>
     </row>
@@ -5358,40 +6514,88 @@
       <c r="A13" s="24">
         <v>10</v>
       </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="36"/>
+      <c r="B13" s="9">
+        <v>0</v>
+      </c>
+      <c r="C13" s="36">
+        <v>100</v>
+      </c>
+      <c r="D13" s="36">
+        <v>0</v>
+      </c>
+      <c r="E13" s="36">
+        <v>75</v>
+      </c>
+      <c r="F13" s="36">
+        <v>25</v>
+      </c>
+      <c r="G13" s="36">
+        <v>50</v>
+      </c>
+      <c r="H13" s="36">
+        <v>0</v>
+      </c>
+      <c r="I13" s="36">
+        <v>50</v>
+      </c>
       <c r="J13" s="39"/>
       <c r="K13" s="48"/>
       <c r="M13" s="24">
         <v>10</v>
       </c>
-      <c r="N13" s="9"/>
-      <c r="O13" s="11"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="4"/>
-      <c r="S13" s="5"/>
-      <c r="T13" s="9"/>
-      <c r="U13" s="5"/>
+      <c r="N13" s="9">
+        <v>0</v>
+      </c>
+      <c r="O13" s="11">
+        <v>100</v>
+      </c>
+      <c r="P13" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="5">
+        <v>50</v>
+      </c>
+      <c r="R13" s="4">
+        <v>25</v>
+      </c>
+      <c r="S13" s="5">
+        <v>50</v>
+      </c>
+      <c r="T13" s="9">
+        <v>25</v>
+      </c>
+      <c r="U13" s="5">
+        <v>25</v>
+      </c>
       <c r="V13" s="39"/>
       <c r="W13" s="48"/>
       <c r="Y13" s="24">
         <v>10</v>
       </c>
-      <c r="Z13" s="9"/>
-      <c r="AA13" s="11"/>
-      <c r="AB13" s="4"/>
-      <c r="AC13" s="5"/>
-      <c r="AD13" s="4"/>
-      <c r="AE13" s="5"/>
-      <c r="AF13" s="9"/>
-      <c r="AG13" s="5"/>
+      <c r="Z13" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="11">
+        <v>75</v>
+      </c>
+      <c r="AB13" s="4">
+        <v>25</v>
+      </c>
+      <c r="AC13" s="5">
+        <v>75</v>
+      </c>
+      <c r="AD13" s="4">
+        <v>75</v>
+      </c>
+      <c r="AE13" s="5">
+        <v>75</v>
+      </c>
+      <c r="AF13" s="9">
+        <v>25</v>
+      </c>
+      <c r="AG13" s="5">
+        <v>75</v>
+      </c>
       <c r="AH13" s="39"/>
       <c r="AI13" s="48"/>
     </row>
@@ -5399,40 +6603,88 @@
       <c r="A14" s="24">
         <v>11</v>
       </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="36"/>
+      <c r="B14" s="9">
+        <v>25</v>
+      </c>
+      <c r="C14" s="36">
+        <v>75</v>
+      </c>
+      <c r="D14" s="36">
+        <v>25</v>
+      </c>
+      <c r="E14" s="36">
+        <v>50</v>
+      </c>
+      <c r="F14" s="36">
+        <v>75</v>
+      </c>
+      <c r="G14" s="36">
+        <v>75</v>
+      </c>
+      <c r="H14" s="36">
+        <v>25</v>
+      </c>
+      <c r="I14" s="36">
+        <v>75</v>
+      </c>
       <c r="J14" s="39"/>
       <c r="K14" s="48"/>
       <c r="M14" s="24">
         <v>11</v>
       </c>
-      <c r="N14" s="9"/>
-      <c r="O14" s="11"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="4"/>
-      <c r="S14" s="5"/>
-      <c r="T14" s="9"/>
-      <c r="U14" s="5"/>
+      <c r="N14" s="9">
+        <v>25</v>
+      </c>
+      <c r="O14" s="11">
+        <v>75</v>
+      </c>
+      <c r="P14" s="4">
+        <v>25</v>
+      </c>
+      <c r="Q14" s="5">
+        <v>50</v>
+      </c>
+      <c r="R14" s="4">
+        <v>50</v>
+      </c>
+      <c r="S14" s="5">
+        <v>75</v>
+      </c>
+      <c r="T14" s="9">
+        <v>25</v>
+      </c>
+      <c r="U14" s="5">
+        <v>50</v>
+      </c>
       <c r="V14" s="39"/>
       <c r="W14" s="48"/>
       <c r="Y14" s="24">
         <v>11</v>
       </c>
-      <c r="Z14" s="9"/>
-      <c r="AA14" s="11"/>
-      <c r="AB14" s="4"/>
-      <c r="AC14" s="5"/>
-      <c r="AD14" s="4"/>
-      <c r="AE14" s="5"/>
-      <c r="AF14" s="9"/>
-      <c r="AG14" s="5"/>
+      <c r="Z14" s="9">
+        <v>50</v>
+      </c>
+      <c r="AA14" s="11">
+        <v>75</v>
+      </c>
+      <c r="AB14" s="4">
+        <v>25</v>
+      </c>
+      <c r="AC14" s="5">
+        <v>50</v>
+      </c>
+      <c r="AD14" s="4">
+        <v>50</v>
+      </c>
+      <c r="AE14" s="5">
+        <v>75</v>
+      </c>
+      <c r="AF14" s="9">
+        <v>25</v>
+      </c>
+      <c r="AG14" s="5">
+        <v>50</v>
+      </c>
       <c r="AH14" s="39"/>
       <c r="AI14" s="48"/>
     </row>
@@ -5641,39 +6893,39 @@
       </c>
       <c r="B20" s="21">
         <f>AVERAGE(B4:B18)</f>
-        <v>30</v>
+        <v>20.454545454545453</v>
       </c>
       <c r="C20" s="43">
         <f t="shared" ref="C20:I20" si="0">AVERAGE(C4:C18)</f>
-        <v>80</v>
+        <v>84.090909090909093</v>
       </c>
       <c r="D20" s="43">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>18.181818181818183</v>
       </c>
       <c r="E20" s="43">
         <f t="shared" si="0"/>
-        <v>75</v>
+        <v>72.727272727272734</v>
       </c>
       <c r="F20" s="43">
         <f t="shared" si="0"/>
-        <v>55</v>
+        <v>47.727272727272727</v>
       </c>
       <c r="G20" s="43">
         <f>AVERAGE(G4:G18)</f>
-        <v>75</v>
+        <v>72.727272727272734</v>
       </c>
       <c r="H20" s="43">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="I20" s="43">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>70.454545454545453</v>
       </c>
       <c r="J20" s="43">
         <f>AVERAGE(B20,D20, F20, H20)</f>
-        <v>35</v>
+        <v>27.840909090909093</v>
       </c>
       <c r="K20" s="6">
         <f>AVERAGE(C20, E20, G20, I20)</f>
@@ -5684,86 +6936,86 @@
       </c>
       <c r="N20" s="29">
         <f t="shared" ref="N20:U20" si="1">AVERAGE(N4:N18)</f>
-        <v>45</v>
+        <v>29.545454545454547</v>
       </c>
       <c r="O20" s="6">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>84.090909090909093</v>
       </c>
       <c r="P20" s="29">
         <f t="shared" si="1"/>
-        <v>45</v>
+        <v>31.818181818181817</v>
       </c>
       <c r="Q20" s="6">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>70.454545454545453</v>
       </c>
       <c r="R20" s="21">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>52.272727272727273</v>
       </c>
       <c r="S20" s="28">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>65.909090909090907</v>
       </c>
       <c r="T20" s="29">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>45.454545454545453</v>
       </c>
       <c r="U20" s="6">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>54.545454545454547</v>
       </c>
       <c r="V20" s="29">
         <f>AVERAGE(N20,P20, R20, T20)</f>
-        <v>50</v>
+        <v>39.772727272727266</v>
       </c>
       <c r="W20" s="6">
         <f>AVERAGE(O20, Q20, S20, U20)</f>
-        <v>72.5</v>
+        <v>68.75</v>
       </c>
       <c r="Y20" s="27" t="s">
         <v>10</v>
       </c>
       <c r="Z20" s="29">
         <f t="shared" ref="Z20:AG20" si="2">AVERAGE(Z4:Z18)</f>
-        <v>50</v>
+        <v>31.818181818181817</v>
       </c>
       <c r="AA20" s="6">
         <f t="shared" si="2"/>
-        <v>70</v>
+        <v>79.545454545454547</v>
       </c>
       <c r="AB20" s="29">
         <f t="shared" si="2"/>
-        <v>50</v>
+        <v>36.363636363636367</v>
       </c>
       <c r="AC20" s="6">
         <f t="shared" si="2"/>
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AD20" s="21">
         <f t="shared" si="2"/>
-        <v>65</v>
+        <v>56.81818181818182</v>
       </c>
       <c r="AE20" s="28">
         <f t="shared" si="2"/>
-        <v>65</v>
+        <v>63.636363636363633</v>
       </c>
       <c r="AF20" s="29">
         <f t="shared" si="2"/>
-        <v>40</v>
+        <v>40.909090909090907</v>
       </c>
       <c r="AG20" s="6">
         <f t="shared" si="2"/>
-        <v>75</v>
+        <v>61.363636363636367</v>
       </c>
       <c r="AH20" s="29">
         <f>AVERAGE(Z20,AB20, AD20, AF20)</f>
-        <v>51.25</v>
+        <v>41.477272727272727</v>
       </c>
       <c r="AI20" s="6">
         <f>AVERAGE(AA20, AC20, AE20, AG20)</f>
-        <v>73.75</v>
+        <v>69.88636363636364</v>
       </c>
     </row>
     <row r="21" spans="1:35" s="2" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -5772,129 +7024,129 @@
       </c>
       <c r="B21" s="53">
         <f>_xlfn.STDEV.S(B4:B18)</f>
-        <v>11.180339887498949</v>
+        <v>15.075567228888183</v>
       </c>
       <c r="C21" s="49">
         <f t="shared" ref="C21:I21" si="3">_xlfn.STDEV.S(C4:C18)</f>
-        <v>11.180339887498949</v>
+        <v>12.613124477737815</v>
       </c>
       <c r="D21" s="49">
         <f t="shared" si="3"/>
-        <v>11.180339887498949</v>
+        <v>11.677484162422843</v>
       </c>
       <c r="E21" s="49">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>7.5377836144440913</v>
       </c>
       <c r="F21" s="49">
         <f t="shared" si="3"/>
-        <v>20.91650066335189</v>
+        <v>23.596995186213476</v>
       </c>
       <c r="G21" s="49">
         <f t="shared" si="3"/>
-        <v>25</v>
+        <v>20.780235364840834</v>
       </c>
       <c r="H21" s="49">
         <f t="shared" si="3"/>
-        <v>28.504385627478449</v>
+        <v>25</v>
       </c>
       <c r="I21" s="49">
         <f t="shared" si="3"/>
-        <v>27.386127875258307</v>
+        <v>21.846572437632574</v>
       </c>
       <c r="J21" s="49">
         <f>_xlfn.STDEV.S(B4:B18,D4:D18,F4:F18,H4:H18)</f>
-        <v>22.064498753952194</v>
+        <v>22.371018608300755</v>
       </c>
       <c r="K21" s="50">
         <f>_xlfn.STDEV.S(C4:C18,E4:E18,G4:G18,I4:I18)</f>
-        <v>18.136906252750293</v>
+        <v>17.049858486761838</v>
       </c>
       <c r="M21" s="55" t="s">
         <v>11</v>
       </c>
       <c r="N21" s="51">
         <f t="shared" ref="N21:U21" si="4">_xlfn.STDEV.S(N4:N18)</f>
-        <v>27.386127875258307</v>
+        <v>24.541245430351069</v>
       </c>
       <c r="O21" s="52">
         <f t="shared" si="4"/>
-        <v>20.91650066335189</v>
+        <v>16.854996561581046</v>
       </c>
       <c r="P21" s="51">
         <f t="shared" si="4"/>
-        <v>20.91650066335189</v>
+        <v>22.61335084333227</v>
       </c>
       <c r="Q21" s="52">
         <f t="shared" si="4"/>
-        <v>11.180339887498949</v>
+        <v>18.768929838238705</v>
       </c>
       <c r="R21" s="53">
         <f t="shared" si="4"/>
-        <v>22.360679774997898</v>
+        <v>20.780235364840841</v>
       </c>
       <c r="S21" s="54">
         <f t="shared" si="4"/>
-        <v>20.91650066335189</v>
+        <v>16.854996561581046</v>
       </c>
       <c r="T21" s="51">
         <f t="shared" si="4"/>
-        <v>25</v>
+        <v>26.967994498529684</v>
       </c>
       <c r="U21" s="52">
         <f t="shared" si="4"/>
-        <v>13.693063937629153</v>
+        <v>26.967994498529684</v>
       </c>
       <c r="V21" s="51">
         <f>_xlfn.STDEV.S(N4:N18,P4:P18,R4:R18,T4:T18)</f>
-        <v>22.941573387056174</v>
+        <v>24.894067320103471</v>
       </c>
       <c r="W21" s="50">
         <f>_xlfn.STDEV.S(O4:O18,Q4:Q18,S4:S18,U4:U18)</f>
-        <v>17.954621161490195</v>
+        <v>22.311875031961353</v>
       </c>
       <c r="Y21" s="55" t="s">
         <v>11</v>
       </c>
       <c r="Z21" s="51">
         <f t="shared" ref="Z21:AG21" si="5">_xlfn.STDEV.S(Z4:Z18)</f>
-        <v>17.677669529663689</v>
+        <v>25.226248955475651</v>
       </c>
       <c r="AA21" s="52">
         <f t="shared" si="5"/>
-        <v>11.180339887498949</v>
+        <v>15.075567228888204</v>
       </c>
       <c r="AB21" s="51">
         <f t="shared" si="5"/>
-        <v>17.677669529663689</v>
+        <v>20.50498830661811</v>
       </c>
       <c r="AC21" s="52">
         <f t="shared" si="5"/>
-        <v>13.693063937629153</v>
+        <v>15.811388300841896</v>
       </c>
       <c r="AD21" s="53">
         <f t="shared" si="5"/>
-        <v>13.693063937629153</v>
+        <v>19.656134827672403</v>
       </c>
       <c r="AE21" s="54">
         <f t="shared" si="5"/>
-        <v>22.360679774997898</v>
+        <v>17.188791273808221</v>
       </c>
       <c r="AF21" s="51">
         <f t="shared" si="5"/>
-        <v>13.693063937629153</v>
+        <v>28.001623329566257</v>
       </c>
       <c r="AG21" s="52">
         <f t="shared" si="5"/>
-        <v>30.618621784789728</v>
+        <v>30.338993810845896</v>
       </c>
       <c r="AH21" s="51">
         <f>_xlfn.STDEV.S(Z4:Z18,AB4:AB18,AD4:AD18,AF4:AF18)</f>
-        <v>17.15831852883149</v>
+        <v>24.674144867596649</v>
       </c>
       <c r="AI21" s="50">
         <f>_xlfn.STDEV.S(AA4:AA18,AC4:AC18,AE4:AE18,AG4:AG18)</f>
-        <v>20.639448687047413</v>
+        <v>21.281300787628815</v>
       </c>
     </row>
     <row r="22" spans="1:35" x14ac:dyDescent="0.15">
@@ -5933,97 +7185,205 @@
       <c r="E24" s="41"/>
       <c r="F24" s="41"/>
     </row>
-    <row r="46" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="A46"/>
-      <c r="B46" s="32">
-        <v>25</v>
-      </c>
-      <c r="C46" s="65">
-        <v>75</v>
-      </c>
-      <c r="E46" t="s">
+    <row r="32" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="X32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="A45" s="41"/>
+      <c r="B45" s="32">
+        <v>25</v>
+      </c>
+      <c r="C45" s="65">
+        <v>75</v>
+      </c>
+      <c r="D45" s="41"/>
+      <c r="E45" t="s">
         <v>15</v>
       </c>
+      <c r="F45"/>
+      <c r="G45"/>
+      <c r="H45" s="41"/>
+      <c r="I45" s="41"/>
+      <c r="J45" s="80"/>
+      <c r="K45" s="80"/>
+      <c r="L45" s="80"/>
+      <c r="M45" s="80"/>
+      <c r="N45" s="32">
+        <v>25</v>
+      </c>
+      <c r="O45" s="33">
+        <v>75</v>
+      </c>
+      <c r="P45" s="80"/>
+      <c r="Q45" t="s">
+        <v>15</v>
+      </c>
+      <c r="T45" s="80"/>
+      <c r="U45" s="80"/>
+      <c r="V45" s="80"/>
+      <c r="W45" s="80"/>
+      <c r="X45" s="80"/>
+      <c r="Y45" s="80"/>
+      <c r="Z45" s="80"/>
+      <c r="AA45" s="80"/>
+      <c r="AB45" s="80"/>
+      <c r="AC45" s="80"/>
+      <c r="AD45" s="80"/>
+      <c r="AE45" s="80"/>
+      <c r="AF45" s="80"/>
+      <c r="AG45" s="80"/>
+    </row>
+    <row r="46" spans="1:33" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="80"/>
+      <c r="B46" s="9">
+        <v>25</v>
+      </c>
+      <c r="C46" s="36">
+        <v>75</v>
+      </c>
+      <c r="D46" s="41"/>
+      <c r="E46"/>
       <c r="F46"/>
       <c r="G46"/>
-      <c r="N46" s="32">
-        <v>25</v>
-      </c>
-      <c r="O46" s="33">
-        <v>75</v>
-      </c>
-      <c r="Q46" t="s">
-        <v>15</v>
-      </c>
+      <c r="H46" s="41"/>
+      <c r="I46" s="41"/>
+      <c r="J46" s="80"/>
+      <c r="K46" s="80"/>
+      <c r="L46" s="80"/>
+      <c r="M46" s="80"/>
+      <c r="N46" s="9">
+        <v>25</v>
+      </c>
+      <c r="O46" s="11">
+        <v>75</v>
+      </c>
+      <c r="P46" s="80"/>
+      <c r="T46" s="80"/>
+      <c r="U46" s="80"/>
+      <c r="V46" s="80"/>
+      <c r="W46" s="80"/>
+      <c r="X46" s="80"/>
+      <c r="Y46" s="80"/>
       <c r="Z46" s="32">
         <v>50</v>
       </c>
       <c r="AA46" s="33">
         <v>75</v>
       </c>
+      <c r="AB46" s="80"/>
       <c r="AC46" t="s">
         <v>15</v>
       </c>
+      <c r="AF46" s="80"/>
+      <c r="AG46" s="80"/>
     </row>
-    <row r="47" spans="1:31" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A47"/>
+    <row r="47" spans="1:33" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="80"/>
       <c r="B47" s="9">
         <v>25</v>
       </c>
       <c r="C47" s="36">
-        <v>75</v>
-      </c>
-      <c r="E47"/>
-      <c r="F47"/>
-      <c r="G47"/>
+        <v>100</v>
+      </c>
+      <c r="D47" s="41"/>
+      <c r="E47" s="72"/>
+      <c r="F47" s="72" t="s">
+        <v>16</v>
+      </c>
+      <c r="G47" s="72" t="s">
+        <v>17</v>
+      </c>
+      <c r="H47" s="41"/>
+      <c r="I47" s="41"/>
+      <c r="J47" s="80"/>
+      <c r="K47" s="80"/>
+      <c r="L47" s="80"/>
+      <c r="M47" s="80"/>
       <c r="N47" s="9">
         <v>25</v>
       </c>
       <c r="O47" s="11">
-        <v>75</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="P47" s="80"/>
+      <c r="Q47" s="72"/>
+      <c r="R47" s="72" t="s">
+        <v>16</v>
+      </c>
+      <c r="S47" s="72" t="s">
+        <v>17</v>
+      </c>
+      <c r="T47" s="80"/>
+      <c r="U47" s="80"/>
+      <c r="V47" s="80"/>
+      <c r="W47" s="80"/>
+      <c r="X47" s="80"/>
+      <c r="Y47" s="80"/>
       <c r="Z47" s="9">
         <v>25</v>
       </c>
       <c r="AA47" s="11">
         <v>75</v>
       </c>
+      <c r="AB47" s="80"/>
+      <c r="AF47" s="80"/>
+      <c r="AG47" s="80"/>
     </row>
-    <row r="48" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="A48"/>
+    <row r="48" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="A48" s="80"/>
       <c r="B48" s="9">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="C48" s="36">
-        <v>100</v>
-      </c>
-      <c r="E48"/>
-      <c r="F48" t="s">
-        <v>16</v>
-      </c>
-      <c r="G48" t="s">
-        <v>17</v>
-      </c>
-      <c r="I48" s="73"/>
+        <v>75</v>
+      </c>
+      <c r="D48" s="41"/>
+      <c r="E48" s="70" t="s">
+        <v>18</v>
+      </c>
+      <c r="F48" s="70">
+        <v>27.84090909090909</v>
+      </c>
+      <c r="G48" s="70">
+        <v>75</v>
+      </c>
+      <c r="H48" s="41"/>
+      <c r="I48" s="81"/>
+      <c r="J48" s="80"/>
+      <c r="K48" s="80"/>
+      <c r="L48" s="80"/>
+      <c r="M48" s="80"/>
       <c r="N48" s="9">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="O48" s="11">
         <v>100</v>
       </c>
-      <c r="Q48" s="72"/>
-      <c r="R48" s="72" t="s">
-        <v>16</v>
-      </c>
-      <c r="S48" s="72" t="s">
-        <v>17</v>
-      </c>
+      <c r="P48" s="80"/>
+      <c r="Q48" s="70" t="s">
+        <v>18</v>
+      </c>
+      <c r="R48" s="70">
+        <v>39.772727272727273</v>
+      </c>
+      <c r="S48" s="70">
+        <v>68.75</v>
+      </c>
+      <c r="T48" s="80"/>
+      <c r="U48" s="80"/>
+      <c r="V48" s="80"/>
+      <c r="W48" s="80"/>
+      <c r="X48" s="80"/>
+      <c r="Y48" s="80"/>
       <c r="Z48" s="9">
         <v>50</v>
       </c>
       <c r="AA48" s="11">
         <v>75</v>
       </c>
+      <c r="AB48" s="80"/>
       <c r="AC48" s="72"/>
       <c r="AD48" s="72" t="s">
         <v>16</v>
@@ -6031,185 +7391,249 @@
       <c r="AE48" s="72" t="s">
         <v>17</v>
       </c>
+      <c r="AF48" s="80"/>
+      <c r="AG48" s="80"/>
     </row>
-    <row r="49" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="A49"/>
+    <row r="49" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="A49" s="80"/>
       <c r="B49" s="9">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="C49" s="36">
         <v>75</v>
       </c>
-      <c r="E49" t="s">
-        <v>18</v>
-      </c>
-      <c r="F49">
-        <v>35</v>
-      </c>
-      <c r="G49">
-        <v>75</v>
-      </c>
+      <c r="D49" s="41"/>
+      <c r="E49" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="F49" s="70">
+        <v>500.46247357293862</v>
+      </c>
+      <c r="G49" s="70">
+        <v>290.69767441860466</v>
+      </c>
+      <c r="H49" s="41"/>
+      <c r="I49" s="41"/>
+      <c r="J49" s="80"/>
+      <c r="K49" s="80"/>
+      <c r="L49" s="80"/>
+      <c r="M49" s="80"/>
       <c r="N49" s="9">
         <v>75</v>
       </c>
       <c r="O49" s="11">
-        <v>100</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="P49" s="80"/>
       <c r="Q49" s="70" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="R49" s="70">
-        <v>50</v>
+        <v>619.71458773784366</v>
       </c>
       <c r="S49" s="70">
-        <v>72.5</v>
-      </c>
+        <v>497.81976744186045</v>
+      </c>
+      <c r="T49" s="80"/>
+      <c r="U49" s="80"/>
+      <c r="V49" s="80"/>
+      <c r="W49" s="80"/>
+      <c r="X49" s="80"/>
+      <c r="Y49" s="80"/>
       <c r="Z49" s="9">
         <v>50</v>
       </c>
       <c r="AA49" s="11">
         <v>75</v>
       </c>
+      <c r="AB49" s="80"/>
       <c r="AC49" s="70" t="s">
         <v>18</v>
       </c>
       <c r="AD49" s="70">
-        <v>51.25</v>
+        <v>41.477272727272727</v>
       </c>
       <c r="AE49" s="70">
-        <v>73.75</v>
-      </c>
+        <v>69.88636363636364</v>
+      </c>
+      <c r="AF49" s="80"/>
+      <c r="AG49" s="80"/>
     </row>
-    <row r="50" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="A50"/>
-      <c r="B50" s="65">
-        <v>25</v>
-      </c>
-      <c r="C50" s="65">
-        <v>75</v>
-      </c>
-      <c r="E50" t="s">
-        <v>19</v>
-      </c>
-      <c r="F50">
-        <v>486.84210526315792</v>
-      </c>
-      <c r="G50">
-        <v>328.94736842105266</v>
-      </c>
-      <c r="N50" s="34">
-        <v>50</v>
-      </c>
-      <c r="O50" s="10">
-        <v>75</v>
-      </c>
+    <row r="50" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="A50" s="80"/>
+      <c r="B50" s="9">
+        <v>0</v>
+      </c>
+      <c r="C50" s="36">
+        <v>100</v>
+      </c>
+      <c r="D50" s="41"/>
+      <c r="E50" s="70" t="s">
+        <v>20</v>
+      </c>
+      <c r="F50" s="70">
+        <v>44</v>
+      </c>
+      <c r="G50" s="70">
+        <v>44</v>
+      </c>
+      <c r="H50" s="41"/>
+      <c r="I50" s="41"/>
+      <c r="J50" s="80"/>
+      <c r="K50" s="80"/>
+      <c r="L50" s="80"/>
+      <c r="M50" s="80"/>
+      <c r="N50" s="9">
+        <v>25</v>
+      </c>
+      <c r="O50" s="11">
+        <v>75</v>
+      </c>
+      <c r="P50" s="80"/>
       <c r="Q50" s="70" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="R50" s="70">
-        <v>526.31578947368416</v>
+        <v>44</v>
       </c>
       <c r="S50" s="70">
-        <v>322.36842105263156</v>
-      </c>
-      <c r="Z50" s="34">
-        <v>50</v>
-      </c>
-      <c r="AA50" s="10">
-        <v>100</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="T50" s="80"/>
+      <c r="U50" s="80"/>
+      <c r="V50" s="80"/>
+      <c r="W50" s="80"/>
+      <c r="X50" s="80"/>
+      <c r="Y50" s="80"/>
+      <c r="Z50" s="9">
+        <v>75</v>
+      </c>
+      <c r="AA50" s="11">
+        <v>50</v>
+      </c>
+      <c r="AB50" s="80"/>
       <c r="AC50" s="70" t="s">
         <v>19</v>
       </c>
       <c r="AD50" s="70">
-        <v>294.40789473684208</v>
+        <v>608.81342494714602</v>
       </c>
       <c r="AE50" s="70">
-        <v>425.98684210526318</v>
-      </c>
+        <v>452.8937632135308</v>
+      </c>
+      <c r="AF50" s="80"/>
+      <c r="AG50" s="80"/>
     </row>
-    <row r="51" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="A51"/>
-      <c r="B51" s="36">
+    <row r="51" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="A51" s="80"/>
+      <c r="B51" s="9">
         <v>25</v>
       </c>
       <c r="C51" s="36">
-        <v>75</v>
-      </c>
-      <c r="E51" t="s">
-        <v>20</v>
-      </c>
-      <c r="F51">
-        <v>20</v>
-      </c>
-      <c r="G51">
-        <v>20</v>
-      </c>
-      <c r="N51" s="4">
-        <v>25</v>
-      </c>
-      <c r="O51" s="5">
-        <v>75</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="D51" s="41"/>
+      <c r="E51" s="70" t="s">
+        <v>21</v>
+      </c>
+      <c r="F51" s="70">
+        <v>0</v>
+      </c>
+      <c r="G51" s="70"/>
+      <c r="H51" s="41"/>
+      <c r="I51" s="41"/>
+      <c r="J51" s="80"/>
+      <c r="K51" s="80"/>
+      <c r="L51" s="80"/>
+      <c r="M51" s="80"/>
+      <c r="N51" s="9">
+        <v>25</v>
+      </c>
+      <c r="O51" s="11">
+        <v>100</v>
+      </c>
+      <c r="P51" s="80"/>
       <c r="Q51" s="70" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R51" s="70">
-        <v>20</v>
-      </c>
-      <c r="S51" s="70">
-        <v>20</v>
-      </c>
-      <c r="Z51" s="4">
-        <v>25</v>
-      </c>
-      <c r="AA51" s="5">
-        <v>75</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="S51" s="70"/>
+      <c r="T51" s="80"/>
+      <c r="U51" s="80"/>
+      <c r="V51" s="80"/>
+      <c r="W51" s="80"/>
+      <c r="X51" s="80"/>
+      <c r="Y51" s="80"/>
+      <c r="Z51" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="11">
+        <v>100</v>
+      </c>
+      <c r="AB51" s="80"/>
       <c r="AC51" s="70" t="s">
         <v>20</v>
       </c>
       <c r="AD51" s="70">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="AE51" s="70">
-        <v>20</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="AF51" s="80"/>
+      <c r="AG51" s="80"/>
     </row>
-    <row r="52" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="A52"/>
-      <c r="B52" s="36">
-        <v>25</v>
+    <row r="52" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="A52" s="80"/>
+      <c r="B52" s="9">
+        <v>0</v>
       </c>
       <c r="C52" s="36">
         <v>75</v>
       </c>
-      <c r="E52" t="s">
-        <v>21</v>
-      </c>
-      <c r="F52">
+      <c r="D52" s="41"/>
+      <c r="E52" s="70" t="s">
+        <v>22</v>
+      </c>
+      <c r="F52" s="70">
+        <v>80</v>
+      </c>
+      <c r="G52" s="70"/>
+      <c r="H52" s="41"/>
+      <c r="I52" s="41"/>
+      <c r="J52" s="80"/>
+      <c r="K52" s="80"/>
+      <c r="L52" s="80"/>
+      <c r="M52" s="80"/>
+      <c r="N52" s="9">
         <v>0</v>
       </c>
-      <c r="G52"/>
-      <c r="N52" s="4">
-        <v>50</v>
-      </c>
-      <c r="O52" s="5">
+      <c r="O52" s="11">
+        <v>75</v>
+      </c>
+      <c r="P52" s="80"/>
+      <c r="Q52" s="70" t="s">
+        <v>22</v>
+      </c>
+      <c r="R52" s="70">
+        <v>85</v>
+      </c>
+      <c r="S52" s="70"/>
+      <c r="T52" s="80"/>
+      <c r="U52" s="80"/>
+      <c r="V52" s="80"/>
+      <c r="W52" s="80"/>
+      <c r="X52" s="80"/>
+      <c r="Y52" s="80"/>
+      <c r="Z52" s="9">
+        <v>25</v>
+      </c>
+      <c r="AA52" s="11">
         <v>100</v>
       </c>
-      <c r="Q52" s="70" t="s">
-        <v>21</v>
-      </c>
-      <c r="R52" s="70">
-        <v>0</v>
-      </c>
-      <c r="S52" s="70"/>
-      <c r="Z52" s="4">
-        <v>50</v>
-      </c>
-      <c r="AA52" s="5">
-        <v>100</v>
-      </c>
+      <c r="AB52" s="80"/>
       <c r="AC52" s="70" t="s">
         <v>21</v>
       </c>
@@ -6217,407 +7641,1235 @@
         <v>0</v>
       </c>
       <c r="AE52" s="70"/>
+      <c r="AF52" s="80"/>
+      <c r="AG52" s="80"/>
     </row>
-    <row r="53" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="A53"/>
-      <c r="B53" s="36">
+    <row r="53" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="A53" s="80"/>
+      <c r="B53" s="9">
         <v>25</v>
       </c>
       <c r="C53" s="36">
         <v>75</v>
       </c>
-      <c r="E53" t="s">
-        <v>22</v>
-      </c>
-      <c r="F53">
-        <v>37</v>
-      </c>
-      <c r="G53"/>
-      <c r="N53" s="4">
-        <v>25</v>
-      </c>
-      <c r="O53" s="5">
-        <v>75</v>
-      </c>
+      <c r="D53" s="41"/>
+      <c r="E53" s="70" t="s">
+        <v>23</v>
+      </c>
+      <c r="F53" s="70">
+        <v>-11.121402563955751</v>
+      </c>
+      <c r="G53" s="70"/>
+      <c r="H53" s="41"/>
+      <c r="I53" s="41"/>
+      <c r="J53" s="80"/>
+      <c r="K53" s="80"/>
+      <c r="L53" s="80"/>
+      <c r="M53" s="80"/>
+      <c r="N53" s="9">
+        <v>25</v>
+      </c>
+      <c r="O53" s="11">
+        <v>100</v>
+      </c>
+      <c r="P53" s="80"/>
       <c r="Q53" s="70" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R53" s="70">
-        <v>36</v>
+        <v>-5.7498088235642824</v>
       </c>
       <c r="S53" s="70"/>
-      <c r="Z53" s="4">
-        <v>50</v>
-      </c>
-      <c r="AA53" s="5">
-        <v>75</v>
-      </c>
+      <c r="T53" s="80"/>
+      <c r="U53" s="80"/>
+      <c r="V53" s="80"/>
+      <c r="W53" s="80"/>
+      <c r="X53" s="80"/>
+      <c r="Y53" s="80"/>
+      <c r="Z53" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="11">
+        <v>75</v>
+      </c>
+      <c r="AB53" s="80"/>
       <c r="AC53" s="70" t="s">
         <v>22</v>
       </c>
       <c r="AD53" s="70">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="AE53" s="70"/>
+      <c r="AF53" s="80"/>
+      <c r="AG53" s="80"/>
     </row>
-    <row r="54" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="A54"/>
-      <c r="B54" s="65">
-        <v>75</v>
-      </c>
-      <c r="C54" s="65">
+    <row r="54" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="A54" s="80"/>
+      <c r="B54" s="9">
+        <v>0</v>
+      </c>
+      <c r="C54" s="36">
         <v>100</v>
       </c>
-      <c r="E54" t="s">
-        <v>23</v>
-      </c>
-      <c r="F54">
-        <v>-6.2630508900705006</v>
-      </c>
-      <c r="G54"/>
-      <c r="N54" s="34">
-        <v>75</v>
-      </c>
-      <c r="O54" s="10">
-        <v>75</v>
-      </c>
+      <c r="D54" s="41"/>
+      <c r="E54" s="70" t="s">
+        <v>24</v>
+      </c>
+      <c r="F54" s="70">
+        <v>3.2972589466332082E-18</v>
+      </c>
+      <c r="G54" s="70"/>
+      <c r="H54" s="41"/>
+      <c r="I54" s="41"/>
+      <c r="J54" s="80"/>
+      <c r="K54" s="80"/>
+      <c r="L54" s="80"/>
+      <c r="M54" s="80"/>
+      <c r="N54" s="9">
+        <v>0</v>
+      </c>
+      <c r="O54" s="11">
+        <v>100</v>
+      </c>
+      <c r="P54" s="80"/>
       <c r="Q54" s="70" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="R54" s="70">
-        <v>-3.4540168728799712</v>
+        <v>6.8421325638617131E-8</v>
       </c>
       <c r="S54" s="70"/>
-      <c r="Z54" s="34">
-        <v>75</v>
-      </c>
-      <c r="AA54" s="10">
-        <v>75</v>
-      </c>
+      <c r="T54" s="80"/>
+      <c r="U54" s="80"/>
+      <c r="V54" s="80"/>
+      <c r="W54" s="80"/>
+      <c r="X54" s="80"/>
+      <c r="Y54" s="80"/>
+      <c r="Z54" s="9">
+        <v>25</v>
+      </c>
+      <c r="AA54" s="11">
+        <v>100</v>
+      </c>
+      <c r="AB54" s="80"/>
       <c r="AC54" s="70" t="s">
         <v>23</v>
       </c>
       <c r="AD54" s="70">
-        <v>-3.7489724619618037</v>
+        <v>-5.7833742355329658</v>
       </c>
       <c r="AE54" s="70"/>
+      <c r="AF54" s="80"/>
+      <c r="AG54" s="80"/>
     </row>
-    <row r="55" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="A55"/>
-      <c r="B55" s="36">
-        <v>75</v>
+    <row r="55" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="A55" s="80"/>
+      <c r="B55" s="9">
+        <v>25</v>
       </c>
       <c r="C55" s="36">
-        <v>50</v>
-      </c>
-      <c r="E55" t="s">
-        <v>24</v>
-      </c>
-      <c r="F55" s="81">
-        <v>1.38363870992863E-7</v>
-      </c>
-      <c r="G55"/>
-      <c r="N55" s="4">
-        <v>75</v>
-      </c>
-      <c r="O55" s="5">
-        <v>50</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="D55" s="41"/>
+      <c r="E55" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="F55" s="70">
+        <v>1.6641245785896708</v>
+      </c>
+      <c r="G55" s="70"/>
+      <c r="H55" s="41"/>
+      <c r="I55" s="41"/>
+      <c r="J55" s="80"/>
+      <c r="K55" s="80"/>
+      <c r="L55" s="80"/>
+      <c r="M55" s="80"/>
+      <c r="N55" s="9">
+        <v>25</v>
+      </c>
+      <c r="O55" s="11">
+        <v>75</v>
+      </c>
+      <c r="P55" s="80"/>
       <c r="Q55" s="70" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="R55" s="70">
-        <v>7.1546820233728736E-4</v>
+        <v>1.6629784997019019</v>
       </c>
       <c r="S55" s="70"/>
-      <c r="Z55" s="4">
-        <v>75</v>
-      </c>
-      <c r="AA55" s="5">
-        <v>50</v>
-      </c>
+      <c r="T55" s="80"/>
+      <c r="U55" s="80"/>
+      <c r="V55" s="80"/>
+      <c r="W55" s="80"/>
+      <c r="X55" s="80"/>
+      <c r="Y55" s="80"/>
+      <c r="Z55" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA55" s="11">
+        <v>75</v>
+      </c>
+      <c r="AB55" s="80"/>
       <c r="AC55" s="70" t="s">
         <v>24</v>
       </c>
       <c r="AD55" s="70">
-        <v>3.0295359655090412E-4</v>
+        <v>6.0902731028001668E-8</v>
       </c>
       <c r="AE55" s="70"/>
+      <c r="AF55" s="80"/>
+      <c r="AG55" s="80"/>
     </row>
-    <row r="56" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="A56"/>
-      <c r="B56" s="36">
-        <v>50</v>
-      </c>
-      <c r="C56" s="36">
-        <v>50</v>
-      </c>
-      <c r="E56" t="s">
-        <v>25</v>
-      </c>
-      <c r="F56">
-        <v>1.6870936195962629</v>
-      </c>
-      <c r="G56"/>
-      <c r="N56" s="4">
-        <v>25</v>
-      </c>
-      <c r="O56" s="5">
-        <v>75</v>
-      </c>
+    <row r="56" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="A56" s="80"/>
+      <c r="B56" s="65">
+        <v>25</v>
+      </c>
+      <c r="C56" s="65">
+        <v>75</v>
+      </c>
+      <c r="D56" s="41"/>
+      <c r="E56" s="70" t="s">
+        <v>26</v>
+      </c>
+      <c r="F56" s="70">
+        <v>6.5945178932664165E-18</v>
+      </c>
+      <c r="G56" s="70"/>
+      <c r="H56" s="41"/>
+      <c r="I56" s="41"/>
+      <c r="J56" s="80"/>
+      <c r="K56" s="80"/>
+      <c r="L56" s="80"/>
+      <c r="M56" s="80"/>
+      <c r="N56" s="34">
+        <v>50</v>
+      </c>
+      <c r="O56" s="10">
+        <v>75</v>
+      </c>
+      <c r="P56" s="80"/>
       <c r="Q56" s="70" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R56" s="70">
-        <v>1.6882977141168172</v>
+        <v>1.3684265127723426E-7</v>
       </c>
       <c r="S56" s="70"/>
-      <c r="Z56" s="4">
-        <v>75</v>
-      </c>
-      <c r="AA56" s="5">
-        <v>50</v>
-      </c>
+      <c r="T56" s="80"/>
+      <c r="U56" s="80"/>
+      <c r="V56" s="80"/>
+      <c r="W56" s="80"/>
+      <c r="X56" s="80"/>
+      <c r="Y56" s="80"/>
+      <c r="Z56" s="9">
+        <v>50</v>
+      </c>
+      <c r="AA56" s="11">
+        <v>75</v>
+      </c>
+      <c r="AB56" s="80"/>
       <c r="AC56" s="70" t="s">
         <v>25</v>
       </c>
       <c r="AD56" s="70">
-        <v>1.6870936195962629</v>
+        <v>1.6631966790489103</v>
       </c>
       <c r="AE56" s="70"/>
+      <c r="AF56" s="80"/>
+      <c r="AG56" s="80"/>
     </row>
-    <row r="57" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="A57"/>
+    <row r="57" spans="1:33" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="80"/>
       <c r="B57" s="36">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="C57" s="36">
         <v>75</v>
       </c>
-      <c r="E57" t="s">
-        <v>26</v>
-      </c>
-      <c r="F57">
-        <v>2.7672774198572679E-7</v>
-      </c>
-      <c r="G57"/>
+      <c r="D57" s="41"/>
+      <c r="E57" s="71" t="s">
+        <v>27</v>
+      </c>
+      <c r="F57" s="71">
+        <v>1.9900634212544475</v>
+      </c>
+      <c r="G57" s="71"/>
+      <c r="H57" s="41"/>
+      <c r="I57" s="41"/>
+      <c r="J57" s="80"/>
+      <c r="K57" s="80"/>
+      <c r="L57" s="80"/>
+      <c r="M57" s="80"/>
       <c r="N57" s="4">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="O57" s="5">
+        <v>75</v>
+      </c>
+      <c r="P57" s="80"/>
+      <c r="Q57" s="71" t="s">
+        <v>27</v>
+      </c>
+      <c r="R57" s="71">
+        <v>1.9882679074772251</v>
+      </c>
+      <c r="S57" s="71"/>
+      <c r="T57" s="80"/>
+      <c r="U57" s="80"/>
+      <c r="V57" s="80"/>
+      <c r="W57" s="80"/>
+      <c r="X57" s="80"/>
+      <c r="Y57" s="80"/>
+      <c r="Z57" s="34">
+        <v>50</v>
+      </c>
+      <c r="AA57" s="10">
         <v>100</v>
       </c>
-      <c r="Q57" s="70" t="s">
-        <v>26</v>
-      </c>
-      <c r="R57" s="70">
-        <v>1.4309364046745747E-3</v>
-      </c>
-      <c r="S57" s="70"/>
-      <c r="Z57" s="4">
-        <v>50</v>
-      </c>
-      <c r="AA57" s="5">
-        <v>100</v>
-      </c>
+      <c r="AB57" s="80"/>
       <c r="AC57" s="70" t="s">
         <v>26</v>
       </c>
       <c r="AD57" s="70">
-        <v>6.0590719310180824E-4</v>
+        <v>1.2180546205600334E-7</v>
       </c>
       <c r="AE57" s="70"/>
+      <c r="AF57" s="80"/>
+      <c r="AG57" s="80"/>
     </row>
-    <row r="58" spans="1:31" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A58"/>
-      <c r="B58" s="65">
-        <v>25</v>
-      </c>
-      <c r="C58" s="65">
-        <v>75</v>
-      </c>
-      <c r="E58" t="s">
-        <v>27</v>
-      </c>
-      <c r="F58">
-        <v>2.026192463029111</v>
-      </c>
-      <c r="G58"/>
-      <c r="N58" s="32">
-        <v>25</v>
-      </c>
-      <c r="O58" s="10">
-        <v>75</v>
-      </c>
-      <c r="Q58" s="71" t="s">
-        <v>27</v>
-      </c>
-      <c r="R58" s="71">
-        <v>2.028094000980452</v>
-      </c>
-      <c r="S58" s="71"/>
-      <c r="Z58" s="32">
-        <v>50</v>
-      </c>
-      <c r="AA58" s="10">
-        <v>75</v>
-      </c>
+    <row r="58" spans="1:33" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="80"/>
+      <c r="B58" s="36">
+        <v>25</v>
+      </c>
+      <c r="C58" s="36">
+        <v>75</v>
+      </c>
+      <c r="D58" s="41"/>
+      <c r="E58" s="80"/>
+      <c r="F58" s="80"/>
+      <c r="G58" s="80"/>
+      <c r="H58" s="41"/>
+      <c r="I58" s="41"/>
+      <c r="J58" s="80"/>
+      <c r="K58" s="80"/>
+      <c r="L58" s="80"/>
+      <c r="M58" s="80"/>
+      <c r="N58" s="4">
+        <v>50</v>
+      </c>
+      <c r="O58" s="5">
+        <v>100</v>
+      </c>
+      <c r="P58" s="80"/>
+      <c r="Q58" s="70"/>
+      <c r="R58" s="70"/>
+      <c r="S58" s="70"/>
+      <c r="T58" s="80"/>
+      <c r="U58" s="80"/>
+      <c r="V58" s="80"/>
+      <c r="W58" s="80"/>
+      <c r="X58" s="80"/>
+      <c r="Y58" s="80"/>
+      <c r="Z58" s="4">
+        <v>25</v>
+      </c>
+      <c r="AA58" s="5">
+        <v>75</v>
+      </c>
+      <c r="AB58" s="80"/>
       <c r="AC58" s="71" t="s">
         <v>27</v>
       </c>
       <c r="AD58" s="71">
-        <v>2.026192463029111</v>
+        <v>1.9886096669757098</v>
       </c>
       <c r="AE58" s="71"/>
+      <c r="AF58" s="80"/>
+      <c r="AG58" s="80"/>
     </row>
-    <row r="59" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="A59"/>
+    <row r="59" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="A59" s="80"/>
       <c r="B59" s="36">
         <v>25</v>
       </c>
       <c r="C59" s="36">
         <v>75</v>
       </c>
-      <c r="N59" s="9">
-        <v>75</v>
+      <c r="D59" s="41"/>
+      <c r="E59" s="41"/>
+      <c r="F59" s="41"/>
+      <c r="G59" s="41"/>
+      <c r="H59" s="41"/>
+      <c r="I59" s="41"/>
+      <c r="J59" s="80"/>
+      <c r="K59" s="80"/>
+      <c r="L59" s="80"/>
+      <c r="M59" s="80"/>
+      <c r="N59" s="4">
+        <v>25</v>
       </c>
       <c r="O59" s="5">
-        <v>50</v>
-      </c>
-      <c r="Z59" s="9">
-        <v>25</v>
+        <v>75</v>
+      </c>
+      <c r="P59" s="80"/>
+      <c r="Q59" s="80"/>
+      <c r="R59" s="80"/>
+      <c r="S59" s="80"/>
+      <c r="T59" s="80"/>
+      <c r="U59" s="80"/>
+      <c r="V59" s="80"/>
+      <c r="W59" s="80"/>
+      <c r="X59" s="80"/>
+      <c r="Y59" s="80"/>
+      <c r="Z59" s="4">
+        <v>50</v>
       </c>
       <c r="AA59" s="5">
-        <v>75</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="AB59" s="80"/>
+      <c r="AC59" s="80"/>
+      <c r="AD59" s="80"/>
+      <c r="AE59" s="80"/>
+      <c r="AF59" s="80"/>
+      <c r="AG59" s="80"/>
     </row>
-    <row r="60" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="A60" s="41"/>
       <c r="B60" s="36">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="C60" s="36">
+        <v>75</v>
+      </c>
+      <c r="D60" s="41"/>
+      <c r="E60" s="41"/>
+      <c r="F60" s="41"/>
+      <c r="G60" s="41"/>
+      <c r="H60" s="41"/>
+      <c r="I60" s="41"/>
+      <c r="J60" s="80"/>
+      <c r="K60" s="80"/>
+      <c r="L60" s="80"/>
+      <c r="M60" s="80"/>
+      <c r="N60" s="4">
+        <v>75</v>
+      </c>
+      <c r="O60" s="5">
+        <v>75</v>
+      </c>
+      <c r="P60" s="80"/>
+      <c r="Q60" s="80"/>
+      <c r="R60" s="80"/>
+      <c r="S60" s="80"/>
+      <c r="T60" s="80"/>
+      <c r="U60" s="80"/>
+      <c r="V60" s="80"/>
+      <c r="W60" s="80"/>
+      <c r="X60" s="80"/>
+      <c r="Y60" s="80"/>
+      <c r="Z60" s="4">
+        <v>50</v>
+      </c>
+      <c r="AA60" s="5">
+        <v>75</v>
+      </c>
+      <c r="AB60" s="80"/>
+      <c r="AC60" s="80"/>
+      <c r="AD60" s="80"/>
+      <c r="AE60" s="80"/>
+      <c r="AF60" s="80"/>
+      <c r="AG60" s="80"/>
+    </row>
+    <row r="61" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="A61" s="41"/>
+      <c r="B61" s="36">
+        <v>25</v>
+      </c>
+      <c r="C61" s="36">
+        <v>75</v>
+      </c>
+      <c r="D61" s="41"/>
+      <c r="E61" s="41"/>
+      <c r="F61" s="41"/>
+      <c r="G61" s="41"/>
+      <c r="H61" s="41"/>
+      <c r="I61" s="41"/>
+      <c r="J61" s="80"/>
+      <c r="K61" s="80"/>
+      <c r="L61" s="80"/>
+      <c r="M61" s="80"/>
+      <c r="N61" s="4">
+        <v>0</v>
+      </c>
+      <c r="O61" s="5">
         <v>100</v>
       </c>
-      <c r="N60" s="9">
-        <v>75</v>
-      </c>
-      <c r="O60" s="5">
-        <v>50</v>
-      </c>
-      <c r="Z60" s="9">
-        <v>50</v>
-      </c>
-      <c r="AA60" s="5">
-        <v>100</v>
-      </c>
+      <c r="P61" s="80"/>
+      <c r="Q61" s="80"/>
+      <c r="R61" s="80"/>
+      <c r="S61" s="80"/>
+      <c r="T61" s="80"/>
+      <c r="U61" s="80"/>
+      <c r="V61" s="80"/>
+      <c r="W61" s="80"/>
+      <c r="X61" s="80"/>
+      <c r="Y61" s="80"/>
+      <c r="Z61" s="4">
+        <v>75</v>
+      </c>
+      <c r="AA61" s="5">
+        <v>75</v>
+      </c>
+      <c r="AB61" s="80"/>
+      <c r="AC61" s="80"/>
+      <c r="AD61" s="80"/>
+      <c r="AE61" s="80"/>
+      <c r="AF61" s="80"/>
+      <c r="AG61" s="80"/>
     </row>
-    <row r="61" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="B61" s="36">
-        <v>50</v>
-      </c>
-      <c r="C61" s="36">
-        <v>25</v>
-      </c>
-      <c r="N61" s="9">
-        <v>50</v>
-      </c>
-      <c r="O61" s="5">
-        <v>50</v>
-      </c>
-      <c r="Z61" s="9">
-        <v>50</v>
-      </c>
-      <c r="AA61" s="5">
-        <v>25</v>
-      </c>
+    <row r="62" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="A62" s="41"/>
+      <c r="B62" s="36">
+        <v>0</v>
+      </c>
+      <c r="C62" s="36">
+        <v>75</v>
+      </c>
+      <c r="D62" s="41"/>
+      <c r="E62" s="41"/>
+      <c r="F62" s="41"/>
+      <c r="G62" s="41"/>
+      <c r="H62" s="41"/>
+      <c r="I62" s="41"/>
+      <c r="J62" s="80"/>
+      <c r="K62" s="80"/>
+      <c r="L62" s="80"/>
+      <c r="M62" s="80"/>
+      <c r="N62" s="4">
+        <v>25</v>
+      </c>
+      <c r="O62" s="5">
+        <v>75</v>
+      </c>
+      <c r="P62" s="80"/>
+      <c r="Q62" s="80"/>
+      <c r="R62" s="80"/>
+      <c r="S62" s="80"/>
+      <c r="T62" s="80"/>
+      <c r="U62" s="80"/>
+      <c r="V62" s="80"/>
+      <c r="W62" s="80"/>
+      <c r="X62" s="80"/>
+      <c r="Y62" s="80"/>
+      <c r="Z62" s="4">
+        <v>25</v>
+      </c>
+      <c r="AA62" s="5">
+        <v>75</v>
+      </c>
+      <c r="AB62" s="80"/>
+      <c r="AC62" s="80"/>
+      <c r="AD62" s="80"/>
+      <c r="AE62" s="80"/>
+      <c r="AF62" s="80"/>
+      <c r="AG62" s="80"/>
     </row>
-    <row r="62" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="B62" s="9">
-        <v>25</v>
-      </c>
-      <c r="C62" s="36">
-        <v>75</v>
-      </c>
-      <c r="N62" s="9">
-        <v>75</v>
-      </c>
-      <c r="O62" s="11">
-        <v>50</v>
-      </c>
-      <c r="Z62" s="9">
-        <v>75</v>
-      </c>
-      <c r="AA62" s="11">
-        <v>50</v>
-      </c>
+    <row r="63" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="A63" s="41"/>
+      <c r="B63" s="36">
+        <v>25</v>
+      </c>
+      <c r="C63" s="36">
+        <v>75</v>
+      </c>
+      <c r="D63" s="41"/>
+      <c r="E63" s="41"/>
+      <c r="F63" s="41"/>
+      <c r="G63" s="41"/>
+      <c r="H63" s="41"/>
+      <c r="I63" s="41"/>
+      <c r="J63" s="80"/>
+      <c r="K63" s="80"/>
+      <c r="L63" s="80"/>
+      <c r="M63" s="80"/>
+      <c r="N63" s="4">
+        <v>50</v>
+      </c>
+      <c r="O63" s="5">
+        <v>50</v>
+      </c>
+      <c r="P63" s="80"/>
+      <c r="Q63" s="80"/>
+      <c r="R63" s="80"/>
+      <c r="S63" s="80"/>
+      <c r="T63" s="80"/>
+      <c r="U63" s="80"/>
+      <c r="V63" s="80"/>
+      <c r="W63" s="80"/>
+      <c r="X63" s="80"/>
+      <c r="Y63" s="80"/>
+      <c r="Z63" s="4">
+        <v>25</v>
+      </c>
+      <c r="AA63" s="5">
+        <v>75</v>
+      </c>
+      <c r="AB63" s="80"/>
+      <c r="AC63" s="80"/>
+      <c r="AD63" s="80"/>
+      <c r="AE63" s="80"/>
+      <c r="AF63" s="80"/>
+      <c r="AG63" s="80"/>
     </row>
-    <row r="63" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="B63" s="36">
-        <v>0</v>
-      </c>
-      <c r="C63" s="36">
-        <v>75</v>
-      </c>
-      <c r="N63" s="4">
-        <v>75</v>
-      </c>
-      <c r="O63" s="5">
-        <v>75</v>
-      </c>
-      <c r="Z63" s="4">
-        <v>75</v>
-      </c>
-      <c r="AA63" s="5">
-        <v>75</v>
-      </c>
+    <row r="64" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="A64" s="41"/>
+      <c r="B64" s="36">
+        <v>25</v>
+      </c>
+      <c r="C64" s="36">
+        <v>75</v>
+      </c>
+      <c r="D64" s="41"/>
+      <c r="E64" s="41"/>
+      <c r="F64" s="41"/>
+      <c r="G64" s="41"/>
+      <c r="H64" s="41"/>
+      <c r="I64" s="41"/>
+      <c r="J64" s="80"/>
+      <c r="K64" s="80"/>
+      <c r="L64" s="80"/>
+      <c r="M64" s="80"/>
+      <c r="N64" s="4">
+        <v>25</v>
+      </c>
+      <c r="O64" s="5">
+        <v>50</v>
+      </c>
+      <c r="P64" s="80"/>
+      <c r="Q64" s="80"/>
+      <c r="R64" s="80"/>
+      <c r="S64" s="80"/>
+      <c r="T64" s="80"/>
+      <c r="U64" s="80"/>
+      <c r="V64" s="80"/>
+      <c r="W64" s="80"/>
+      <c r="X64" s="80"/>
+      <c r="Y64" s="80"/>
+      <c r="Z64" s="4">
+        <v>50</v>
+      </c>
+      <c r="AA64" s="5">
+        <v>50</v>
+      </c>
+      <c r="AB64" s="80"/>
+      <c r="AC64" s="80"/>
+      <c r="AD64" s="80"/>
+      <c r="AE64" s="80"/>
+      <c r="AF64" s="80"/>
+      <c r="AG64" s="80"/>
     </row>
-    <row r="64" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="B64" s="36">
-        <v>25</v>
-      </c>
-      <c r="C64" s="36">
-        <v>100</v>
-      </c>
-      <c r="N64" s="4">
-        <v>75</v>
-      </c>
-      <c r="O64" s="5">
-        <v>50</v>
-      </c>
-      <c r="Z64" s="4">
-        <v>50</v>
-      </c>
-      <c r="AA64" s="4">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="A65" s="41"/>
       <c r="B65" s="36">
         <v>0</v>
       </c>
       <c r="C65" s="36">
         <v>75</v>
       </c>
-      <c r="N65" s="9">
-        <v>25</v>
+      <c r="D65" s="41"/>
+      <c r="E65" s="41"/>
+      <c r="F65" s="41"/>
+      <c r="G65" s="41"/>
+      <c r="H65" s="41"/>
+      <c r="I65" s="41"/>
+      <c r="J65" s="80"/>
+      <c r="K65" s="80"/>
+      <c r="L65" s="80"/>
+      <c r="M65" s="80"/>
+      <c r="N65" s="4">
+        <v>0</v>
       </c>
       <c r="O65" s="5">
-        <v>75</v>
-      </c>
-      <c r="Z65" s="9">
-        <v>25</v>
+        <v>50</v>
+      </c>
+      <c r="P65" s="80"/>
+      <c r="Q65" s="80"/>
+      <c r="R65" s="80"/>
+      <c r="S65" s="80"/>
+      <c r="T65" s="80"/>
+      <c r="U65" s="80"/>
+      <c r="V65" s="80"/>
+      <c r="W65" s="80"/>
+      <c r="X65" s="80"/>
+      <c r="Y65" s="80"/>
+      <c r="Z65" s="4">
+        <v>0</v>
       </c>
       <c r="AA65" s="5">
+        <v>75</v>
+      </c>
+      <c r="AB65" s="80"/>
+      <c r="AC65" s="80"/>
+      <c r="AD65" s="80"/>
+      <c r="AE65" s="80"/>
+      <c r="AF65" s="80"/>
+      <c r="AG65" s="80"/>
+    </row>
+    <row r="66" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="A66" s="41"/>
+      <c r="B66" s="36">
+        <v>25</v>
+      </c>
+      <c r="C66" s="36">
+        <v>50</v>
+      </c>
+      <c r="D66" s="41"/>
+      <c r="E66" s="41"/>
+      <c r="F66" s="41"/>
+      <c r="G66" s="41"/>
+      <c r="H66" s="41"/>
+      <c r="I66" s="41"/>
+      <c r="J66" s="80"/>
+      <c r="K66" s="80"/>
+      <c r="L66" s="80"/>
+      <c r="M66" s="80"/>
+      <c r="N66" s="4">
+        <v>25</v>
+      </c>
+      <c r="O66" s="5">
+        <v>50</v>
+      </c>
+      <c r="P66" s="80"/>
+      <c r="Q66" s="80"/>
+      <c r="R66" s="80"/>
+      <c r="S66" s="80"/>
+      <c r="T66" s="80"/>
+      <c r="U66" s="80"/>
+      <c r="V66" s="80"/>
+      <c r="W66" s="80"/>
+      <c r="X66" s="80"/>
+      <c r="Y66" s="80"/>
+      <c r="Z66" s="4">
+        <v>25</v>
+      </c>
+      <c r="AA66" s="5">
+        <v>75</v>
+      </c>
+      <c r="AB66" s="80"/>
+      <c r="AC66" s="80"/>
+      <c r="AD66" s="80"/>
+      <c r="AE66" s="80"/>
+      <c r="AF66" s="80"/>
+      <c r="AG66" s="80"/>
+    </row>
+    <row r="67" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="A67" s="41"/>
+      <c r="B67" s="65">
+        <v>75</v>
+      </c>
+      <c r="C67" s="65">
         <v>100</v>
+      </c>
+      <c r="D67" s="41"/>
+      <c r="E67" s="41"/>
+      <c r="F67" s="41"/>
+      <c r="G67" s="41"/>
+      <c r="H67" s="41"/>
+      <c r="I67" s="41"/>
+      <c r="J67" s="80"/>
+      <c r="K67" s="80"/>
+      <c r="L67" s="80"/>
+      <c r="M67" s="80"/>
+      <c r="N67" s="34">
+        <v>75</v>
+      </c>
+      <c r="O67" s="10">
+        <v>75</v>
+      </c>
+      <c r="P67" s="80"/>
+      <c r="Q67" s="80"/>
+      <c r="R67" s="80"/>
+      <c r="S67" s="80"/>
+      <c r="T67" s="80"/>
+      <c r="U67" s="80"/>
+      <c r="V67" s="80"/>
+      <c r="W67" s="80"/>
+      <c r="X67" s="80"/>
+      <c r="Y67" s="80"/>
+      <c r="Z67" s="4">
+        <v>25</v>
+      </c>
+      <c r="AA67" s="5">
+        <v>50</v>
+      </c>
+      <c r="AB67" s="80"/>
+      <c r="AC67" s="80"/>
+      <c r="AD67" s="80"/>
+      <c r="AE67" s="80"/>
+      <c r="AF67" s="80"/>
+      <c r="AG67" s="80"/>
+    </row>
+    <row r="68" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="A68" s="41"/>
+      <c r="B68" s="36">
+        <v>75</v>
+      </c>
+      <c r="C68" s="36">
+        <v>50</v>
+      </c>
+      <c r="D68" s="41"/>
+      <c r="E68" s="41"/>
+      <c r="F68" s="41"/>
+      <c r="G68" s="41"/>
+      <c r="H68" s="41"/>
+      <c r="I68" s="41"/>
+      <c r="J68" s="80"/>
+      <c r="K68" s="80"/>
+      <c r="L68" s="80"/>
+      <c r="M68" s="80"/>
+      <c r="N68" s="4">
+        <v>75</v>
+      </c>
+      <c r="O68" s="5">
+        <v>50</v>
+      </c>
+      <c r="P68" s="80"/>
+      <c r="Q68" s="80"/>
+      <c r="R68" s="80"/>
+      <c r="S68" s="80"/>
+      <c r="T68" s="80"/>
+      <c r="U68" s="80"/>
+      <c r="V68" s="80"/>
+      <c r="W68" s="80"/>
+      <c r="X68" s="80"/>
+      <c r="Y68" s="80"/>
+      <c r="Z68" s="34">
+        <v>75</v>
+      </c>
+      <c r="AA68" s="10">
+        <v>75</v>
+      </c>
+      <c r="AB68" s="80"/>
+      <c r="AC68" s="80"/>
+      <c r="AD68" s="80"/>
+      <c r="AE68" s="80"/>
+      <c r="AF68" s="80"/>
+      <c r="AG68" s="80"/>
+    </row>
+    <row r="69" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="B69" s="36">
+        <v>50</v>
+      </c>
+      <c r="C69" s="36">
+        <v>50</v>
+      </c>
+      <c r="N69" s="4">
+        <v>25</v>
+      </c>
+      <c r="O69" s="5">
+        <v>75</v>
+      </c>
+      <c r="Z69" s="4">
+        <v>75</v>
+      </c>
+      <c r="AA69" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="70" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="B70" s="36">
+        <v>50</v>
+      </c>
+      <c r="C70" s="36">
+        <v>75</v>
+      </c>
+      <c r="N70" s="4">
+        <v>50</v>
+      </c>
+      <c r="O70" s="5">
+        <v>100</v>
+      </c>
+      <c r="Z70" s="4">
+        <v>75</v>
+      </c>
+      <c r="AA70" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="71" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="B71" s="36">
+        <v>25</v>
+      </c>
+      <c r="C71" s="36">
+        <v>100</v>
+      </c>
+      <c r="N71" s="4">
+        <v>75</v>
+      </c>
+      <c r="O71" s="5">
+        <v>50</v>
+      </c>
+      <c r="Z71" s="4">
+        <v>50</v>
+      </c>
+      <c r="AA71" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="72" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="B72" s="36">
+        <v>25</v>
+      </c>
+      <c r="C72" s="36">
+        <v>75</v>
+      </c>
+      <c r="N72" s="4">
+        <v>50</v>
+      </c>
+      <c r="O72" s="5">
+        <v>50</v>
+      </c>
+      <c r="Z72" s="4">
+        <v>50</v>
+      </c>
+      <c r="AA72" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="73" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="B73" s="36">
+        <v>75</v>
+      </c>
+      <c r="C73" s="36">
+        <v>100</v>
+      </c>
+      <c r="N73" s="4">
+        <v>75</v>
+      </c>
+      <c r="O73" s="5">
+        <v>50</v>
+      </c>
+      <c r="Z73" s="4">
+        <v>25</v>
+      </c>
+      <c r="AA73" s="5">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="74" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="B74" s="36">
+        <v>25</v>
+      </c>
+      <c r="C74" s="36">
+        <v>75</v>
+      </c>
+      <c r="N74" s="4">
+        <v>50</v>
+      </c>
+      <c r="O74" s="5">
+        <v>75</v>
+      </c>
+      <c r="Z74" s="4">
+        <v>75</v>
+      </c>
+      <c r="AA74" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="75" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="B75" s="36">
+        <v>25</v>
+      </c>
+      <c r="C75" s="36">
+        <v>50</v>
+      </c>
+      <c r="N75" s="4">
+        <v>25</v>
+      </c>
+      <c r="O75" s="5">
+        <v>75</v>
+      </c>
+      <c r="Z75" s="4">
+        <v>50</v>
+      </c>
+      <c r="AA75" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="76" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="B76" s="36">
+        <v>25</v>
+      </c>
+      <c r="C76" s="36">
+        <v>50</v>
+      </c>
+      <c r="N76" s="4">
+        <v>25</v>
+      </c>
+      <c r="O76" s="5">
+        <v>50</v>
+      </c>
+      <c r="Z76" s="4">
+        <v>25</v>
+      </c>
+      <c r="AA76" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="77" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="B77" s="36">
+        <v>75</v>
+      </c>
+      <c r="C77" s="36">
+        <v>75</v>
+      </c>
+      <c r="N77" s="4">
+        <v>50</v>
+      </c>
+      <c r="O77" s="5">
+        <v>75</v>
+      </c>
+      <c r="Z77" s="4">
+        <v>75</v>
+      </c>
+      <c r="AA77" s="5">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="78" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="B78" s="65">
+        <v>25</v>
+      </c>
+      <c r="C78" s="65">
+        <v>75</v>
+      </c>
+      <c r="N78" s="32">
+        <v>25</v>
+      </c>
+      <c r="O78" s="10">
+        <v>75</v>
+      </c>
+      <c r="Z78" s="4">
+        <v>50</v>
+      </c>
+      <c r="AA78" s="5">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="79" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="B79" s="36">
+        <v>25</v>
+      </c>
+      <c r="C79" s="36">
+        <v>75</v>
+      </c>
+      <c r="N79" s="9">
+        <v>75</v>
+      </c>
+      <c r="O79" s="5">
+        <v>50</v>
+      </c>
+      <c r="Z79" s="32">
+        <v>50</v>
+      </c>
+      <c r="AA79" s="10">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="80" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="B80" s="36">
+        <v>75</v>
+      </c>
+      <c r="C80" s="36">
+        <v>100</v>
+      </c>
+      <c r="N80" s="9">
+        <v>75</v>
+      </c>
+      <c r="O80" s="5">
+        <v>50</v>
+      </c>
+      <c r="Z80" s="9">
+        <v>25</v>
+      </c>
+      <c r="AA80" s="5">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="81" spans="2:27" x14ac:dyDescent="0.15">
+      <c r="B81" s="36">
+        <v>50</v>
+      </c>
+      <c r="C81" s="36">
+        <v>25</v>
+      </c>
+      <c r="N81" s="9">
+        <v>50</v>
+      </c>
+      <c r="O81" s="5">
+        <v>50</v>
+      </c>
+      <c r="Z81" s="9">
+        <v>50</v>
+      </c>
+      <c r="AA81" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="82" spans="2:27" x14ac:dyDescent="0.15">
+      <c r="B82" s="36">
+        <v>0</v>
+      </c>
+      <c r="C82" s="36">
+        <v>75</v>
+      </c>
+      <c r="N82" s="9">
+        <v>25</v>
+      </c>
+      <c r="O82" s="5">
+        <v>75</v>
+      </c>
+      <c r="Z82" s="9">
+        <v>50</v>
+      </c>
+      <c r="AA82" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="83" spans="2:27" x14ac:dyDescent="0.15">
+      <c r="B83" s="36">
+        <v>50</v>
+      </c>
+      <c r="C83" s="36">
+        <v>50</v>
+      </c>
+      <c r="N83" s="9">
+        <v>100</v>
+      </c>
+      <c r="O83" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z83" s="9">
+        <v>25</v>
+      </c>
+      <c r="AA83" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="2:27" x14ac:dyDescent="0.15">
+      <c r="B84" s="36">
+        <v>0</v>
+      </c>
+      <c r="C84" s="36">
+        <v>100</v>
+      </c>
+      <c r="N84" s="9">
+        <v>25</v>
+      </c>
+      <c r="O84" s="5">
+        <v>100</v>
+      </c>
+      <c r="Z84" s="9">
+        <v>100</v>
+      </c>
+      <c r="AA84" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="2:27" x14ac:dyDescent="0.15">
+      <c r="B85" s="36">
+        <v>25</v>
+      </c>
+      <c r="C85" s="36">
+        <v>75</v>
+      </c>
+      <c r="N85" s="9">
+        <v>50</v>
+      </c>
+      <c r="O85" s="5">
+        <v>50</v>
+      </c>
+      <c r="Z85" s="9">
+        <v>25</v>
+      </c>
+      <c r="AA85" s="5">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="86" spans="2:27" x14ac:dyDescent="0.15">
+      <c r="B86" s="36">
+        <v>0</v>
+      </c>
+      <c r="C86" s="36">
+        <v>75</v>
+      </c>
+      <c r="N86" s="9">
+        <v>25</v>
+      </c>
+      <c r="O86" s="5">
+        <v>75</v>
+      </c>
+      <c r="Z86" s="9">
+        <v>75</v>
+      </c>
+      <c r="AA86" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="87" spans="2:27" x14ac:dyDescent="0.15">
+      <c r="B87" s="36">
+        <v>0</v>
+      </c>
+      <c r="C87" s="36">
+        <v>50</v>
+      </c>
+      <c r="N87" s="9">
+        <v>25</v>
+      </c>
+      <c r="O87" s="5">
+        <v>25</v>
+      </c>
+      <c r="Z87" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA87" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="88" spans="2:27" x14ac:dyDescent="0.15">
+      <c r="B88" s="36">
+        <v>25</v>
+      </c>
+      <c r="C88" s="36">
+        <v>75</v>
+      </c>
+      <c r="N88" s="9">
+        <v>25</v>
+      </c>
+      <c r="O88" s="5">
+        <v>50</v>
+      </c>
+      <c r="Z88" s="9">
+        <v>25</v>
+      </c>
+      <c r="AA88" s="5">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="89" spans="2:27" x14ac:dyDescent="0.15">
+      <c r="Z89" s="9">
+        <v>25</v>
+      </c>
+      <c r="AA89" s="5">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="B1:I1"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="T2:U2"/>
     <mergeCell ref="AH2:AI2"/>
@@ -6629,10 +8881,244 @@
     <mergeCell ref="V2:W2"/>
     <mergeCell ref="Z2:AA2"/>
     <mergeCell ref="AB2:AC2"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="B1:I1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:G20"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O5" sqref="O5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="2" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="82" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="82"/>
+    </row>
+    <row r="3" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="66" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="61" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="60" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="61" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="60" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="61" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="43">
+        <v>27.840909090909093</v>
+      </c>
+      <c r="B4" s="6">
+        <v>75</v>
+      </c>
+      <c r="C4" s="29">
+        <v>39.772727272727266</v>
+      </c>
+      <c r="D4" s="6">
+        <v>68.75</v>
+      </c>
+      <c r="E4" s="29">
+        <v>41.477272727272727</v>
+      </c>
+      <c r="F4" s="6">
+        <v>69.88636363636364</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="49">
+        <v>22.371018608300755</v>
+      </c>
+      <c r="B5" s="50">
+        <v>17.049858486761838</v>
+      </c>
+      <c r="C5" s="51">
+        <v>24.894067320103471</v>
+      </c>
+      <c r="D5" s="50">
+        <v>22.311875031961353</v>
+      </c>
+      <c r="E5" s="51">
+        <v>24.674144867596649</v>
+      </c>
+      <c r="F5" s="50">
+        <v>21.281300787628815</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="39"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="48"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="62"/>
+      <c r="B7" s="63"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="63"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" s="80"/>
+      <c r="B8" s="80"/>
+      <c r="C8" s="80"/>
+      <c r="D8" s="80"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="80"/>
+      <c r="G8" s="80"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9" s="80"/>
+      <c r="B9" s="80"/>
+      <c r="C9" s="80"/>
+      <c r="D9" s="80"/>
+      <c r="E9" s="80"/>
+      <c r="F9" s="80"/>
+      <c r="G9" s="80"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A10" s="80"/>
+      <c r="B10" s="80"/>
+      <c r="C10" s="80"/>
+      <c r="D10" s="80"/>
+      <c r="E10" s="80"/>
+      <c r="F10" s="80"/>
+      <c r="G10" s="80"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A11" s="80"/>
+      <c r="B11" s="80"/>
+      <c r="C11" s="80"/>
+      <c r="D11" s="80"/>
+      <c r="E11" s="80"/>
+      <c r="F11" s="80"/>
+      <c r="G11" s="80"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A12" s="80"/>
+      <c r="B12" s="80"/>
+      <c r="C12" s="80"/>
+      <c r="D12" s="80"/>
+      <c r="E12" s="80"/>
+      <c r="F12" s="80"/>
+      <c r="G12" s="80"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A13" s="80"/>
+      <c r="B13" s="80"/>
+      <c r="C13" s="80"/>
+      <c r="D13" s="80"/>
+      <c r="E13" s="80"/>
+      <c r="F13" s="80"/>
+      <c r="G13" s="80"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A14" s="80"/>
+      <c r="B14" s="80"/>
+      <c r="C14" s="80"/>
+      <c r="D14" s="80"/>
+      <c r="E14" s="80"/>
+      <c r="F14" s="80"/>
+      <c r="G14" s="80"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A15" s="80"/>
+      <c r="B15" s="80"/>
+      <c r="C15" s="80"/>
+      <c r="D15" s="80"/>
+      <c r="E15" s="80"/>
+      <c r="F15" s="80"/>
+      <c r="G15" s="80"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A16" s="80"/>
+      <c r="B16" s="80"/>
+      <c r="C16" s="80"/>
+      <c r="D16" s="80"/>
+      <c r="E16" s="80"/>
+      <c r="F16" s="80"/>
+      <c r="G16" s="80"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A17" s="80"/>
+      <c r="B17" s="80"/>
+      <c r="C17" s="80"/>
+      <c r="D17" s="80"/>
+      <c r="E17" s="80"/>
+      <c r="F17" s="80"/>
+      <c r="G17" s="80"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A18" s="80"/>
+      <c r="B18" s="80"/>
+      <c r="C18" s="80"/>
+      <c r="D18" s="80"/>
+      <c r="E18" s="80"/>
+      <c r="F18" s="80"/>
+      <c r="G18" s="80"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A19" s="80"/>
+      <c r="B19" s="80"/>
+      <c r="C19" s="80"/>
+      <c r="D19" s="80"/>
+      <c r="E19" s="80"/>
+      <c r="F19" s="80"/>
+      <c r="G19" s="80"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A20" s="80"/>
+      <c r="B20" s="80"/>
+      <c r="C20" s="80"/>
+      <c r="D20" s="80"/>
+      <c r="E20" s="80"/>
+      <c r="F20" s="80"/>
+      <c r="G20" s="80"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/DSCQS/DSCQS実験結果.xlsx
+++ b/DSCQS/DSCQS実験結果.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitRipository\DSCQS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\ドキュメント\Labo\LocalRipository\DSCQS\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4B80DDE-2410-43D7-96B3-C2E5A9BE6EBE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10665" windowHeight="11295"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10665" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="各質問に対する結果" sheetId="1" r:id="rId1"/>
     <sheet name="全画像の結果" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -48,34 +49,6 @@
   </si>
   <si>
     <t>Q1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>画像1</t>
-    <rPh sb="0" eb="2">
-      <t>ガゾウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>画像2</t>
-    <rPh sb="0" eb="2">
-      <t>ガゾウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>画像3</t>
-    <rPh sb="0" eb="2">
-      <t>ガゾウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>画像4</t>
-    <rPh sb="0" eb="2">
-      <t>ガゾウ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -168,11 +141,27 @@
     <t>Q1</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>Image1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Image2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Image3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Image4</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.000_ "/>
     <numFmt numFmtId="177" formatCode="0.000000_ "/>
@@ -764,7 +753,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -939,12 +928,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -984,16 +967,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1005,10 +982,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1032,7 +1015,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
   <c:roundedCorners val="0"/>
@@ -1078,7 +1061,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-951B-43CE-A103-E5B402B4D559}"/>
               </c:ext>
@@ -1097,7 +1080,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000003-951B-43CE-A103-E5B402B4D559}"/>
               </c:ext>
@@ -1116,7 +1099,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000005-951B-43CE-A103-E5B402B4D559}"/>
               </c:ext>
@@ -1135,7 +1118,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000007-951B-43CE-A103-E5B402B4D559}"/>
               </c:ext>
@@ -1154,7 +1137,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000009-951B-43CE-A103-E5B402B4D559}"/>
               </c:ext>
@@ -1171,22 +1154,22 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="10"/>
                   <c:pt idx="0">
+                    <c:v>11.677484162422843</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>7.5377836144440913</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>23.596995186213476</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>20.780235364840834</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
                     <c:v>15.075567228888183</c:v>
                   </c:pt>
-                  <c:pt idx="1">
+                  <c:pt idx="5">
                     <c:v>12.613124477737815</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>11.677484162422843</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>7.5377836144440913</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>23.596995186213476</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>20.780235364840834</c:v>
                   </c:pt>
                   <c:pt idx="6">
                     <c:v>25</c:v>
@@ -1210,22 +1193,22 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="10"/>
                   <c:pt idx="0">
+                    <c:v>11.677484162422843</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>7.5377836144440913</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>23.596995186213476</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>20.780235364840834</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
                     <c:v>15.075567228888183</c:v>
                   </c:pt>
-                  <c:pt idx="1">
+                  <c:pt idx="5">
                     <c:v>12.613124477737815</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>11.677484162422843</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>7.5377836144440913</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>23.596995186213476</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>20.780235364840834</c:v>
                   </c:pt>
                   <c:pt idx="6">
                     <c:v>25</c:v>
@@ -1295,16 +1278,16 @@
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>画像1</c:v>
+                    <c:v>Image1</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>画像2</c:v>
+                    <c:v>Image2</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>画像3</c:v>
+                    <c:v>Image3</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>画像4</c:v>
+                    <c:v>Image4</c:v>
                   </c:pt>
                   <c:pt idx="8">
                     <c:v>全画像</c:v>
@@ -1320,22 +1303,22 @@
                 <c:formatCode>0.000_ </c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>20.454545454545453</c:v>
+                  <c:v>18.181818181818183</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>84.090909090909093</c:v>
+                  <c:v>72.727272727272734</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18.181818181818183</c:v>
+                  <c:v>47.727272727272727</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>72.727272727272734</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>47.727272727272727</c:v>
+                  <c:v>20.454545454545453</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>72.727272727272734</c:v>
+                  <c:v>84.090909090909093</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>25</c:v>
@@ -1344,7 +1327,7 @@
                   <c:v>70.454545454545453</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>27.840909090909093</c:v>
+                  <c:v>27.84090909090909</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>75</c:v>
@@ -1352,7 +1335,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000A-951B-43CE-A103-E5B402B4D559}"/>
             </c:ext>
@@ -1400,16 +1383,16 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="ja-JP"/>
@@ -1460,16 +1443,16 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="ja-JP"/>
@@ -1497,12 +1480,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -1526,7 +1504,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
   <c:roundedCorners val="0"/>
@@ -1572,7 +1550,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-ED1C-416F-9864-3E6D78318547}"/>
               </c:ext>
@@ -1591,7 +1569,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000003-ED1C-416F-9864-3E6D78318547}"/>
               </c:ext>
@@ -1610,7 +1588,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000005-ED1C-416F-9864-3E6D78318547}"/>
               </c:ext>
@@ -1629,7 +1607,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000007-ED1C-416F-9864-3E6D78318547}"/>
               </c:ext>
@@ -1648,7 +1626,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000009-ED1C-416F-9864-3E6D78318547}"/>
               </c:ext>
@@ -1665,19 +1643,19 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="10"/>
                   <c:pt idx="0">
+                    <c:v>22.61335084333227</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>18.768929838238705</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>20.780235364840841</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>16.854996561581046</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
                     <c:v>24.541245430351069</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>16.854996561581046</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>22.61335084333227</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>18.768929838238705</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>20.780235364840841</c:v>
                   </c:pt>
                   <c:pt idx="5">
                     <c:v>16.854996561581046</c:v>
@@ -1704,19 +1682,19 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="10"/>
                   <c:pt idx="0">
+                    <c:v>22.61335084333227</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>18.768929838238705</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>20.780235364840841</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>16.854996561581046</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
                     <c:v>24.541245430351069</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>16.854996561581046</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>22.61335084333227</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>18.768929838238705</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>20.780235364840841</c:v>
                   </c:pt>
                   <c:pt idx="5">
                     <c:v>16.854996561581046</c:v>
@@ -1789,16 +1767,16 @@
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>画像1</c:v>
+                    <c:v>Image1</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>画像2</c:v>
+                    <c:v>Image2</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>画像3</c:v>
+                    <c:v>Image3</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>画像4</c:v>
+                    <c:v>Image4</c:v>
                   </c:pt>
                   <c:pt idx="8">
                     <c:v>全画像</c:v>
@@ -1814,22 +1792,22 @@
                 <c:formatCode>0.000_ </c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>31.818181818181817</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>70.454545454545453</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>52.272727272727273</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>65.909090909090907</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>29.545454545454547</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="5">
                   <c:v>84.090909090909093</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>31.818181818181817</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>70.454545454545453</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>52.272727272727273</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>65.909090909090907</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>45.454545454545453</c:v>
@@ -1838,7 +1816,7 @@
                   <c:v>54.545454545454547</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>39.772727272727266</c:v>
+                  <c:v>39.772727272727273</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>68.75</c:v>
@@ -1846,7 +1824,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000A-ED1C-416F-9864-3E6D78318547}"/>
             </c:ext>
@@ -1894,16 +1872,16 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="ja-JP"/>
@@ -1954,16 +1932,16 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="ja-JP"/>
@@ -1991,12 +1969,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -2020,7 +1993,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
   <c:roundedCorners val="0"/>
@@ -2062,13 +2035,11 @@
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:ln>
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
+                <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-5C83-4666-92F3-F2925D279CD1}"/>
               </c:ext>
@@ -2087,7 +2058,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000003-5C83-4666-92F3-F2925D279CD1}"/>
               </c:ext>
@@ -2106,7 +2077,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000005-5C83-4666-92F3-F2925D279CD1}"/>
               </c:ext>
@@ -2125,7 +2096,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000007-5C83-4666-92F3-F2925D279CD1}"/>
               </c:ext>
@@ -2144,7 +2115,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000009-5C83-4666-92F3-F2925D279CD1}"/>
               </c:ext>
@@ -2161,22 +2132,22 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="10"/>
                   <c:pt idx="0">
+                    <c:v>20.50498830661811</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>15.811388300841896</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>19.656134827672403</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>17.188791273808221</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
                     <c:v>25.226248955475651</c:v>
                   </c:pt>
-                  <c:pt idx="1">
+                  <c:pt idx="5">
                     <c:v>15.075567228888204</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>20.50498830661811</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>15.811388300841896</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>19.656134827672403</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>17.188791273808221</c:v>
                   </c:pt>
                   <c:pt idx="6">
                     <c:v>28.001623329566257</c:v>
@@ -2200,22 +2171,22 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="10"/>
                   <c:pt idx="0">
+                    <c:v>20.50498830661811</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>15.811388300841896</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>19.656134827672403</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>17.188791273808221</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
                     <c:v>25.226248955475651</c:v>
                   </c:pt>
-                  <c:pt idx="1">
+                  <c:pt idx="5">
                     <c:v>15.075567228888204</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>20.50498830661811</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>15.811388300841896</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>19.656134827672403</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>17.188791273808221</c:v>
                   </c:pt>
                   <c:pt idx="6">
                     <c:v>28.001623329566257</c:v>
@@ -2285,16 +2256,16 @@
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>画像1</c:v>
+                    <c:v>Image1</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>画像2</c:v>
+                    <c:v>Image2</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>画像3</c:v>
+                    <c:v>Image3</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>画像4</c:v>
+                    <c:v>Image4</c:v>
                   </c:pt>
                   <c:pt idx="8">
                     <c:v>全画像</c:v>
@@ -2310,22 +2281,22 @@
                 <c:formatCode>0.000_ </c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>36.363636363636367</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>56.81818181818182</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>63.636363636363633</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>31.818181818181817</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="5">
                   <c:v>79.545454545454547</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>36.363636363636367</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>56.81818181818182</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>63.636363636363633</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>40.909090909090907</c:v>
@@ -2342,7 +2313,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000A-5C83-4666-92F3-F2925D279CD1}"/>
             </c:ext>
@@ -2390,16 +2361,16 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="ja-JP"/>
@@ -2424,9 +2395,8 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="90000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -2450,16 +2420,16 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="ja-JP"/>
@@ -2502,7 +2472,10 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr b="1">
+          <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+          <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="ja-JP"/>
     </a:p>
@@ -2516,7 +2489,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
   <c:roundedCorners val="0"/>
@@ -2562,6 +2535,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-5A3B-4A42-B353-6599C76C91B7}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -2576,6 +2554,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-5A3B-4A42-B353-6599C76C91B7}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -2590,6 +2573,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-5A3B-4A42-B353-6599C76C91B7}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:errBars>
             <c:errBarType val="both"/>
@@ -2729,6 +2717,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-5A3B-4A42-B353-6599C76C91B7}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -5082,7 +5075,7 @@
         <xdr:cNvPr id="8" name="グラフ 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5118,7 +5111,7 @@
         <xdr:cNvPr id="9" name="グラフ 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5154,7 +5147,7 @@
         <xdr:cNvPr id="10" name="グラフ 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5192,7 +5185,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="グラフ 2"/>
+        <xdr:cNvPr id="3" name="グラフ 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -5472,11 +5471,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="X26" sqref="X26"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K47" sqref="K47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5503,22 +5502,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="3" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="67"/>
-      <c r="B1" s="75" t="s">
+      <c r="A1" s="65"/>
+      <c r="B1" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
       <c r="J1" s="56"/>
       <c r="K1" s="57"/>
       <c r="M1" s="22"/>
       <c r="N1" s="44" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="O1" s="44"/>
       <c r="P1" s="44"/>
@@ -5531,7 +5530,7 @@
       <c r="W1" s="57"/>
       <c r="Y1" s="22"/>
       <c r="Z1" s="44" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AA1" s="44"/>
       <c r="AB1" s="44"/>
@@ -5545,68 +5544,68 @@
     </row>
     <row r="2" spans="1:35" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="23"/>
-      <c r="B2" s="73" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="74"/>
-      <c r="J2" s="77" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" s="78"/>
+      <c r="B2" s="76" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="77"/>
+      <c r="J2" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="74"/>
       <c r="M2" s="23"/>
-      <c r="N2" s="79" t="s">
-        <v>4</v>
-      </c>
-      <c r="O2" s="78"/>
-      <c r="P2" s="79" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q2" s="78"/>
-      <c r="R2" s="79" t="s">
-        <v>6</v>
-      </c>
-      <c r="S2" s="78"/>
-      <c r="T2" s="79" t="s">
-        <v>7</v>
-      </c>
-      <c r="U2" s="78"/>
-      <c r="V2" s="79" t="s">
-        <v>12</v>
-      </c>
-      <c r="W2" s="78"/>
+      <c r="N2" s="76" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" s="77"/>
+      <c r="P2" s="77" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q2" s="77"/>
+      <c r="R2" s="77" t="s">
+        <v>28</v>
+      </c>
+      <c r="S2" s="77"/>
+      <c r="T2" s="77" t="s">
+        <v>29</v>
+      </c>
+      <c r="U2" s="77"/>
+      <c r="V2" s="75" t="s">
+        <v>8</v>
+      </c>
+      <c r="W2" s="74"/>
       <c r="Y2" s="23"/>
-      <c r="Z2" s="79" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA2" s="78"/>
-      <c r="AB2" s="79" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC2" s="78"/>
-      <c r="AD2" s="79" t="s">
-        <v>6</v>
-      </c>
-      <c r="AE2" s="78"/>
-      <c r="AF2" s="79" t="s">
-        <v>7</v>
-      </c>
-      <c r="AG2" s="78"/>
-      <c r="AH2" s="79" t="s">
-        <v>12</v>
-      </c>
-      <c r="AI2" s="78"/>
+      <c r="Z2" s="76" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA2" s="77"/>
+      <c r="AB2" s="77" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC2" s="77"/>
+      <c r="AD2" s="77" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE2" s="77"/>
+      <c r="AF2" s="77" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG2" s="77"/>
+      <c r="AH2" s="75" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI2" s="74"/>
     </row>
     <row r="3" spans="1:35" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="35" t="s">
@@ -5636,11 +5635,11 @@
       <c r="I3" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="66" t="s">
-        <v>13</v>
-      </c>
-      <c r="K3" s="61" t="s">
-        <v>14</v>
+      <c r="J3" s="64" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="59" t="s">
+        <v>10</v>
       </c>
       <c r="M3" s="35" t="s">
         <v>0</v>
@@ -5669,11 +5668,11 @@
       <c r="U3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="V3" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="W3" s="61" t="s">
-        <v>14</v>
+      <c r="V3" s="58" t="s">
+        <v>9</v>
+      </c>
+      <c r="W3" s="59" t="s">
+        <v>10</v>
       </c>
       <c r="Y3" s="35" t="s">
         <v>0</v>
@@ -5702,62 +5701,60 @@
       <c r="AG3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="AH3" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="AI3" s="61" t="s">
-        <v>14</v>
+      <c r="AH3" s="58" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI3" s="59" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A4" s="31">
         <v>1</v>
       </c>
-      <c r="B4" s="32">
-        <v>25</v>
-      </c>
-      <c r="C4" s="65">
-        <v>75</v>
-      </c>
-      <c r="D4" s="65">
-        <v>25</v>
-      </c>
-      <c r="E4" s="65">
-        <v>75</v>
-      </c>
-      <c r="F4" s="65">
-        <v>75</v>
-      </c>
-      <c r="G4" s="65">
+      <c r="B4" s="63">
+        <v>25</v>
+      </c>
+      <c r="C4" s="63">
+        <v>75</v>
+      </c>
+      <c r="D4" s="63">
+        <v>75</v>
+      </c>
+      <c r="E4" s="63">
         <v>100</v>
       </c>
-      <c r="H4" s="65">
-        <v>25</v>
-      </c>
-      <c r="I4" s="65">
-        <v>75</v>
-      </c>
-      <c r="J4" s="58"/>
-      <c r="K4" s="59"/>
+      <c r="F4" s="32">
+        <v>25</v>
+      </c>
+      <c r="G4" s="63">
+        <v>75</v>
+      </c>
+      <c r="H4" s="63">
+        <v>25</v>
+      </c>
+      <c r="I4" s="63">
+        <v>75</v>
+      </c>
       <c r="M4" s="31">
         <v>1</v>
       </c>
-      <c r="N4" s="32">
-        <v>25</v>
-      </c>
-      <c r="O4" s="33">
+      <c r="N4" s="34">
+        <v>50</v>
+      </c>
+      <c r="O4" s="10">
         <v>75</v>
       </c>
       <c r="P4" s="34">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="Q4" s="10">
         <v>75</v>
       </c>
-      <c r="R4" s="34">
-        <v>75</v>
-      </c>
-      <c r="S4" s="10">
+      <c r="R4" s="32">
+        <v>25</v>
+      </c>
+      <c r="S4" s="33">
         <v>75</v>
       </c>
       <c r="T4" s="32">
@@ -5766,27 +5763,25 @@
       <c r="U4" s="10">
         <v>75</v>
       </c>
-      <c r="V4" s="58"/>
-      <c r="W4" s="59"/>
       <c r="Y4" s="31">
         <v>1</v>
       </c>
-      <c r="Z4" s="32">
-        <v>50</v>
-      </c>
-      <c r="AA4" s="33">
-        <v>75</v>
+      <c r="Z4" s="34">
+        <v>50</v>
+      </c>
+      <c r="AA4" s="10">
+        <v>100</v>
       </c>
       <c r="AB4" s="34">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="AC4" s="10">
-        <v>100</v>
-      </c>
-      <c r="AD4" s="34">
-        <v>75</v>
-      </c>
-      <c r="AE4" s="10">
+        <v>75</v>
+      </c>
+      <c r="AD4" s="32">
+        <v>50</v>
+      </c>
+      <c r="AE4" s="33">
         <v>75</v>
       </c>
       <c r="AF4" s="32">
@@ -5795,30 +5790,28 @@
       <c r="AG4" s="10">
         <v>75</v>
       </c>
-      <c r="AH4" s="58"/>
-      <c r="AI4" s="59"/>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A5" s="24">
         <v>2</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="36">
         <v>25</v>
       </c>
       <c r="C5" s="36">
         <v>75</v>
       </c>
       <c r="D5" s="36">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="E5" s="36">
-        <v>75</v>
-      </c>
-      <c r="F5" s="36">
-        <v>75</v>
+        <v>50</v>
+      </c>
+      <c r="F5" s="9">
+        <v>25</v>
       </c>
       <c r="G5" s="36">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="H5" s="36">
         <v>25</v>
@@ -5826,28 +5819,26 @@
       <c r="I5" s="36">
         <v>75</v>
       </c>
-      <c r="J5" s="39"/>
-      <c r="K5" s="48"/>
       <c r="M5" s="24">
         <v>2</v>
       </c>
-      <c r="N5" s="9">
-        <v>25</v>
-      </c>
-      <c r="O5" s="11">
+      <c r="N5" s="4">
+        <v>25</v>
+      </c>
+      <c r="O5" s="5">
         <v>75</v>
       </c>
       <c r="P5" s="4">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="Q5" s="5">
-        <v>75</v>
-      </c>
-      <c r="R5" s="4">
-        <v>75</v>
-      </c>
-      <c r="S5" s="5">
-        <v>50</v>
+        <v>50</v>
+      </c>
+      <c r="R5" s="9">
+        <v>25</v>
+      </c>
+      <c r="S5" s="11">
+        <v>75</v>
       </c>
       <c r="T5" s="9">
         <v>75</v>
@@ -5855,28 +5846,26 @@
       <c r="U5" s="5">
         <v>50</v>
       </c>
-      <c r="V5" s="39"/>
-      <c r="W5" s="48"/>
       <c r="Y5" s="24">
         <v>2</v>
       </c>
-      <c r="Z5" s="9">
-        <v>25</v>
-      </c>
-      <c r="AA5" s="11">
+      <c r="Z5" s="4">
+        <v>25</v>
+      </c>
+      <c r="AA5" s="5">
         <v>75</v>
       </c>
       <c r="AB5" s="4">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="AC5" s="5">
-        <v>75</v>
-      </c>
-      <c r="AD5" s="4">
-        <v>75</v>
-      </c>
-      <c r="AE5" s="5">
-        <v>50</v>
+        <v>50</v>
+      </c>
+      <c r="AD5" s="9">
+        <v>25</v>
+      </c>
+      <c r="AE5" s="11">
+        <v>75</v>
       </c>
       <c r="AF5" s="9">
         <v>25</v>
@@ -5884,30 +5873,28 @@
       <c r="AG5" s="5">
         <v>75</v>
       </c>
-      <c r="AH5" s="39"/>
-      <c r="AI5" s="48"/>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A6" s="24">
         <v>3</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="36">
         <v>25</v>
       </c>
       <c r="C6" s="36">
+        <v>75</v>
+      </c>
+      <c r="D6" s="36">
+        <v>50</v>
+      </c>
+      <c r="E6" s="36">
+        <v>50</v>
+      </c>
+      <c r="F6" s="9">
+        <v>25</v>
+      </c>
+      <c r="G6" s="36">
         <v>100</v>
-      </c>
-      <c r="D6" s="36">
-        <v>25</v>
-      </c>
-      <c r="E6" s="36">
-        <v>75</v>
-      </c>
-      <c r="F6" s="36">
-        <v>50</v>
-      </c>
-      <c r="G6" s="36">
-        <v>50</v>
       </c>
       <c r="H6" s="36">
         <v>75</v>
@@ -5915,57 +5902,53 @@
       <c r="I6" s="36">
         <v>100</v>
       </c>
-      <c r="J6" s="39"/>
-      <c r="K6" s="48"/>
       <c r="M6" s="24">
         <v>3</v>
       </c>
-      <c r="N6" s="9">
-        <v>25</v>
-      </c>
-      <c r="O6" s="11">
+      <c r="N6" s="4">
+        <v>50</v>
+      </c>
+      <c r="O6" s="5">
         <v>100</v>
       </c>
       <c r="P6" s="4">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="Q6" s="5">
+        <v>75</v>
+      </c>
+      <c r="R6" s="9">
+        <v>25</v>
+      </c>
+      <c r="S6" s="11">
         <v>100</v>
       </c>
-      <c r="R6" s="4">
-        <v>25</v>
-      </c>
-      <c r="S6" s="5">
-        <v>75</v>
-      </c>
       <c r="T6" s="9">
         <v>75</v>
       </c>
       <c r="U6" s="5">
         <v>50</v>
       </c>
-      <c r="V6" s="39"/>
-      <c r="W6" s="48"/>
       <c r="Y6" s="24">
         <v>3</v>
       </c>
-      <c r="Z6" s="9">
-        <v>50</v>
-      </c>
-      <c r="AA6" s="11">
-        <v>75</v>
+      <c r="Z6" s="4">
+        <v>50</v>
+      </c>
+      <c r="AA6" s="5">
+        <v>100</v>
       </c>
       <c r="AB6" s="4">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="AC6" s="5">
-        <v>100</v>
-      </c>
-      <c r="AD6" s="4">
-        <v>75</v>
-      </c>
-      <c r="AE6" s="5">
-        <v>50</v>
+        <v>50</v>
+      </c>
+      <c r="AD6" s="9">
+        <v>50</v>
+      </c>
+      <c r="AE6" s="11">
+        <v>75</v>
       </c>
       <c r="AF6" s="9">
         <v>50</v>
@@ -5973,26 +5956,24 @@
       <c r="AG6" s="5">
         <v>100</v>
       </c>
-      <c r="AH6" s="39"/>
-      <c r="AI6" s="48"/>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A7" s="24">
         <v>4</v>
       </c>
-      <c r="B7" s="9">
-        <v>50</v>
+      <c r="B7" s="36">
+        <v>25</v>
       </c>
       <c r="C7" s="36">
         <v>75</v>
       </c>
       <c r="D7" s="36">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E7" s="36">
         <v>75</v>
       </c>
-      <c r="F7" s="36">
+      <c r="F7" s="9">
         <v>50</v>
       </c>
       <c r="G7" s="36">
@@ -6004,27 +5985,25 @@
       <c r="I7" s="36">
         <v>25</v>
       </c>
-      <c r="J7" s="39"/>
-      <c r="K7" s="48"/>
       <c r="M7" s="24">
         <v>4</v>
       </c>
-      <c r="N7" s="9">
-        <v>75</v>
-      </c>
-      <c r="O7" s="11">
+      <c r="N7" s="4">
+        <v>25</v>
+      </c>
+      <c r="O7" s="5">
+        <v>75</v>
+      </c>
+      <c r="P7" s="4">
+        <v>50</v>
+      </c>
+      <c r="Q7" s="5">
         <v>100</v>
       </c>
-      <c r="P7" s="4">
-        <v>25</v>
-      </c>
-      <c r="Q7" s="5">
-        <v>75</v>
-      </c>
-      <c r="R7" s="4">
-        <v>50</v>
-      </c>
-      <c r="S7" s="5">
+      <c r="R7" s="9">
+        <v>75</v>
+      </c>
+      <c r="S7" s="11">
         <v>100</v>
       </c>
       <c r="T7" s="9">
@@ -6033,59 +6012,55 @@
       <c r="U7" s="5">
         <v>50</v>
       </c>
-      <c r="V7" s="39"/>
-      <c r="W7" s="48"/>
       <c r="Y7" s="24">
         <v>4</v>
       </c>
-      <c r="Z7" s="9">
-        <v>50</v>
-      </c>
-      <c r="AA7" s="11">
+      <c r="Z7" s="4">
+        <v>50</v>
+      </c>
+      <c r="AA7" s="5">
         <v>75</v>
       </c>
       <c r="AB7" s="4">
         <v>50</v>
       </c>
       <c r="AC7" s="5">
-        <v>75</v>
-      </c>
-      <c r="AD7" s="4">
-        <v>50</v>
-      </c>
-      <c r="AE7" s="5">
         <v>100</v>
       </c>
+      <c r="AD7" s="9">
+        <v>50</v>
+      </c>
+      <c r="AE7" s="11">
+        <v>75</v>
+      </c>
       <c r="AF7" s="9">
         <v>50</v>
       </c>
       <c r="AG7" s="5">
         <v>25</v>
       </c>
-      <c r="AH7" s="39"/>
-      <c r="AI7" s="48"/>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A8" s="24">
         <v>5</v>
       </c>
-      <c r="B8" s="9">
-        <v>25</v>
+      <c r="B8" s="36">
+        <v>0</v>
       </c>
       <c r="C8" s="36">
         <v>75</v>
       </c>
       <c r="D8" s="36">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E8" s="36">
-        <v>75</v>
-      </c>
-      <c r="F8" s="36">
+        <v>100</v>
+      </c>
+      <c r="F8" s="9">
         <v>25</v>
       </c>
       <c r="G8" s="36">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="H8" s="36">
         <v>0</v>
@@ -6093,27 +6068,25 @@
       <c r="I8" s="36">
         <v>75</v>
       </c>
-      <c r="J8" s="39"/>
-      <c r="K8" s="48"/>
       <c r="M8" s="24">
         <v>5</v>
       </c>
-      <c r="N8" s="9">
-        <v>75</v>
-      </c>
-      <c r="O8" s="11">
-        <v>50</v>
+      <c r="N8" s="4">
+        <v>75</v>
+      </c>
+      <c r="O8" s="5">
+        <v>75</v>
       </c>
       <c r="P8" s="4">
         <v>75</v>
       </c>
       <c r="Q8" s="5">
-        <v>75</v>
-      </c>
-      <c r="R8" s="4">
-        <v>75</v>
-      </c>
-      <c r="S8" s="5">
+        <v>50</v>
+      </c>
+      <c r="R8" s="9">
+        <v>75</v>
+      </c>
+      <c r="S8" s="11">
         <v>50</v>
       </c>
       <c r="T8" s="9">
@@ -6122,27 +6095,25 @@
       <c r="U8" s="5">
         <v>75</v>
       </c>
-      <c r="V8" s="39"/>
-      <c r="W8" s="48"/>
       <c r="Y8" s="24">
         <v>5</v>
       </c>
-      <c r="Z8" s="9">
-        <v>75</v>
-      </c>
-      <c r="AA8" s="11">
-        <v>50</v>
+      <c r="Z8" s="4">
+        <v>75</v>
+      </c>
+      <c r="AA8" s="5">
+        <v>75</v>
       </c>
       <c r="AB8" s="4">
-        <v>75</v>
-      </c>
-      <c r="AC8" s="5">
-        <v>75</v>
-      </c>
-      <c r="AD8" s="4">
-        <v>50</v>
-      </c>
-      <c r="AE8" s="4">
+        <v>50</v>
+      </c>
+      <c r="AC8" s="4">
+        <v>50</v>
+      </c>
+      <c r="AD8" s="9">
+        <v>75</v>
+      </c>
+      <c r="AE8" s="11">
         <v>50</v>
       </c>
       <c r="AF8" s="9">
@@ -6151,59 +6122,55 @@
       <c r="AG8" s="5">
         <v>100</v>
       </c>
-      <c r="AH8" s="39"/>
-      <c r="AI8" s="48"/>
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A9" s="24">
         <v>6</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="36">
+        <v>25</v>
+      </c>
+      <c r="C9" s="36">
+        <v>75</v>
+      </c>
+      <c r="D9" s="36">
+        <v>25</v>
+      </c>
+      <c r="E9" s="36">
+        <v>75</v>
+      </c>
+      <c r="F9" s="9">
         <v>0</v>
       </c>
-      <c r="C9" s="36">
+      <c r="G9" s="36">
         <v>100</v>
       </c>
-      <c r="D9" s="36">
-        <v>25</v>
-      </c>
-      <c r="E9" s="36">
-        <v>75</v>
-      </c>
-      <c r="F9" s="36">
-        <v>25</v>
-      </c>
-      <c r="G9" s="36">
-        <v>75</v>
-      </c>
       <c r="H9" s="36">
         <v>50</v>
       </c>
       <c r="I9" s="36">
         <v>50</v>
       </c>
-      <c r="J9" s="39"/>
-      <c r="K9" s="48"/>
       <c r="M9" s="24">
         <v>6</v>
       </c>
-      <c r="N9" s="9">
-        <v>25</v>
-      </c>
-      <c r="O9" s="11">
-        <v>75</v>
+      <c r="N9" s="4">
+        <v>0</v>
+      </c>
+      <c r="O9" s="5">
+        <v>100</v>
       </c>
       <c r="P9" s="4">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Q9" s="5">
-        <v>100</v>
-      </c>
-      <c r="R9" s="4">
-        <v>50</v>
-      </c>
-      <c r="S9" s="5">
-        <v>50</v>
+        <v>50</v>
+      </c>
+      <c r="R9" s="9">
+        <v>25</v>
+      </c>
+      <c r="S9" s="11">
+        <v>75</v>
       </c>
       <c r="T9" s="9">
         <v>100</v>
@@ -6211,28 +6178,26 @@
       <c r="U9" s="5">
         <v>0</v>
       </c>
-      <c r="V9" s="39"/>
-      <c r="W9" s="48"/>
       <c r="Y9" s="24">
         <v>6</v>
       </c>
-      <c r="Z9" s="9">
+      <c r="Z9" s="4">
+        <v>25</v>
+      </c>
+      <c r="AA9" s="5">
+        <v>75</v>
+      </c>
+      <c r="AB9" s="4">
+        <v>25</v>
+      </c>
+      <c r="AC9" s="5">
+        <v>75</v>
+      </c>
+      <c r="AD9" s="9">
         <v>0</v>
       </c>
-      <c r="AA9" s="11">
+      <c r="AE9" s="11">
         <v>100</v>
-      </c>
-      <c r="AB9" s="4">
-        <v>25</v>
-      </c>
-      <c r="AC9" s="5">
-        <v>75</v>
-      </c>
-      <c r="AD9" s="4">
-        <v>25</v>
-      </c>
-      <c r="AE9" s="5">
-        <v>75</v>
       </c>
       <c r="AF9" s="9">
         <v>100</v>
@@ -6240,27 +6205,25 @@
       <c r="AG9" s="5">
         <v>0</v>
       </c>
-      <c r="AH9" s="39"/>
-      <c r="AI9" s="48"/>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A10" s="24">
         <v>7</v>
       </c>
-      <c r="B10" s="9">
-        <v>25</v>
+      <c r="B10" s="36">
+        <v>0</v>
       </c>
       <c r="C10" s="36">
+        <v>75</v>
+      </c>
+      <c r="D10" s="36">
+        <v>75</v>
+      </c>
+      <c r="E10" s="36">
         <v>100</v>
       </c>
-      <c r="D10" s="36">
-        <v>0</v>
-      </c>
-      <c r="E10" s="36">
-        <v>75</v>
-      </c>
-      <c r="F10" s="36">
-        <v>75</v>
+      <c r="F10" s="9">
+        <v>25</v>
       </c>
       <c r="G10" s="36">
         <v>100</v>
@@ -6271,28 +6234,26 @@
       <c r="I10" s="36">
         <v>100</v>
       </c>
-      <c r="J10" s="39"/>
-      <c r="K10" s="48"/>
       <c r="M10" s="24">
         <v>7</v>
       </c>
-      <c r="N10" s="9">
-        <v>25</v>
-      </c>
-      <c r="O10" s="11">
+      <c r="N10" s="4">
+        <v>25</v>
+      </c>
+      <c r="O10" s="5">
+        <v>75</v>
+      </c>
+      <c r="P10" s="4">
+        <v>75</v>
+      </c>
+      <c r="Q10" s="5">
+        <v>50</v>
+      </c>
+      <c r="R10" s="9">
+        <v>25</v>
+      </c>
+      <c r="S10" s="11">
         <v>100</v>
-      </c>
-      <c r="P10" s="4">
-        <v>25</v>
-      </c>
-      <c r="Q10" s="5">
-        <v>75</v>
-      </c>
-      <c r="R10" s="4">
-        <v>75</v>
-      </c>
-      <c r="S10" s="5">
-        <v>50</v>
       </c>
       <c r="T10" s="9">
         <v>25</v>
@@ -6300,57 +6261,53 @@
       <c r="U10" s="5">
         <v>100</v>
       </c>
-      <c r="V10" s="39"/>
-      <c r="W10" s="48"/>
       <c r="Y10" s="24">
         <v>7</v>
       </c>
-      <c r="Z10" s="9">
-        <v>25</v>
-      </c>
-      <c r="AA10" s="11">
+      <c r="Z10" s="4">
+        <v>25</v>
+      </c>
+      <c r="AA10" s="5">
+        <v>75</v>
+      </c>
+      <c r="AB10" s="4">
+        <v>75</v>
+      </c>
+      <c r="AC10" s="5">
+        <v>50</v>
+      </c>
+      <c r="AD10" s="9">
+        <v>25</v>
+      </c>
+      <c r="AE10" s="11">
         <v>100</v>
       </c>
-      <c r="AB10" s="4">
-        <v>25</v>
-      </c>
-      <c r="AC10" s="5">
-        <v>75</v>
-      </c>
-      <c r="AD10" s="4">
-        <v>75</v>
-      </c>
-      <c r="AE10" s="5">
-        <v>50</v>
-      </c>
       <c r="AF10" s="9">
         <v>25</v>
       </c>
       <c r="AG10" s="5">
         <v>75</v>
       </c>
-      <c r="AH10" s="39"/>
-      <c r="AI10" s="48"/>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A11" s="24">
         <v>8</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11" s="36">
+        <v>25</v>
+      </c>
+      <c r="C11" s="36">
+        <v>75</v>
+      </c>
+      <c r="D11" s="36">
+        <v>25</v>
+      </c>
+      <c r="E11" s="36">
+        <v>75</v>
+      </c>
+      <c r="F11" s="9">
         <v>0</v>
       </c>
-      <c r="C11" s="36">
-        <v>75</v>
-      </c>
-      <c r="D11" s="36">
-        <v>25</v>
-      </c>
-      <c r="E11" s="36">
-        <v>75</v>
-      </c>
-      <c r="F11" s="36">
-        <v>25</v>
-      </c>
       <c r="G11" s="36">
         <v>75</v>
       </c>
@@ -6360,27 +6317,25 @@
       <c r="I11" s="36">
         <v>75</v>
       </c>
-      <c r="J11" s="39"/>
-      <c r="K11" s="48"/>
       <c r="M11" s="24">
         <v>8</v>
       </c>
-      <c r="N11" s="9">
+      <c r="N11" s="4">
+        <v>50</v>
+      </c>
+      <c r="O11" s="5">
+        <v>50</v>
+      </c>
+      <c r="P11" s="4">
+        <v>50</v>
+      </c>
+      <c r="Q11" s="5">
+        <v>75</v>
+      </c>
+      <c r="R11" s="9">
         <v>0</v>
       </c>
-      <c r="O11" s="11">
-        <v>75</v>
-      </c>
-      <c r="P11" s="4">
-        <v>50</v>
-      </c>
-      <c r="Q11" s="5">
-        <v>50</v>
-      </c>
-      <c r="R11" s="4">
-        <v>50</v>
-      </c>
-      <c r="S11" s="5">
+      <c r="S11" s="11">
         <v>75</v>
       </c>
       <c r="T11" s="9">
@@ -6389,28 +6344,26 @@
       <c r="U11" s="5">
         <v>50</v>
       </c>
-      <c r="V11" s="39"/>
-      <c r="W11" s="48"/>
       <c r="Y11" s="24">
         <v>8</v>
       </c>
-      <c r="Z11" s="9">
+      <c r="Z11" s="4">
+        <v>50</v>
+      </c>
+      <c r="AA11" s="5">
+        <v>50</v>
+      </c>
+      <c r="AB11" s="4">
+        <v>50</v>
+      </c>
+      <c r="AC11" s="5">
+        <v>50</v>
+      </c>
+      <c r="AD11" s="9">
         <v>0</v>
       </c>
-      <c r="AA11" s="11">
-        <v>75</v>
-      </c>
-      <c r="AB11" s="4">
-        <v>50</v>
-      </c>
-      <c r="AC11" s="5">
-        <v>50</v>
-      </c>
-      <c r="AD11" s="4">
-        <v>50</v>
-      </c>
-      <c r="AE11" s="5">
-        <v>50</v>
+      <c r="AE11" s="11">
+        <v>75</v>
       </c>
       <c r="AF11" s="9">
         <v>75</v>
@@ -6418,14 +6371,12 @@
       <c r="AG11" s="5">
         <v>50</v>
       </c>
-      <c r="AH11" s="39"/>
-      <c r="AI11" s="48"/>
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A12" s="24">
         <v>9</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B12" s="36">
         <v>25</v>
       </c>
       <c r="C12" s="36">
@@ -6435,13 +6386,13 @@
         <v>25</v>
       </c>
       <c r="E12" s="36">
-        <v>75</v>
-      </c>
-      <c r="F12" s="36">
+        <v>50</v>
+      </c>
+      <c r="F12" s="9">
         <v>25</v>
       </c>
       <c r="G12" s="36">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="H12" s="36">
         <v>0</v>
@@ -6449,57 +6400,53 @@
       <c r="I12" s="36">
         <v>75</v>
       </c>
-      <c r="J12" s="39"/>
-      <c r="K12" s="48"/>
       <c r="M12" s="24">
         <v>9</v>
       </c>
-      <c r="N12" s="9">
-        <v>25</v>
-      </c>
-      <c r="O12" s="11">
+      <c r="N12" s="4">
+        <v>25</v>
+      </c>
+      <c r="O12" s="5">
+        <v>50</v>
+      </c>
+      <c r="P12" s="4">
+        <v>25</v>
+      </c>
+      <c r="Q12" s="5">
+        <v>75</v>
+      </c>
+      <c r="R12" s="9">
+        <v>25</v>
+      </c>
+      <c r="S12" s="11">
         <v>100</v>
       </c>
-      <c r="P12" s="4">
-        <v>25</v>
-      </c>
-      <c r="Q12" s="5">
-        <v>50</v>
-      </c>
-      <c r="R12" s="4">
-        <v>25</v>
-      </c>
-      <c r="S12" s="5">
-        <v>75</v>
-      </c>
       <c r="T12" s="9">
         <v>25</v>
       </c>
       <c r="U12" s="5">
         <v>75</v>
       </c>
-      <c r="V12" s="39"/>
-      <c r="W12" s="48"/>
       <c r="Y12" s="24">
         <v>9</v>
       </c>
-      <c r="Z12" s="9">
-        <v>25</v>
-      </c>
-      <c r="AA12" s="11">
+      <c r="Z12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="5">
+        <v>75</v>
+      </c>
+      <c r="AB12" s="4">
+        <v>25</v>
+      </c>
+      <c r="AC12" s="5">
+        <v>50</v>
+      </c>
+      <c r="AD12" s="9">
+        <v>25</v>
+      </c>
+      <c r="AE12" s="11">
         <v>100</v>
-      </c>
-      <c r="AB12" s="4">
-        <v>0</v>
-      </c>
-      <c r="AC12" s="5">
-        <v>75</v>
-      </c>
-      <c r="AD12" s="4">
-        <v>25</v>
-      </c>
-      <c r="AE12" s="5">
-        <v>50</v>
       </c>
       <c r="AF12" s="9">
         <v>0</v>
@@ -6507,30 +6454,28 @@
       <c r="AG12" s="5">
         <v>50</v>
       </c>
-      <c r="AH12" s="39"/>
-      <c r="AI12" s="48"/>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A13" s="24">
         <v>10</v>
       </c>
-      <c r="B13" s="9">
+      <c r="B13" s="36">
         <v>0</v>
       </c>
       <c r="C13" s="36">
+        <v>75</v>
+      </c>
+      <c r="D13" s="36">
+        <v>25</v>
+      </c>
+      <c r="E13" s="36">
+        <v>50</v>
+      </c>
+      <c r="F13" s="9">
+        <v>0</v>
+      </c>
+      <c r="G13" s="36">
         <v>100</v>
-      </c>
-      <c r="D13" s="36">
-        <v>0</v>
-      </c>
-      <c r="E13" s="36">
-        <v>75</v>
-      </c>
-      <c r="F13" s="36">
-        <v>25</v>
-      </c>
-      <c r="G13" s="36">
-        <v>50</v>
       </c>
       <c r="H13" s="36">
         <v>0</v>
@@ -6538,56 +6483,52 @@
       <c r="I13" s="36">
         <v>50</v>
       </c>
-      <c r="J13" s="39"/>
-      <c r="K13" s="48"/>
       <c r="M13" s="24">
         <v>10</v>
       </c>
-      <c r="N13" s="9">
+      <c r="N13" s="4">
         <v>0</v>
       </c>
-      <c r="O13" s="11">
+      <c r="O13" s="5">
+        <v>50</v>
+      </c>
+      <c r="P13" s="4">
+        <v>25</v>
+      </c>
+      <c r="Q13" s="5">
+        <v>50</v>
+      </c>
+      <c r="R13" s="9">
+        <v>0</v>
+      </c>
+      <c r="S13" s="11">
         <v>100</v>
       </c>
-      <c r="P13" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="5">
-        <v>50</v>
-      </c>
-      <c r="R13" s="4">
-        <v>25</v>
-      </c>
-      <c r="S13" s="5">
-        <v>50</v>
-      </c>
       <c r="T13" s="9">
         <v>25</v>
       </c>
       <c r="U13" s="5">
         <v>25</v>
       </c>
-      <c r="V13" s="39"/>
-      <c r="W13" s="48"/>
       <c r="Y13" s="24">
         <v>10</v>
       </c>
-      <c r="Z13" s="9">
+      <c r="Z13" s="4">
+        <v>25</v>
+      </c>
+      <c r="AA13" s="5">
+        <v>75</v>
+      </c>
+      <c r="AB13" s="4">
+        <v>75</v>
+      </c>
+      <c r="AC13" s="5">
+        <v>75</v>
+      </c>
+      <c r="AD13" s="9">
         <v>0</v>
       </c>
-      <c r="AA13" s="11">
-        <v>75</v>
-      </c>
-      <c r="AB13" s="4">
-        <v>25</v>
-      </c>
-      <c r="AC13" s="5">
-        <v>75</v>
-      </c>
-      <c r="AD13" s="4">
-        <v>75</v>
-      </c>
-      <c r="AE13" s="5">
+      <c r="AE13" s="11">
         <v>75</v>
       </c>
       <c r="AF13" s="9">
@@ -6596,27 +6537,25 @@
       <c r="AG13" s="5">
         <v>75</v>
       </c>
-      <c r="AH13" s="39"/>
-      <c r="AI13" s="48"/>
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A14" s="24">
         <v>11</v>
       </c>
-      <c r="B14" s="9">
+      <c r="B14" s="36">
         <v>25</v>
       </c>
       <c r="C14" s="36">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="D14" s="36">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="E14" s="36">
-        <v>50</v>
-      </c>
-      <c r="F14" s="36">
-        <v>75</v>
+        <v>75</v>
+      </c>
+      <c r="F14" s="9">
+        <v>25</v>
       </c>
       <c r="G14" s="36">
         <v>75</v>
@@ -6627,27 +6566,25 @@
       <c r="I14" s="36">
         <v>75</v>
       </c>
-      <c r="J14" s="39"/>
-      <c r="K14" s="48"/>
       <c r="M14" s="24">
         <v>11</v>
       </c>
-      <c r="N14" s="9">
-        <v>25</v>
-      </c>
-      <c r="O14" s="11">
-        <v>75</v>
+      <c r="N14" s="4">
+        <v>25</v>
+      </c>
+      <c r="O14" s="5">
+        <v>50</v>
       </c>
       <c r="P14" s="4">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="Q14" s="5">
-        <v>50</v>
-      </c>
-      <c r="R14" s="4">
-        <v>50</v>
-      </c>
-      <c r="S14" s="5">
+        <v>75</v>
+      </c>
+      <c r="R14" s="9">
+        <v>25</v>
+      </c>
+      <c r="S14" s="11">
         <v>75</v>
       </c>
       <c r="T14" s="9">
@@ -6656,27 +6593,25 @@
       <c r="U14" s="5">
         <v>50</v>
       </c>
-      <c r="V14" s="39"/>
-      <c r="W14" s="48"/>
       <c r="Y14" s="24">
         <v>11</v>
       </c>
-      <c r="Z14" s="9">
-        <v>50</v>
-      </c>
-      <c r="AA14" s="11">
-        <v>75</v>
+      <c r="Z14" s="4">
+        <v>25</v>
+      </c>
+      <c r="AA14" s="5">
+        <v>50</v>
       </c>
       <c r="AB14" s="4">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="AC14" s="5">
-        <v>50</v>
-      </c>
-      <c r="AD14" s="4">
-        <v>50</v>
-      </c>
-      <c r="AE14" s="5">
+        <v>75</v>
+      </c>
+      <c r="AD14" s="9">
+        <v>50</v>
+      </c>
+      <c r="AE14" s="11">
         <v>75</v>
       </c>
       <c r="AF14" s="9">
@@ -6685,8 +6620,6 @@
       <c r="AG14" s="5">
         <v>50</v>
       </c>
-      <c r="AH14" s="39"/>
-      <c r="AI14" s="48"/>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A15" s="24">
@@ -6816,15 +6749,15 @@
         <v>15</v>
       </c>
       <c r="B18" s="17"/>
-      <c r="C18" s="64"/>
-      <c r="D18" s="64"/>
-      <c r="E18" s="64"/>
-      <c r="F18" s="64"/>
-      <c r="G18" s="64"/>
-      <c r="H18" s="64"/>
-      <c r="I18" s="64"/>
-      <c r="J18" s="62"/>
-      <c r="K18" s="63"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="62"/>
+      <c r="E18" s="62"/>
+      <c r="F18" s="62"/>
+      <c r="G18" s="62"/>
+      <c r="H18" s="62"/>
+      <c r="I18" s="62"/>
+      <c r="J18" s="60"/>
+      <c r="K18" s="61"/>
       <c r="M18" s="25">
         <v>15</v>
       </c>
@@ -6836,8 +6769,8 @@
       <c r="S18" s="16"/>
       <c r="T18" s="17"/>
       <c r="U18" s="16"/>
-      <c r="V18" s="62"/>
-      <c r="W18" s="63"/>
+      <c r="V18" s="60"/>
+      <c r="W18" s="61"/>
       <c r="Y18" s="25">
         <v>15</v>
       </c>
@@ -6849,12 +6782,12 @@
       <c r="AE18" s="16"/>
       <c r="AF18" s="17"/>
       <c r="AG18" s="16"/>
-      <c r="AH18" s="62"/>
-      <c r="AI18" s="63"/>
+      <c r="AH18" s="60"/>
+      <c r="AI18" s="61"/>
     </row>
     <row r="19" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A19" s="69"/>
-      <c r="B19" s="68"/>
+      <c r="A19" s="67"/>
+      <c r="B19" s="66"/>
       <c r="C19" s="37"/>
       <c r="D19" s="37"/>
       <c r="E19" s="37"/>
@@ -6889,31 +6822,31 @@
     </row>
     <row r="20" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A20" s="27" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B20" s="21">
         <f>AVERAGE(B4:B18)</f>
-        <v>20.454545454545453</v>
+        <v>18.181818181818183</v>
       </c>
       <c r="C20" s="43">
-        <f t="shared" ref="C20:I20" si="0">AVERAGE(C4:C18)</f>
-        <v>84.090909090909093</v>
+        <f>AVERAGE(C4:C18)</f>
+        <v>72.727272727272734</v>
       </c>
       <c r="D20" s="43">
-        <f t="shared" si="0"/>
-        <v>18.181818181818183</v>
+        <f t="shared" ref="C20:I20" si="0">AVERAGE(D4:D18)</f>
+        <v>47.727272727272727</v>
       </c>
       <c r="E20" s="43">
         <f t="shared" si="0"/>
         <v>72.727272727272734</v>
       </c>
       <c r="F20" s="43">
-        <f t="shared" si="0"/>
-        <v>47.727272727272727</v>
+        <f>AVERAGE(F4:F18)</f>
+        <v>20.454545454545453</v>
       </c>
       <c r="G20" s="43">
         <f>AVERAGE(G4:G18)</f>
-        <v>72.727272727272734</v>
+        <v>84.090909090909093</v>
       </c>
       <c r="H20" s="43">
         <f t="shared" si="0"/>
@@ -6925,38 +6858,38 @@
       </c>
       <c r="J20" s="43">
         <f>AVERAGE(B20,D20, F20, H20)</f>
-        <v>27.840909090909093</v>
+        <v>27.84090909090909</v>
       </c>
       <c r="K20" s="6">
         <f>AVERAGE(C20, E20, G20, I20)</f>
         <v>75</v>
       </c>
       <c r="M20" s="27" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="N20" s="29">
-        <f t="shared" ref="N20:U20" si="1">AVERAGE(N4:N18)</f>
-        <v>29.545454545454547</v>
+        <f>AVERAGE(N4:N18)</f>
+        <v>31.818181818181817</v>
       </c>
       <c r="O20" s="6">
-        <f t="shared" si="1"/>
-        <v>84.090909090909093</v>
+        <f>AVERAGE(O4:O18)</f>
+        <v>70.454545454545453</v>
       </c>
       <c r="P20" s="29">
-        <f t="shared" si="1"/>
-        <v>31.818181818181817</v>
+        <f t="shared" ref="N20:U20" si="1">AVERAGE(P4:P18)</f>
+        <v>52.272727272727273</v>
       </c>
       <c r="Q20" s="6">
         <f t="shared" si="1"/>
-        <v>70.454545454545453</v>
+        <v>65.909090909090907</v>
       </c>
       <c r="R20" s="21">
-        <f t="shared" si="1"/>
-        <v>52.272727272727273</v>
+        <f>AVERAGE(R4:R18)</f>
+        <v>29.545454545454547</v>
       </c>
       <c r="S20" s="28">
-        <f t="shared" si="1"/>
-        <v>65.909090909090907</v>
+        <f>AVERAGE(S4:S18)</f>
+        <v>84.090909090909093</v>
       </c>
       <c r="T20" s="29">
         <f t="shared" si="1"/>
@@ -6968,38 +6901,38 @@
       </c>
       <c r="V20" s="29">
         <f>AVERAGE(N20,P20, R20, T20)</f>
-        <v>39.772727272727266</v>
+        <v>39.772727272727273</v>
       </c>
       <c r="W20" s="6">
         <f>AVERAGE(O20, Q20, S20, U20)</f>
         <v>68.75</v>
       </c>
       <c r="Y20" s="27" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="Z20" s="29">
-        <f t="shared" ref="Z20:AG20" si="2">AVERAGE(Z4:Z18)</f>
-        <v>31.818181818181817</v>
+        <f>AVERAGE(Z4:Z18)</f>
+        <v>36.363636363636367</v>
       </c>
       <c r="AA20" s="6">
-        <f t="shared" si="2"/>
-        <v>79.545454545454547</v>
+        <f>AVERAGE(AA4:AA18)</f>
+        <v>75</v>
       </c>
       <c r="AB20" s="29">
-        <f t="shared" si="2"/>
-        <v>36.363636363636367</v>
+        <f t="shared" ref="Z20:AG20" si="2">AVERAGE(AB4:AB18)</f>
+        <v>56.81818181818182</v>
       </c>
       <c r="AC20" s="6">
         <f t="shared" si="2"/>
-        <v>75</v>
+        <v>63.636363636363633</v>
       </c>
       <c r="AD20" s="21">
-        <f t="shared" si="2"/>
-        <v>56.81818181818182</v>
+        <f>AVERAGE(AD4:AD18)</f>
+        <v>31.818181818181817</v>
       </c>
       <c r="AE20" s="28">
-        <f t="shared" si="2"/>
-        <v>63.636363636363633</v>
+        <f>AVERAGE(AE4:AE18)</f>
+        <v>79.545454545454547</v>
       </c>
       <c r="AF20" s="29">
         <f t="shared" si="2"/>
@@ -7020,31 +6953,31 @@
     </row>
     <row r="21" spans="1:35" s="2" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A21" s="55" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B21" s="53">
         <f>_xlfn.STDEV.S(B4:B18)</f>
-        <v>15.075567228888183</v>
+        <v>11.677484162422843</v>
       </c>
       <c r="C21" s="49">
-        <f t="shared" ref="C21:I21" si="3">_xlfn.STDEV.S(C4:C18)</f>
-        <v>12.613124477737815</v>
+        <f>_xlfn.STDEV.S(C4:C18)</f>
+        <v>7.5377836144440913</v>
       </c>
       <c r="D21" s="49">
-        <f t="shared" si="3"/>
-        <v>11.677484162422843</v>
+        <f t="shared" ref="C21:I21" si="3">_xlfn.STDEV.S(D4:D18)</f>
+        <v>23.596995186213476</v>
       </c>
       <c r="E21" s="49">
         <f t="shared" si="3"/>
-        <v>7.5377836144440913</v>
+        <v>20.780235364840834</v>
       </c>
       <c r="F21" s="49">
-        <f t="shared" si="3"/>
-        <v>23.596995186213476</v>
+        <f>_xlfn.STDEV.S(F4:F18)</f>
+        <v>15.075567228888183</v>
       </c>
       <c r="G21" s="49">
-        <f t="shared" si="3"/>
-        <v>20.780235364840834</v>
+        <f>_xlfn.STDEV.S(G4:G18)</f>
+        <v>12.613124477737815</v>
       </c>
       <c r="H21" s="49">
         <f t="shared" si="3"/>
@@ -7063,30 +6996,30 @@
         <v>17.049858486761838</v>
       </c>
       <c r="M21" s="55" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N21" s="51">
-        <f t="shared" ref="N21:U21" si="4">_xlfn.STDEV.S(N4:N18)</f>
-        <v>24.541245430351069</v>
+        <f>_xlfn.STDEV.S(N4:N18)</f>
+        <v>22.61335084333227</v>
       </c>
       <c r="O21" s="52">
+        <f>_xlfn.STDEV.S(O4:O18)</f>
+        <v>18.768929838238705</v>
+      </c>
+      <c r="P21" s="51">
+        <f t="shared" ref="N21:U21" si="4">_xlfn.STDEV.S(P4:P18)</f>
+        <v>20.780235364840841</v>
+      </c>
+      <c r="Q21" s="52">
         <f t="shared" si="4"/>
         <v>16.854996561581046</v>
       </c>
-      <c r="P21" s="51">
-        <f t="shared" si="4"/>
-        <v>22.61335084333227</v>
-      </c>
-      <c r="Q21" s="52">
-        <f t="shared" si="4"/>
-        <v>18.768929838238705</v>
-      </c>
       <c r="R21" s="53">
-        <f t="shared" si="4"/>
-        <v>20.780235364840841</v>
+        <f>_xlfn.STDEV.S(R4:R18)</f>
+        <v>24.541245430351069</v>
       </c>
       <c r="S21" s="54">
-        <f t="shared" si="4"/>
+        <f>_xlfn.STDEV.S(S4:S18)</f>
         <v>16.854996561581046</v>
       </c>
       <c r="T21" s="51">
@@ -7106,31 +7039,31 @@
         <v>22.311875031961353</v>
       </c>
       <c r="Y21" s="55" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="Z21" s="51">
-        <f t="shared" ref="Z21:AG21" si="5">_xlfn.STDEV.S(Z4:Z18)</f>
-        <v>25.226248955475651</v>
+        <f>_xlfn.STDEV.S(Z4:Z18)</f>
+        <v>20.50498830661811</v>
       </c>
       <c r="AA21" s="52">
-        <f t="shared" si="5"/>
-        <v>15.075567228888204</v>
+        <f>_xlfn.STDEV.S(AA4:AA18)</f>
+        <v>15.811388300841896</v>
       </c>
       <c r="AB21" s="51">
-        <f t="shared" si="5"/>
-        <v>20.50498830661811</v>
+        <f t="shared" ref="Z21:AG21" si="5">_xlfn.STDEV.S(AB4:AB18)</f>
+        <v>19.656134827672403</v>
       </c>
       <c r="AC21" s="52">
         <f t="shared" si="5"/>
-        <v>15.811388300841896</v>
+        <v>17.188791273808221</v>
       </c>
       <c r="AD21" s="53">
-        <f t="shared" si="5"/>
-        <v>19.656134827672403</v>
+        <f>_xlfn.STDEV.S(AD4:AD18)</f>
+        <v>25.226248955475651</v>
       </c>
       <c r="AE21" s="54">
-        <f t="shared" si="5"/>
-        <v>17.188791273808221</v>
+        <f>_xlfn.STDEV.S(AE4:AE18)</f>
+        <v>15.075567228888204</v>
       </c>
       <c r="AF21" s="51">
         <f t="shared" si="5"/>
@@ -7195,48 +7128,48 @@
       <c r="B45" s="32">
         <v>25</v>
       </c>
-      <c r="C45" s="65">
+      <c r="C45" s="63">
         <v>75</v>
       </c>
       <c r="D45" s="41"/>
       <c r="E45" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F45"/>
       <c r="G45"/>
       <c r="H45" s="41"/>
       <c r="I45" s="41"/>
-      <c r="J45" s="80"/>
-      <c r="K45" s="80"/>
-      <c r="L45" s="80"/>
-      <c r="M45" s="80"/>
+      <c r="J45" s="71"/>
+      <c r="K45" s="71"/>
+      <c r="L45" s="71"/>
+      <c r="M45" s="71"/>
       <c r="N45" s="32">
         <v>25</v>
       </c>
       <c r="O45" s="33">
         <v>75</v>
       </c>
-      <c r="P45" s="80"/>
+      <c r="P45" s="71"/>
       <c r="Q45" t="s">
-        <v>15</v>
-      </c>
-      <c r="T45" s="80"/>
-      <c r="U45" s="80"/>
-      <c r="V45" s="80"/>
-      <c r="W45" s="80"/>
-      <c r="X45" s="80"/>
-      <c r="Y45" s="80"/>
-      <c r="Z45" s="80"/>
-      <c r="AA45" s="80"/>
-      <c r="AB45" s="80"/>
-      <c r="AC45" s="80"/>
-      <c r="AD45" s="80"/>
-      <c r="AE45" s="80"/>
-      <c r="AF45" s="80"/>
-      <c r="AG45" s="80"/>
+        <v>11</v>
+      </c>
+      <c r="T45" s="71"/>
+      <c r="U45" s="71"/>
+      <c r="V45" s="71"/>
+      <c r="W45" s="71"/>
+      <c r="X45" s="71"/>
+      <c r="Y45" s="71"/>
+      <c r="Z45" s="71"/>
+      <c r="AA45" s="71"/>
+      <c r="AB45" s="71"/>
+      <c r="AC45" s="71"/>
+      <c r="AD45" s="71"/>
+      <c r="AE45" s="71"/>
+      <c r="AF45" s="71"/>
+      <c r="AG45" s="71"/>
     </row>
     <row r="46" spans="1:33" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="80"/>
+      <c r="A46" s="71"/>
       <c r="B46" s="9">
         <v>25</v>
       </c>
@@ -7249,38 +7182,38 @@
       <c r="G46"/>
       <c r="H46" s="41"/>
       <c r="I46" s="41"/>
-      <c r="J46" s="80"/>
-      <c r="K46" s="80"/>
-      <c r="L46" s="80"/>
-      <c r="M46" s="80"/>
+      <c r="J46" s="71"/>
+      <c r="K46" s="71"/>
+      <c r="L46" s="71"/>
+      <c r="M46" s="71"/>
       <c r="N46" s="9">
         <v>25</v>
       </c>
       <c r="O46" s="11">
         <v>75</v>
       </c>
-      <c r="P46" s="80"/>
-      <c r="T46" s="80"/>
-      <c r="U46" s="80"/>
-      <c r="V46" s="80"/>
-      <c r="W46" s="80"/>
-      <c r="X46" s="80"/>
-      <c r="Y46" s="80"/>
+      <c r="P46" s="71"/>
+      <c r="T46" s="71"/>
+      <c r="U46" s="71"/>
+      <c r="V46" s="71"/>
+      <c r="W46" s="71"/>
+      <c r="X46" s="71"/>
+      <c r="Y46" s="71"/>
       <c r="Z46" s="32">
         <v>50</v>
       </c>
       <c r="AA46" s="33">
         <v>75</v>
       </c>
-      <c r="AB46" s="80"/>
+      <c r="AB46" s="71"/>
       <c r="AC46" t="s">
-        <v>15</v>
-      </c>
-      <c r="AF46" s="80"/>
-      <c r="AG46" s="80"/>
+        <v>11</v>
+      </c>
+      <c r="AF46" s="71"/>
+      <c r="AG46" s="71"/>
     </row>
     <row r="47" spans="1:33" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="80"/>
+      <c r="A47" s="71"/>
       <c r="B47" s="9">
         <v>25</v>
       </c>
@@ -7288,51 +7221,51 @@
         <v>100</v>
       </c>
       <c r="D47" s="41"/>
-      <c r="E47" s="72"/>
-      <c r="F47" s="72" t="s">
-        <v>16</v>
-      </c>
-      <c r="G47" s="72" t="s">
-        <v>17</v>
+      <c r="E47" s="70"/>
+      <c r="F47" s="70" t="s">
+        <v>12</v>
+      </c>
+      <c r="G47" s="70" t="s">
+        <v>13</v>
       </c>
       <c r="H47" s="41"/>
       <c r="I47" s="41"/>
-      <c r="J47" s="80"/>
-      <c r="K47" s="80"/>
-      <c r="L47" s="80"/>
-      <c r="M47" s="80"/>
+      <c r="J47" s="71"/>
+      <c r="K47" s="71"/>
+      <c r="L47" s="71"/>
+      <c r="M47" s="71"/>
       <c r="N47" s="9">
         <v>25</v>
       </c>
       <c r="O47" s="11">
         <v>100</v>
       </c>
-      <c r="P47" s="80"/>
-      <c r="Q47" s="72"/>
-      <c r="R47" s="72" t="s">
-        <v>16</v>
-      </c>
-      <c r="S47" s="72" t="s">
-        <v>17</v>
-      </c>
-      <c r="T47" s="80"/>
-      <c r="U47" s="80"/>
-      <c r="V47" s="80"/>
-      <c r="W47" s="80"/>
-      <c r="X47" s="80"/>
-      <c r="Y47" s="80"/>
+      <c r="P47" s="71"/>
+      <c r="Q47" s="70"/>
+      <c r="R47" s="70" t="s">
+        <v>12</v>
+      </c>
+      <c r="S47" s="70" t="s">
+        <v>13</v>
+      </c>
+      <c r="T47" s="71"/>
+      <c r="U47" s="71"/>
+      <c r="V47" s="71"/>
+      <c r="W47" s="71"/>
+      <c r="X47" s="71"/>
+      <c r="Y47" s="71"/>
       <c r="Z47" s="9">
         <v>25</v>
       </c>
       <c r="AA47" s="11">
         <v>75</v>
       </c>
-      <c r="AB47" s="80"/>
-      <c r="AF47" s="80"/>
-      <c r="AG47" s="80"/>
+      <c r="AB47" s="71"/>
+      <c r="AF47" s="71"/>
+      <c r="AG47" s="71"/>
     </row>
     <row r="48" spans="1:33" x14ac:dyDescent="0.15">
-      <c r="A48" s="80"/>
+      <c r="A48" s="71"/>
       <c r="B48" s="9">
         <v>50</v>
       </c>
@@ -7340,62 +7273,62 @@
         <v>75</v>
       </c>
       <c r="D48" s="41"/>
-      <c r="E48" s="70" t="s">
-        <v>18</v>
-      </c>
-      <c r="F48" s="70">
+      <c r="E48" s="68" t="s">
+        <v>14</v>
+      </c>
+      <c r="F48" s="68">
         <v>27.84090909090909</v>
       </c>
-      <c r="G48" s="70">
+      <c r="G48" s="68">
         <v>75</v>
       </c>
       <c r="H48" s="41"/>
-      <c r="I48" s="81"/>
-      <c r="J48" s="80"/>
-      <c r="K48" s="80"/>
-      <c r="L48" s="80"/>
-      <c r="M48" s="80"/>
+      <c r="I48" s="72"/>
+      <c r="J48" s="71"/>
+      <c r="K48" s="71"/>
+      <c r="L48" s="71"/>
+      <c r="M48" s="71"/>
       <c r="N48" s="9">
         <v>75</v>
       </c>
       <c r="O48" s="11">
         <v>100</v>
       </c>
-      <c r="P48" s="80"/>
-      <c r="Q48" s="70" t="s">
-        <v>18</v>
-      </c>
-      <c r="R48" s="70">
+      <c r="P48" s="71"/>
+      <c r="Q48" s="68" t="s">
+        <v>14</v>
+      </c>
+      <c r="R48" s="68">
         <v>39.772727272727273</v>
       </c>
-      <c r="S48" s="70">
+      <c r="S48" s="68">
         <v>68.75</v>
       </c>
-      <c r="T48" s="80"/>
-      <c r="U48" s="80"/>
-      <c r="V48" s="80"/>
-      <c r="W48" s="80"/>
-      <c r="X48" s="80"/>
-      <c r="Y48" s="80"/>
+      <c r="T48" s="71"/>
+      <c r="U48" s="71"/>
+      <c r="V48" s="71"/>
+      <c r="W48" s="71"/>
+      <c r="X48" s="71"/>
+      <c r="Y48" s="71"/>
       <c r="Z48" s="9">
         <v>50</v>
       </c>
       <c r="AA48" s="11">
         <v>75</v>
       </c>
-      <c r="AB48" s="80"/>
-      <c r="AC48" s="72"/>
-      <c r="AD48" s="72" t="s">
-        <v>16</v>
-      </c>
-      <c r="AE48" s="72" t="s">
-        <v>17</v>
-      </c>
-      <c r="AF48" s="80"/>
-      <c r="AG48" s="80"/>
+      <c r="AB48" s="71"/>
+      <c r="AC48" s="70"/>
+      <c r="AD48" s="70" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE48" s="70" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF48" s="71"/>
+      <c r="AG48" s="71"/>
     </row>
     <row r="49" spans="1:33" x14ac:dyDescent="0.15">
-      <c r="A49" s="80"/>
+      <c r="A49" s="71"/>
       <c r="B49" s="9">
         <v>25</v>
       </c>
@@ -7403,64 +7336,64 @@
         <v>75</v>
       </c>
       <c r="D49" s="41"/>
-      <c r="E49" s="70" t="s">
-        <v>19</v>
-      </c>
-      <c r="F49" s="70">
+      <c r="E49" s="68" t="s">
+        <v>15</v>
+      </c>
+      <c r="F49" s="68">
         <v>500.46247357293862</v>
       </c>
-      <c r="G49" s="70">
+      <c r="G49" s="68">
         <v>290.69767441860466</v>
       </c>
       <c r="H49" s="41"/>
       <c r="I49" s="41"/>
-      <c r="J49" s="80"/>
-      <c r="K49" s="80"/>
-      <c r="L49" s="80"/>
-      <c r="M49" s="80"/>
+      <c r="J49" s="71"/>
+      <c r="K49" s="71"/>
+      <c r="L49" s="71"/>
+      <c r="M49" s="71"/>
       <c r="N49" s="9">
         <v>75</v>
       </c>
       <c r="O49" s="11">
         <v>50</v>
       </c>
-      <c r="P49" s="80"/>
-      <c r="Q49" s="70" t="s">
-        <v>19</v>
-      </c>
-      <c r="R49" s="70">
+      <c r="P49" s="71"/>
+      <c r="Q49" s="68" t="s">
+        <v>15</v>
+      </c>
+      <c r="R49" s="68">
         <v>619.71458773784366</v>
       </c>
-      <c r="S49" s="70">
+      <c r="S49" s="68">
         <v>497.81976744186045</v>
       </c>
-      <c r="T49" s="80"/>
-      <c r="U49" s="80"/>
-      <c r="V49" s="80"/>
-      <c r="W49" s="80"/>
-      <c r="X49" s="80"/>
-      <c r="Y49" s="80"/>
+      <c r="T49" s="71"/>
+      <c r="U49" s="71"/>
+      <c r="V49" s="71"/>
+      <c r="W49" s="71"/>
+      <c r="X49" s="71"/>
+      <c r="Y49" s="71"/>
       <c r="Z49" s="9">
         <v>50</v>
       </c>
       <c r="AA49" s="11">
         <v>75</v>
       </c>
-      <c r="AB49" s="80"/>
-      <c r="AC49" s="70" t="s">
-        <v>18</v>
-      </c>
-      <c r="AD49" s="70">
+      <c r="AB49" s="71"/>
+      <c r="AC49" s="68" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD49" s="68">
         <v>41.477272727272727</v>
       </c>
-      <c r="AE49" s="70">
+      <c r="AE49" s="68">
         <v>69.88636363636364</v>
       </c>
-      <c r="AF49" s="80"/>
-      <c r="AG49" s="80"/>
+      <c r="AF49" s="71"/>
+      <c r="AG49" s="71"/>
     </row>
     <row r="50" spans="1:33" x14ac:dyDescent="0.15">
-      <c r="A50" s="80"/>
+      <c r="A50" s="71"/>
       <c r="B50" s="9">
         <v>0</v>
       </c>
@@ -7468,64 +7401,64 @@
         <v>100</v>
       </c>
       <c r="D50" s="41"/>
-      <c r="E50" s="70" t="s">
-        <v>20</v>
-      </c>
-      <c r="F50" s="70">
+      <c r="E50" s="68" t="s">
+        <v>16</v>
+      </c>
+      <c r="F50" s="68">
         <v>44</v>
       </c>
-      <c r="G50" s="70">
+      <c r="G50" s="68">
         <v>44</v>
       </c>
       <c r="H50" s="41"/>
       <c r="I50" s="41"/>
-      <c r="J50" s="80"/>
-      <c r="K50" s="80"/>
-      <c r="L50" s="80"/>
-      <c r="M50" s="80"/>
+      <c r="J50" s="71"/>
+      <c r="K50" s="71"/>
+      <c r="L50" s="71"/>
+      <c r="M50" s="71"/>
       <c r="N50" s="9">
         <v>25</v>
       </c>
       <c r="O50" s="11">
         <v>75</v>
       </c>
-      <c r="P50" s="80"/>
-      <c r="Q50" s="70" t="s">
-        <v>20</v>
-      </c>
-      <c r="R50" s="70">
+      <c r="P50" s="71"/>
+      <c r="Q50" s="68" t="s">
+        <v>16</v>
+      </c>
+      <c r="R50" s="68">
         <v>44</v>
       </c>
-      <c r="S50" s="70">
+      <c r="S50" s="68">
         <v>44</v>
       </c>
-      <c r="T50" s="80"/>
-      <c r="U50" s="80"/>
-      <c r="V50" s="80"/>
-      <c r="W50" s="80"/>
-      <c r="X50" s="80"/>
-      <c r="Y50" s="80"/>
+      <c r="T50" s="71"/>
+      <c r="U50" s="71"/>
+      <c r="V50" s="71"/>
+      <c r="W50" s="71"/>
+      <c r="X50" s="71"/>
+      <c r="Y50" s="71"/>
       <c r="Z50" s="9">
         <v>75</v>
       </c>
       <c r="AA50" s="11">
         <v>50</v>
       </c>
-      <c r="AB50" s="80"/>
-      <c r="AC50" s="70" t="s">
-        <v>19</v>
-      </c>
-      <c r="AD50" s="70">
+      <c r="AB50" s="71"/>
+      <c r="AC50" s="68" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD50" s="68">
         <v>608.81342494714602</v>
       </c>
-      <c r="AE50" s="70">
+      <c r="AE50" s="68">
         <v>452.8937632135308</v>
       </c>
-      <c r="AF50" s="80"/>
-      <c r="AG50" s="80"/>
+      <c r="AF50" s="71"/>
+      <c r="AG50" s="71"/>
     </row>
     <row r="51" spans="1:33" x14ac:dyDescent="0.15">
-      <c r="A51" s="80"/>
+      <c r="A51" s="71"/>
       <c r="B51" s="9">
         <v>25</v>
       </c>
@@ -7533,60 +7466,60 @@
         <v>100</v>
       </c>
       <c r="D51" s="41"/>
-      <c r="E51" s="70" t="s">
-        <v>21</v>
-      </c>
-      <c r="F51" s="70">
+      <c r="E51" s="68" t="s">
+        <v>17</v>
+      </c>
+      <c r="F51" s="68">
         <v>0</v>
       </c>
-      <c r="G51" s="70"/>
+      <c r="G51" s="68"/>
       <c r="H51" s="41"/>
       <c r="I51" s="41"/>
-      <c r="J51" s="80"/>
-      <c r="K51" s="80"/>
-      <c r="L51" s="80"/>
-      <c r="M51" s="80"/>
+      <c r="J51" s="71"/>
+      <c r="K51" s="71"/>
+      <c r="L51" s="71"/>
+      <c r="M51" s="71"/>
       <c r="N51" s="9">
         <v>25</v>
       </c>
       <c r="O51" s="11">
         <v>100</v>
       </c>
-      <c r="P51" s="80"/>
-      <c r="Q51" s="70" t="s">
-        <v>21</v>
-      </c>
-      <c r="R51" s="70">
+      <c r="P51" s="71"/>
+      <c r="Q51" s="68" t="s">
+        <v>17</v>
+      </c>
+      <c r="R51" s="68">
         <v>0</v>
       </c>
-      <c r="S51" s="70"/>
-      <c r="T51" s="80"/>
-      <c r="U51" s="80"/>
-      <c r="V51" s="80"/>
-      <c r="W51" s="80"/>
-      <c r="X51" s="80"/>
-      <c r="Y51" s="80"/>
+      <c r="S51" s="68"/>
+      <c r="T51" s="71"/>
+      <c r="U51" s="71"/>
+      <c r="V51" s="71"/>
+      <c r="W51" s="71"/>
+      <c r="X51" s="71"/>
+      <c r="Y51" s="71"/>
       <c r="Z51" s="9">
         <v>0</v>
       </c>
       <c r="AA51" s="11">
         <v>100</v>
       </c>
-      <c r="AB51" s="80"/>
-      <c r="AC51" s="70" t="s">
-        <v>20</v>
-      </c>
-      <c r="AD51" s="70">
+      <c r="AB51" s="71"/>
+      <c r="AC51" s="68" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD51" s="68">
         <v>44</v>
       </c>
-      <c r="AE51" s="70">
+      <c r="AE51" s="68">
         <v>44</v>
       </c>
-      <c r="AF51" s="80"/>
-      <c r="AG51" s="80"/>
+      <c r="AF51" s="71"/>
+      <c r="AG51" s="71"/>
     </row>
     <row r="52" spans="1:33" x14ac:dyDescent="0.15">
-      <c r="A52" s="80"/>
+      <c r="A52" s="71"/>
       <c r="B52" s="9">
         <v>0</v>
       </c>
@@ -7594,58 +7527,58 @@
         <v>75</v>
       </c>
       <c r="D52" s="41"/>
-      <c r="E52" s="70" t="s">
-        <v>22</v>
-      </c>
-      <c r="F52" s="70">
+      <c r="E52" s="68" t="s">
+        <v>18</v>
+      </c>
+      <c r="F52" s="68">
         <v>80</v>
       </c>
-      <c r="G52" s="70"/>
+      <c r="G52" s="68"/>
       <c r="H52" s="41"/>
       <c r="I52" s="41"/>
-      <c r="J52" s="80"/>
-      <c r="K52" s="80"/>
-      <c r="L52" s="80"/>
-      <c r="M52" s="80"/>
+      <c r="J52" s="71"/>
+      <c r="K52" s="71"/>
+      <c r="L52" s="71"/>
+      <c r="M52" s="71"/>
       <c r="N52" s="9">
         <v>0</v>
       </c>
       <c r="O52" s="11">
         <v>75</v>
       </c>
-      <c r="P52" s="80"/>
-      <c r="Q52" s="70" t="s">
-        <v>22</v>
-      </c>
-      <c r="R52" s="70">
+      <c r="P52" s="71"/>
+      <c r="Q52" s="68" t="s">
+        <v>18</v>
+      </c>
+      <c r="R52" s="68">
         <v>85</v>
       </c>
-      <c r="S52" s="70"/>
-      <c r="T52" s="80"/>
-      <c r="U52" s="80"/>
-      <c r="V52" s="80"/>
-      <c r="W52" s="80"/>
-      <c r="X52" s="80"/>
-      <c r="Y52" s="80"/>
+      <c r="S52" s="68"/>
+      <c r="T52" s="71"/>
+      <c r="U52" s="71"/>
+      <c r="V52" s="71"/>
+      <c r="W52" s="71"/>
+      <c r="X52" s="71"/>
+      <c r="Y52" s="71"/>
       <c r="Z52" s="9">
         <v>25</v>
       </c>
       <c r="AA52" s="11">
         <v>100</v>
       </c>
-      <c r="AB52" s="80"/>
-      <c r="AC52" s="70" t="s">
-        <v>21</v>
-      </c>
-      <c r="AD52" s="70">
+      <c r="AB52" s="71"/>
+      <c r="AC52" s="68" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD52" s="68">
         <v>0</v>
       </c>
-      <c r="AE52" s="70"/>
-      <c r="AF52" s="80"/>
-      <c r="AG52" s="80"/>
+      <c r="AE52" s="68"/>
+      <c r="AF52" s="71"/>
+      <c r="AG52" s="71"/>
     </row>
     <row r="53" spans="1:33" x14ac:dyDescent="0.15">
-      <c r="A53" s="80"/>
+      <c r="A53" s="71"/>
       <c r="B53" s="9">
         <v>25</v>
       </c>
@@ -7653,58 +7586,58 @@
         <v>75</v>
       </c>
       <c r="D53" s="41"/>
-      <c r="E53" s="70" t="s">
-        <v>23</v>
-      </c>
-      <c r="F53" s="70">
+      <c r="E53" s="68" t="s">
+        <v>19</v>
+      </c>
+      <c r="F53" s="68">
         <v>-11.121402563955751</v>
       </c>
-      <c r="G53" s="70"/>
+      <c r="G53" s="68"/>
       <c r="H53" s="41"/>
       <c r="I53" s="41"/>
-      <c r="J53" s="80"/>
-      <c r="K53" s="80"/>
-      <c r="L53" s="80"/>
-      <c r="M53" s="80"/>
+      <c r="J53" s="71"/>
+      <c r="K53" s="71"/>
+      <c r="L53" s="71"/>
+      <c r="M53" s="71"/>
       <c r="N53" s="9">
         <v>25</v>
       </c>
       <c r="O53" s="11">
         <v>100</v>
       </c>
-      <c r="P53" s="80"/>
-      <c r="Q53" s="70" t="s">
-        <v>23</v>
-      </c>
-      <c r="R53" s="70">
+      <c r="P53" s="71"/>
+      <c r="Q53" s="68" t="s">
+        <v>19</v>
+      </c>
+      <c r="R53" s="68">
         <v>-5.7498088235642824</v>
       </c>
-      <c r="S53" s="70"/>
-      <c r="T53" s="80"/>
-      <c r="U53" s="80"/>
-      <c r="V53" s="80"/>
-      <c r="W53" s="80"/>
-      <c r="X53" s="80"/>
-      <c r="Y53" s="80"/>
+      <c r="S53" s="68"/>
+      <c r="T53" s="71"/>
+      <c r="U53" s="71"/>
+      <c r="V53" s="71"/>
+      <c r="W53" s="71"/>
+      <c r="X53" s="71"/>
+      <c r="Y53" s="71"/>
       <c r="Z53" s="9">
         <v>0</v>
       </c>
       <c r="AA53" s="11">
         <v>75</v>
       </c>
-      <c r="AB53" s="80"/>
-      <c r="AC53" s="70" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD53" s="70">
+      <c r="AB53" s="71"/>
+      <c r="AC53" s="68" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD53" s="68">
         <v>84</v>
       </c>
-      <c r="AE53" s="70"/>
-      <c r="AF53" s="80"/>
-      <c r="AG53" s="80"/>
+      <c r="AE53" s="68"/>
+      <c r="AF53" s="71"/>
+      <c r="AG53" s="71"/>
     </row>
     <row r="54" spans="1:33" x14ac:dyDescent="0.15">
-      <c r="A54" s="80"/>
+      <c r="A54" s="71"/>
       <c r="B54" s="9">
         <v>0</v>
       </c>
@@ -7712,58 +7645,58 @@
         <v>100</v>
       </c>
       <c r="D54" s="41"/>
-      <c r="E54" s="70" t="s">
-        <v>24</v>
-      </c>
-      <c r="F54" s="70">
+      <c r="E54" s="68" t="s">
+        <v>20</v>
+      </c>
+      <c r="F54" s="68">
         <v>3.2972589466332082E-18</v>
       </c>
-      <c r="G54" s="70"/>
+      <c r="G54" s="68"/>
       <c r="H54" s="41"/>
       <c r="I54" s="41"/>
-      <c r="J54" s="80"/>
-      <c r="K54" s="80"/>
-      <c r="L54" s="80"/>
-      <c r="M54" s="80"/>
+      <c r="J54" s="71"/>
+      <c r="K54" s="71"/>
+      <c r="L54" s="71"/>
+      <c r="M54" s="71"/>
       <c r="N54" s="9">
         <v>0</v>
       </c>
       <c r="O54" s="11">
         <v>100</v>
       </c>
-      <c r="P54" s="80"/>
-      <c r="Q54" s="70" t="s">
-        <v>24</v>
-      </c>
-      <c r="R54" s="70">
+      <c r="P54" s="71"/>
+      <c r="Q54" s="68" t="s">
+        <v>20</v>
+      </c>
+      <c r="R54" s="68">
         <v>6.8421325638617131E-8</v>
       </c>
-      <c r="S54" s="70"/>
-      <c r="T54" s="80"/>
-      <c r="U54" s="80"/>
-      <c r="V54" s="80"/>
-      <c r="W54" s="80"/>
-      <c r="X54" s="80"/>
-      <c r="Y54" s="80"/>
+      <c r="S54" s="68"/>
+      <c r="T54" s="71"/>
+      <c r="U54" s="71"/>
+      <c r="V54" s="71"/>
+      <c r="W54" s="71"/>
+      <c r="X54" s="71"/>
+      <c r="Y54" s="71"/>
       <c r="Z54" s="9">
         <v>25</v>
       </c>
       <c r="AA54" s="11">
         <v>100</v>
       </c>
-      <c r="AB54" s="80"/>
-      <c r="AC54" s="70" t="s">
-        <v>23</v>
-      </c>
-      <c r="AD54" s="70">
+      <c r="AB54" s="71"/>
+      <c r="AC54" s="68" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD54" s="68">
         <v>-5.7833742355329658</v>
       </c>
-      <c r="AE54" s="70"/>
-      <c r="AF54" s="80"/>
-      <c r="AG54" s="80"/>
+      <c r="AE54" s="68"/>
+      <c r="AF54" s="71"/>
+      <c r="AG54" s="71"/>
     </row>
     <row r="55" spans="1:33" x14ac:dyDescent="0.15">
-      <c r="A55" s="80"/>
+      <c r="A55" s="71"/>
       <c r="B55" s="9">
         <v>25</v>
       </c>
@@ -7771,117 +7704,117 @@
         <v>75</v>
       </c>
       <c r="D55" s="41"/>
-      <c r="E55" s="70" t="s">
-        <v>25</v>
-      </c>
-      <c r="F55" s="70">
+      <c r="E55" s="68" t="s">
+        <v>21</v>
+      </c>
+      <c r="F55" s="68">
         <v>1.6641245785896708</v>
       </c>
-      <c r="G55" s="70"/>
+      <c r="G55" s="68"/>
       <c r="H55" s="41"/>
       <c r="I55" s="41"/>
-      <c r="J55" s="80"/>
-      <c r="K55" s="80"/>
-      <c r="L55" s="80"/>
-      <c r="M55" s="80"/>
+      <c r="J55" s="71"/>
+      <c r="K55" s="71"/>
+      <c r="L55" s="71"/>
+      <c r="M55" s="71"/>
       <c r="N55" s="9">
         <v>25</v>
       </c>
       <c r="O55" s="11">
         <v>75</v>
       </c>
-      <c r="P55" s="80"/>
-      <c r="Q55" s="70" t="s">
-        <v>25</v>
-      </c>
-      <c r="R55" s="70">
+      <c r="P55" s="71"/>
+      <c r="Q55" s="68" t="s">
+        <v>21</v>
+      </c>
+      <c r="R55" s="68">
         <v>1.6629784997019019</v>
       </c>
-      <c r="S55" s="70"/>
-      <c r="T55" s="80"/>
-      <c r="U55" s="80"/>
-      <c r="V55" s="80"/>
-      <c r="W55" s="80"/>
-      <c r="X55" s="80"/>
-      <c r="Y55" s="80"/>
+      <c r="S55" s="68"/>
+      <c r="T55" s="71"/>
+      <c r="U55" s="71"/>
+      <c r="V55" s="71"/>
+      <c r="W55" s="71"/>
+      <c r="X55" s="71"/>
+      <c r="Y55" s="71"/>
       <c r="Z55" s="9">
         <v>0</v>
       </c>
       <c r="AA55" s="11">
         <v>75</v>
       </c>
-      <c r="AB55" s="80"/>
-      <c r="AC55" s="70" t="s">
-        <v>24</v>
-      </c>
-      <c r="AD55" s="70">
+      <c r="AB55" s="71"/>
+      <c r="AC55" s="68" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD55" s="68">
         <v>6.0902731028001668E-8</v>
       </c>
-      <c r="AE55" s="70"/>
-      <c r="AF55" s="80"/>
-      <c r="AG55" s="80"/>
+      <c r="AE55" s="68"/>
+      <c r="AF55" s="71"/>
+      <c r="AG55" s="71"/>
     </row>
     <row r="56" spans="1:33" x14ac:dyDescent="0.15">
-      <c r="A56" s="80"/>
-      <c r="B56" s="65">
-        <v>25</v>
-      </c>
-      <c r="C56" s="65">
+      <c r="A56" s="71"/>
+      <c r="B56" s="63">
+        <v>25</v>
+      </c>
+      <c r="C56" s="63">
         <v>75</v>
       </c>
       <c r="D56" s="41"/>
-      <c r="E56" s="70" t="s">
-        <v>26</v>
-      </c>
-      <c r="F56" s="70">
+      <c r="E56" s="68" t="s">
+        <v>22</v>
+      </c>
+      <c r="F56" s="68">
         <v>6.5945178932664165E-18</v>
       </c>
-      <c r="G56" s="70"/>
+      <c r="G56" s="68"/>
       <c r="H56" s="41"/>
       <c r="I56" s="41"/>
-      <c r="J56" s="80"/>
-      <c r="K56" s="80"/>
-      <c r="L56" s="80"/>
-      <c r="M56" s="80"/>
+      <c r="J56" s="71"/>
+      <c r="K56" s="71"/>
+      <c r="L56" s="71"/>
+      <c r="M56" s="71"/>
       <c r="N56" s="34">
         <v>50</v>
       </c>
       <c r="O56" s="10">
         <v>75</v>
       </c>
-      <c r="P56" s="80"/>
-      <c r="Q56" s="70" t="s">
-        <v>26</v>
-      </c>
-      <c r="R56" s="70">
+      <c r="P56" s="71"/>
+      <c r="Q56" s="68" t="s">
+        <v>22</v>
+      </c>
+      <c r="R56" s="68">
         <v>1.3684265127723426E-7</v>
       </c>
-      <c r="S56" s="70"/>
-      <c r="T56" s="80"/>
-      <c r="U56" s="80"/>
-      <c r="V56" s="80"/>
-      <c r="W56" s="80"/>
-      <c r="X56" s="80"/>
-      <c r="Y56" s="80"/>
+      <c r="S56" s="68"/>
+      <c r="T56" s="71"/>
+      <c r="U56" s="71"/>
+      <c r="V56" s="71"/>
+      <c r="W56" s="71"/>
+      <c r="X56" s="71"/>
+      <c r="Y56" s="71"/>
       <c r="Z56" s="9">
         <v>50</v>
       </c>
       <c r="AA56" s="11">
         <v>75</v>
       </c>
-      <c r="AB56" s="80"/>
-      <c r="AC56" s="70" t="s">
-        <v>25</v>
-      </c>
-      <c r="AD56" s="70">
+      <c r="AB56" s="71"/>
+      <c r="AC56" s="68" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD56" s="68">
         <v>1.6631966790489103</v>
       </c>
-      <c r="AE56" s="70"/>
-      <c r="AF56" s="80"/>
-      <c r="AG56" s="80"/>
+      <c r="AE56" s="68"/>
+      <c r="AF56" s="71"/>
+      <c r="AG56" s="71"/>
     </row>
     <row r="57" spans="1:33" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="80"/>
+      <c r="A57" s="71"/>
       <c r="B57" s="36">
         <v>25</v>
       </c>
@@ -7889,58 +7822,58 @@
         <v>75</v>
       </c>
       <c r="D57" s="41"/>
-      <c r="E57" s="71" t="s">
-        <v>27</v>
-      </c>
-      <c r="F57" s="71">
+      <c r="E57" s="69" t="s">
+        <v>23</v>
+      </c>
+      <c r="F57" s="69">
         <v>1.9900634212544475</v>
       </c>
-      <c r="G57" s="71"/>
+      <c r="G57" s="69"/>
       <c r="H57" s="41"/>
       <c r="I57" s="41"/>
-      <c r="J57" s="80"/>
-      <c r="K57" s="80"/>
-      <c r="L57" s="80"/>
-      <c r="M57" s="80"/>
+      <c r="J57" s="71"/>
+      <c r="K57" s="71"/>
+      <c r="L57" s="71"/>
+      <c r="M57" s="71"/>
       <c r="N57" s="4">
         <v>25</v>
       </c>
       <c r="O57" s="5">
         <v>75</v>
       </c>
-      <c r="P57" s="80"/>
-      <c r="Q57" s="71" t="s">
-        <v>27</v>
-      </c>
-      <c r="R57" s="71">
+      <c r="P57" s="71"/>
+      <c r="Q57" s="69" t="s">
+        <v>23</v>
+      </c>
+      <c r="R57" s="69">
         <v>1.9882679074772251</v>
       </c>
-      <c r="S57" s="71"/>
-      <c r="T57" s="80"/>
-      <c r="U57" s="80"/>
-      <c r="V57" s="80"/>
-      <c r="W57" s="80"/>
-      <c r="X57" s="80"/>
-      <c r="Y57" s="80"/>
+      <c r="S57" s="69"/>
+      <c r="T57" s="71"/>
+      <c r="U57" s="71"/>
+      <c r="V57" s="71"/>
+      <c r="W57" s="71"/>
+      <c r="X57" s="71"/>
+      <c r="Y57" s="71"/>
       <c r="Z57" s="34">
         <v>50</v>
       </c>
       <c r="AA57" s="10">
         <v>100</v>
       </c>
-      <c r="AB57" s="80"/>
-      <c r="AC57" s="70" t="s">
-        <v>26</v>
-      </c>
-      <c r="AD57" s="70">
+      <c r="AB57" s="71"/>
+      <c r="AC57" s="68" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD57" s="68">
         <v>1.2180546205600334E-7</v>
       </c>
-      <c r="AE57" s="70"/>
-      <c r="AF57" s="80"/>
-      <c r="AG57" s="80"/>
+      <c r="AE57" s="68"/>
+      <c r="AF57" s="71"/>
+      <c r="AG57" s="71"/>
     </row>
     <row r="58" spans="1:33" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="80"/>
+      <c r="A58" s="71"/>
       <c r="B58" s="36">
         <v>25</v>
       </c>
@@ -7948,50 +7881,50 @@
         <v>75</v>
       </c>
       <c r="D58" s="41"/>
-      <c r="E58" s="80"/>
-      <c r="F58" s="80"/>
-      <c r="G58" s="80"/>
+      <c r="E58" s="71"/>
+      <c r="F58" s="71"/>
+      <c r="G58" s="71"/>
       <c r="H58" s="41"/>
       <c r="I58" s="41"/>
-      <c r="J58" s="80"/>
-      <c r="K58" s="80"/>
-      <c r="L58" s="80"/>
-      <c r="M58" s="80"/>
+      <c r="J58" s="71"/>
+      <c r="K58" s="71"/>
+      <c r="L58" s="71"/>
+      <c r="M58" s="71"/>
       <c r="N58" s="4">
         <v>50</v>
       </c>
       <c r="O58" s="5">
         <v>100</v>
       </c>
-      <c r="P58" s="80"/>
-      <c r="Q58" s="70"/>
-      <c r="R58" s="70"/>
-      <c r="S58" s="70"/>
-      <c r="T58" s="80"/>
-      <c r="U58" s="80"/>
-      <c r="V58" s="80"/>
-      <c r="W58" s="80"/>
-      <c r="X58" s="80"/>
-      <c r="Y58" s="80"/>
+      <c r="P58" s="71"/>
+      <c r="Q58" s="68"/>
+      <c r="R58" s="68"/>
+      <c r="S58" s="68"/>
+      <c r="T58" s="71"/>
+      <c r="U58" s="71"/>
+      <c r="V58" s="71"/>
+      <c r="W58" s="71"/>
+      <c r="X58" s="71"/>
+      <c r="Y58" s="71"/>
       <c r="Z58" s="4">
         <v>25</v>
       </c>
       <c r="AA58" s="5">
         <v>75</v>
       </c>
-      <c r="AB58" s="80"/>
-      <c r="AC58" s="71" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD58" s="71">
+      <c r="AB58" s="71"/>
+      <c r="AC58" s="69" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD58" s="69">
         <v>1.9886096669757098</v>
       </c>
-      <c r="AE58" s="71"/>
-      <c r="AF58" s="80"/>
-      <c r="AG58" s="80"/>
+      <c r="AE58" s="69"/>
+      <c r="AF58" s="71"/>
+      <c r="AG58" s="71"/>
     </row>
     <row r="59" spans="1:33" x14ac:dyDescent="0.15">
-      <c r="A59" s="80"/>
+      <c r="A59" s="71"/>
       <c r="B59" s="36">
         <v>25</v>
       </c>
@@ -8004,38 +7937,38 @@
       <c r="G59" s="41"/>
       <c r="H59" s="41"/>
       <c r="I59" s="41"/>
-      <c r="J59" s="80"/>
-      <c r="K59" s="80"/>
-      <c r="L59" s="80"/>
-      <c r="M59" s="80"/>
+      <c r="J59" s="71"/>
+      <c r="K59" s="71"/>
+      <c r="L59" s="71"/>
+      <c r="M59" s="71"/>
       <c r="N59" s="4">
         <v>25</v>
       </c>
       <c r="O59" s="5">
         <v>75</v>
       </c>
-      <c r="P59" s="80"/>
-      <c r="Q59" s="80"/>
-      <c r="R59" s="80"/>
-      <c r="S59" s="80"/>
-      <c r="T59" s="80"/>
-      <c r="U59" s="80"/>
-      <c r="V59" s="80"/>
-      <c r="W59" s="80"/>
-      <c r="X59" s="80"/>
-      <c r="Y59" s="80"/>
+      <c r="P59" s="71"/>
+      <c r="Q59" s="71"/>
+      <c r="R59" s="71"/>
+      <c r="S59" s="71"/>
+      <c r="T59" s="71"/>
+      <c r="U59" s="71"/>
+      <c r="V59" s="71"/>
+      <c r="W59" s="71"/>
+      <c r="X59" s="71"/>
+      <c r="Y59" s="71"/>
       <c r="Z59" s="4">
         <v>50</v>
       </c>
       <c r="AA59" s="5">
         <v>100</v>
       </c>
-      <c r="AB59" s="80"/>
-      <c r="AC59" s="80"/>
-      <c r="AD59" s="80"/>
-      <c r="AE59" s="80"/>
-      <c r="AF59" s="80"/>
-      <c r="AG59" s="80"/>
+      <c r="AB59" s="71"/>
+      <c r="AC59" s="71"/>
+      <c r="AD59" s="71"/>
+      <c r="AE59" s="71"/>
+      <c r="AF59" s="71"/>
+      <c r="AG59" s="71"/>
     </row>
     <row r="60" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A60" s="41"/>
@@ -8051,38 +7984,38 @@
       <c r="G60" s="41"/>
       <c r="H60" s="41"/>
       <c r="I60" s="41"/>
-      <c r="J60" s="80"/>
-      <c r="K60" s="80"/>
-      <c r="L60" s="80"/>
-      <c r="M60" s="80"/>
+      <c r="J60" s="71"/>
+      <c r="K60" s="71"/>
+      <c r="L60" s="71"/>
+      <c r="M60" s="71"/>
       <c r="N60" s="4">
         <v>75</v>
       </c>
       <c r="O60" s="5">
         <v>75</v>
       </c>
-      <c r="P60" s="80"/>
-      <c r="Q60" s="80"/>
-      <c r="R60" s="80"/>
-      <c r="S60" s="80"/>
-      <c r="T60" s="80"/>
-      <c r="U60" s="80"/>
-      <c r="V60" s="80"/>
-      <c r="W60" s="80"/>
-      <c r="X60" s="80"/>
-      <c r="Y60" s="80"/>
+      <c r="P60" s="71"/>
+      <c r="Q60" s="71"/>
+      <c r="R60" s="71"/>
+      <c r="S60" s="71"/>
+      <c r="T60" s="71"/>
+      <c r="U60" s="71"/>
+      <c r="V60" s="71"/>
+      <c r="W60" s="71"/>
+      <c r="X60" s="71"/>
+      <c r="Y60" s="71"/>
       <c r="Z60" s="4">
         <v>50</v>
       </c>
       <c r="AA60" s="5">
         <v>75</v>
       </c>
-      <c r="AB60" s="80"/>
-      <c r="AC60" s="80"/>
-      <c r="AD60" s="80"/>
-      <c r="AE60" s="80"/>
-      <c r="AF60" s="80"/>
-      <c r="AG60" s="80"/>
+      <c r="AB60" s="71"/>
+      <c r="AC60" s="71"/>
+      <c r="AD60" s="71"/>
+      <c r="AE60" s="71"/>
+      <c r="AF60" s="71"/>
+      <c r="AG60" s="71"/>
     </row>
     <row r="61" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A61" s="41"/>
@@ -8098,38 +8031,38 @@
       <c r="G61" s="41"/>
       <c r="H61" s="41"/>
       <c r="I61" s="41"/>
-      <c r="J61" s="80"/>
-      <c r="K61" s="80"/>
-      <c r="L61" s="80"/>
-      <c r="M61" s="80"/>
+      <c r="J61" s="71"/>
+      <c r="K61" s="71"/>
+      <c r="L61" s="71"/>
+      <c r="M61" s="71"/>
       <c r="N61" s="4">
         <v>0</v>
       </c>
       <c r="O61" s="5">
         <v>100</v>
       </c>
-      <c r="P61" s="80"/>
-      <c r="Q61" s="80"/>
-      <c r="R61" s="80"/>
-      <c r="S61" s="80"/>
-      <c r="T61" s="80"/>
-      <c r="U61" s="80"/>
-      <c r="V61" s="80"/>
-      <c r="W61" s="80"/>
-      <c r="X61" s="80"/>
-      <c r="Y61" s="80"/>
+      <c r="P61" s="71"/>
+      <c r="Q61" s="71"/>
+      <c r="R61" s="71"/>
+      <c r="S61" s="71"/>
+      <c r="T61" s="71"/>
+      <c r="U61" s="71"/>
+      <c r="V61" s="71"/>
+      <c r="W61" s="71"/>
+      <c r="X61" s="71"/>
+      <c r="Y61" s="71"/>
       <c r="Z61" s="4">
         <v>75</v>
       </c>
       <c r="AA61" s="5">
         <v>75</v>
       </c>
-      <c r="AB61" s="80"/>
-      <c r="AC61" s="80"/>
-      <c r="AD61" s="80"/>
-      <c r="AE61" s="80"/>
-      <c r="AF61" s="80"/>
-      <c r="AG61" s="80"/>
+      <c r="AB61" s="71"/>
+      <c r="AC61" s="71"/>
+      <c r="AD61" s="71"/>
+      <c r="AE61" s="71"/>
+      <c r="AF61" s="71"/>
+      <c r="AG61" s="71"/>
     </row>
     <row r="62" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A62" s="41"/>
@@ -8145,38 +8078,38 @@
       <c r="G62" s="41"/>
       <c r="H62" s="41"/>
       <c r="I62" s="41"/>
-      <c r="J62" s="80"/>
-      <c r="K62" s="80"/>
-      <c r="L62" s="80"/>
-      <c r="M62" s="80"/>
+      <c r="J62" s="71"/>
+      <c r="K62" s="71"/>
+      <c r="L62" s="71"/>
+      <c r="M62" s="71"/>
       <c r="N62" s="4">
         <v>25</v>
       </c>
       <c r="O62" s="5">
         <v>75</v>
       </c>
-      <c r="P62" s="80"/>
-      <c r="Q62" s="80"/>
-      <c r="R62" s="80"/>
-      <c r="S62" s="80"/>
-      <c r="T62" s="80"/>
-      <c r="U62" s="80"/>
-      <c r="V62" s="80"/>
-      <c r="W62" s="80"/>
-      <c r="X62" s="80"/>
-      <c r="Y62" s="80"/>
+      <c r="P62" s="71"/>
+      <c r="Q62" s="71"/>
+      <c r="R62" s="71"/>
+      <c r="S62" s="71"/>
+      <c r="T62" s="71"/>
+      <c r="U62" s="71"/>
+      <c r="V62" s="71"/>
+      <c r="W62" s="71"/>
+      <c r="X62" s="71"/>
+      <c r="Y62" s="71"/>
       <c r="Z62" s="4">
         <v>25</v>
       </c>
       <c r="AA62" s="5">
         <v>75</v>
       </c>
-      <c r="AB62" s="80"/>
-      <c r="AC62" s="80"/>
-      <c r="AD62" s="80"/>
-      <c r="AE62" s="80"/>
-      <c r="AF62" s="80"/>
-      <c r="AG62" s="80"/>
+      <c r="AB62" s="71"/>
+      <c r="AC62" s="71"/>
+      <c r="AD62" s="71"/>
+      <c r="AE62" s="71"/>
+      <c r="AF62" s="71"/>
+      <c r="AG62" s="71"/>
     </row>
     <row r="63" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A63" s="41"/>
@@ -8192,38 +8125,38 @@
       <c r="G63" s="41"/>
       <c r="H63" s="41"/>
       <c r="I63" s="41"/>
-      <c r="J63" s="80"/>
-      <c r="K63" s="80"/>
-      <c r="L63" s="80"/>
-      <c r="M63" s="80"/>
+      <c r="J63" s="71"/>
+      <c r="K63" s="71"/>
+      <c r="L63" s="71"/>
+      <c r="M63" s="71"/>
       <c r="N63" s="4">
         <v>50</v>
       </c>
       <c r="O63" s="5">
         <v>50</v>
       </c>
-      <c r="P63" s="80"/>
-      <c r="Q63" s="80"/>
-      <c r="R63" s="80"/>
-      <c r="S63" s="80"/>
-      <c r="T63" s="80"/>
-      <c r="U63" s="80"/>
-      <c r="V63" s="80"/>
-      <c r="W63" s="80"/>
-      <c r="X63" s="80"/>
-      <c r="Y63" s="80"/>
+      <c r="P63" s="71"/>
+      <c r="Q63" s="71"/>
+      <c r="R63" s="71"/>
+      <c r="S63" s="71"/>
+      <c r="T63" s="71"/>
+      <c r="U63" s="71"/>
+      <c r="V63" s="71"/>
+      <c r="W63" s="71"/>
+      <c r="X63" s="71"/>
+      <c r="Y63" s="71"/>
       <c r="Z63" s="4">
         <v>25</v>
       </c>
       <c r="AA63" s="5">
         <v>75</v>
       </c>
-      <c r="AB63" s="80"/>
-      <c r="AC63" s="80"/>
-      <c r="AD63" s="80"/>
-      <c r="AE63" s="80"/>
-      <c r="AF63" s="80"/>
-      <c r="AG63" s="80"/>
+      <c r="AB63" s="71"/>
+      <c r="AC63" s="71"/>
+      <c r="AD63" s="71"/>
+      <c r="AE63" s="71"/>
+      <c r="AF63" s="71"/>
+      <c r="AG63" s="71"/>
     </row>
     <row r="64" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A64" s="41"/>
@@ -8239,38 +8172,38 @@
       <c r="G64" s="41"/>
       <c r="H64" s="41"/>
       <c r="I64" s="41"/>
-      <c r="J64" s="80"/>
-      <c r="K64" s="80"/>
-      <c r="L64" s="80"/>
-      <c r="M64" s="80"/>
+      <c r="J64" s="71"/>
+      <c r="K64" s="71"/>
+      <c r="L64" s="71"/>
+      <c r="M64" s="71"/>
       <c r="N64" s="4">
         <v>25</v>
       </c>
       <c r="O64" s="5">
         <v>50</v>
       </c>
-      <c r="P64" s="80"/>
-      <c r="Q64" s="80"/>
-      <c r="R64" s="80"/>
-      <c r="S64" s="80"/>
-      <c r="T64" s="80"/>
-      <c r="U64" s="80"/>
-      <c r="V64" s="80"/>
-      <c r="W64" s="80"/>
-      <c r="X64" s="80"/>
-      <c r="Y64" s="80"/>
+      <c r="P64" s="71"/>
+      <c r="Q64" s="71"/>
+      <c r="R64" s="71"/>
+      <c r="S64" s="71"/>
+      <c r="T64" s="71"/>
+      <c r="U64" s="71"/>
+      <c r="V64" s="71"/>
+      <c r="W64" s="71"/>
+      <c r="X64" s="71"/>
+      <c r="Y64" s="71"/>
       <c r="Z64" s="4">
         <v>50</v>
       </c>
       <c r="AA64" s="5">
         <v>50</v>
       </c>
-      <c r="AB64" s="80"/>
-      <c r="AC64" s="80"/>
-      <c r="AD64" s="80"/>
-      <c r="AE64" s="80"/>
-      <c r="AF64" s="80"/>
-      <c r="AG64" s="80"/>
+      <c r="AB64" s="71"/>
+      <c r="AC64" s="71"/>
+      <c r="AD64" s="71"/>
+      <c r="AE64" s="71"/>
+      <c r="AF64" s="71"/>
+      <c r="AG64" s="71"/>
     </row>
     <row r="65" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A65" s="41"/>
@@ -8286,38 +8219,38 @@
       <c r="G65" s="41"/>
       <c r="H65" s="41"/>
       <c r="I65" s="41"/>
-      <c r="J65" s="80"/>
-      <c r="K65" s="80"/>
-      <c r="L65" s="80"/>
-      <c r="M65" s="80"/>
+      <c r="J65" s="71"/>
+      <c r="K65" s="71"/>
+      <c r="L65" s="71"/>
+      <c r="M65" s="71"/>
       <c r="N65" s="4">
         <v>0</v>
       </c>
       <c r="O65" s="5">
         <v>50</v>
       </c>
-      <c r="P65" s="80"/>
-      <c r="Q65" s="80"/>
-      <c r="R65" s="80"/>
-      <c r="S65" s="80"/>
-      <c r="T65" s="80"/>
-      <c r="U65" s="80"/>
-      <c r="V65" s="80"/>
-      <c r="W65" s="80"/>
-      <c r="X65" s="80"/>
-      <c r="Y65" s="80"/>
+      <c r="P65" s="71"/>
+      <c r="Q65" s="71"/>
+      <c r="R65" s="71"/>
+      <c r="S65" s="71"/>
+      <c r="T65" s="71"/>
+      <c r="U65" s="71"/>
+      <c r="V65" s="71"/>
+      <c r="W65" s="71"/>
+      <c r="X65" s="71"/>
+      <c r="Y65" s="71"/>
       <c r="Z65" s="4">
         <v>0</v>
       </c>
       <c r="AA65" s="5">
         <v>75</v>
       </c>
-      <c r="AB65" s="80"/>
-      <c r="AC65" s="80"/>
-      <c r="AD65" s="80"/>
-      <c r="AE65" s="80"/>
-      <c r="AF65" s="80"/>
-      <c r="AG65" s="80"/>
+      <c r="AB65" s="71"/>
+      <c r="AC65" s="71"/>
+      <c r="AD65" s="71"/>
+      <c r="AE65" s="71"/>
+      <c r="AF65" s="71"/>
+      <c r="AG65" s="71"/>
     </row>
     <row r="66" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A66" s="41"/>
@@ -8333,45 +8266,45 @@
       <c r="G66" s="41"/>
       <c r="H66" s="41"/>
       <c r="I66" s="41"/>
-      <c r="J66" s="80"/>
-      <c r="K66" s="80"/>
-      <c r="L66" s="80"/>
-      <c r="M66" s="80"/>
+      <c r="J66" s="71"/>
+      <c r="K66" s="71"/>
+      <c r="L66" s="71"/>
+      <c r="M66" s="71"/>
       <c r="N66" s="4">
         <v>25</v>
       </c>
       <c r="O66" s="5">
         <v>50</v>
       </c>
-      <c r="P66" s="80"/>
-      <c r="Q66" s="80"/>
-      <c r="R66" s="80"/>
-      <c r="S66" s="80"/>
-      <c r="T66" s="80"/>
-      <c r="U66" s="80"/>
-      <c r="V66" s="80"/>
-      <c r="W66" s="80"/>
-      <c r="X66" s="80"/>
-      <c r="Y66" s="80"/>
+      <c r="P66" s="71"/>
+      <c r="Q66" s="71"/>
+      <c r="R66" s="71"/>
+      <c r="S66" s="71"/>
+      <c r="T66" s="71"/>
+      <c r="U66" s="71"/>
+      <c r="V66" s="71"/>
+      <c r="W66" s="71"/>
+      <c r="X66" s="71"/>
+      <c r="Y66" s="71"/>
       <c r="Z66" s="4">
         <v>25</v>
       </c>
       <c r="AA66" s="5">
         <v>75</v>
       </c>
-      <c r="AB66" s="80"/>
-      <c r="AC66" s="80"/>
-      <c r="AD66" s="80"/>
-      <c r="AE66" s="80"/>
-      <c r="AF66" s="80"/>
-      <c r="AG66" s="80"/>
+      <c r="AB66" s="71"/>
+      <c r="AC66" s="71"/>
+      <c r="AD66" s="71"/>
+      <c r="AE66" s="71"/>
+      <c r="AF66" s="71"/>
+      <c r="AG66" s="71"/>
     </row>
     <row r="67" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A67" s="41"/>
-      <c r="B67" s="65">
-        <v>75</v>
-      </c>
-      <c r="C67" s="65">
+      <c r="B67" s="63">
+        <v>75</v>
+      </c>
+      <c r="C67" s="63">
         <v>100</v>
       </c>
       <c r="D67" s="41"/>
@@ -8380,38 +8313,38 @@
       <c r="G67" s="41"/>
       <c r="H67" s="41"/>
       <c r="I67" s="41"/>
-      <c r="J67" s="80"/>
-      <c r="K67" s="80"/>
-      <c r="L67" s="80"/>
-      <c r="M67" s="80"/>
+      <c r="J67" s="71"/>
+      <c r="K67" s="71"/>
+      <c r="L67" s="71"/>
+      <c r="M67" s="71"/>
       <c r="N67" s="34">
         <v>75</v>
       </c>
       <c r="O67" s="10">
         <v>75</v>
       </c>
-      <c r="P67" s="80"/>
-      <c r="Q67" s="80"/>
-      <c r="R67" s="80"/>
-      <c r="S67" s="80"/>
-      <c r="T67" s="80"/>
-      <c r="U67" s="80"/>
-      <c r="V67" s="80"/>
-      <c r="W67" s="80"/>
-      <c r="X67" s="80"/>
-      <c r="Y67" s="80"/>
+      <c r="P67" s="71"/>
+      <c r="Q67" s="71"/>
+      <c r="R67" s="71"/>
+      <c r="S67" s="71"/>
+      <c r="T67" s="71"/>
+      <c r="U67" s="71"/>
+      <c r="V67" s="71"/>
+      <c r="W67" s="71"/>
+      <c r="X67" s="71"/>
+      <c r="Y67" s="71"/>
       <c r="Z67" s="4">
         <v>25</v>
       </c>
       <c r="AA67" s="5">
         <v>50</v>
       </c>
-      <c r="AB67" s="80"/>
-      <c r="AC67" s="80"/>
-      <c r="AD67" s="80"/>
-      <c r="AE67" s="80"/>
-      <c r="AF67" s="80"/>
-      <c r="AG67" s="80"/>
+      <c r="AB67" s="71"/>
+      <c r="AC67" s="71"/>
+      <c r="AD67" s="71"/>
+      <c r="AE67" s="71"/>
+      <c r="AF67" s="71"/>
+      <c r="AG67" s="71"/>
     </row>
     <row r="68" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A68" s="41"/>
@@ -8427,38 +8360,38 @@
       <c r="G68" s="41"/>
       <c r="H68" s="41"/>
       <c r="I68" s="41"/>
-      <c r="J68" s="80"/>
-      <c r="K68" s="80"/>
-      <c r="L68" s="80"/>
-      <c r="M68" s="80"/>
+      <c r="J68" s="71"/>
+      <c r="K68" s="71"/>
+      <c r="L68" s="71"/>
+      <c r="M68" s="71"/>
       <c r="N68" s="4">
         <v>75</v>
       </c>
       <c r="O68" s="5">
         <v>50</v>
       </c>
-      <c r="P68" s="80"/>
-      <c r="Q68" s="80"/>
-      <c r="R68" s="80"/>
-      <c r="S68" s="80"/>
-      <c r="T68" s="80"/>
-      <c r="U68" s="80"/>
-      <c r="V68" s="80"/>
-      <c r="W68" s="80"/>
-      <c r="X68" s="80"/>
-      <c r="Y68" s="80"/>
+      <c r="P68" s="71"/>
+      <c r="Q68" s="71"/>
+      <c r="R68" s="71"/>
+      <c r="S68" s="71"/>
+      <c r="T68" s="71"/>
+      <c r="U68" s="71"/>
+      <c r="V68" s="71"/>
+      <c r="W68" s="71"/>
+      <c r="X68" s="71"/>
+      <c r="Y68" s="71"/>
       <c r="Z68" s="34">
         <v>75</v>
       </c>
       <c r="AA68" s="10">
         <v>75</v>
       </c>
-      <c r="AB68" s="80"/>
-      <c r="AC68" s="80"/>
-      <c r="AD68" s="80"/>
-      <c r="AE68" s="80"/>
-      <c r="AF68" s="80"/>
-      <c r="AG68" s="80"/>
+      <c r="AB68" s="71"/>
+      <c r="AC68" s="71"/>
+      <c r="AD68" s="71"/>
+      <c r="AE68" s="71"/>
+      <c r="AF68" s="71"/>
+      <c r="AG68" s="71"/>
     </row>
     <row r="69" spans="1:33" x14ac:dyDescent="0.15">
       <c r="B69" s="36">
@@ -8641,10 +8574,10 @@
       </c>
     </row>
     <row r="78" spans="1:33" x14ac:dyDescent="0.15">
-      <c r="B78" s="65">
-        <v>25</v>
-      </c>
-      <c r="C78" s="65">
+      <c r="B78" s="63">
+        <v>25</v>
+      </c>
+      <c r="C78" s="63">
         <v>75</v>
       </c>
       <c r="N78" s="32">
@@ -8870,6 +8803,11 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="B1:I1"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="T2:U2"/>
     <mergeCell ref="AH2:AI2"/>
@@ -8881,11 +8819,6 @@
     <mergeCell ref="V2:W2"/>
     <mergeCell ref="Z2:AA2"/>
     <mergeCell ref="AB2:AC2"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="B1:I1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8895,7 +8828,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:G20"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -8905,37 +8838,37 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="2" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="82" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="82"/>
+      <c r="A2" s="80" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="80"/>
+      <c r="C2" s="80" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="80"/>
     </row>
     <row r="3" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="66" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="61" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="61" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="61" t="s">
-        <v>14</v>
+      <c r="A3" s="64" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="59" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="58" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="59" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="58" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="59" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
@@ -8987,129 +8920,129 @@
       <c r="F6" s="48"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="62"/>
-      <c r="B7" s="63"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="63"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="63"/>
+      <c r="A7" s="60"/>
+      <c r="B7" s="61"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="61"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="80"/>
-      <c r="B8" s="80"/>
-      <c r="C8" s="80"/>
-      <c r="D8" s="80"/>
-      <c r="E8" s="80"/>
-      <c r="F8" s="80"/>
-      <c r="G8" s="80"/>
+      <c r="A8" s="71"/>
+      <c r="B8" s="71"/>
+      <c r="C8" s="71"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="71"/>
+      <c r="F8" s="71"/>
+      <c r="G8" s="71"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" s="80"/>
-      <c r="B9" s="80"/>
-      <c r="C9" s="80"/>
-      <c r="D9" s="80"/>
-      <c r="E9" s="80"/>
-      <c r="F9" s="80"/>
-      <c r="G9" s="80"/>
+      <c r="A9" s="71"/>
+      <c r="B9" s="71"/>
+      <c r="C9" s="71"/>
+      <c r="D9" s="71"/>
+      <c r="E9" s="71"/>
+      <c r="F9" s="71"/>
+      <c r="G9" s="71"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="80"/>
-      <c r="B10" s="80"/>
-      <c r="C10" s="80"/>
-      <c r="D10" s="80"/>
-      <c r="E10" s="80"/>
-      <c r="F10" s="80"/>
-      <c r="G10" s="80"/>
+      <c r="A10" s="71"/>
+      <c r="B10" s="71"/>
+      <c r="C10" s="71"/>
+      <c r="D10" s="71"/>
+      <c r="E10" s="71"/>
+      <c r="F10" s="71"/>
+      <c r="G10" s="71"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A11" s="80"/>
-      <c r="B11" s="80"/>
-      <c r="C11" s="80"/>
-      <c r="D11" s="80"/>
-      <c r="E11" s="80"/>
-      <c r="F11" s="80"/>
-      <c r="G11" s="80"/>
+      <c r="A11" s="71"/>
+      <c r="B11" s="71"/>
+      <c r="C11" s="71"/>
+      <c r="D11" s="71"/>
+      <c r="E11" s="71"/>
+      <c r="F11" s="71"/>
+      <c r="G11" s="71"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12" s="80"/>
-      <c r="B12" s="80"/>
-      <c r="C12" s="80"/>
-      <c r="D12" s="80"/>
-      <c r="E12" s="80"/>
-      <c r="F12" s="80"/>
-      <c r="G12" s="80"/>
+      <c r="A12" s="71"/>
+      <c r="B12" s="71"/>
+      <c r="C12" s="71"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="71"/>
+      <c r="G12" s="71"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="80"/>
-      <c r="B13" s="80"/>
-      <c r="C13" s="80"/>
-      <c r="D13" s="80"/>
-      <c r="E13" s="80"/>
-      <c r="F13" s="80"/>
-      <c r="G13" s="80"/>
+      <c r="A13" s="71"/>
+      <c r="B13" s="71"/>
+      <c r="C13" s="71"/>
+      <c r="D13" s="71"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="71"/>
+      <c r="G13" s="71"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A14" s="80"/>
-      <c r="B14" s="80"/>
-      <c r="C14" s="80"/>
-      <c r="D14" s="80"/>
-      <c r="E14" s="80"/>
-      <c r="F14" s="80"/>
-      <c r="G14" s="80"/>
+      <c r="A14" s="71"/>
+      <c r="B14" s="71"/>
+      <c r="C14" s="71"/>
+      <c r="D14" s="71"/>
+      <c r="E14" s="71"/>
+      <c r="F14" s="71"/>
+      <c r="G14" s="71"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A15" s="80"/>
-      <c r="B15" s="80"/>
-      <c r="C15" s="80"/>
-      <c r="D15" s="80"/>
-      <c r="E15" s="80"/>
-      <c r="F15" s="80"/>
-      <c r="G15" s="80"/>
+      <c r="A15" s="71"/>
+      <c r="B15" s="71"/>
+      <c r="C15" s="71"/>
+      <c r="D15" s="71"/>
+      <c r="E15" s="71"/>
+      <c r="F15" s="71"/>
+      <c r="G15" s="71"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A16" s="80"/>
-      <c r="B16" s="80"/>
-      <c r="C16" s="80"/>
-      <c r="D16" s="80"/>
-      <c r="E16" s="80"/>
-      <c r="F16" s="80"/>
-      <c r="G16" s="80"/>
+      <c r="A16" s="71"/>
+      <c r="B16" s="71"/>
+      <c r="C16" s="71"/>
+      <c r="D16" s="71"/>
+      <c r="E16" s="71"/>
+      <c r="F16" s="71"/>
+      <c r="G16" s="71"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="80"/>
-      <c r="B17" s="80"/>
-      <c r="C17" s="80"/>
-      <c r="D17" s="80"/>
-      <c r="E17" s="80"/>
-      <c r="F17" s="80"/>
-      <c r="G17" s="80"/>
+      <c r="A17" s="71"/>
+      <c r="B17" s="71"/>
+      <c r="C17" s="71"/>
+      <c r="D17" s="71"/>
+      <c r="E17" s="71"/>
+      <c r="F17" s="71"/>
+      <c r="G17" s="71"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="80"/>
-      <c r="B18" s="80"/>
-      <c r="C18" s="80"/>
-      <c r="D18" s="80"/>
-      <c r="E18" s="80"/>
-      <c r="F18" s="80"/>
-      <c r="G18" s="80"/>
+      <c r="A18" s="71"/>
+      <c r="B18" s="71"/>
+      <c r="C18" s="71"/>
+      <c r="D18" s="71"/>
+      <c r="E18" s="71"/>
+      <c r="F18" s="71"/>
+      <c r="G18" s="71"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A19" s="80"/>
-      <c r="B19" s="80"/>
-      <c r="C19" s="80"/>
-      <c r="D19" s="80"/>
-      <c r="E19" s="80"/>
-      <c r="F19" s="80"/>
-      <c r="G19" s="80"/>
+      <c r="A19" s="71"/>
+      <c r="B19" s="71"/>
+      <c r="C19" s="71"/>
+      <c r="D19" s="71"/>
+      <c r="E19" s="71"/>
+      <c r="F19" s="71"/>
+      <c r="G19" s="71"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A20" s="80"/>
-      <c r="B20" s="80"/>
-      <c r="C20" s="80"/>
-      <c r="D20" s="80"/>
-      <c r="E20" s="80"/>
-      <c r="F20" s="80"/>
-      <c r="G20" s="80"/>
+      <c r="A20" s="71"/>
+      <c r="B20" s="71"/>
+      <c r="C20" s="71"/>
+      <c r="D20" s="71"/>
+      <c r="E20" s="71"/>
+      <c r="F20" s="71"/>
+      <c r="G20" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/DSCQS/DSCQS実験結果.xlsx
+++ b/DSCQS/DSCQS実験結果.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -19,11 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -48,34 +43,6 @@
   </si>
   <si>
     <t>Q1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>画像1</t>
-    <rPh sb="0" eb="2">
-      <t>ガゾウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>画像2</t>
-    <rPh sb="0" eb="2">
-      <t>ガゾウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>画像3</t>
-    <rPh sb="0" eb="2">
-      <t>ガゾウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>画像4</t>
-    <rPh sb="0" eb="2">
-      <t>ガゾウ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -168,16 +135,31 @@
     <t>Q1</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>Image1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Image2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Image3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Image4</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.000_ "/>
-    <numFmt numFmtId="177" formatCode="0.000000_ "/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -202,6 +184,14 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -764,7 +754,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -939,12 +929,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -984,6 +968,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -994,21 +993,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1171,22 +1155,22 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="10"/>
                   <c:pt idx="0">
+                    <c:v>11.677484162422843</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>7.5377836144440913</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>23.596995186213476</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>20.780235364840834</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
                     <c:v>15.075567228888183</c:v>
                   </c:pt>
-                  <c:pt idx="1">
+                  <c:pt idx="5">
                     <c:v>12.613124477737815</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>11.677484162422843</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>7.5377836144440913</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>23.596995186213476</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>20.780235364840834</c:v>
                   </c:pt>
                   <c:pt idx="6">
                     <c:v>25</c:v>
@@ -1210,22 +1194,22 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="10"/>
                   <c:pt idx="0">
+                    <c:v>11.677484162422843</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>7.5377836144440913</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>23.596995186213476</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>20.780235364840834</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
                     <c:v>15.075567228888183</c:v>
                   </c:pt>
-                  <c:pt idx="1">
+                  <c:pt idx="5">
                     <c:v>12.613124477737815</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>11.677484162422843</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>7.5377836144440913</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>23.596995186213476</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>20.780235364840834</c:v>
                   </c:pt>
                   <c:pt idx="6">
                     <c:v>25</c:v>
@@ -1295,16 +1279,16 @@
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>画像1</c:v>
+                    <c:v>Image1</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>画像2</c:v>
+                    <c:v>Image2</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>画像3</c:v>
+                    <c:v>Image3</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>画像4</c:v>
+                    <c:v>Image4</c:v>
                   </c:pt>
                   <c:pt idx="8">
                     <c:v>全画像</c:v>
@@ -1320,22 +1304,22 @@
                 <c:formatCode>0.000_ </c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>20.454545454545453</c:v>
+                  <c:v>18.181818181818183</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>84.090909090909093</c:v>
+                  <c:v>72.727272727272734</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18.181818181818183</c:v>
+                  <c:v>47.727272727272727</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>72.727272727272734</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>47.727272727272727</c:v>
+                  <c:v>20.454545454545453</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>72.727272727272734</c:v>
+                  <c:v>84.090909090909093</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>25</c:v>
@@ -1344,7 +1328,7 @@
                   <c:v>70.454545454545453</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>27.840909090909093</c:v>
+                  <c:v>27.84090909090909</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>75</c:v>
@@ -1368,11 +1352,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="542301528"/>
-        <c:axId val="542301920"/>
+        <c:axId val="618197320"/>
+        <c:axId val="618203984"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="542301528"/>
+        <c:axId val="618197320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1400,7 +1384,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1415,7 +1399,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="542301920"/>
+        <c:crossAx val="618203984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1423,7 +1407,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="542301920"/>
+        <c:axId val="618203984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="110"/>
@@ -1460,7 +1444,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1475,7 +1459,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="542301528"/>
+        <c:crossAx val="618197320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10"/>
@@ -1522,6 +1506,7 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
+  <c:userShapes r:id="rId3"/>
 </c:chartSpace>
 </file>
 
@@ -1665,19 +1650,19 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="10"/>
                   <c:pt idx="0">
+                    <c:v>22.61335084333227</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>18.768929838238705</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>20.780235364840841</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>16.854996561581046</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
                     <c:v>24.541245430351069</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>16.854996561581046</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>22.61335084333227</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>18.768929838238705</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>20.780235364840841</c:v>
                   </c:pt>
                   <c:pt idx="5">
                     <c:v>16.854996561581046</c:v>
@@ -1704,19 +1689,19 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="10"/>
                   <c:pt idx="0">
+                    <c:v>22.61335084333227</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>18.768929838238705</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>20.780235364840841</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>16.854996561581046</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
                     <c:v>24.541245430351069</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>16.854996561581046</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>22.61335084333227</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>18.768929838238705</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>20.780235364840841</c:v>
                   </c:pt>
                   <c:pt idx="5">
                     <c:v>16.854996561581046</c:v>
@@ -1789,16 +1774,16 @@
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>画像1</c:v>
+                    <c:v>Image1</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>画像2</c:v>
+                    <c:v>Image2</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>画像3</c:v>
+                    <c:v>Image3</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>画像4</c:v>
+                    <c:v>Image4</c:v>
                   </c:pt>
                   <c:pt idx="8">
                     <c:v>全画像</c:v>
@@ -1814,22 +1799,22 @@
                 <c:formatCode>0.000_ </c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>31.818181818181817</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>70.454545454545453</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>52.272727272727273</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>65.909090909090907</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>29.545454545454547</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="5">
                   <c:v>84.090909090909093</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>31.818181818181817</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>70.454545454545453</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>52.272727272727273</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>65.909090909090907</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>45.454545454545453</c:v>
@@ -1838,7 +1823,7 @@
                   <c:v>54.545454545454547</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>39.772727272727266</c:v>
+                  <c:v>39.772727272727273</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>68.75</c:v>
@@ -1862,11 +1847,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="542302704"/>
-        <c:axId val="542303488"/>
+        <c:axId val="618204376"/>
+        <c:axId val="618203200"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="542302704"/>
+        <c:axId val="618204376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1894,7 +1879,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1909,7 +1894,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="542303488"/>
+        <c:crossAx val="618203200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1917,7 +1902,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="542303488"/>
+        <c:axId val="618203200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="110"/>
@@ -1954,7 +1939,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1969,7 +1954,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="542302704"/>
+        <c:crossAx val="618204376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10"/>
@@ -2016,6 +2001,7 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
+  <c:userShapes r:id="rId3"/>
 </c:chartSpace>
 </file>
 
@@ -2062,9 +2048,7 @@
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:ln>
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
+                <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -2161,22 +2145,22 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="10"/>
                   <c:pt idx="0">
+                    <c:v>20.50498830661811</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>15.811388300841896</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>19.656134827672403</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>17.188791273808221</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
                     <c:v>25.226248955475651</c:v>
                   </c:pt>
-                  <c:pt idx="1">
+                  <c:pt idx="5">
                     <c:v>15.075567228888204</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>20.50498830661811</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>15.811388300841896</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>19.656134827672403</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>17.188791273808221</c:v>
                   </c:pt>
                   <c:pt idx="6">
                     <c:v>28.001623329566257</c:v>
@@ -2200,22 +2184,22 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="10"/>
                   <c:pt idx="0">
+                    <c:v>20.50498830661811</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>15.811388300841896</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>19.656134827672403</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>17.188791273808221</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
                     <c:v>25.226248955475651</c:v>
                   </c:pt>
-                  <c:pt idx="1">
+                  <c:pt idx="5">
                     <c:v>15.075567228888204</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>20.50498830661811</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>15.811388300841896</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>19.656134827672403</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>17.188791273808221</c:v>
                   </c:pt>
                   <c:pt idx="6">
                     <c:v>28.001623329566257</c:v>
@@ -2285,16 +2269,16 @@
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>画像1</c:v>
+                    <c:v>Image1</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>画像2</c:v>
+                    <c:v>Image2</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>画像3</c:v>
+                    <c:v>Image3</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>画像4</c:v>
+                    <c:v>Image4</c:v>
                   </c:pt>
                   <c:pt idx="8">
                     <c:v>全画像</c:v>
@@ -2310,22 +2294,22 @@
                 <c:formatCode>0.000_ </c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>36.363636363636367</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>56.81818181818182</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>63.636363636363633</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>31.818181818181817</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="5">
                   <c:v>79.545454545454547</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>36.363636363636367</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>56.81818181818182</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>63.636363636363633</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>40.909090909090907</c:v>
@@ -2358,11 +2342,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="540660376"/>
-        <c:axId val="540661552"/>
+        <c:axId val="618204768"/>
+        <c:axId val="618205160"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="540660376"/>
+        <c:axId val="618204768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2390,7 +2374,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2405,7 +2389,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="540661552"/>
+        <c:crossAx val="618205160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2413,7 +2397,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="540661552"/>
+        <c:axId val="618205160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="110"/>
@@ -2450,7 +2434,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2465,7 +2449,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="540660376"/>
+        <c:crossAx val="618204768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10"/>
@@ -2512,6 +2496,7 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
+  <c:userShapes r:id="rId3"/>
 </c:chartSpace>
 </file>
 
@@ -2531,7 +2516,17 @@
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.0262072053358325E-2"/>
+          <c:y val="6.2129712894523292E-2"/>
+          <c:w val="0.92199301319209437"/>
+          <c:h val="0.79335161099291562"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -2740,11 +2735,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="540658808"/>
-        <c:axId val="540649792"/>
+        <c:axId val="614299232"/>
+        <c:axId val="618979936"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="540658808"/>
+        <c:axId val="614299232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2787,7 +2782,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="540649792"/>
+        <c:crossAx val="618979936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2795,9 +2790,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="540649792"/>
+        <c:axId val="618979936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="110"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2846,9 +2842,10 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="540658808"/>
+        <c:crossAx val="614299232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="10"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -2887,6 +2884,7 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
+  <c:userShapes r:id="rId3"/>
 </c:chartSpace>
 </file>
 
@@ -5082,7 +5080,7 @@
         <xdr:cNvPr id="8" name="グラフ 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5109,7 +5107,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>56029</xdr:colOff>
+      <xdr:colOff>19707</xdr:colOff>
       <xdr:row>44</xdr:row>
       <xdr:rowOff>11205</xdr:rowOff>
     </xdr:to>
@@ -5118,7 +5116,7 @@
         <xdr:cNvPr id="9" name="グラフ 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5154,7 +5152,7 @@
         <xdr:cNvPr id="10" name="グラフ 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5172,23 +5170,1222 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>89647</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>156921</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>145179</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="5" name="グループ化 4"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="20456582" y="4044836"/>
+          <a:ext cx="655339" cy="307908"/>
+          <a:chOff x="0" y="0"/>
+          <a:chExt cx="945518" cy="304733"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="6" name="グループ化 5"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="2380" y="187379"/>
+            <a:ext cx="943138" cy="117354"/>
+            <a:chOff x="2380" y="187379"/>
+            <a:chExt cx="943138" cy="116325"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="11" name="直線コネクタ 10"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="945354" y="187379"/>
+              <a:ext cx="164" cy="116325"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="12" name="直線コネクタ 11"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipH="1">
+              <a:off x="2380" y="189269"/>
+              <a:ext cx="938619" cy="491"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="13" name="直線コネクタ 12"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipH="1">
+              <a:off x="4762" y="188538"/>
+              <a:ext cx="1077" cy="110759"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="7" name="テキスト ボックス 3"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="942975" cy="180172"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr wrap="square" rtlCol="0"/>
+          <a:lstStyle>
+            <a:lvl1pPr marL="0" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>**</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.90521</cdr:x>
+      <cdr:y>0.02039</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.99243</cdr:x>
+      <cdr:y>0.06815</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="テキスト ボックス 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="6684683" y="73212"/>
+          <a:ext cx="644123" cy="171467"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800">
+              <a:latin typeface="+mj-ea"/>
+              <a:ea typeface="+mj-ea"/>
+            </a:rPr>
+            <a:t>**</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
+            <a:t>:p&lt;0.01</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.8346</cdr:x>
+      <cdr:y>0.06097</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.93461</cdr:x>
+      <cdr:y>0.14555</cdr:y>
+    </cdr:to>
+    <cdr:grpSp>
+      <cdr:nvGrpSpPr>
+        <cdr:cNvPr id="3" name="グループ化 2"/>
+        <cdr:cNvGrpSpPr/>
+      </cdr:nvGrpSpPr>
+      <cdr:grpSpPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="6158371" y="226390"/>
+          <a:ext cx="737956" cy="314058"/>
+          <a:chOff x="0" y="0"/>
+          <a:chExt cx="1352122" cy="306391"/>
+        </a:xfrm>
+      </cdr:grpSpPr>
+      <cdr:grpSp>
+        <cdr:nvGrpSpPr>
+          <cdr:cNvPr id="4" name="グループ化 3"/>
+          <cdr:cNvGrpSpPr/>
+        </cdr:nvGrpSpPr>
+        <cdr:grpSpPr>
+          <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:off x="3404" y="189036"/>
+            <a:ext cx="1348718" cy="117355"/>
+            <a:chOff x="2380" y="187379"/>
+            <a:chExt cx="943138" cy="115305"/>
+          </a:xfrm>
+        </cdr:grpSpPr>
+        <cdr:cxnSp macro="">
+          <cdr:nvCxnSpPr>
+            <cdr:cNvPr id="6" name="直線コネクタ 5"/>
+            <cdr:cNvCxnSpPr/>
+          </cdr:nvCxnSpPr>
+          <cdr:spPr>
+            <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:off x="945354" y="187379"/>
+              <a:ext cx="164" cy="115305"/>
+            </a:xfrm>
+            <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          </cdr:spPr>
+          <cdr:style>
+            <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </cdr:style>
+        </cdr:cxnSp>
+        <cdr:cxnSp macro="">
+          <cdr:nvCxnSpPr>
+            <cdr:cNvPr id="7" name="直線コネクタ 6"/>
+            <cdr:cNvCxnSpPr/>
+          </cdr:nvCxnSpPr>
+          <cdr:spPr>
+            <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipH="1">
+              <a:off x="2380" y="189252"/>
+              <a:ext cx="938619" cy="487"/>
+            </a:xfrm>
+            <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          </cdr:spPr>
+          <cdr:style>
+            <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </cdr:style>
+        </cdr:cxnSp>
+        <cdr:cxnSp macro="">
+          <cdr:nvCxnSpPr>
+            <cdr:cNvPr id="8" name="直線コネクタ 7"/>
+            <cdr:cNvCxnSpPr/>
+          </cdr:nvCxnSpPr>
+          <cdr:spPr>
+            <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipH="1">
+              <a:off x="4762" y="188528"/>
+              <a:ext cx="1077" cy="109788"/>
+            </a:xfrm>
+            <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          </cdr:spPr>
+          <cdr:style>
+            <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </cdr:style>
+        </cdr:cxnSp>
+      </cdr:grpSp>
+      <cdr:sp macro="" textlink="">
+        <cdr:nvSpPr>
+          <cdr:cNvPr id="5" name="テキスト ボックス 3"/>
+          <cdr:cNvSpPr txBox="1"/>
+        </cdr:nvSpPr>
+        <cdr:spPr>
+          <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:off x="0" y="0"/>
+            <a:ext cx="1348485" cy="181766"/>
+          </a:xfrm>
+          <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </cdr:spPr>
+        <cdr:txBody>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
+          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:lvl1pPr marL="0" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>**</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </cdr:txBody>
+      </cdr:sp>
+    </cdr:grpSp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.88732</cdr:x>
+      <cdr:y>0.02294</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.98625</cdr:x>
+      <cdr:y>0.06953</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="テキスト ボックス 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="5777006" y="84418"/>
+          <a:ext cx="644123" cy="171467"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800">
+              <a:latin typeface="+mj-ea"/>
+              <a:ea typeface="+mj-ea"/>
+            </a:rPr>
+            <a:t>**</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
+            <a:t>:p&lt;0.01</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.83133</cdr:x>
+      <cdr:y>0.05948</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.93136</cdr:x>
+      <cdr:y>0.14201</cdr:y>
+    </cdr:to>
+    <cdr:grpSp>
+      <cdr:nvGrpSpPr>
+        <cdr:cNvPr id="3" name="グループ化 2"/>
+        <cdr:cNvGrpSpPr/>
+      </cdr:nvGrpSpPr>
+      <cdr:grpSpPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="5387138" y="226538"/>
+          <a:ext cx="648209" cy="314327"/>
+          <a:chOff x="0" y="0"/>
+          <a:chExt cx="1352122" cy="306391"/>
+        </a:xfrm>
+      </cdr:grpSpPr>
+      <cdr:grpSp>
+        <cdr:nvGrpSpPr>
+          <cdr:cNvPr id="4" name="グループ化 3"/>
+          <cdr:cNvGrpSpPr/>
+        </cdr:nvGrpSpPr>
+        <cdr:grpSpPr>
+          <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:off x="3404" y="189038"/>
+            <a:ext cx="1348718" cy="117353"/>
+            <a:chOff x="2380" y="187379"/>
+            <a:chExt cx="943138" cy="115305"/>
+          </a:xfrm>
+        </cdr:grpSpPr>
+        <cdr:cxnSp macro="">
+          <cdr:nvCxnSpPr>
+            <cdr:cNvPr id="6" name="直線コネクタ 5"/>
+            <cdr:cNvCxnSpPr/>
+          </cdr:nvCxnSpPr>
+          <cdr:spPr>
+            <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:off x="945354" y="187379"/>
+              <a:ext cx="164" cy="115305"/>
+            </a:xfrm>
+            <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          </cdr:spPr>
+          <cdr:style>
+            <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </cdr:style>
+        </cdr:cxnSp>
+        <cdr:cxnSp macro="">
+          <cdr:nvCxnSpPr>
+            <cdr:cNvPr id="7" name="直線コネクタ 6"/>
+            <cdr:cNvCxnSpPr/>
+          </cdr:nvCxnSpPr>
+          <cdr:spPr>
+            <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipH="1">
+              <a:off x="2380" y="189252"/>
+              <a:ext cx="938619" cy="487"/>
+            </a:xfrm>
+            <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          </cdr:spPr>
+          <cdr:style>
+            <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </cdr:style>
+        </cdr:cxnSp>
+        <cdr:cxnSp macro="">
+          <cdr:nvCxnSpPr>
+            <cdr:cNvPr id="8" name="直線コネクタ 7"/>
+            <cdr:cNvCxnSpPr/>
+          </cdr:nvCxnSpPr>
+          <cdr:spPr>
+            <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipH="1">
+              <a:off x="4762" y="188528"/>
+              <a:ext cx="1077" cy="109788"/>
+            </a:xfrm>
+            <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          </cdr:spPr>
+          <cdr:style>
+            <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </cdr:style>
+        </cdr:cxnSp>
+      </cdr:grpSp>
+      <cdr:sp macro="" textlink="">
+        <cdr:nvSpPr>
+          <cdr:cNvPr id="5" name="テキスト ボックス 3"/>
+          <cdr:cNvSpPr txBox="1"/>
+        </cdr:nvSpPr>
+        <cdr:spPr>
+          <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:off x="0" y="0"/>
+            <a:ext cx="1348485" cy="181766"/>
+          </a:xfrm>
+          <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </cdr:spPr>
+        <cdr:txBody>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
+          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:lvl1pPr marL="0" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>**</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </cdr:txBody>
+      </cdr:sp>
+    </cdr:grpSp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.88933</cdr:x>
+      <cdr:y>0.03111</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.98895</cdr:x>
+      <cdr:y>0.07593</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="テキスト ボックス 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="5750231" y="123714"/>
+          <a:ext cx="644126" cy="178187"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800">
+              <a:latin typeface="+mj-ea"/>
+              <a:ea typeface="+mj-ea"/>
+            </a:rPr>
+            <a:t>**</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
+            <a:t>:p&lt;0.01</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>14653</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>416718</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>125381</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>29307</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>91584</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>255984</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>5952</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5207,7 +6404,721 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>179511</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>15112</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>137837</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>15111</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="テキスト ボックス 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7066819" y="1744266"/>
+          <a:ext cx="647056" cy="168518"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800">
+              <a:latin typeface="+mj-ea"/>
+              <a:ea typeface="+mj-ea"/>
+            </a:rPr>
+            <a:t>**</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
+            <a:t>:p&lt;0.01</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.13982</cdr:x>
+      <cdr:y>0.07861</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.29764</cdr:x>
+      <cdr:y>0.16539</cdr:y>
+    </cdr:to>
+    <cdr:grpSp>
+      <cdr:nvGrpSpPr>
+        <cdr:cNvPr id="22" name="グループ化 21"/>
+        <cdr:cNvGrpSpPr/>
+      </cdr:nvGrpSpPr>
+      <cdr:grpSpPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="744635" y="273643"/>
+          <a:ext cx="840496" cy="302083"/>
+          <a:chOff x="804863" y="40471"/>
+          <a:chExt cx="945520" cy="304733"/>
+        </a:xfrm>
+      </cdr:grpSpPr>
+      <cdr:grpSp>
+        <cdr:nvGrpSpPr>
+          <cdr:cNvPr id="20" name="グループ化 19"/>
+          <cdr:cNvGrpSpPr/>
+        </cdr:nvGrpSpPr>
+        <cdr:grpSpPr>
+          <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:off x="807242" y="227850"/>
+            <a:ext cx="943141" cy="117354"/>
+            <a:chOff x="807244" y="225854"/>
+            <a:chExt cx="943139" cy="116325"/>
+          </a:xfrm>
+        </cdr:grpSpPr>
+        <cdr:cxnSp macro="">
+          <cdr:nvCxnSpPr>
+            <cdr:cNvPr id="6" name="直線コネクタ 5"/>
+            <cdr:cNvCxnSpPr/>
+          </cdr:nvCxnSpPr>
+          <cdr:spPr>
+            <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:off x="1750219" y="225854"/>
+              <a:ext cx="164" cy="116325"/>
+            </a:xfrm>
+            <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          </cdr:spPr>
+          <cdr:style>
+            <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </cdr:style>
+        </cdr:cxnSp>
+        <cdr:cxnSp macro="">
+          <cdr:nvCxnSpPr>
+            <cdr:cNvPr id="7" name="直線コネクタ 6"/>
+            <cdr:cNvCxnSpPr/>
+          </cdr:nvCxnSpPr>
+          <cdr:spPr>
+            <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipH="1">
+              <a:off x="807244" y="227744"/>
+              <a:ext cx="938619" cy="491"/>
+            </a:xfrm>
+            <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          </cdr:spPr>
+          <cdr:style>
+            <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </cdr:style>
+        </cdr:cxnSp>
+        <cdr:cxnSp macro="">
+          <cdr:nvCxnSpPr>
+            <cdr:cNvPr id="18" name="直線コネクタ 17"/>
+            <cdr:cNvCxnSpPr/>
+          </cdr:nvCxnSpPr>
+          <cdr:spPr>
+            <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipH="1">
+              <a:off x="809625" y="227013"/>
+              <a:ext cx="1077" cy="110759"/>
+            </a:xfrm>
+            <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          </cdr:spPr>
+          <cdr:style>
+            <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </cdr:style>
+        </cdr:cxnSp>
+      </cdr:grpSp>
+      <cdr:sp macro="" textlink="">
+        <cdr:nvSpPr>
+          <cdr:cNvPr id="21" name="テキスト ボックス 20"/>
+          <cdr:cNvSpPr txBox="1"/>
+        </cdr:nvSpPr>
+        <cdr:spPr>
+          <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:off x="804863" y="40471"/>
+            <a:ext cx="942975" cy="180172"/>
+          </a:xfrm>
+          <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </cdr:spPr>
+        <cdr:txBody>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>**</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </cdr:txBody>
+      </cdr:sp>
+    </cdr:grpSp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.44244</cdr:x>
+      <cdr:y>0.07866</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.60009</cdr:x>
+      <cdr:y>0.16534</cdr:y>
+    </cdr:to>
+    <cdr:grpSp>
+      <cdr:nvGrpSpPr>
+        <cdr:cNvPr id="24" name="グループ化 23"/>
+        <cdr:cNvGrpSpPr/>
+      </cdr:nvGrpSpPr>
+      <cdr:grpSpPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="2356288" y="273817"/>
+          <a:ext cx="839591" cy="301735"/>
+          <a:chOff x="0" y="0"/>
+          <a:chExt cx="944500" cy="304411"/>
+        </a:xfrm>
+      </cdr:grpSpPr>
+      <cdr:grpSp>
+        <cdr:nvGrpSpPr>
+          <cdr:cNvPr id="25" name="グループ化 24"/>
+          <cdr:cNvGrpSpPr/>
+        </cdr:nvGrpSpPr>
+        <cdr:grpSpPr>
+          <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:off x="2380" y="187816"/>
+            <a:ext cx="942120" cy="116595"/>
+            <a:chOff x="2381" y="187381"/>
+            <a:chExt cx="943139" cy="115307"/>
+          </a:xfrm>
+        </cdr:grpSpPr>
+        <cdr:cxnSp macro="">
+          <cdr:nvCxnSpPr>
+            <cdr:cNvPr id="27" name="直線コネクタ 26"/>
+            <cdr:cNvCxnSpPr/>
+          </cdr:nvCxnSpPr>
+          <cdr:spPr>
+            <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:off x="945356" y="187381"/>
+              <a:ext cx="164" cy="115307"/>
+            </a:xfrm>
+            <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          </cdr:spPr>
+          <cdr:style>
+            <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </cdr:style>
+        </cdr:cxnSp>
+        <cdr:cxnSp macro="">
+          <cdr:nvCxnSpPr>
+            <cdr:cNvPr id="28" name="直線コネクタ 27"/>
+            <cdr:cNvCxnSpPr/>
+          </cdr:nvCxnSpPr>
+          <cdr:spPr>
+            <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipH="1">
+              <a:off x="2381" y="189253"/>
+              <a:ext cx="938619" cy="487"/>
+            </a:xfrm>
+            <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          </cdr:spPr>
+          <cdr:style>
+            <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </cdr:style>
+        </cdr:cxnSp>
+        <cdr:cxnSp macro="">
+          <cdr:nvCxnSpPr>
+            <cdr:cNvPr id="29" name="直線コネクタ 28"/>
+            <cdr:cNvCxnSpPr/>
+          </cdr:nvCxnSpPr>
+          <cdr:spPr>
+            <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipH="1">
+              <a:off x="4762" y="188529"/>
+              <a:ext cx="1077" cy="109790"/>
+            </a:xfrm>
+            <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          </cdr:spPr>
+          <cdr:style>
+            <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </cdr:style>
+        </cdr:cxnSp>
+      </cdr:grpSp>
+      <cdr:sp macro="" textlink="">
+        <cdr:nvSpPr>
+          <cdr:cNvPr id="26" name="テキスト ボックス 3"/>
+          <cdr:cNvSpPr txBox="1"/>
+        </cdr:nvSpPr>
+        <cdr:spPr>
+          <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:off x="0" y="0"/>
+            <a:ext cx="941958" cy="180589"/>
+          </a:xfrm>
+          <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </cdr:spPr>
+        <cdr:txBody>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
+          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:lvl1pPr marL="0" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>**</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </cdr:txBody>
+      </cdr:sp>
+    </cdr:grpSp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.74688</cdr:x>
+      <cdr:y>0.07866</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.90452</cdr:x>
+      <cdr:y>0.16534</cdr:y>
+    </cdr:to>
+    <cdr:grpSp>
+      <cdr:nvGrpSpPr>
+        <cdr:cNvPr id="30" name="グループ化 29"/>
+        <cdr:cNvGrpSpPr/>
+      </cdr:nvGrpSpPr>
+      <cdr:grpSpPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="3977633" y="273817"/>
+          <a:ext cx="839538" cy="301735"/>
+          <a:chOff x="0" y="-1"/>
+          <a:chExt cx="944500" cy="304412"/>
+        </a:xfrm>
+      </cdr:grpSpPr>
+      <cdr:grpSp>
+        <cdr:nvGrpSpPr>
+          <cdr:cNvPr id="31" name="グループ化 30"/>
+          <cdr:cNvGrpSpPr/>
+        </cdr:nvGrpSpPr>
+        <cdr:grpSpPr>
+          <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:off x="2375" y="187817"/>
+            <a:ext cx="942125" cy="116594"/>
+            <a:chOff x="2381" y="187381"/>
+            <a:chExt cx="943139" cy="115307"/>
+          </a:xfrm>
+        </cdr:grpSpPr>
+        <cdr:cxnSp macro="">
+          <cdr:nvCxnSpPr>
+            <cdr:cNvPr id="33" name="直線コネクタ 32"/>
+            <cdr:cNvCxnSpPr/>
+          </cdr:nvCxnSpPr>
+          <cdr:spPr>
+            <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:off x="945356" y="187381"/>
+              <a:ext cx="164" cy="115307"/>
+            </a:xfrm>
+            <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          </cdr:spPr>
+          <cdr:style>
+            <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </cdr:style>
+        </cdr:cxnSp>
+        <cdr:cxnSp macro="">
+          <cdr:nvCxnSpPr>
+            <cdr:cNvPr id="34" name="直線コネクタ 33"/>
+            <cdr:cNvCxnSpPr/>
+          </cdr:nvCxnSpPr>
+          <cdr:spPr>
+            <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipH="1">
+              <a:off x="2381" y="189253"/>
+              <a:ext cx="938619" cy="487"/>
+            </a:xfrm>
+            <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          </cdr:spPr>
+          <cdr:style>
+            <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </cdr:style>
+        </cdr:cxnSp>
+        <cdr:cxnSp macro="">
+          <cdr:nvCxnSpPr>
+            <cdr:cNvPr id="35" name="直線コネクタ 34"/>
+            <cdr:cNvCxnSpPr/>
+          </cdr:nvCxnSpPr>
+          <cdr:spPr>
+            <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipH="1">
+              <a:off x="4762" y="188529"/>
+              <a:ext cx="1077" cy="109790"/>
+            </a:xfrm>
+            <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          </cdr:spPr>
+          <cdr:style>
+            <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </cdr:style>
+        </cdr:cxnSp>
+      </cdr:grpSp>
+      <cdr:sp macro="" textlink="">
+        <cdr:nvSpPr>
+          <cdr:cNvPr id="32" name="テキスト ボックス 3"/>
+          <cdr:cNvSpPr txBox="1"/>
+        </cdr:nvSpPr>
+        <cdr:spPr>
+          <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:off x="0" y="-1"/>
+            <a:ext cx="941958" cy="180589"/>
+          </a:xfrm>
+          <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </cdr:spPr>
+        <cdr:txBody>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
+          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:lvl1pPr marL="0" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>**</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </cdr:txBody>
+      </cdr:sp>
+    </cdr:grpSp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5475,8 +7386,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="X26" sqref="X26"/>
+    <sheetView tabSelected="1" topLeftCell="N11" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L40" sqref="L40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5503,22 +7414,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="3" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="67"/>
-      <c r="B1" s="75" t="s">
+      <c r="A1" s="65"/>
+      <c r="B1" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
       <c r="J1" s="56"/>
       <c r="K1" s="57"/>
       <c r="M1" s="22"/>
       <c r="N1" s="44" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="O1" s="44"/>
       <c r="P1" s="44"/>
@@ -5531,7 +7442,7 @@
       <c r="W1" s="57"/>
       <c r="Y1" s="22"/>
       <c r="Z1" s="44" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AA1" s="44"/>
       <c r="AB1" s="44"/>
@@ -5545,68 +7456,68 @@
     </row>
     <row r="2" spans="1:35" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="23"/>
-      <c r="B2" s="73" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="74"/>
-      <c r="J2" s="77" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" s="78"/>
+      <c r="B2" s="76" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="77"/>
+      <c r="J2" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="74"/>
       <c r="M2" s="23"/>
-      <c r="N2" s="79" t="s">
-        <v>4</v>
-      </c>
-      <c r="O2" s="78"/>
-      <c r="P2" s="79" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q2" s="78"/>
-      <c r="R2" s="79" t="s">
-        <v>6</v>
-      </c>
-      <c r="S2" s="78"/>
-      <c r="T2" s="79" t="s">
-        <v>7</v>
-      </c>
-      <c r="U2" s="78"/>
-      <c r="V2" s="79" t="s">
-        <v>12</v>
-      </c>
-      <c r="W2" s="78"/>
+      <c r="N2" s="76" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" s="77"/>
+      <c r="P2" s="77" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q2" s="77"/>
+      <c r="R2" s="77" t="s">
+        <v>28</v>
+      </c>
+      <c r="S2" s="77"/>
+      <c r="T2" s="77" t="s">
+        <v>29</v>
+      </c>
+      <c r="U2" s="77"/>
+      <c r="V2" s="75" t="s">
+        <v>8</v>
+      </c>
+      <c r="W2" s="74"/>
       <c r="Y2" s="23"/>
-      <c r="Z2" s="79" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA2" s="78"/>
-      <c r="AB2" s="79" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC2" s="78"/>
-      <c r="AD2" s="79" t="s">
-        <v>6</v>
-      </c>
-      <c r="AE2" s="78"/>
-      <c r="AF2" s="79" t="s">
-        <v>7</v>
-      </c>
-      <c r="AG2" s="78"/>
-      <c r="AH2" s="79" t="s">
-        <v>12</v>
-      </c>
-      <c r="AI2" s="78"/>
+      <c r="Z2" s="76" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA2" s="77"/>
+      <c r="AB2" s="77" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC2" s="77"/>
+      <c r="AD2" s="77" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE2" s="77"/>
+      <c r="AF2" s="77" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG2" s="77"/>
+      <c r="AH2" s="75" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI2" s="74"/>
     </row>
     <row r="3" spans="1:35" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="35" t="s">
@@ -5636,11 +7547,11 @@
       <c r="I3" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="66" t="s">
-        <v>13</v>
-      </c>
-      <c r="K3" s="61" t="s">
-        <v>14</v>
+      <c r="J3" s="64" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="59" t="s">
+        <v>10</v>
       </c>
       <c r="M3" s="35" t="s">
         <v>0</v>
@@ -5669,11 +7580,11 @@
       <c r="U3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="V3" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="W3" s="61" t="s">
-        <v>14</v>
+      <c r="V3" s="58" t="s">
+        <v>9</v>
+      </c>
+      <c r="W3" s="59" t="s">
+        <v>10</v>
       </c>
       <c r="Y3" s="35" t="s">
         <v>0</v>
@@ -5702,62 +7613,60 @@
       <c r="AG3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="AH3" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="AI3" s="61" t="s">
-        <v>14</v>
+      <c r="AH3" s="58" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI3" s="59" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A4" s="31">
         <v>1</v>
       </c>
-      <c r="B4" s="32">
-        <v>25</v>
-      </c>
-      <c r="C4" s="65">
-        <v>75</v>
-      </c>
-      <c r="D4" s="65">
-        <v>25</v>
-      </c>
-      <c r="E4" s="65">
-        <v>75</v>
-      </c>
-      <c r="F4" s="65">
-        <v>75</v>
-      </c>
-      <c r="G4" s="65">
+      <c r="B4" s="63">
+        <v>25</v>
+      </c>
+      <c r="C4" s="63">
+        <v>75</v>
+      </c>
+      <c r="D4" s="63">
+        <v>75</v>
+      </c>
+      <c r="E4" s="63">
         <v>100</v>
       </c>
-      <c r="H4" s="65">
-        <v>25</v>
-      </c>
-      <c r="I4" s="65">
-        <v>75</v>
-      </c>
-      <c r="J4" s="58"/>
-      <c r="K4" s="59"/>
+      <c r="F4" s="32">
+        <v>25</v>
+      </c>
+      <c r="G4" s="63">
+        <v>75</v>
+      </c>
+      <c r="H4" s="63">
+        <v>25</v>
+      </c>
+      <c r="I4" s="63">
+        <v>75</v>
+      </c>
       <c r="M4" s="31">
         <v>1</v>
       </c>
-      <c r="N4" s="32">
-        <v>25</v>
-      </c>
-      <c r="O4" s="33">
+      <c r="N4" s="34">
+        <v>50</v>
+      </c>
+      <c r="O4" s="10">
         <v>75</v>
       </c>
       <c r="P4" s="34">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="Q4" s="10">
         <v>75</v>
       </c>
-      <c r="R4" s="34">
-        <v>75</v>
-      </c>
-      <c r="S4" s="10">
+      <c r="R4" s="32">
+        <v>25</v>
+      </c>
+      <c r="S4" s="33">
         <v>75</v>
       </c>
       <c r="T4" s="32">
@@ -5766,27 +7675,25 @@
       <c r="U4" s="10">
         <v>75</v>
       </c>
-      <c r="V4" s="58"/>
-      <c r="W4" s="59"/>
       <c r="Y4" s="31">
         <v>1</v>
       </c>
-      <c r="Z4" s="32">
-        <v>50</v>
-      </c>
-      <c r="AA4" s="33">
-        <v>75</v>
+      <c r="Z4" s="34">
+        <v>50</v>
+      </c>
+      <c r="AA4" s="10">
+        <v>100</v>
       </c>
       <c r="AB4" s="34">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="AC4" s="10">
-        <v>100</v>
-      </c>
-      <c r="AD4" s="34">
-        <v>75</v>
-      </c>
-      <c r="AE4" s="10">
+        <v>75</v>
+      </c>
+      <c r="AD4" s="32">
+        <v>50</v>
+      </c>
+      <c r="AE4" s="33">
         <v>75</v>
       </c>
       <c r="AF4" s="32">
@@ -5795,30 +7702,28 @@
       <c r="AG4" s="10">
         <v>75</v>
       </c>
-      <c r="AH4" s="58"/>
-      <c r="AI4" s="59"/>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A5" s="24">
         <v>2</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="36">
         <v>25</v>
       </c>
       <c r="C5" s="36">
         <v>75</v>
       </c>
       <c r="D5" s="36">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="E5" s="36">
-        <v>75</v>
-      </c>
-      <c r="F5" s="36">
-        <v>75</v>
+        <v>50</v>
+      </c>
+      <c r="F5" s="9">
+        <v>25</v>
       </c>
       <c r="G5" s="36">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="H5" s="36">
         <v>25</v>
@@ -5826,28 +7731,26 @@
       <c r="I5" s="36">
         <v>75</v>
       </c>
-      <c r="J5" s="39"/>
-      <c r="K5" s="48"/>
       <c r="M5" s="24">
         <v>2</v>
       </c>
-      <c r="N5" s="9">
-        <v>25</v>
-      </c>
-      <c r="O5" s="11">
+      <c r="N5" s="4">
+        <v>25</v>
+      </c>
+      <c r="O5" s="5">
         <v>75</v>
       </c>
       <c r="P5" s="4">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="Q5" s="5">
-        <v>75</v>
-      </c>
-      <c r="R5" s="4">
-        <v>75</v>
-      </c>
-      <c r="S5" s="5">
-        <v>50</v>
+        <v>50</v>
+      </c>
+      <c r="R5" s="9">
+        <v>25</v>
+      </c>
+      <c r="S5" s="11">
+        <v>75</v>
       </c>
       <c r="T5" s="9">
         <v>75</v>
@@ -5855,28 +7758,26 @@
       <c r="U5" s="5">
         <v>50</v>
       </c>
-      <c r="V5" s="39"/>
-      <c r="W5" s="48"/>
       <c r="Y5" s="24">
         <v>2</v>
       </c>
-      <c r="Z5" s="9">
-        <v>25</v>
-      </c>
-      <c r="AA5" s="11">
+      <c r="Z5" s="4">
+        <v>25</v>
+      </c>
+      <c r="AA5" s="5">
         <v>75</v>
       </c>
       <c r="AB5" s="4">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="AC5" s="5">
-        <v>75</v>
-      </c>
-      <c r="AD5" s="4">
-        <v>75</v>
-      </c>
-      <c r="AE5" s="5">
-        <v>50</v>
+        <v>50</v>
+      </c>
+      <c r="AD5" s="9">
+        <v>25</v>
+      </c>
+      <c r="AE5" s="11">
+        <v>75</v>
       </c>
       <c r="AF5" s="9">
         <v>25</v>
@@ -5884,30 +7785,28 @@
       <c r="AG5" s="5">
         <v>75</v>
       </c>
-      <c r="AH5" s="39"/>
-      <c r="AI5" s="48"/>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A6" s="24">
         <v>3</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="36">
         <v>25</v>
       </c>
       <c r="C6" s="36">
+        <v>75</v>
+      </c>
+      <c r="D6" s="36">
+        <v>50</v>
+      </c>
+      <c r="E6" s="36">
+        <v>50</v>
+      </c>
+      <c r="F6" s="9">
+        <v>25</v>
+      </c>
+      <c r="G6" s="36">
         <v>100</v>
-      </c>
-      <c r="D6" s="36">
-        <v>25</v>
-      </c>
-      <c r="E6" s="36">
-        <v>75</v>
-      </c>
-      <c r="F6" s="36">
-        <v>50</v>
-      </c>
-      <c r="G6" s="36">
-        <v>50</v>
       </c>
       <c r="H6" s="36">
         <v>75</v>
@@ -5915,57 +7814,53 @@
       <c r="I6" s="36">
         <v>100</v>
       </c>
-      <c r="J6" s="39"/>
-      <c r="K6" s="48"/>
       <c r="M6" s="24">
         <v>3</v>
       </c>
-      <c r="N6" s="9">
-        <v>25</v>
-      </c>
-      <c r="O6" s="11">
+      <c r="N6" s="4">
+        <v>50</v>
+      </c>
+      <c r="O6" s="5">
         <v>100</v>
       </c>
       <c r="P6" s="4">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="Q6" s="5">
+        <v>75</v>
+      </c>
+      <c r="R6" s="9">
+        <v>25</v>
+      </c>
+      <c r="S6" s="11">
         <v>100</v>
       </c>
-      <c r="R6" s="4">
-        <v>25</v>
-      </c>
-      <c r="S6" s="5">
-        <v>75</v>
-      </c>
       <c r="T6" s="9">
         <v>75</v>
       </c>
       <c r="U6" s="5">
         <v>50</v>
       </c>
-      <c r="V6" s="39"/>
-      <c r="W6" s="48"/>
       <c r="Y6" s="24">
         <v>3</v>
       </c>
-      <c r="Z6" s="9">
-        <v>50</v>
-      </c>
-      <c r="AA6" s="11">
-        <v>75</v>
+      <c r="Z6" s="4">
+        <v>50</v>
+      </c>
+      <c r="AA6" s="5">
+        <v>100</v>
       </c>
       <c r="AB6" s="4">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="AC6" s="5">
-        <v>100</v>
-      </c>
-      <c r="AD6" s="4">
-        <v>75</v>
-      </c>
-      <c r="AE6" s="5">
-        <v>50</v>
+        <v>50</v>
+      </c>
+      <c r="AD6" s="9">
+        <v>50</v>
+      </c>
+      <c r="AE6" s="11">
+        <v>75</v>
       </c>
       <c r="AF6" s="9">
         <v>50</v>
@@ -5973,26 +7868,24 @@
       <c r="AG6" s="5">
         <v>100</v>
       </c>
-      <c r="AH6" s="39"/>
-      <c r="AI6" s="48"/>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A7" s="24">
         <v>4</v>
       </c>
-      <c r="B7" s="9">
-        <v>50</v>
+      <c r="B7" s="36">
+        <v>25</v>
       </c>
       <c r="C7" s="36">
         <v>75</v>
       </c>
       <c r="D7" s="36">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E7" s="36">
         <v>75</v>
       </c>
-      <c r="F7" s="36">
+      <c r="F7" s="9">
         <v>50</v>
       </c>
       <c r="G7" s="36">
@@ -6004,27 +7897,25 @@
       <c r="I7" s="36">
         <v>25</v>
       </c>
-      <c r="J7" s="39"/>
-      <c r="K7" s="48"/>
       <c r="M7" s="24">
         <v>4</v>
       </c>
-      <c r="N7" s="9">
-        <v>75</v>
-      </c>
-      <c r="O7" s="11">
+      <c r="N7" s="4">
+        <v>25</v>
+      </c>
+      <c r="O7" s="5">
+        <v>75</v>
+      </c>
+      <c r="P7" s="4">
+        <v>50</v>
+      </c>
+      <c r="Q7" s="5">
         <v>100</v>
       </c>
-      <c r="P7" s="4">
-        <v>25</v>
-      </c>
-      <c r="Q7" s="5">
-        <v>75</v>
-      </c>
-      <c r="R7" s="4">
-        <v>50</v>
-      </c>
-      <c r="S7" s="5">
+      <c r="R7" s="9">
+        <v>75</v>
+      </c>
+      <c r="S7" s="11">
         <v>100</v>
       </c>
       <c r="T7" s="9">
@@ -6033,59 +7924,55 @@
       <c r="U7" s="5">
         <v>50</v>
       </c>
-      <c r="V7" s="39"/>
-      <c r="W7" s="48"/>
       <c r="Y7" s="24">
         <v>4</v>
       </c>
-      <c r="Z7" s="9">
-        <v>50</v>
-      </c>
-      <c r="AA7" s="11">
+      <c r="Z7" s="4">
+        <v>50</v>
+      </c>
+      <c r="AA7" s="5">
         <v>75</v>
       </c>
       <c r="AB7" s="4">
         <v>50</v>
       </c>
       <c r="AC7" s="5">
-        <v>75</v>
-      </c>
-      <c r="AD7" s="4">
-        <v>50</v>
-      </c>
-      <c r="AE7" s="5">
         <v>100</v>
       </c>
+      <c r="AD7" s="9">
+        <v>50</v>
+      </c>
+      <c r="AE7" s="11">
+        <v>75</v>
+      </c>
       <c r="AF7" s="9">
         <v>50</v>
       </c>
       <c r="AG7" s="5">
         <v>25</v>
       </c>
-      <c r="AH7" s="39"/>
-      <c r="AI7" s="48"/>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A8" s="24">
         <v>5</v>
       </c>
-      <c r="B8" s="9">
-        <v>25</v>
+      <c r="B8" s="36">
+        <v>0</v>
       </c>
       <c r="C8" s="36">
         <v>75</v>
       </c>
       <c r="D8" s="36">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E8" s="36">
-        <v>75</v>
-      </c>
-      <c r="F8" s="36">
+        <v>100</v>
+      </c>
+      <c r="F8" s="9">
         <v>25</v>
       </c>
       <c r="G8" s="36">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="H8" s="36">
         <v>0</v>
@@ -6093,27 +7980,25 @@
       <c r="I8" s="36">
         <v>75</v>
       </c>
-      <c r="J8" s="39"/>
-      <c r="K8" s="48"/>
       <c r="M8" s="24">
         <v>5</v>
       </c>
-      <c r="N8" s="9">
-        <v>75</v>
-      </c>
-      <c r="O8" s="11">
-        <v>50</v>
+      <c r="N8" s="4">
+        <v>75</v>
+      </c>
+      <c r="O8" s="5">
+        <v>75</v>
       </c>
       <c r="P8" s="4">
         <v>75</v>
       </c>
       <c r="Q8" s="5">
-        <v>75</v>
-      </c>
-      <c r="R8" s="4">
-        <v>75</v>
-      </c>
-      <c r="S8" s="5">
+        <v>50</v>
+      </c>
+      <c r="R8" s="9">
+        <v>75</v>
+      </c>
+      <c r="S8" s="11">
         <v>50</v>
       </c>
       <c r="T8" s="9">
@@ -6122,27 +8007,25 @@
       <c r="U8" s="5">
         <v>75</v>
       </c>
-      <c r="V8" s="39"/>
-      <c r="W8" s="48"/>
       <c r="Y8" s="24">
         <v>5</v>
       </c>
-      <c r="Z8" s="9">
-        <v>75</v>
-      </c>
-      <c r="AA8" s="11">
-        <v>50</v>
+      <c r="Z8" s="4">
+        <v>75</v>
+      </c>
+      <c r="AA8" s="5">
+        <v>75</v>
       </c>
       <c r="AB8" s="4">
-        <v>75</v>
-      </c>
-      <c r="AC8" s="5">
-        <v>75</v>
-      </c>
-      <c r="AD8" s="4">
-        <v>50</v>
-      </c>
-      <c r="AE8" s="4">
+        <v>50</v>
+      </c>
+      <c r="AC8" s="4">
+        <v>50</v>
+      </c>
+      <c r="AD8" s="9">
+        <v>75</v>
+      </c>
+      <c r="AE8" s="11">
         <v>50</v>
       </c>
       <c r="AF8" s="9">
@@ -6151,59 +8034,55 @@
       <c r="AG8" s="5">
         <v>100</v>
       </c>
-      <c r="AH8" s="39"/>
-      <c r="AI8" s="48"/>
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A9" s="24">
         <v>6</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="36">
+        <v>25</v>
+      </c>
+      <c r="C9" s="36">
+        <v>75</v>
+      </c>
+      <c r="D9" s="36">
+        <v>25</v>
+      </c>
+      <c r="E9" s="36">
+        <v>75</v>
+      </c>
+      <c r="F9" s="9">
         <v>0</v>
       </c>
-      <c r="C9" s="36">
+      <c r="G9" s="36">
         <v>100</v>
       </c>
-      <c r="D9" s="36">
-        <v>25</v>
-      </c>
-      <c r="E9" s="36">
-        <v>75</v>
-      </c>
-      <c r="F9" s="36">
-        <v>25</v>
-      </c>
-      <c r="G9" s="36">
-        <v>75</v>
-      </c>
       <c r="H9" s="36">
         <v>50</v>
       </c>
       <c r="I9" s="36">
         <v>50</v>
       </c>
-      <c r="J9" s="39"/>
-      <c r="K9" s="48"/>
       <c r="M9" s="24">
         <v>6</v>
       </c>
-      <c r="N9" s="9">
-        <v>25</v>
-      </c>
-      <c r="O9" s="11">
-        <v>75</v>
+      <c r="N9" s="4">
+        <v>0</v>
+      </c>
+      <c r="O9" s="5">
+        <v>100</v>
       </c>
       <c r="P9" s="4">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Q9" s="5">
-        <v>100</v>
-      </c>
-      <c r="R9" s="4">
-        <v>50</v>
-      </c>
-      <c r="S9" s="5">
-        <v>50</v>
+        <v>50</v>
+      </c>
+      <c r="R9" s="9">
+        <v>25</v>
+      </c>
+      <c r="S9" s="11">
+        <v>75</v>
       </c>
       <c r="T9" s="9">
         <v>100</v>
@@ -6211,28 +8090,26 @@
       <c r="U9" s="5">
         <v>0</v>
       </c>
-      <c r="V9" s="39"/>
-      <c r="W9" s="48"/>
       <c r="Y9" s="24">
         <v>6</v>
       </c>
-      <c r="Z9" s="9">
+      <c r="Z9" s="4">
+        <v>25</v>
+      </c>
+      <c r="AA9" s="5">
+        <v>75</v>
+      </c>
+      <c r="AB9" s="4">
+        <v>25</v>
+      </c>
+      <c r="AC9" s="5">
+        <v>75</v>
+      </c>
+      <c r="AD9" s="9">
         <v>0</v>
       </c>
-      <c r="AA9" s="11">
+      <c r="AE9" s="11">
         <v>100</v>
-      </c>
-      <c r="AB9" s="4">
-        <v>25</v>
-      </c>
-      <c r="AC9" s="5">
-        <v>75</v>
-      </c>
-      <c r="AD9" s="4">
-        <v>25</v>
-      </c>
-      <c r="AE9" s="5">
-        <v>75</v>
       </c>
       <c r="AF9" s="9">
         <v>100</v>
@@ -6240,27 +8117,25 @@
       <c r="AG9" s="5">
         <v>0</v>
       </c>
-      <c r="AH9" s="39"/>
-      <c r="AI9" s="48"/>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A10" s="24">
         <v>7</v>
       </c>
-      <c r="B10" s="9">
-        <v>25</v>
+      <c r="B10" s="36">
+        <v>0</v>
       </c>
       <c r="C10" s="36">
+        <v>75</v>
+      </c>
+      <c r="D10" s="36">
+        <v>75</v>
+      </c>
+      <c r="E10" s="36">
         <v>100</v>
       </c>
-      <c r="D10" s="36">
-        <v>0</v>
-      </c>
-      <c r="E10" s="36">
-        <v>75</v>
-      </c>
-      <c r="F10" s="36">
-        <v>75</v>
+      <c r="F10" s="9">
+        <v>25</v>
       </c>
       <c r="G10" s="36">
         <v>100</v>
@@ -6271,28 +8146,26 @@
       <c r="I10" s="36">
         <v>100</v>
       </c>
-      <c r="J10" s="39"/>
-      <c r="K10" s="48"/>
       <c r="M10" s="24">
         <v>7</v>
       </c>
-      <c r="N10" s="9">
-        <v>25</v>
-      </c>
-      <c r="O10" s="11">
+      <c r="N10" s="4">
+        <v>25</v>
+      </c>
+      <c r="O10" s="5">
+        <v>75</v>
+      </c>
+      <c r="P10" s="4">
+        <v>75</v>
+      </c>
+      <c r="Q10" s="5">
+        <v>50</v>
+      </c>
+      <c r="R10" s="9">
+        <v>25</v>
+      </c>
+      <c r="S10" s="11">
         <v>100</v>
-      </c>
-      <c r="P10" s="4">
-        <v>25</v>
-      </c>
-      <c r="Q10" s="5">
-        <v>75</v>
-      </c>
-      <c r="R10" s="4">
-        <v>75</v>
-      </c>
-      <c r="S10" s="5">
-        <v>50</v>
       </c>
       <c r="T10" s="9">
         <v>25</v>
@@ -6300,57 +8173,53 @@
       <c r="U10" s="5">
         <v>100</v>
       </c>
-      <c r="V10" s="39"/>
-      <c r="W10" s="48"/>
       <c r="Y10" s="24">
         <v>7</v>
       </c>
-      <c r="Z10" s="9">
-        <v>25</v>
-      </c>
-      <c r="AA10" s="11">
+      <c r="Z10" s="4">
+        <v>25</v>
+      </c>
+      <c r="AA10" s="5">
+        <v>75</v>
+      </c>
+      <c r="AB10" s="4">
+        <v>75</v>
+      </c>
+      <c r="AC10" s="5">
+        <v>50</v>
+      </c>
+      <c r="AD10" s="9">
+        <v>25</v>
+      </c>
+      <c r="AE10" s="11">
         <v>100</v>
       </c>
-      <c r="AB10" s="4">
-        <v>25</v>
-      </c>
-      <c r="AC10" s="5">
-        <v>75</v>
-      </c>
-      <c r="AD10" s="4">
-        <v>75</v>
-      </c>
-      <c r="AE10" s="5">
-        <v>50</v>
-      </c>
       <c r="AF10" s="9">
         <v>25</v>
       </c>
       <c r="AG10" s="5">
         <v>75</v>
       </c>
-      <c r="AH10" s="39"/>
-      <c r="AI10" s="48"/>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A11" s="24">
         <v>8</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11" s="36">
+        <v>25</v>
+      </c>
+      <c r="C11" s="36">
+        <v>75</v>
+      </c>
+      <c r="D11" s="36">
+        <v>25</v>
+      </c>
+      <c r="E11" s="36">
+        <v>75</v>
+      </c>
+      <c r="F11" s="9">
         <v>0</v>
       </c>
-      <c r="C11" s="36">
-        <v>75</v>
-      </c>
-      <c r="D11" s="36">
-        <v>25</v>
-      </c>
-      <c r="E11" s="36">
-        <v>75</v>
-      </c>
-      <c r="F11" s="36">
-        <v>25</v>
-      </c>
       <c r="G11" s="36">
         <v>75</v>
       </c>
@@ -6360,27 +8229,25 @@
       <c r="I11" s="36">
         <v>75</v>
       </c>
-      <c r="J11" s="39"/>
-      <c r="K11" s="48"/>
       <c r="M11" s="24">
         <v>8</v>
       </c>
-      <c r="N11" s="9">
+      <c r="N11" s="4">
+        <v>50</v>
+      </c>
+      <c r="O11" s="5">
+        <v>50</v>
+      </c>
+      <c r="P11" s="4">
+        <v>50</v>
+      </c>
+      <c r="Q11" s="5">
+        <v>75</v>
+      </c>
+      <c r="R11" s="9">
         <v>0</v>
       </c>
-      <c r="O11" s="11">
-        <v>75</v>
-      </c>
-      <c r="P11" s="4">
-        <v>50</v>
-      </c>
-      <c r="Q11" s="5">
-        <v>50</v>
-      </c>
-      <c r="R11" s="4">
-        <v>50</v>
-      </c>
-      <c r="S11" s="5">
+      <c r="S11" s="11">
         <v>75</v>
       </c>
       <c r="T11" s="9">
@@ -6389,28 +8256,26 @@
       <c r="U11" s="5">
         <v>50</v>
       </c>
-      <c r="V11" s="39"/>
-      <c r="W11" s="48"/>
       <c r="Y11" s="24">
         <v>8</v>
       </c>
-      <c r="Z11" s="9">
+      <c r="Z11" s="4">
+        <v>50</v>
+      </c>
+      <c r="AA11" s="5">
+        <v>50</v>
+      </c>
+      <c r="AB11" s="4">
+        <v>50</v>
+      </c>
+      <c r="AC11" s="5">
+        <v>50</v>
+      </c>
+      <c r="AD11" s="9">
         <v>0</v>
       </c>
-      <c r="AA11" s="11">
-        <v>75</v>
-      </c>
-      <c r="AB11" s="4">
-        <v>50</v>
-      </c>
-      <c r="AC11" s="5">
-        <v>50</v>
-      </c>
-      <c r="AD11" s="4">
-        <v>50</v>
-      </c>
-      <c r="AE11" s="5">
-        <v>50</v>
+      <c r="AE11" s="11">
+        <v>75</v>
       </c>
       <c r="AF11" s="9">
         <v>75</v>
@@ -6418,14 +8283,12 @@
       <c r="AG11" s="5">
         <v>50</v>
       </c>
-      <c r="AH11" s="39"/>
-      <c r="AI11" s="48"/>
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A12" s="24">
         <v>9</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B12" s="36">
         <v>25</v>
       </c>
       <c r="C12" s="36">
@@ -6435,13 +8298,13 @@
         <v>25</v>
       </c>
       <c r="E12" s="36">
-        <v>75</v>
-      </c>
-      <c r="F12" s="36">
+        <v>50</v>
+      </c>
+      <c r="F12" s="9">
         <v>25</v>
       </c>
       <c r="G12" s="36">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="H12" s="36">
         <v>0</v>
@@ -6449,57 +8312,53 @@
       <c r="I12" s="36">
         <v>75</v>
       </c>
-      <c r="J12" s="39"/>
-      <c r="K12" s="48"/>
       <c r="M12" s="24">
         <v>9</v>
       </c>
-      <c r="N12" s="9">
-        <v>25</v>
-      </c>
-      <c r="O12" s="11">
+      <c r="N12" s="4">
+        <v>25</v>
+      </c>
+      <c r="O12" s="5">
+        <v>50</v>
+      </c>
+      <c r="P12" s="4">
+        <v>25</v>
+      </c>
+      <c r="Q12" s="5">
+        <v>75</v>
+      </c>
+      <c r="R12" s="9">
+        <v>25</v>
+      </c>
+      <c r="S12" s="11">
         <v>100</v>
       </c>
-      <c r="P12" s="4">
-        <v>25</v>
-      </c>
-      <c r="Q12" s="5">
-        <v>50</v>
-      </c>
-      <c r="R12" s="4">
-        <v>25</v>
-      </c>
-      <c r="S12" s="5">
-        <v>75</v>
-      </c>
       <c r="T12" s="9">
         <v>25</v>
       </c>
       <c r="U12" s="5">
         <v>75</v>
       </c>
-      <c r="V12" s="39"/>
-      <c r="W12" s="48"/>
       <c r="Y12" s="24">
         <v>9</v>
       </c>
-      <c r="Z12" s="9">
-        <v>25</v>
-      </c>
-      <c r="AA12" s="11">
+      <c r="Z12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="5">
+        <v>75</v>
+      </c>
+      <c r="AB12" s="4">
+        <v>25</v>
+      </c>
+      <c r="AC12" s="5">
+        <v>50</v>
+      </c>
+      <c r="AD12" s="9">
+        <v>25</v>
+      </c>
+      <c r="AE12" s="11">
         <v>100</v>
-      </c>
-      <c r="AB12" s="4">
-        <v>0</v>
-      </c>
-      <c r="AC12" s="5">
-        <v>75</v>
-      </c>
-      <c r="AD12" s="4">
-        <v>25</v>
-      </c>
-      <c r="AE12" s="5">
-        <v>50</v>
       </c>
       <c r="AF12" s="9">
         <v>0</v>
@@ -6507,30 +8366,28 @@
       <c r="AG12" s="5">
         <v>50</v>
       </c>
-      <c r="AH12" s="39"/>
-      <c r="AI12" s="48"/>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A13" s="24">
         <v>10</v>
       </c>
-      <c r="B13" s="9">
+      <c r="B13" s="36">
         <v>0</v>
       </c>
       <c r="C13" s="36">
+        <v>75</v>
+      </c>
+      <c r="D13" s="36">
+        <v>25</v>
+      </c>
+      <c r="E13" s="36">
+        <v>50</v>
+      </c>
+      <c r="F13" s="9">
+        <v>0</v>
+      </c>
+      <c r="G13" s="36">
         <v>100</v>
-      </c>
-      <c r="D13" s="36">
-        <v>0</v>
-      </c>
-      <c r="E13" s="36">
-        <v>75</v>
-      </c>
-      <c r="F13" s="36">
-        <v>25</v>
-      </c>
-      <c r="G13" s="36">
-        <v>50</v>
       </c>
       <c r="H13" s="36">
         <v>0</v>
@@ -6538,56 +8395,52 @@
       <c r="I13" s="36">
         <v>50</v>
       </c>
-      <c r="J13" s="39"/>
-      <c r="K13" s="48"/>
       <c r="M13" s="24">
         <v>10</v>
       </c>
-      <c r="N13" s="9">
+      <c r="N13" s="4">
         <v>0</v>
       </c>
-      <c r="O13" s="11">
+      <c r="O13" s="5">
+        <v>50</v>
+      </c>
+      <c r="P13" s="4">
+        <v>25</v>
+      </c>
+      <c r="Q13" s="5">
+        <v>50</v>
+      </c>
+      <c r="R13" s="9">
+        <v>0</v>
+      </c>
+      <c r="S13" s="11">
         <v>100</v>
       </c>
-      <c r="P13" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="5">
-        <v>50</v>
-      </c>
-      <c r="R13" s="4">
-        <v>25</v>
-      </c>
-      <c r="S13" s="5">
-        <v>50</v>
-      </c>
       <c r="T13" s="9">
         <v>25</v>
       </c>
       <c r="U13" s="5">
         <v>25</v>
       </c>
-      <c r="V13" s="39"/>
-      <c r="W13" s="48"/>
       <c r="Y13" s="24">
         <v>10</v>
       </c>
-      <c r="Z13" s="9">
+      <c r="Z13" s="4">
+        <v>25</v>
+      </c>
+      <c r="AA13" s="5">
+        <v>75</v>
+      </c>
+      <c r="AB13" s="4">
+        <v>75</v>
+      </c>
+      <c r="AC13" s="5">
+        <v>75</v>
+      </c>
+      <c r="AD13" s="9">
         <v>0</v>
       </c>
-      <c r="AA13" s="11">
-        <v>75</v>
-      </c>
-      <c r="AB13" s="4">
-        <v>25</v>
-      </c>
-      <c r="AC13" s="5">
-        <v>75</v>
-      </c>
-      <c r="AD13" s="4">
-        <v>75</v>
-      </c>
-      <c r="AE13" s="5">
+      <c r="AE13" s="11">
         <v>75</v>
       </c>
       <c r="AF13" s="9">
@@ -6596,27 +8449,25 @@
       <c r="AG13" s="5">
         <v>75</v>
       </c>
-      <c r="AH13" s="39"/>
-      <c r="AI13" s="48"/>
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A14" s="24">
         <v>11</v>
       </c>
-      <c r="B14" s="9">
+      <c r="B14" s="36">
         <v>25</v>
       </c>
       <c r="C14" s="36">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="D14" s="36">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="E14" s="36">
-        <v>50</v>
-      </c>
-      <c r="F14" s="36">
-        <v>75</v>
+        <v>75</v>
+      </c>
+      <c r="F14" s="9">
+        <v>25</v>
       </c>
       <c r="G14" s="36">
         <v>75</v>
@@ -6627,27 +8478,25 @@
       <c r="I14" s="36">
         <v>75</v>
       </c>
-      <c r="J14" s="39"/>
-      <c r="K14" s="48"/>
       <c r="M14" s="24">
         <v>11</v>
       </c>
-      <c r="N14" s="9">
-        <v>25</v>
-      </c>
-      <c r="O14" s="11">
-        <v>75</v>
+      <c r="N14" s="4">
+        <v>25</v>
+      </c>
+      <c r="O14" s="5">
+        <v>50</v>
       </c>
       <c r="P14" s="4">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="Q14" s="5">
-        <v>50</v>
-      </c>
-      <c r="R14" s="4">
-        <v>50</v>
-      </c>
-      <c r="S14" s="5">
+        <v>75</v>
+      </c>
+      <c r="R14" s="9">
+        <v>25</v>
+      </c>
+      <c r="S14" s="11">
         <v>75</v>
       </c>
       <c r="T14" s="9">
@@ -6656,27 +8505,25 @@
       <c r="U14" s="5">
         <v>50</v>
       </c>
-      <c r="V14" s="39"/>
-      <c r="W14" s="48"/>
       <c r="Y14" s="24">
         <v>11</v>
       </c>
-      <c r="Z14" s="9">
-        <v>50</v>
-      </c>
-      <c r="AA14" s="11">
-        <v>75</v>
+      <c r="Z14" s="4">
+        <v>25</v>
+      </c>
+      <c r="AA14" s="5">
+        <v>50</v>
       </c>
       <c r="AB14" s="4">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="AC14" s="5">
-        <v>50</v>
-      </c>
-      <c r="AD14" s="4">
-        <v>50</v>
-      </c>
-      <c r="AE14" s="5">
+        <v>75</v>
+      </c>
+      <c r="AD14" s="9">
+        <v>50</v>
+      </c>
+      <c r="AE14" s="11">
         <v>75</v>
       </c>
       <c r="AF14" s="9">
@@ -6685,8 +8532,6 @@
       <c r="AG14" s="5">
         <v>50</v>
       </c>
-      <c r="AH14" s="39"/>
-      <c r="AI14" s="48"/>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A15" s="24">
@@ -6816,15 +8661,15 @@
         <v>15</v>
       </c>
       <c r="B18" s="17"/>
-      <c r="C18" s="64"/>
-      <c r="D18" s="64"/>
-      <c r="E18" s="64"/>
-      <c r="F18" s="64"/>
-      <c r="G18" s="64"/>
-      <c r="H18" s="64"/>
-      <c r="I18" s="64"/>
-      <c r="J18" s="62"/>
-      <c r="K18" s="63"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="62"/>
+      <c r="E18" s="62"/>
+      <c r="F18" s="62"/>
+      <c r="G18" s="62"/>
+      <c r="H18" s="62"/>
+      <c r="I18" s="62"/>
+      <c r="J18" s="60"/>
+      <c r="K18" s="61"/>
       <c r="M18" s="25">
         <v>15</v>
       </c>
@@ -6836,8 +8681,8 @@
       <c r="S18" s="16"/>
       <c r="T18" s="17"/>
       <c r="U18" s="16"/>
-      <c r="V18" s="62"/>
-      <c r="W18" s="63"/>
+      <c r="V18" s="60"/>
+      <c r="W18" s="61"/>
       <c r="Y18" s="25">
         <v>15</v>
       </c>
@@ -6849,12 +8694,12 @@
       <c r="AE18" s="16"/>
       <c r="AF18" s="17"/>
       <c r="AG18" s="16"/>
-      <c r="AH18" s="62"/>
-      <c r="AI18" s="63"/>
+      <c r="AH18" s="60"/>
+      <c r="AI18" s="61"/>
     </row>
     <row r="19" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A19" s="69"/>
-      <c r="B19" s="68"/>
+      <c r="A19" s="67"/>
+      <c r="B19" s="66"/>
       <c r="C19" s="37"/>
       <c r="D19" s="37"/>
       <c r="E19" s="37"/>
@@ -6889,31 +8734,31 @@
     </row>
     <row r="20" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A20" s="27" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B20" s="21">
         <f>AVERAGE(B4:B18)</f>
-        <v>20.454545454545453</v>
+        <v>18.181818181818183</v>
       </c>
       <c r="C20" s="43">
-        <f t="shared" ref="C20:I20" si="0">AVERAGE(C4:C18)</f>
-        <v>84.090909090909093</v>
+        <f>AVERAGE(C4:C18)</f>
+        <v>72.727272727272734</v>
       </c>
       <c r="D20" s="43">
-        <f t="shared" si="0"/>
-        <v>18.181818181818183</v>
+        <f t="shared" ref="C20:I20" si="0">AVERAGE(D4:D18)</f>
+        <v>47.727272727272727</v>
       </c>
       <c r="E20" s="43">
         <f t="shared" si="0"/>
         <v>72.727272727272734</v>
       </c>
       <c r="F20" s="43">
-        <f t="shared" si="0"/>
-        <v>47.727272727272727</v>
+        <f>AVERAGE(F4:F18)</f>
+        <v>20.454545454545453</v>
       </c>
       <c r="G20" s="43">
         <f>AVERAGE(G4:G18)</f>
-        <v>72.727272727272734</v>
+        <v>84.090909090909093</v>
       </c>
       <c r="H20" s="43">
         <f t="shared" si="0"/>
@@ -6925,38 +8770,38 @@
       </c>
       <c r="J20" s="43">
         <f>AVERAGE(B20,D20, F20, H20)</f>
-        <v>27.840909090909093</v>
+        <v>27.84090909090909</v>
       </c>
       <c r="K20" s="6">
         <f>AVERAGE(C20, E20, G20, I20)</f>
         <v>75</v>
       </c>
       <c r="M20" s="27" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="N20" s="29">
-        <f t="shared" ref="N20:U20" si="1">AVERAGE(N4:N18)</f>
-        <v>29.545454545454547</v>
+        <f>AVERAGE(N4:N18)</f>
+        <v>31.818181818181817</v>
       </c>
       <c r="O20" s="6">
-        <f t="shared" si="1"/>
-        <v>84.090909090909093</v>
+        <f>AVERAGE(O4:O18)</f>
+        <v>70.454545454545453</v>
       </c>
       <c r="P20" s="29">
-        <f t="shared" si="1"/>
-        <v>31.818181818181817</v>
+        <f t="shared" ref="N20:U20" si="1">AVERAGE(P4:P18)</f>
+        <v>52.272727272727273</v>
       </c>
       <c r="Q20" s="6">
         <f t="shared" si="1"/>
-        <v>70.454545454545453</v>
+        <v>65.909090909090907</v>
       </c>
       <c r="R20" s="21">
-        <f t="shared" si="1"/>
-        <v>52.272727272727273</v>
+        <f>AVERAGE(R4:R18)</f>
+        <v>29.545454545454547</v>
       </c>
       <c r="S20" s="28">
-        <f t="shared" si="1"/>
-        <v>65.909090909090907</v>
+        <f>AVERAGE(S4:S18)</f>
+        <v>84.090909090909093</v>
       </c>
       <c r="T20" s="29">
         <f t="shared" si="1"/>
@@ -6968,38 +8813,38 @@
       </c>
       <c r="V20" s="29">
         <f>AVERAGE(N20,P20, R20, T20)</f>
-        <v>39.772727272727266</v>
+        <v>39.772727272727273</v>
       </c>
       <c r="W20" s="6">
         <f>AVERAGE(O20, Q20, S20, U20)</f>
         <v>68.75</v>
       </c>
       <c r="Y20" s="27" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="Z20" s="29">
-        <f t="shared" ref="Z20:AG20" si="2">AVERAGE(Z4:Z18)</f>
-        <v>31.818181818181817</v>
+        <f>AVERAGE(Z4:Z18)</f>
+        <v>36.363636363636367</v>
       </c>
       <c r="AA20" s="6">
-        <f t="shared" si="2"/>
-        <v>79.545454545454547</v>
+        <f>AVERAGE(AA4:AA18)</f>
+        <v>75</v>
       </c>
       <c r="AB20" s="29">
-        <f t="shared" si="2"/>
-        <v>36.363636363636367</v>
+        <f t="shared" ref="Z20:AG20" si="2">AVERAGE(AB4:AB18)</f>
+        <v>56.81818181818182</v>
       </c>
       <c r="AC20" s="6">
         <f t="shared" si="2"/>
-        <v>75</v>
+        <v>63.636363636363633</v>
       </c>
       <c r="AD20" s="21">
-        <f t="shared" si="2"/>
-        <v>56.81818181818182</v>
+        <f>AVERAGE(AD4:AD18)</f>
+        <v>31.818181818181817</v>
       </c>
       <c r="AE20" s="28">
-        <f t="shared" si="2"/>
-        <v>63.636363636363633</v>
+        <f>AVERAGE(AE4:AE18)</f>
+        <v>79.545454545454547</v>
       </c>
       <c r="AF20" s="29">
         <f t="shared" si="2"/>
@@ -7020,31 +8865,31 @@
     </row>
     <row r="21" spans="1:35" s="2" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A21" s="55" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B21" s="53">
         <f>_xlfn.STDEV.S(B4:B18)</f>
-        <v>15.075567228888183</v>
+        <v>11.677484162422843</v>
       </c>
       <c r="C21" s="49">
-        <f t="shared" ref="C21:I21" si="3">_xlfn.STDEV.S(C4:C18)</f>
-        <v>12.613124477737815</v>
+        <f>_xlfn.STDEV.S(C4:C18)</f>
+        <v>7.5377836144440913</v>
       </c>
       <c r="D21" s="49">
-        <f t="shared" si="3"/>
-        <v>11.677484162422843</v>
+        <f t="shared" ref="C21:I21" si="3">_xlfn.STDEV.S(D4:D18)</f>
+        <v>23.596995186213476</v>
       </c>
       <c r="E21" s="49">
         <f t="shared" si="3"/>
-        <v>7.5377836144440913</v>
+        <v>20.780235364840834</v>
       </c>
       <c r="F21" s="49">
-        <f t="shared" si="3"/>
-        <v>23.596995186213476</v>
+        <f>_xlfn.STDEV.S(F4:F18)</f>
+        <v>15.075567228888183</v>
       </c>
       <c r="G21" s="49">
-        <f t="shared" si="3"/>
-        <v>20.780235364840834</v>
+        <f>_xlfn.STDEV.S(G4:G18)</f>
+        <v>12.613124477737815</v>
       </c>
       <c r="H21" s="49">
         <f t="shared" si="3"/>
@@ -7063,30 +8908,30 @@
         <v>17.049858486761838</v>
       </c>
       <c r="M21" s="55" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N21" s="51">
-        <f t="shared" ref="N21:U21" si="4">_xlfn.STDEV.S(N4:N18)</f>
-        <v>24.541245430351069</v>
+        <f>_xlfn.STDEV.S(N4:N18)</f>
+        <v>22.61335084333227</v>
       </c>
       <c r="O21" s="52">
+        <f>_xlfn.STDEV.S(O4:O18)</f>
+        <v>18.768929838238705</v>
+      </c>
+      <c r="P21" s="51">
+        <f t="shared" ref="N21:U21" si="4">_xlfn.STDEV.S(P4:P18)</f>
+        <v>20.780235364840841</v>
+      </c>
+      <c r="Q21" s="52">
         <f t="shared" si="4"/>
         <v>16.854996561581046</v>
       </c>
-      <c r="P21" s="51">
-        <f t="shared" si="4"/>
-        <v>22.61335084333227</v>
-      </c>
-      <c r="Q21" s="52">
-        <f t="shared" si="4"/>
-        <v>18.768929838238705</v>
-      </c>
       <c r="R21" s="53">
-        <f t="shared" si="4"/>
-        <v>20.780235364840841</v>
+        <f>_xlfn.STDEV.S(R4:R18)</f>
+        <v>24.541245430351069</v>
       </c>
       <c r="S21" s="54">
-        <f t="shared" si="4"/>
+        <f>_xlfn.STDEV.S(S4:S18)</f>
         <v>16.854996561581046</v>
       </c>
       <c r="T21" s="51">
@@ -7106,31 +8951,31 @@
         <v>22.311875031961353</v>
       </c>
       <c r="Y21" s="55" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="Z21" s="51">
-        <f t="shared" ref="Z21:AG21" si="5">_xlfn.STDEV.S(Z4:Z18)</f>
-        <v>25.226248955475651</v>
+        <f>_xlfn.STDEV.S(Z4:Z18)</f>
+        <v>20.50498830661811</v>
       </c>
       <c r="AA21" s="52">
-        <f t="shared" si="5"/>
-        <v>15.075567228888204</v>
+        <f>_xlfn.STDEV.S(AA4:AA18)</f>
+        <v>15.811388300841896</v>
       </c>
       <c r="AB21" s="51">
-        <f t="shared" si="5"/>
-        <v>20.50498830661811</v>
+        <f t="shared" ref="Z21:AG21" si="5">_xlfn.STDEV.S(AB4:AB18)</f>
+        <v>19.656134827672403</v>
       </c>
       <c r="AC21" s="52">
         <f t="shared" si="5"/>
-        <v>15.811388300841896</v>
+        <v>17.188791273808221</v>
       </c>
       <c r="AD21" s="53">
-        <f t="shared" si="5"/>
-        <v>19.656134827672403</v>
+        <f>_xlfn.STDEV.S(AD4:AD18)</f>
+        <v>25.226248955475651</v>
       </c>
       <c r="AE21" s="54">
-        <f t="shared" si="5"/>
-        <v>17.188791273808221</v>
+        <f>_xlfn.STDEV.S(AE4:AE18)</f>
+        <v>15.075567228888204</v>
       </c>
       <c r="AF21" s="51">
         <f t="shared" si="5"/>
@@ -7185,58 +9030,53 @@
       <c r="E24" s="41"/>
       <c r="F24" s="41"/>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="X32">
-        <v>0</v>
-      </c>
-    </row>
     <row r="45" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A45" s="41"/>
       <c r="B45" s="32">
         <v>25</v>
       </c>
-      <c r="C45" s="65">
+      <c r="C45" s="63">
         <v>75</v>
       </c>
       <c r="D45" s="41"/>
       <c r="E45" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F45"/>
       <c r="G45"/>
       <c r="H45" s="41"/>
       <c r="I45" s="41"/>
-      <c r="J45" s="80"/>
-      <c r="K45" s="80"/>
-      <c r="L45" s="80"/>
-      <c r="M45" s="80"/>
+      <c r="J45" s="71"/>
+      <c r="K45" s="71"/>
+      <c r="L45" s="71"/>
+      <c r="M45" s="71"/>
       <c r="N45" s="32">
         <v>25</v>
       </c>
       <c r="O45" s="33">
         <v>75</v>
       </c>
-      <c r="P45" s="80"/>
+      <c r="P45" s="71"/>
       <c r="Q45" t="s">
-        <v>15</v>
-      </c>
-      <c r="T45" s="80"/>
-      <c r="U45" s="80"/>
-      <c r="V45" s="80"/>
-      <c r="W45" s="80"/>
-      <c r="X45" s="80"/>
-      <c r="Y45" s="80"/>
-      <c r="Z45" s="80"/>
-      <c r="AA45" s="80"/>
-      <c r="AB45" s="80"/>
-      <c r="AC45" s="80"/>
-      <c r="AD45" s="80"/>
-      <c r="AE45" s="80"/>
-      <c r="AF45" s="80"/>
-      <c r="AG45" s="80"/>
+        <v>11</v>
+      </c>
+      <c r="T45" s="71"/>
+      <c r="U45" s="71"/>
+      <c r="V45" s="71"/>
+      <c r="W45" s="71"/>
+      <c r="X45" s="71"/>
+      <c r="Y45" s="71"/>
+      <c r="Z45" s="71"/>
+      <c r="AA45" s="71"/>
+      <c r="AB45" s="71"/>
+      <c r="AC45" s="71"/>
+      <c r="AD45" s="71"/>
+      <c r="AE45" s="71"/>
+      <c r="AF45" s="71"/>
+      <c r="AG45" s="71"/>
     </row>
     <row r="46" spans="1:33" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="80"/>
+      <c r="A46" s="71"/>
       <c r="B46" s="9">
         <v>25</v>
       </c>
@@ -7249,38 +9089,38 @@
       <c r="G46"/>
       <c r="H46" s="41"/>
       <c r="I46" s="41"/>
-      <c r="J46" s="80"/>
-      <c r="K46" s="80"/>
-      <c r="L46" s="80"/>
-      <c r="M46" s="80"/>
+      <c r="J46" s="71"/>
+      <c r="K46" s="71"/>
+      <c r="L46" s="71"/>
+      <c r="M46" s="71"/>
       <c r="N46" s="9">
         <v>25</v>
       </c>
       <c r="O46" s="11">
         <v>75</v>
       </c>
-      <c r="P46" s="80"/>
-      <c r="T46" s="80"/>
-      <c r="U46" s="80"/>
-      <c r="V46" s="80"/>
-      <c r="W46" s="80"/>
-      <c r="X46" s="80"/>
-      <c r="Y46" s="80"/>
+      <c r="P46" s="71"/>
+      <c r="T46" s="71"/>
+      <c r="U46" s="71"/>
+      <c r="V46" s="71"/>
+      <c r="W46" s="71"/>
+      <c r="X46" s="71"/>
+      <c r="Y46" s="71"/>
       <c r="Z46" s="32">
         <v>50</v>
       </c>
       <c r="AA46" s="33">
         <v>75</v>
       </c>
-      <c r="AB46" s="80"/>
+      <c r="AB46" s="71"/>
       <c r="AC46" t="s">
-        <v>15</v>
-      </c>
-      <c r="AF46" s="80"/>
-      <c r="AG46" s="80"/>
+        <v>11</v>
+      </c>
+      <c r="AF46" s="71"/>
+      <c r="AG46" s="71"/>
     </row>
     <row r="47" spans="1:33" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="80"/>
+      <c r="A47" s="71"/>
       <c r="B47" s="9">
         <v>25</v>
       </c>
@@ -7288,51 +9128,48 @@
         <v>100</v>
       </c>
       <c r="D47" s="41"/>
-      <c r="E47" s="72"/>
-      <c r="F47" s="72" t="s">
-        <v>16</v>
-      </c>
-      <c r="G47" s="72" t="s">
-        <v>17</v>
-      </c>
-      <c r="H47" s="41"/>
-      <c r="I47" s="41"/>
-      <c r="J47" s="80"/>
-      <c r="K47" s="80"/>
-      <c r="L47" s="80"/>
-      <c r="M47" s="80"/>
+      <c r="E47" s="70"/>
+      <c r="F47" s="70" t="s">
+        <v>12</v>
+      </c>
+      <c r="G47" s="70" t="s">
+        <v>13</v>
+      </c>
+      <c r="K47" s="71"/>
+      <c r="L47" s="71"/>
+      <c r="M47" s="71"/>
       <c r="N47" s="9">
         <v>25</v>
       </c>
       <c r="O47" s="11">
         <v>100</v>
       </c>
-      <c r="P47" s="80"/>
-      <c r="Q47" s="72"/>
-      <c r="R47" s="72" t="s">
-        <v>16</v>
-      </c>
-      <c r="S47" s="72" t="s">
-        <v>17</v>
-      </c>
-      <c r="T47" s="80"/>
-      <c r="U47" s="80"/>
-      <c r="V47" s="80"/>
-      <c r="W47" s="80"/>
-      <c r="X47" s="80"/>
-      <c r="Y47" s="80"/>
+      <c r="P47" s="71"/>
+      <c r="Q47" s="70"/>
+      <c r="R47" s="70" t="s">
+        <v>12</v>
+      </c>
+      <c r="S47" s="70" t="s">
+        <v>13</v>
+      </c>
+      <c r="T47" s="71"/>
+      <c r="U47" s="71"/>
+      <c r="V47" s="71"/>
+      <c r="W47" s="71"/>
+      <c r="X47" s="71"/>
+      <c r="Y47" s="71"/>
       <c r="Z47" s="9">
         <v>25</v>
       </c>
       <c r="AA47" s="11">
         <v>75</v>
       </c>
-      <c r="AB47" s="80"/>
-      <c r="AF47" s="80"/>
-      <c r="AG47" s="80"/>
+      <c r="AB47" s="71"/>
+      <c r="AF47" s="71"/>
+      <c r="AG47" s="71"/>
     </row>
     <row r="48" spans="1:33" x14ac:dyDescent="0.15">
-      <c r="A48" s="80"/>
+      <c r="A48" s="71"/>
       <c r="B48" s="9">
         <v>50</v>
       </c>
@@ -7340,62 +9177,59 @@
         <v>75</v>
       </c>
       <c r="D48" s="41"/>
-      <c r="E48" s="70" t="s">
-        <v>18</v>
-      </c>
-      <c r="F48" s="70">
+      <c r="E48" s="68" t="s">
+        <v>14</v>
+      </c>
+      <c r="F48" s="68">
         <v>27.84090909090909</v>
       </c>
-      <c r="G48" s="70">
-        <v>75</v>
-      </c>
-      <c r="H48" s="41"/>
-      <c r="I48" s="81"/>
-      <c r="J48" s="80"/>
-      <c r="K48" s="80"/>
-      <c r="L48" s="80"/>
-      <c r="M48" s="80"/>
+      <c r="G48" s="68">
+        <v>75</v>
+      </c>
+      <c r="K48" s="71"/>
+      <c r="L48" s="71"/>
+      <c r="M48" s="71"/>
       <c r="N48" s="9">
         <v>75</v>
       </c>
       <c r="O48" s="11">
         <v>100</v>
       </c>
-      <c r="P48" s="80"/>
-      <c r="Q48" s="70" t="s">
-        <v>18</v>
-      </c>
-      <c r="R48" s="70">
+      <c r="P48" s="71"/>
+      <c r="Q48" s="68" t="s">
+        <v>14</v>
+      </c>
+      <c r="R48" s="68">
         <v>39.772727272727273</v>
       </c>
-      <c r="S48" s="70">
+      <c r="S48" s="68">
         <v>68.75</v>
       </c>
-      <c r="T48" s="80"/>
-      <c r="U48" s="80"/>
-      <c r="V48" s="80"/>
-      <c r="W48" s="80"/>
-      <c r="X48" s="80"/>
-      <c r="Y48" s="80"/>
+      <c r="T48" s="71"/>
+      <c r="U48" s="71"/>
+      <c r="V48" s="71"/>
+      <c r="W48" s="71"/>
+      <c r="X48" s="71"/>
+      <c r="Y48" s="71"/>
       <c r="Z48" s="9">
         <v>50</v>
       </c>
       <c r="AA48" s="11">
         <v>75</v>
       </c>
-      <c r="AB48" s="80"/>
-      <c r="AC48" s="72"/>
-      <c r="AD48" s="72" t="s">
-        <v>16</v>
-      </c>
-      <c r="AE48" s="72" t="s">
-        <v>17</v>
-      </c>
-      <c r="AF48" s="80"/>
-      <c r="AG48" s="80"/>
+      <c r="AB48" s="71"/>
+      <c r="AC48" s="70"/>
+      <c r="AD48" s="70" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE48" s="70" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF48" s="71"/>
+      <c r="AG48" s="71"/>
     </row>
     <row r="49" spans="1:33" x14ac:dyDescent="0.15">
-      <c r="A49" s="80"/>
+      <c r="A49" s="71"/>
       <c r="B49" s="9">
         <v>25</v>
       </c>
@@ -7403,64 +9237,61 @@
         <v>75</v>
       </c>
       <c r="D49" s="41"/>
-      <c r="E49" s="70" t="s">
-        <v>19</v>
-      </c>
-      <c r="F49" s="70">
+      <c r="E49" s="68" t="s">
+        <v>15</v>
+      </c>
+      <c r="F49" s="68">
         <v>500.46247357293862</v>
       </c>
-      <c r="G49" s="70">
+      <c r="G49" s="68">
         <v>290.69767441860466</v>
       </c>
-      <c r="H49" s="41"/>
-      <c r="I49" s="41"/>
-      <c r="J49" s="80"/>
-      <c r="K49" s="80"/>
-      <c r="L49" s="80"/>
-      <c r="M49" s="80"/>
+      <c r="K49" s="71"/>
+      <c r="L49" s="71"/>
+      <c r="M49" s="71"/>
       <c r="N49" s="9">
         <v>75</v>
       </c>
       <c r="O49" s="11">
         <v>50</v>
       </c>
-      <c r="P49" s="80"/>
-      <c r="Q49" s="70" t="s">
-        <v>19</v>
-      </c>
-      <c r="R49" s="70">
+      <c r="P49" s="71"/>
+      <c r="Q49" s="68" t="s">
+        <v>15</v>
+      </c>
+      <c r="R49" s="68">
         <v>619.71458773784366</v>
       </c>
-      <c r="S49" s="70">
+      <c r="S49" s="68">
         <v>497.81976744186045</v>
       </c>
-      <c r="T49" s="80"/>
-      <c r="U49" s="80"/>
-      <c r="V49" s="80"/>
-      <c r="W49" s="80"/>
-      <c r="X49" s="80"/>
-      <c r="Y49" s="80"/>
+      <c r="T49" s="71"/>
+      <c r="U49" s="71"/>
+      <c r="V49" s="71"/>
+      <c r="W49" s="71"/>
+      <c r="X49" s="71"/>
+      <c r="Y49" s="71"/>
       <c r="Z49" s="9">
         <v>50</v>
       </c>
       <c r="AA49" s="11">
         <v>75</v>
       </c>
-      <c r="AB49" s="80"/>
-      <c r="AC49" s="70" t="s">
-        <v>18</v>
-      </c>
-      <c r="AD49" s="70">
+      <c r="AB49" s="71"/>
+      <c r="AC49" s="68" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD49" s="68">
         <v>41.477272727272727</v>
       </c>
-      <c r="AE49" s="70">
+      <c r="AE49" s="68">
         <v>69.88636363636364</v>
       </c>
-      <c r="AF49" s="80"/>
-      <c r="AG49" s="80"/>
+      <c r="AF49" s="71"/>
+      <c r="AG49" s="71"/>
     </row>
     <row r="50" spans="1:33" x14ac:dyDescent="0.15">
-      <c r="A50" s="80"/>
+      <c r="A50" s="71"/>
       <c r="B50" s="9">
         <v>0</v>
       </c>
@@ -7468,64 +9299,61 @@
         <v>100</v>
       </c>
       <c r="D50" s="41"/>
-      <c r="E50" s="70" t="s">
-        <v>20</v>
-      </c>
-      <c r="F50" s="70">
+      <c r="E50" s="68" t="s">
+        <v>16</v>
+      </c>
+      <c r="F50" s="68">
         <v>44</v>
       </c>
-      <c r="G50" s="70">
+      <c r="G50" s="68">
         <v>44</v>
       </c>
-      <c r="H50" s="41"/>
-      <c r="I50" s="41"/>
-      <c r="J50" s="80"/>
-      <c r="K50" s="80"/>
-      <c r="L50" s="80"/>
-      <c r="M50" s="80"/>
+      <c r="K50" s="71"/>
+      <c r="L50" s="71"/>
+      <c r="M50" s="71"/>
       <c r="N50" s="9">
         <v>25</v>
       </c>
       <c r="O50" s="11">
         <v>75</v>
       </c>
-      <c r="P50" s="80"/>
-      <c r="Q50" s="70" t="s">
-        <v>20</v>
-      </c>
-      <c r="R50" s="70">
+      <c r="P50" s="71"/>
+      <c r="Q50" s="68" t="s">
+        <v>16</v>
+      </c>
+      <c r="R50" s="68">
         <v>44</v>
       </c>
-      <c r="S50" s="70">
+      <c r="S50" s="68">
         <v>44</v>
       </c>
-      <c r="T50" s="80"/>
-      <c r="U50" s="80"/>
-      <c r="V50" s="80"/>
-      <c r="W50" s="80"/>
-      <c r="X50" s="80"/>
-      <c r="Y50" s="80"/>
+      <c r="T50" s="71"/>
+      <c r="U50" s="71"/>
+      <c r="V50" s="71"/>
+      <c r="W50" s="71"/>
+      <c r="X50" s="71"/>
+      <c r="Y50" s="71"/>
       <c r="Z50" s="9">
         <v>75</v>
       </c>
       <c r="AA50" s="11">
         <v>50</v>
       </c>
-      <c r="AB50" s="80"/>
-      <c r="AC50" s="70" t="s">
-        <v>19</v>
-      </c>
-      <c r="AD50" s="70">
+      <c r="AB50" s="71"/>
+      <c r="AC50" s="68" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD50" s="68">
         <v>608.81342494714602</v>
       </c>
-      <c r="AE50" s="70">
+      <c r="AE50" s="68">
         <v>452.8937632135308</v>
       </c>
-      <c r="AF50" s="80"/>
-      <c r="AG50" s="80"/>
+      <c r="AF50" s="71"/>
+      <c r="AG50" s="71"/>
     </row>
     <row r="51" spans="1:33" x14ac:dyDescent="0.15">
-      <c r="A51" s="80"/>
+      <c r="A51" s="71"/>
       <c r="B51" s="9">
         <v>25</v>
       </c>
@@ -7533,60 +9361,57 @@
         <v>100</v>
       </c>
       <c r="D51" s="41"/>
-      <c r="E51" s="70" t="s">
-        <v>21</v>
-      </c>
-      <c r="F51" s="70">
+      <c r="E51" s="68" t="s">
+        <v>17</v>
+      </c>
+      <c r="F51" s="68">
         <v>0</v>
       </c>
-      <c r="G51" s="70"/>
-      <c r="H51" s="41"/>
-      <c r="I51" s="41"/>
-      <c r="J51" s="80"/>
-      <c r="K51" s="80"/>
-      <c r="L51" s="80"/>
-      <c r="M51" s="80"/>
+      <c r="G51" s="68"/>
+      <c r="K51" s="71"/>
+      <c r="L51" s="71"/>
+      <c r="M51" s="71"/>
       <c r="N51" s="9">
         <v>25</v>
       </c>
       <c r="O51" s="11">
         <v>100</v>
       </c>
-      <c r="P51" s="80"/>
-      <c r="Q51" s="70" t="s">
-        <v>21</v>
-      </c>
-      <c r="R51" s="70">
+      <c r="P51" s="71"/>
+      <c r="Q51" s="68" t="s">
+        <v>17</v>
+      </c>
+      <c r="R51" s="68">
         <v>0</v>
       </c>
-      <c r="S51" s="70"/>
-      <c r="T51" s="80"/>
-      <c r="U51" s="80"/>
-      <c r="V51" s="80"/>
-      <c r="W51" s="80"/>
-      <c r="X51" s="80"/>
-      <c r="Y51" s="80"/>
+      <c r="S51" s="68"/>
+      <c r="T51" s="71"/>
+      <c r="U51" s="71"/>
+      <c r="V51" s="71"/>
+      <c r="W51" s="71"/>
+      <c r="X51" s="71"/>
+      <c r="Y51" s="71"/>
       <c r="Z51" s="9">
         <v>0</v>
       </c>
       <c r="AA51" s="11">
         <v>100</v>
       </c>
-      <c r="AB51" s="80"/>
-      <c r="AC51" s="70" t="s">
-        <v>20</v>
-      </c>
-      <c r="AD51" s="70">
+      <c r="AB51" s="71"/>
+      <c r="AC51" s="68" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD51" s="68">
         <v>44</v>
       </c>
-      <c r="AE51" s="70">
+      <c r="AE51" s="68">
         <v>44</v>
       </c>
-      <c r="AF51" s="80"/>
-      <c r="AG51" s="80"/>
+      <c r="AF51" s="71"/>
+      <c r="AG51" s="71"/>
     </row>
     <row r="52" spans="1:33" x14ac:dyDescent="0.15">
-      <c r="A52" s="80"/>
+      <c r="A52" s="71"/>
       <c r="B52" s="9">
         <v>0</v>
       </c>
@@ -7594,58 +9419,55 @@
         <v>75</v>
       </c>
       <c r="D52" s="41"/>
-      <c r="E52" s="70" t="s">
-        <v>22</v>
-      </c>
-      <c r="F52" s="70">
+      <c r="E52" s="68" t="s">
+        <v>18</v>
+      </c>
+      <c r="F52" s="68">
         <v>80</v>
       </c>
-      <c r="G52" s="70"/>
-      <c r="H52" s="41"/>
-      <c r="I52" s="41"/>
-      <c r="J52" s="80"/>
-      <c r="K52" s="80"/>
-      <c r="L52" s="80"/>
-      <c r="M52" s="80"/>
+      <c r="G52" s="68"/>
+      <c r="K52" s="71"/>
+      <c r="L52" s="71"/>
+      <c r="M52" s="71"/>
       <c r="N52" s="9">
         <v>0</v>
       </c>
       <c r="O52" s="11">
         <v>75</v>
       </c>
-      <c r="P52" s="80"/>
-      <c r="Q52" s="70" t="s">
-        <v>22</v>
-      </c>
-      <c r="R52" s="70">
+      <c r="P52" s="71"/>
+      <c r="Q52" s="68" t="s">
+        <v>18</v>
+      </c>
+      <c r="R52" s="68">
         <v>85</v>
       </c>
-      <c r="S52" s="70"/>
-      <c r="T52" s="80"/>
-      <c r="U52" s="80"/>
-      <c r="V52" s="80"/>
-      <c r="W52" s="80"/>
-      <c r="X52" s="80"/>
-      <c r="Y52" s="80"/>
+      <c r="S52" s="68"/>
+      <c r="T52" s="71"/>
+      <c r="U52" s="71"/>
+      <c r="V52" s="71"/>
+      <c r="W52" s="71"/>
+      <c r="X52" s="71"/>
+      <c r="Y52" s="71"/>
       <c r="Z52" s="9">
         <v>25</v>
       </c>
       <c r="AA52" s="11">
         <v>100</v>
       </c>
-      <c r="AB52" s="80"/>
-      <c r="AC52" s="70" t="s">
-        <v>21</v>
-      </c>
-      <c r="AD52" s="70">
+      <c r="AB52" s="71"/>
+      <c r="AC52" s="68" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD52" s="68">
         <v>0</v>
       </c>
-      <c r="AE52" s="70"/>
-      <c r="AF52" s="80"/>
-      <c r="AG52" s="80"/>
+      <c r="AE52" s="68"/>
+      <c r="AF52" s="71"/>
+      <c r="AG52" s="71"/>
     </row>
     <row r="53" spans="1:33" x14ac:dyDescent="0.15">
-      <c r="A53" s="80"/>
+      <c r="A53" s="71"/>
       <c r="B53" s="9">
         <v>25</v>
       </c>
@@ -7653,58 +9475,55 @@
         <v>75</v>
       </c>
       <c r="D53" s="41"/>
-      <c r="E53" s="70" t="s">
-        <v>23</v>
-      </c>
-      <c r="F53" s="70">
+      <c r="E53" s="68" t="s">
+        <v>19</v>
+      </c>
+      <c r="F53" s="68">
         <v>-11.121402563955751</v>
       </c>
-      <c r="G53" s="70"/>
-      <c r="H53" s="41"/>
-      <c r="I53" s="41"/>
-      <c r="J53" s="80"/>
-      <c r="K53" s="80"/>
-      <c r="L53" s="80"/>
-      <c r="M53" s="80"/>
+      <c r="G53" s="68"/>
+      <c r="K53" s="71"/>
+      <c r="L53" s="71"/>
+      <c r="M53" s="71"/>
       <c r="N53" s="9">
         <v>25</v>
       </c>
       <c r="O53" s="11">
         <v>100</v>
       </c>
-      <c r="P53" s="80"/>
-      <c r="Q53" s="70" t="s">
-        <v>23</v>
-      </c>
-      <c r="R53" s="70">
+      <c r="P53" s="71"/>
+      <c r="Q53" s="68" t="s">
+        <v>19</v>
+      </c>
+      <c r="R53" s="68">
         <v>-5.7498088235642824</v>
       </c>
-      <c r="S53" s="70"/>
-      <c r="T53" s="80"/>
-      <c r="U53" s="80"/>
-      <c r="V53" s="80"/>
-      <c r="W53" s="80"/>
-      <c r="X53" s="80"/>
-      <c r="Y53" s="80"/>
+      <c r="S53" s="68"/>
+      <c r="T53" s="71"/>
+      <c r="U53" s="71"/>
+      <c r="V53" s="71"/>
+      <c r="W53" s="71"/>
+      <c r="X53" s="71"/>
+      <c r="Y53" s="71"/>
       <c r="Z53" s="9">
         <v>0</v>
       </c>
       <c r="AA53" s="11">
         <v>75</v>
       </c>
-      <c r="AB53" s="80"/>
-      <c r="AC53" s="70" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD53" s="70">
+      <c r="AB53" s="71"/>
+      <c r="AC53" s="68" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD53" s="68">
         <v>84</v>
       </c>
-      <c r="AE53" s="70"/>
-      <c r="AF53" s="80"/>
-      <c r="AG53" s="80"/>
+      <c r="AE53" s="68"/>
+      <c r="AF53" s="71"/>
+      <c r="AG53" s="71"/>
     </row>
     <row r="54" spans="1:33" x14ac:dyDescent="0.15">
-      <c r="A54" s="80"/>
+      <c r="A54" s="71"/>
       <c r="B54" s="9">
         <v>0</v>
       </c>
@@ -7712,58 +9531,55 @@
         <v>100</v>
       </c>
       <c r="D54" s="41"/>
-      <c r="E54" s="70" t="s">
-        <v>24</v>
-      </c>
-      <c r="F54" s="70">
+      <c r="E54" s="68" t="s">
+        <v>20</v>
+      </c>
+      <c r="F54" s="68">
         <v>3.2972589466332082E-18</v>
       </c>
-      <c r="G54" s="70"/>
-      <c r="H54" s="41"/>
-      <c r="I54" s="41"/>
-      <c r="J54" s="80"/>
-      <c r="K54" s="80"/>
-      <c r="L54" s="80"/>
-      <c r="M54" s="80"/>
+      <c r="G54" s="68"/>
+      <c r="K54" s="71"/>
+      <c r="L54" s="71"/>
+      <c r="M54" s="71"/>
       <c r="N54" s="9">
         <v>0</v>
       </c>
       <c r="O54" s="11">
         <v>100</v>
       </c>
-      <c r="P54" s="80"/>
-      <c r="Q54" s="70" t="s">
-        <v>24</v>
-      </c>
-      <c r="R54" s="70">
+      <c r="P54" s="71"/>
+      <c r="Q54" s="68" t="s">
+        <v>20</v>
+      </c>
+      <c r="R54" s="68">
         <v>6.8421325638617131E-8</v>
       </c>
-      <c r="S54" s="70"/>
-      <c r="T54" s="80"/>
-      <c r="U54" s="80"/>
-      <c r="V54" s="80"/>
-      <c r="W54" s="80"/>
-      <c r="X54" s="80"/>
-      <c r="Y54" s="80"/>
+      <c r="S54" s="68"/>
+      <c r="T54" s="71"/>
+      <c r="U54" s="71"/>
+      <c r="V54" s="71"/>
+      <c r="W54" s="71"/>
+      <c r="X54" s="71"/>
+      <c r="Y54" s="71"/>
       <c r="Z54" s="9">
         <v>25</v>
       </c>
       <c r="AA54" s="11">
         <v>100</v>
       </c>
-      <c r="AB54" s="80"/>
-      <c r="AC54" s="70" t="s">
-        <v>23</v>
-      </c>
-      <c r="AD54" s="70">
+      <c r="AB54" s="71"/>
+      <c r="AC54" s="68" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD54" s="68">
         <v>-5.7833742355329658</v>
       </c>
-      <c r="AE54" s="70"/>
-      <c r="AF54" s="80"/>
-      <c r="AG54" s="80"/>
+      <c r="AE54" s="68"/>
+      <c r="AF54" s="71"/>
+      <c r="AG54" s="71"/>
     </row>
     <row r="55" spans="1:33" x14ac:dyDescent="0.15">
-      <c r="A55" s="80"/>
+      <c r="A55" s="71"/>
       <c r="B55" s="9">
         <v>25</v>
       </c>
@@ -7771,117 +9587,111 @@
         <v>75</v>
       </c>
       <c r="D55" s="41"/>
-      <c r="E55" s="70" t="s">
-        <v>25</v>
-      </c>
-      <c r="F55" s="70">
-        <v>1.6641245785896708</v>
-      </c>
-      <c r="G55" s="70"/>
-      <c r="H55" s="41"/>
-      <c r="I55" s="41"/>
-      <c r="J55" s="80"/>
-      <c r="K55" s="80"/>
-      <c r="L55" s="80"/>
-      <c r="M55" s="80"/>
+      <c r="E55" s="68" t="s">
+        <v>21</v>
+      </c>
+      <c r="F55" s="68">
+        <v>2.3738682729673433</v>
+      </c>
+      <c r="G55" s="68"/>
+      <c r="K55" s="71"/>
+      <c r="L55" s="71"/>
+      <c r="M55" s="71"/>
       <c r="N55" s="9">
         <v>25</v>
       </c>
       <c r="O55" s="11">
         <v>75</v>
       </c>
-      <c r="P55" s="80"/>
-      <c r="Q55" s="70" t="s">
-        <v>25</v>
-      </c>
-      <c r="R55" s="70">
-        <v>1.6629784997019019</v>
-      </c>
-      <c r="S55" s="70"/>
-      <c r="T55" s="80"/>
-      <c r="U55" s="80"/>
-      <c r="V55" s="80"/>
-      <c r="W55" s="80"/>
-      <c r="X55" s="80"/>
-      <c r="Y55" s="80"/>
+      <c r="P55" s="71"/>
+      <c r="Q55" s="68" t="s">
+        <v>21</v>
+      </c>
+      <c r="R55" s="68">
+        <v>2.3710220446668706</v>
+      </c>
+      <c r="S55" s="68"/>
+      <c r="T55" s="71"/>
+      <c r="U55" s="71"/>
+      <c r="V55" s="71"/>
+      <c r="W55" s="71"/>
+      <c r="X55" s="71"/>
+      <c r="Y55" s="71"/>
       <c r="Z55" s="9">
         <v>0</v>
       </c>
       <c r="AA55" s="11">
         <v>75</v>
       </c>
-      <c r="AB55" s="80"/>
-      <c r="AC55" s="70" t="s">
-        <v>24</v>
-      </c>
-      <c r="AD55" s="70">
+      <c r="AB55" s="71"/>
+      <c r="AC55" s="68" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD55" s="68">
         <v>6.0902731028001668E-8</v>
       </c>
-      <c r="AE55" s="70"/>
-      <c r="AF55" s="80"/>
-      <c r="AG55" s="80"/>
+      <c r="AE55" s="68"/>
+      <c r="AF55" s="71"/>
+      <c r="AG55" s="71"/>
     </row>
     <row r="56" spans="1:33" x14ac:dyDescent="0.15">
-      <c r="A56" s="80"/>
-      <c r="B56" s="65">
-        <v>25</v>
-      </c>
-      <c r="C56" s="65">
+      <c r="A56" s="71"/>
+      <c r="B56" s="63">
+        <v>25</v>
+      </c>
+      <c r="C56" s="63">
         <v>75</v>
       </c>
       <c r="D56" s="41"/>
-      <c r="E56" s="70" t="s">
-        <v>26</v>
-      </c>
-      <c r="F56" s="70">
+      <c r="E56" s="68" t="s">
+        <v>22</v>
+      </c>
+      <c r="F56" s="68">
         <v>6.5945178932664165E-18</v>
       </c>
-      <c r="G56" s="70"/>
-      <c r="H56" s="41"/>
-      <c r="I56" s="41"/>
-      <c r="J56" s="80"/>
-      <c r="K56" s="80"/>
-      <c r="L56" s="80"/>
-      <c r="M56" s="80"/>
+      <c r="G56" s="68"/>
+      <c r="K56" s="71"/>
+      <c r="L56" s="71"/>
+      <c r="M56" s="71"/>
       <c r="N56" s="34">
         <v>50</v>
       </c>
       <c r="O56" s="10">
         <v>75</v>
       </c>
-      <c r="P56" s="80"/>
-      <c r="Q56" s="70" t="s">
-        <v>26</v>
-      </c>
-      <c r="R56" s="70">
+      <c r="P56" s="71"/>
+      <c r="Q56" s="68" t="s">
+        <v>22</v>
+      </c>
+      <c r="R56" s="68">
         <v>1.3684265127723426E-7</v>
       </c>
-      <c r="S56" s="70"/>
-      <c r="T56" s="80"/>
-      <c r="U56" s="80"/>
-      <c r="V56" s="80"/>
-      <c r="W56" s="80"/>
-      <c r="X56" s="80"/>
-      <c r="Y56" s="80"/>
+      <c r="S56" s="68"/>
+      <c r="T56" s="71"/>
+      <c r="U56" s="71"/>
+      <c r="V56" s="71"/>
+      <c r="W56" s="71"/>
+      <c r="X56" s="71"/>
+      <c r="Y56" s="71"/>
       <c r="Z56" s="9">
         <v>50</v>
       </c>
       <c r="AA56" s="11">
         <v>75</v>
       </c>
-      <c r="AB56" s="80"/>
-      <c r="AC56" s="70" t="s">
-        <v>25</v>
-      </c>
-      <c r="AD56" s="70">
-        <v>1.6631966790489103</v>
-      </c>
-      <c r="AE56" s="70"/>
-      <c r="AF56" s="80"/>
-      <c r="AG56" s="80"/>
+      <c r="AB56" s="71"/>
+      <c r="AC56" s="68" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD56" s="68">
+        <v>2.3715636858818607</v>
+      </c>
+      <c r="AE56" s="68"/>
+      <c r="AF56" s="71"/>
+      <c r="AG56" s="71"/>
     </row>
     <row r="57" spans="1:33" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="80"/>
+      <c r="A57" s="71"/>
       <c r="B57" s="36">
         <v>25</v>
       </c>
@@ -7889,58 +9699,55 @@
         <v>75</v>
       </c>
       <c r="D57" s="41"/>
-      <c r="E57" s="71" t="s">
-        <v>27</v>
-      </c>
-      <c r="F57" s="71">
-        <v>1.9900634212544475</v>
-      </c>
-      <c r="G57" s="71"/>
-      <c r="H57" s="41"/>
-      <c r="I57" s="41"/>
-      <c r="J57" s="80"/>
-      <c r="K57" s="80"/>
-      <c r="L57" s="80"/>
-      <c r="M57" s="80"/>
+      <c r="E57" s="69" t="s">
+        <v>23</v>
+      </c>
+      <c r="F57" s="69">
+        <v>2.6386905963441825</v>
+      </c>
+      <c r="G57" s="69"/>
+      <c r="K57" s="71"/>
+      <c r="L57" s="71"/>
+      <c r="M57" s="71"/>
       <c r="N57" s="4">
         <v>25</v>
       </c>
       <c r="O57" s="5">
         <v>75</v>
       </c>
-      <c r="P57" s="80"/>
-      <c r="Q57" s="71" t="s">
-        <v>27</v>
-      </c>
-      <c r="R57" s="71">
-        <v>1.9882679074772251</v>
-      </c>
-      <c r="S57" s="71"/>
-      <c r="T57" s="80"/>
-      <c r="U57" s="80"/>
-      <c r="V57" s="80"/>
-      <c r="W57" s="80"/>
-      <c r="X57" s="80"/>
-      <c r="Y57" s="80"/>
+      <c r="P57" s="71"/>
+      <c r="Q57" s="69" t="s">
+        <v>23</v>
+      </c>
+      <c r="R57" s="69">
+        <v>2.6349138522543041</v>
+      </c>
+      <c r="S57" s="69"/>
+      <c r="T57" s="71"/>
+      <c r="U57" s="71"/>
+      <c r="V57" s="71"/>
+      <c r="W57" s="71"/>
+      <c r="X57" s="71"/>
+      <c r="Y57" s="71"/>
       <c r="Z57" s="34">
         <v>50</v>
       </c>
       <c r="AA57" s="10">
         <v>100</v>
       </c>
-      <c r="AB57" s="80"/>
-      <c r="AC57" s="70" t="s">
-        <v>26</v>
-      </c>
-      <c r="AD57" s="70">
+      <c r="AB57" s="71"/>
+      <c r="AC57" s="68" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD57" s="68">
         <v>1.2180546205600334E-7</v>
       </c>
-      <c r="AE57" s="70"/>
-      <c r="AF57" s="80"/>
-      <c r="AG57" s="80"/>
+      <c r="AE57" s="68"/>
+      <c r="AF57" s="71"/>
+      <c r="AG57" s="71"/>
     </row>
     <row r="58" spans="1:33" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="80"/>
+      <c r="A58" s="71"/>
       <c r="B58" s="36">
         <v>25</v>
       </c>
@@ -7948,50 +9755,47 @@
         <v>75</v>
       </c>
       <c r="D58" s="41"/>
-      <c r="E58" s="80"/>
-      <c r="F58" s="80"/>
-      <c r="G58" s="80"/>
-      <c r="H58" s="41"/>
-      <c r="I58" s="41"/>
-      <c r="J58" s="80"/>
-      <c r="K58" s="80"/>
-      <c r="L58" s="80"/>
-      <c r="M58" s="80"/>
+      <c r="E58" s="71"/>
+      <c r="F58" s="71"/>
+      <c r="G58" s="71"/>
+      <c r="K58" s="71"/>
+      <c r="L58" s="71"/>
+      <c r="M58" s="71"/>
       <c r="N58" s="4">
         <v>50</v>
       </c>
       <c r="O58" s="5">
         <v>100</v>
       </c>
-      <c r="P58" s="80"/>
-      <c r="Q58" s="70"/>
-      <c r="R58" s="70"/>
-      <c r="S58" s="70"/>
-      <c r="T58" s="80"/>
-      <c r="U58" s="80"/>
-      <c r="V58" s="80"/>
-      <c r="W58" s="80"/>
-      <c r="X58" s="80"/>
-      <c r="Y58" s="80"/>
+      <c r="P58" s="71"/>
+      <c r="Q58" s="68"/>
+      <c r="R58" s="68"/>
+      <c r="S58" s="68"/>
+      <c r="T58" s="71"/>
+      <c r="U58" s="71"/>
+      <c r="V58" s="71"/>
+      <c r="W58" s="71"/>
+      <c r="X58" s="71"/>
+      <c r="Y58" s="71"/>
       <c r="Z58" s="4">
         <v>25</v>
       </c>
       <c r="AA58" s="5">
         <v>75</v>
       </c>
-      <c r="AB58" s="80"/>
-      <c r="AC58" s="71" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD58" s="71">
-        <v>1.9886096669757098</v>
-      </c>
-      <c r="AE58" s="71"/>
-      <c r="AF58" s="80"/>
-      <c r="AG58" s="80"/>
+      <c r="AB58" s="71"/>
+      <c r="AC58" s="69" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD58" s="69">
+        <v>2.6356324580479598</v>
+      </c>
+      <c r="AE58" s="69"/>
+      <c r="AF58" s="71"/>
+      <c r="AG58" s="71"/>
     </row>
     <row r="59" spans="1:33" x14ac:dyDescent="0.15">
-      <c r="A59" s="80"/>
+      <c r="A59" s="71"/>
       <c r="B59" s="36">
         <v>25</v>
       </c>
@@ -8002,40 +9806,37 @@
       <c r="E59" s="41"/>
       <c r="F59" s="41"/>
       <c r="G59" s="41"/>
-      <c r="H59" s="41"/>
-      <c r="I59" s="41"/>
-      <c r="J59" s="80"/>
-      <c r="K59" s="80"/>
-      <c r="L59" s="80"/>
-      <c r="M59" s="80"/>
+      <c r="K59" s="71"/>
+      <c r="L59" s="71"/>
+      <c r="M59" s="71"/>
       <c r="N59" s="4">
         <v>25</v>
       </c>
       <c r="O59" s="5">
         <v>75</v>
       </c>
-      <c r="P59" s="80"/>
-      <c r="Q59" s="80"/>
-      <c r="R59" s="80"/>
-      <c r="S59" s="80"/>
-      <c r="T59" s="80"/>
-      <c r="U59" s="80"/>
-      <c r="V59" s="80"/>
-      <c r="W59" s="80"/>
-      <c r="X59" s="80"/>
-      <c r="Y59" s="80"/>
+      <c r="P59" s="71"/>
+      <c r="Q59" s="71"/>
+      <c r="R59" s="71"/>
+      <c r="S59" s="71"/>
+      <c r="T59" s="71"/>
+      <c r="U59" s="71"/>
+      <c r="V59" s="71"/>
+      <c r="W59" s="71"/>
+      <c r="X59" s="71"/>
+      <c r="Y59" s="71"/>
       <c r="Z59" s="4">
         <v>50</v>
       </c>
       <c r="AA59" s="5">
         <v>100</v>
       </c>
-      <c r="AB59" s="80"/>
-      <c r="AC59" s="80"/>
-      <c r="AD59" s="80"/>
-      <c r="AE59" s="80"/>
-      <c r="AF59" s="80"/>
-      <c r="AG59" s="80"/>
+      <c r="AB59" s="71"/>
+      <c r="AC59" s="71"/>
+      <c r="AD59" s="71"/>
+      <c r="AE59" s="71"/>
+      <c r="AF59" s="71"/>
+      <c r="AG59" s="71"/>
     </row>
     <row r="60" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A60" s="41"/>
@@ -8051,38 +9852,38 @@
       <c r="G60" s="41"/>
       <c r="H60" s="41"/>
       <c r="I60" s="41"/>
-      <c r="J60" s="80"/>
-      <c r="K60" s="80"/>
-      <c r="L60" s="80"/>
-      <c r="M60" s="80"/>
+      <c r="J60" s="71"/>
+      <c r="K60" s="71"/>
+      <c r="L60" s="71"/>
+      <c r="M60" s="71"/>
       <c r="N60" s="4">
         <v>75</v>
       </c>
       <c r="O60" s="5">
         <v>75</v>
       </c>
-      <c r="P60" s="80"/>
-      <c r="Q60" s="80"/>
-      <c r="R60" s="80"/>
-      <c r="S60" s="80"/>
-      <c r="T60" s="80"/>
-      <c r="U60" s="80"/>
-      <c r="V60" s="80"/>
-      <c r="W60" s="80"/>
-      <c r="X60" s="80"/>
-      <c r="Y60" s="80"/>
+      <c r="P60" s="71"/>
+      <c r="Q60" s="71"/>
+      <c r="R60" s="71"/>
+      <c r="S60" s="71"/>
+      <c r="T60" s="71"/>
+      <c r="U60" s="71"/>
+      <c r="V60" s="71"/>
+      <c r="W60" s="71"/>
+      <c r="X60" s="71"/>
+      <c r="Y60" s="71"/>
       <c r="Z60" s="4">
         <v>50</v>
       </c>
       <c r="AA60" s="5">
         <v>75</v>
       </c>
-      <c r="AB60" s="80"/>
-      <c r="AC60" s="80"/>
-      <c r="AD60" s="80"/>
-      <c r="AE60" s="80"/>
-      <c r="AF60" s="80"/>
-      <c r="AG60" s="80"/>
+      <c r="AB60" s="71"/>
+      <c r="AC60" s="71"/>
+      <c r="AD60" s="71"/>
+      <c r="AE60" s="71"/>
+      <c r="AF60" s="71"/>
+      <c r="AG60" s="71"/>
     </row>
     <row r="61" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A61" s="41"/>
@@ -8098,38 +9899,38 @@
       <c r="G61" s="41"/>
       <c r="H61" s="41"/>
       <c r="I61" s="41"/>
-      <c r="J61" s="80"/>
-      <c r="K61" s="80"/>
-      <c r="L61" s="80"/>
-      <c r="M61" s="80"/>
+      <c r="J61" s="71"/>
+      <c r="K61" s="71"/>
+      <c r="L61" s="71"/>
+      <c r="M61" s="71"/>
       <c r="N61" s="4">
         <v>0</v>
       </c>
       <c r="O61" s="5">
         <v>100</v>
       </c>
-      <c r="P61" s="80"/>
-      <c r="Q61" s="80"/>
-      <c r="R61" s="80"/>
-      <c r="S61" s="80"/>
-      <c r="T61" s="80"/>
-      <c r="U61" s="80"/>
-      <c r="V61" s="80"/>
-      <c r="W61" s="80"/>
-      <c r="X61" s="80"/>
-      <c r="Y61" s="80"/>
+      <c r="P61" s="71"/>
+      <c r="Q61" s="71"/>
+      <c r="R61" s="71"/>
+      <c r="S61" s="71"/>
+      <c r="T61" s="71"/>
+      <c r="U61" s="71"/>
+      <c r="V61" s="71"/>
+      <c r="W61" s="71"/>
+      <c r="X61" s="71"/>
+      <c r="Y61" s="71"/>
       <c r="Z61" s="4">
         <v>75</v>
       </c>
       <c r="AA61" s="5">
         <v>75</v>
       </c>
-      <c r="AB61" s="80"/>
-      <c r="AC61" s="80"/>
-      <c r="AD61" s="80"/>
-      <c r="AE61" s="80"/>
-      <c r="AF61" s="80"/>
-      <c r="AG61" s="80"/>
+      <c r="AB61" s="71"/>
+      <c r="AC61" s="71"/>
+      <c r="AD61" s="71"/>
+      <c r="AE61" s="71"/>
+      <c r="AF61" s="71"/>
+      <c r="AG61" s="71"/>
     </row>
     <row r="62" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A62" s="41"/>
@@ -8145,38 +9946,38 @@
       <c r="G62" s="41"/>
       <c r="H62" s="41"/>
       <c r="I62" s="41"/>
-      <c r="J62" s="80"/>
-      <c r="K62" s="80"/>
-      <c r="L62" s="80"/>
-      <c r="M62" s="80"/>
+      <c r="J62" s="71"/>
+      <c r="K62" s="71"/>
+      <c r="L62" s="71"/>
+      <c r="M62" s="71"/>
       <c r="N62" s="4">
         <v>25</v>
       </c>
       <c r="O62" s="5">
         <v>75</v>
       </c>
-      <c r="P62" s="80"/>
-      <c r="Q62" s="80"/>
-      <c r="R62" s="80"/>
-      <c r="S62" s="80"/>
-      <c r="T62" s="80"/>
-      <c r="U62" s="80"/>
-      <c r="V62" s="80"/>
-      <c r="W62" s="80"/>
-      <c r="X62" s="80"/>
-      <c r="Y62" s="80"/>
+      <c r="P62" s="71"/>
+      <c r="Q62" s="71"/>
+      <c r="R62" s="71"/>
+      <c r="S62" s="71"/>
+      <c r="T62" s="71"/>
+      <c r="U62" s="71"/>
+      <c r="V62" s="71"/>
+      <c r="W62" s="71"/>
+      <c r="X62" s="71"/>
+      <c r="Y62" s="71"/>
       <c r="Z62" s="4">
         <v>25</v>
       </c>
       <c r="AA62" s="5">
         <v>75</v>
       </c>
-      <c r="AB62" s="80"/>
-      <c r="AC62" s="80"/>
-      <c r="AD62" s="80"/>
-      <c r="AE62" s="80"/>
-      <c r="AF62" s="80"/>
-      <c r="AG62" s="80"/>
+      <c r="AB62" s="71"/>
+      <c r="AC62" s="71"/>
+      <c r="AD62" s="71"/>
+      <c r="AE62" s="71"/>
+      <c r="AF62" s="71"/>
+      <c r="AG62" s="71"/>
     </row>
     <row r="63" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A63" s="41"/>
@@ -8192,38 +9993,38 @@
       <c r="G63" s="41"/>
       <c r="H63" s="41"/>
       <c r="I63" s="41"/>
-      <c r="J63" s="80"/>
-      <c r="K63" s="80"/>
-      <c r="L63" s="80"/>
-      <c r="M63" s="80"/>
+      <c r="J63" s="71"/>
+      <c r="K63" s="71"/>
+      <c r="L63" s="71"/>
+      <c r="M63" s="71"/>
       <c r="N63" s="4">
         <v>50</v>
       </c>
       <c r="O63" s="5">
         <v>50</v>
       </c>
-      <c r="P63" s="80"/>
-      <c r="Q63" s="80"/>
-      <c r="R63" s="80"/>
-      <c r="S63" s="80"/>
-      <c r="T63" s="80"/>
-      <c r="U63" s="80"/>
-      <c r="V63" s="80"/>
-      <c r="W63" s="80"/>
-      <c r="X63" s="80"/>
-      <c r="Y63" s="80"/>
+      <c r="P63" s="71"/>
+      <c r="Q63" s="71"/>
+      <c r="R63" s="71"/>
+      <c r="S63" s="71"/>
+      <c r="T63" s="71"/>
+      <c r="U63" s="71"/>
+      <c r="V63" s="71"/>
+      <c r="W63" s="71"/>
+      <c r="X63" s="71"/>
+      <c r="Y63" s="71"/>
       <c r="Z63" s="4">
         <v>25</v>
       </c>
       <c r="AA63" s="5">
         <v>75</v>
       </c>
-      <c r="AB63" s="80"/>
-      <c r="AC63" s="80"/>
-      <c r="AD63" s="80"/>
-      <c r="AE63" s="80"/>
-      <c r="AF63" s="80"/>
-      <c r="AG63" s="80"/>
+      <c r="AB63" s="71"/>
+      <c r="AC63" s="71"/>
+      <c r="AD63" s="71"/>
+      <c r="AE63" s="71"/>
+      <c r="AF63" s="71"/>
+      <c r="AG63" s="71"/>
     </row>
     <row r="64" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A64" s="41"/>
@@ -8239,38 +10040,38 @@
       <c r="G64" s="41"/>
       <c r="H64" s="41"/>
       <c r="I64" s="41"/>
-      <c r="J64" s="80"/>
-      <c r="K64" s="80"/>
-      <c r="L64" s="80"/>
-      <c r="M64" s="80"/>
+      <c r="J64" s="71"/>
+      <c r="K64" s="71"/>
+      <c r="L64" s="71"/>
+      <c r="M64" s="71"/>
       <c r="N64" s="4">
         <v>25</v>
       </c>
       <c r="O64" s="5">
         <v>50</v>
       </c>
-      <c r="P64" s="80"/>
-      <c r="Q64" s="80"/>
-      <c r="R64" s="80"/>
-      <c r="S64" s="80"/>
-      <c r="T64" s="80"/>
-      <c r="U64" s="80"/>
-      <c r="V64" s="80"/>
-      <c r="W64" s="80"/>
-      <c r="X64" s="80"/>
-      <c r="Y64" s="80"/>
+      <c r="P64" s="71"/>
+      <c r="Q64" s="71"/>
+      <c r="R64" s="71"/>
+      <c r="S64" s="71"/>
+      <c r="T64" s="71"/>
+      <c r="U64" s="71"/>
+      <c r="V64" s="71"/>
+      <c r="W64" s="71"/>
+      <c r="X64" s="71"/>
+      <c r="Y64" s="71"/>
       <c r="Z64" s="4">
         <v>50</v>
       </c>
       <c r="AA64" s="5">
         <v>50</v>
       </c>
-      <c r="AB64" s="80"/>
-      <c r="AC64" s="80"/>
-      <c r="AD64" s="80"/>
-      <c r="AE64" s="80"/>
-      <c r="AF64" s="80"/>
-      <c r="AG64" s="80"/>
+      <c r="AB64" s="71"/>
+      <c r="AC64" s="71"/>
+      <c r="AD64" s="71"/>
+      <c r="AE64" s="71"/>
+      <c r="AF64" s="71"/>
+      <c r="AG64" s="71"/>
     </row>
     <row r="65" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A65" s="41"/>
@@ -8286,38 +10087,38 @@
       <c r="G65" s="41"/>
       <c r="H65" s="41"/>
       <c r="I65" s="41"/>
-      <c r="J65" s="80"/>
-      <c r="K65" s="80"/>
-      <c r="L65" s="80"/>
-      <c r="M65" s="80"/>
+      <c r="J65" s="71"/>
+      <c r="K65" s="71"/>
+      <c r="L65" s="71"/>
+      <c r="M65" s="71"/>
       <c r="N65" s="4">
         <v>0</v>
       </c>
       <c r="O65" s="5">
         <v>50</v>
       </c>
-      <c r="P65" s="80"/>
-      <c r="Q65" s="80"/>
-      <c r="R65" s="80"/>
-      <c r="S65" s="80"/>
-      <c r="T65" s="80"/>
-      <c r="U65" s="80"/>
-      <c r="V65" s="80"/>
-      <c r="W65" s="80"/>
-      <c r="X65" s="80"/>
-      <c r="Y65" s="80"/>
+      <c r="P65" s="71"/>
+      <c r="Q65" s="71"/>
+      <c r="R65" s="71"/>
+      <c r="S65" s="71"/>
+      <c r="T65" s="71"/>
+      <c r="U65" s="71"/>
+      <c r="V65" s="71"/>
+      <c r="W65" s="71"/>
+      <c r="X65" s="71"/>
+      <c r="Y65" s="71"/>
       <c r="Z65" s="4">
         <v>0</v>
       </c>
       <c r="AA65" s="5">
         <v>75</v>
       </c>
-      <c r="AB65" s="80"/>
-      <c r="AC65" s="80"/>
-      <c r="AD65" s="80"/>
-      <c r="AE65" s="80"/>
-      <c r="AF65" s="80"/>
-      <c r="AG65" s="80"/>
+      <c r="AB65" s="71"/>
+      <c r="AC65" s="71"/>
+      <c r="AD65" s="71"/>
+      <c r="AE65" s="71"/>
+      <c r="AF65" s="71"/>
+      <c r="AG65" s="71"/>
     </row>
     <row r="66" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A66" s="41"/>
@@ -8333,45 +10134,45 @@
       <c r="G66" s="41"/>
       <c r="H66" s="41"/>
       <c r="I66" s="41"/>
-      <c r="J66" s="80"/>
-      <c r="K66" s="80"/>
-      <c r="L66" s="80"/>
-      <c r="M66" s="80"/>
+      <c r="J66" s="71"/>
+      <c r="K66" s="71"/>
+      <c r="L66" s="71"/>
+      <c r="M66" s="71"/>
       <c r="N66" s="4">
         <v>25</v>
       </c>
       <c r="O66" s="5">
         <v>50</v>
       </c>
-      <c r="P66" s="80"/>
-      <c r="Q66" s="80"/>
-      <c r="R66" s="80"/>
-      <c r="S66" s="80"/>
-      <c r="T66" s="80"/>
-      <c r="U66" s="80"/>
-      <c r="V66" s="80"/>
-      <c r="W66" s="80"/>
-      <c r="X66" s="80"/>
-      <c r="Y66" s="80"/>
+      <c r="P66" s="71"/>
+      <c r="Q66" s="71"/>
+      <c r="R66" s="71"/>
+      <c r="S66" s="71"/>
+      <c r="T66" s="71"/>
+      <c r="U66" s="71"/>
+      <c r="V66" s="71"/>
+      <c r="W66" s="71"/>
+      <c r="X66" s="71"/>
+      <c r="Y66" s="71"/>
       <c r="Z66" s="4">
         <v>25</v>
       </c>
       <c r="AA66" s="5">
         <v>75</v>
       </c>
-      <c r="AB66" s="80"/>
-      <c r="AC66" s="80"/>
-      <c r="AD66" s="80"/>
-      <c r="AE66" s="80"/>
-      <c r="AF66" s="80"/>
-      <c r="AG66" s="80"/>
+      <c r="AB66" s="71"/>
+      <c r="AC66" s="71"/>
+      <c r="AD66" s="71"/>
+      <c r="AE66" s="71"/>
+      <c r="AF66" s="71"/>
+      <c r="AG66" s="71"/>
     </row>
     <row r="67" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A67" s="41"/>
-      <c r="B67" s="65">
-        <v>75</v>
-      </c>
-      <c r="C67" s="65">
+      <c r="B67" s="63">
+        <v>75</v>
+      </c>
+      <c r="C67" s="63">
         <v>100</v>
       </c>
       <c r="D67" s="41"/>
@@ -8380,38 +10181,38 @@
       <c r="G67" s="41"/>
       <c r="H67" s="41"/>
       <c r="I67" s="41"/>
-      <c r="J67" s="80"/>
-      <c r="K67" s="80"/>
-      <c r="L67" s="80"/>
-      <c r="M67" s="80"/>
+      <c r="J67" s="71"/>
+      <c r="K67" s="71"/>
+      <c r="L67" s="71"/>
+      <c r="M67" s="71"/>
       <c r="N67" s="34">
         <v>75</v>
       </c>
       <c r="O67" s="10">
         <v>75</v>
       </c>
-      <c r="P67" s="80"/>
-      <c r="Q67" s="80"/>
-      <c r="R67" s="80"/>
-      <c r="S67" s="80"/>
-      <c r="T67" s="80"/>
-      <c r="U67" s="80"/>
-      <c r="V67" s="80"/>
-      <c r="W67" s="80"/>
-      <c r="X67" s="80"/>
-      <c r="Y67" s="80"/>
+      <c r="P67" s="71"/>
+      <c r="Q67" s="71"/>
+      <c r="R67" s="71"/>
+      <c r="S67" s="71"/>
+      <c r="T67" s="71"/>
+      <c r="U67" s="71"/>
+      <c r="V67" s="71"/>
+      <c r="W67" s="71"/>
+      <c r="X67" s="71"/>
+      <c r="Y67" s="71"/>
       <c r="Z67" s="4">
         <v>25</v>
       </c>
       <c r="AA67" s="5">
         <v>50</v>
       </c>
-      <c r="AB67" s="80"/>
-      <c r="AC67" s="80"/>
-      <c r="AD67" s="80"/>
-      <c r="AE67" s="80"/>
-      <c r="AF67" s="80"/>
-      <c r="AG67" s="80"/>
+      <c r="AB67" s="71"/>
+      <c r="AC67" s="71"/>
+      <c r="AD67" s="71"/>
+      <c r="AE67" s="71"/>
+      <c r="AF67" s="71"/>
+      <c r="AG67" s="71"/>
     </row>
     <row r="68" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A68" s="41"/>
@@ -8427,38 +10228,38 @@
       <c r="G68" s="41"/>
       <c r="H68" s="41"/>
       <c r="I68" s="41"/>
-      <c r="J68" s="80"/>
-      <c r="K68" s="80"/>
-      <c r="L68" s="80"/>
-      <c r="M68" s="80"/>
+      <c r="J68" s="71"/>
+      <c r="K68" s="71"/>
+      <c r="L68" s="71"/>
+      <c r="M68" s="71"/>
       <c r="N68" s="4">
         <v>75</v>
       </c>
       <c r="O68" s="5">
         <v>50</v>
       </c>
-      <c r="P68" s="80"/>
-      <c r="Q68" s="80"/>
-      <c r="R68" s="80"/>
-      <c r="S68" s="80"/>
-      <c r="T68" s="80"/>
-      <c r="U68" s="80"/>
-      <c r="V68" s="80"/>
-      <c r="W68" s="80"/>
-      <c r="X68" s="80"/>
-      <c r="Y68" s="80"/>
+      <c r="P68" s="71"/>
+      <c r="Q68" s="71"/>
+      <c r="R68" s="71"/>
+      <c r="S68" s="71"/>
+      <c r="T68" s="71"/>
+      <c r="U68" s="71"/>
+      <c r="V68" s="71"/>
+      <c r="W68" s="71"/>
+      <c r="X68" s="71"/>
+      <c r="Y68" s="71"/>
       <c r="Z68" s="34">
         <v>75</v>
       </c>
       <c r="AA68" s="10">
         <v>75</v>
       </c>
-      <c r="AB68" s="80"/>
-      <c r="AC68" s="80"/>
-      <c r="AD68" s="80"/>
-      <c r="AE68" s="80"/>
-      <c r="AF68" s="80"/>
-      <c r="AG68" s="80"/>
+      <c r="AB68" s="71"/>
+      <c r="AC68" s="71"/>
+      <c r="AD68" s="71"/>
+      <c r="AE68" s="71"/>
+      <c r="AF68" s="71"/>
+      <c r="AG68" s="71"/>
     </row>
     <row r="69" spans="1:33" x14ac:dyDescent="0.15">
       <c r="B69" s="36">
@@ -8641,10 +10442,10 @@
       </c>
     </row>
     <row r="78" spans="1:33" x14ac:dyDescent="0.15">
-      <c r="B78" s="65">
-        <v>25</v>
-      </c>
-      <c r="C78" s="65">
+      <c r="B78" s="63">
+        <v>25</v>
+      </c>
+      <c r="C78" s="63">
         <v>75</v>
       </c>
       <c r="N78" s="32">
@@ -8870,6 +10671,11 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="B1:I1"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="T2:U2"/>
     <mergeCell ref="AH2:AI2"/>
@@ -8881,11 +10687,6 @@
     <mergeCell ref="V2:W2"/>
     <mergeCell ref="Z2:AA2"/>
     <mergeCell ref="AB2:AC2"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="B1:I1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8896,49 +10697,49 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G20"/>
+  <dimension ref="A2:L30"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="2" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="82" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82" t="s">
+    <row r="2" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="80" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="80"/>
+      <c r="C2" s="80" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="80"/>
+    </row>
+    <row r="3" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="82"/>
+      <c r="B3" s="59" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="58" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="59" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="58" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="59" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="66" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="61" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="61" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="61" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" s="43">
         <v>27.840909090909093</v>
       </c>
@@ -8958,7 +10759,7 @@
         <v>69.88636363636364</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="49">
         <v>22.371018608300755</v>
       </c>
@@ -8978,7 +10779,7 @@
         <v>21.281300787628815</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6" s="39"/>
       <c r="B6" s="48"/>
       <c r="C6" s="39"/>
@@ -8986,130 +10787,305 @@
       <c r="E6" s="39"/>
       <c r="F6" s="48"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="62"/>
-      <c r="B7" s="63"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="63"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="63"/>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A7" s="60"/>
+      <c r="B7" s="61"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="61"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="80"/>
-      <c r="B8" s="80"/>
-      <c r="C8" s="80"/>
-      <c r="D8" s="80"/>
-      <c r="E8" s="80"/>
-      <c r="F8" s="80"/>
-      <c r="G8" s="80"/>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A8" s="71"/>
+      <c r="B8" s="71"/>
+      <c r="C8" s="71"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="72"/>
+      <c r="H8" s="72"/>
+      <c r="I8" s="72"/>
+      <c r="J8" s="72"/>
+      <c r="K8" s="72"/>
+      <c r="L8" s="72"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" s="80"/>
-      <c r="B9" s="80"/>
-      <c r="C9" s="80"/>
-      <c r="D9" s="80"/>
-      <c r="E9" s="80"/>
-      <c r="F9" s="80"/>
-      <c r="G9" s="80"/>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A9" s="71"/>
+      <c r="B9" s="71"/>
+      <c r="C9" s="71"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="72"/>
+      <c r="H9" s="72"/>
+      <c r="I9" s="72"/>
+      <c r="J9" s="72"/>
+      <c r="K9" s="72"/>
+      <c r="L9" s="72"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="80"/>
-      <c r="B10" s="80"/>
-      <c r="C10" s="80"/>
-      <c r="D10" s="80"/>
-      <c r="E10" s="80"/>
-      <c r="F10" s="80"/>
-      <c r="G10" s="80"/>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A10" s="71"/>
+      <c r="B10" s="71"/>
+      <c r="C10" s="71"/>
+      <c r="D10" s="72"/>
+      <c r="E10" s="72"/>
+      <c r="F10" s="72"/>
+      <c r="G10" s="72"/>
+      <c r="H10" s="72"/>
+      <c r="I10" s="72"/>
+      <c r="J10" s="72"/>
+      <c r="K10" s="72"/>
+      <c r="L10" s="72"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A11" s="80"/>
-      <c r="B11" s="80"/>
-      <c r="C11" s="80"/>
-      <c r="D11" s="80"/>
-      <c r="E11" s="80"/>
-      <c r="F11" s="80"/>
-      <c r="G11" s="80"/>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A11" s="71"/>
+      <c r="B11" s="71"/>
+      <c r="C11" s="71"/>
+      <c r="D11" s="72"/>
+      <c r="E11" s="72"/>
+      <c r="F11" s="72"/>
+      <c r="G11" s="72"/>
+      <c r="H11" s="72"/>
+      <c r="I11" s="72"/>
+      <c r="J11" s="72"/>
+      <c r="K11" s="72"/>
+      <c r="L11" s="72"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12" s="80"/>
-      <c r="B12" s="80"/>
-      <c r="C12" s="80"/>
-      <c r="D12" s="80"/>
-      <c r="E12" s="80"/>
-      <c r="F12" s="80"/>
-      <c r="G12" s="80"/>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A12" s="71"/>
+      <c r="B12" s="71"/>
+      <c r="C12" s="71"/>
+      <c r="D12" s="72"/>
+      <c r="E12" s="72"/>
+      <c r="F12" s="72"/>
+      <c r="G12" s="72"/>
+      <c r="H12" s="72"/>
+      <c r="I12" s="72"/>
+      <c r="J12" s="72"/>
+      <c r="K12" s="72"/>
+      <c r="L12" s="72"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="80"/>
-      <c r="B13" s="80"/>
-      <c r="C13" s="80"/>
-      <c r="D13" s="80"/>
-      <c r="E13" s="80"/>
-      <c r="F13" s="80"/>
-      <c r="G13" s="80"/>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A13" s="71"/>
+      <c r="B13" s="71"/>
+      <c r="C13" s="71"/>
+      <c r="D13" s="72"/>
+      <c r="E13" s="72"/>
+      <c r="F13" s="72"/>
+      <c r="G13" s="72"/>
+      <c r="H13" s="72"/>
+      <c r="I13" s="72"/>
+      <c r="J13" s="72"/>
+      <c r="K13" s="72"/>
+      <c r="L13" s="72"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A14" s="80"/>
-      <c r="B14" s="80"/>
-      <c r="C14" s="80"/>
-      <c r="D14" s="80"/>
-      <c r="E14" s="80"/>
-      <c r="F14" s="80"/>
-      <c r="G14" s="80"/>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A14" s="71"/>
+      <c r="B14" s="71"/>
+      <c r="C14" s="71"/>
+      <c r="D14" s="72"/>
+      <c r="E14" s="72"/>
+      <c r="F14" s="72"/>
+      <c r="G14" s="72"/>
+      <c r="H14" s="72"/>
+      <c r="I14" s="72"/>
+      <c r="J14" s="72"/>
+      <c r="K14" s="72"/>
+      <c r="L14" s="72"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A15" s="80"/>
-      <c r="B15" s="80"/>
-      <c r="C15" s="80"/>
-      <c r="D15" s="80"/>
-      <c r="E15" s="80"/>
-      <c r="F15" s="80"/>
-      <c r="G15" s="80"/>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A15" s="71"/>
+      <c r="B15" s="71"/>
+      <c r="C15" s="71"/>
+      <c r="D15" s="72"/>
+      <c r="E15" s="72"/>
+      <c r="F15" s="72"/>
+      <c r="G15" s="72"/>
+      <c r="H15" s="72"/>
+      <c r="I15" s="72"/>
+      <c r="J15" s="72"/>
+      <c r="K15" s="72"/>
+      <c r="L15" s="72"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A16" s="80"/>
-      <c r="B16" s="80"/>
-      <c r="C16" s="80"/>
-      <c r="D16" s="80"/>
-      <c r="E16" s="80"/>
-      <c r="F16" s="80"/>
-      <c r="G16" s="80"/>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A16" s="71"/>
+      <c r="B16" s="71"/>
+      <c r="C16" s="71"/>
+      <c r="D16" s="72"/>
+      <c r="E16" s="72"/>
+      <c r="F16" s="72"/>
+      <c r="G16" s="72"/>
+      <c r="H16" s="72"/>
+      <c r="I16" s="72"/>
+      <c r="J16" s="72"/>
+      <c r="K16" s="72"/>
+      <c r="L16" s="72"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="80"/>
-      <c r="B17" s="80"/>
-      <c r="C17" s="80"/>
-      <c r="D17" s="80"/>
-      <c r="E17" s="80"/>
-      <c r="F17" s="80"/>
-      <c r="G17" s="80"/>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A17" s="71"/>
+      <c r="B17" s="71"/>
+      <c r="C17" s="71"/>
+      <c r="D17" s="72"/>
+      <c r="E17" s="72"/>
+      <c r="F17" s="72"/>
+      <c r="G17" s="72"/>
+      <c r="H17" s="72"/>
+      <c r="I17" s="72"/>
+      <c r="J17" s="72"/>
+      <c r="K17" s="72"/>
+      <c r="L17" s="72"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="80"/>
-      <c r="B18" s="80"/>
-      <c r="C18" s="80"/>
-      <c r="D18" s="80"/>
-      <c r="E18" s="80"/>
-      <c r="F18" s="80"/>
-      <c r="G18" s="80"/>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A18" s="71"/>
+      <c r="B18" s="71"/>
+      <c r="C18" s="71"/>
+      <c r="D18" s="72"/>
+      <c r="E18" s="72"/>
+      <c r="F18" s="72"/>
+      <c r="G18" s="72"/>
+      <c r="H18" s="72"/>
+      <c r="I18" s="72"/>
+      <c r="J18" s="72"/>
+      <c r="K18" s="72"/>
+      <c r="L18" s="72"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A19" s="80"/>
-      <c r="B19" s="80"/>
-      <c r="C19" s="80"/>
-      <c r="D19" s="80"/>
-      <c r="E19" s="80"/>
-      <c r="F19" s="80"/>
-      <c r="G19" s="80"/>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A19" s="71"/>
+      <c r="B19" s="71"/>
+      <c r="C19" s="71"/>
+      <c r="D19" s="72"/>
+      <c r="E19" s="72"/>
+      <c r="F19" s="72"/>
+      <c r="G19" s="72"/>
+      <c r="H19" s="72"/>
+      <c r="I19" s="72"/>
+      <c r="J19" s="72"/>
+      <c r="K19" s="72"/>
+      <c r="L19" s="72"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A20" s="80"/>
-      <c r="B20" s="80"/>
-      <c r="C20" s="80"/>
-      <c r="D20" s="80"/>
-      <c r="E20" s="80"/>
-      <c r="F20" s="80"/>
-      <c r="G20" s="80"/>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A20" s="71"/>
+      <c r="B20" s="71"/>
+      <c r="C20" s="71"/>
+      <c r="D20" s="72"/>
+      <c r="E20" s="72"/>
+      <c r="F20" s="72"/>
+      <c r="G20" s="72"/>
+      <c r="H20" s="72"/>
+      <c r="I20" s="72"/>
+      <c r="J20" s="72"/>
+      <c r="K20" s="72"/>
+      <c r="L20" s="72"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="D21" s="72"/>
+      <c r="E21" s="72"/>
+      <c r="F21" s="72"/>
+      <c r="G21" s="72"/>
+      <c r="H21" s="72"/>
+      <c r="I21" s="72"/>
+      <c r="J21" s="72"/>
+      <c r="K21" s="72"/>
+      <c r="L21" s="72"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="D22" s="72"/>
+      <c r="E22" s="72"/>
+      <c r="F22" s="72"/>
+      <c r="G22" s="72"/>
+      <c r="H22" s="72"/>
+      <c r="I22" s="72"/>
+      <c r="J22" s="72"/>
+      <c r="K22" s="72"/>
+      <c r="L22" s="72"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="D23" s="72"/>
+      <c r="E23" s="72"/>
+      <c r="F23" s="72"/>
+      <c r="G23" s="72"/>
+      <c r="H23" s="72"/>
+      <c r="I23" s="72"/>
+      <c r="J23" s="72"/>
+      <c r="K23" s="72"/>
+      <c r="L23" s="72"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="D24" s="72"/>
+      <c r="E24" s="72"/>
+      <c r="F24" s="72"/>
+      <c r="G24" s="72"/>
+      <c r="H24" s="72"/>
+      <c r="I24" s="72"/>
+      <c r="J24" s="72"/>
+      <c r="K24" s="72"/>
+      <c r="L24" s="72"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="D25" s="72"/>
+      <c r="E25" s="72"/>
+      <c r="F25" s="72"/>
+      <c r="G25" s="72"/>
+      <c r="H25" s="72"/>
+      <c r="I25" s="72"/>
+      <c r="J25" s="72"/>
+      <c r="K25" s="72"/>
+      <c r="L25" s="72"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="D26" s="72"/>
+      <c r="E26" s="72"/>
+      <c r="F26" s="72"/>
+      <c r="G26" s="72"/>
+      <c r="H26" s="72"/>
+      <c r="I26" s="72"/>
+      <c r="J26" s="72"/>
+      <c r="K26" s="72"/>
+      <c r="L26" s="72"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="D27" s="72"/>
+      <c r="E27" s="72"/>
+      <c r="F27" s="72"/>
+      <c r="G27" s="72"/>
+      <c r="H27" s="72"/>
+      <c r="I27" s="72"/>
+      <c r="J27" s="72"/>
+      <c r="K27" s="72"/>
+      <c r="L27" s="72"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="D28" s="72"/>
+      <c r="E28" s="72"/>
+      <c r="F28" s="72"/>
+      <c r="G28" s="72"/>
+      <c r="H28" s="72"/>
+      <c r="I28" s="72"/>
+      <c r="J28" s="72"/>
+      <c r="K28" s="72"/>
+      <c r="L28" s="72"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="D29" s="72"/>
+      <c r="E29" s="72"/>
+      <c r="F29" s="72"/>
+      <c r="G29" s="72"/>
+      <c r="H29" s="72"/>
+      <c r="I29" s="72"/>
+      <c r="J29" s="72"/>
+      <c r="K29" s="72"/>
+      <c r="L29" s="72"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="D30" s="72"/>
+      <c r="E30" s="72"/>
+      <c r="F30" s="72"/>
+      <c r="G30" s="72"/>
+      <c r="H30" s="72"/>
+      <c r="I30" s="72"/>
+      <c r="J30" s="72"/>
+      <c r="K30" s="72"/>
+      <c r="L30" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="3">
